--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -136,10 +136,10 @@
     <t>Nong Bua Pitchaya</t>
   </si>
   <si>
-    <t>Lamphun Warrior FC</t>
+    <t>Khonkaen United</t>
   </si>
   <si>
-    <t>Khonkaen United</t>
+    <t>Lamphun Warrior FC</t>
   </si>
   <si>
     <t>Buriram United</t>
@@ -907,7 +907,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5967270</v>
+        <v>5967269</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,37 +1708,37 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
+        <v>2.1</v>
+      </c>
+      <c r="L14">
+        <v>3.2</v>
+      </c>
+      <c r="M14">
+        <v>3.1</v>
+      </c>
+      <c r="N14">
+        <v>2.1</v>
+      </c>
+      <c r="O14">
         <v>3</v>
       </c>
-      <c r="L14">
-        <v>3.1</v>
-      </c>
-      <c r="M14">
-        <v>2.25</v>
-      </c>
-      <c r="N14">
-        <v>2.55</v>
-      </c>
-      <c r="O14">
-        <v>2.9</v>
-      </c>
       <c r="P14">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
         <v>1.85</v>
@@ -1750,31 +1750,31 @@
         <v>2.25</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X14">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC14">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5967269</v>
+        <v>5967270</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,37 +1797,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P15">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>1.85</v>
@@ -1839,31 +1839,31 @@
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2687,7 +2687,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>44968.35416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -3040,7 +3040,7 @@
         <v>44968.39583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -3755,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4019,7 +4019,7 @@
         <v>44976.35416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4286,7 +4286,7 @@
         <v>44982.35416666666</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
         <v>43</v>
@@ -4642,7 +4642,7 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -5001,7 +5001,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5446,7 +5446,7 @@
         <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5799,7 +5799,7 @@
         <v>44996.35416666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -6155,7 +6155,7 @@
         <v>44997.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
         <v>44</v>
@@ -6333,7 +6333,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
         <v>39</v>
@@ -6514,7 +6514,7 @@
         <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -7045,7 +7045,7 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7582,7 +7582,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -8027,7 +8027,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5967316</v>
+        <v>5967319</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,58 +8202,58 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>49</v>
       </c>
       <c r="K87">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87">
         <v>1.571</v>
       </c>
-      <c r="N87">
-        <v>4.333</v>
-      </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.333</v>
+        <v>0.571</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8262,16 +8262,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5967319</v>
+        <v>5967316</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,58 +8291,58 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="L88">
+        <v>3.8</v>
+      </c>
+      <c r="M88">
+        <v>1.571</v>
+      </c>
+      <c r="N88">
+        <v>4.333</v>
+      </c>
+      <c r="O88">
         <v>3.5</v>
       </c>
-      <c r="M88">
-        <v>5</v>
-      </c>
-      <c r="N88">
-        <v>1.571</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
       <c r="P88">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.571</v>
+        <v>3.333</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8351,16 +8351,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8647,10 +8647,10 @@
         <v>45038.375</v>
       </c>
       <c r="F92" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" t="s">
         <v>41</v>
-      </c>
-      <c r="G92" t="s">
-        <v>40</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9270,7 +9270,7 @@
         <v>45045.35416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
         <v>29</v>
@@ -10071,7 +10071,7 @@
         <v>45052.375</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10252,7 +10252,7 @@
         <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5967259</v>
+        <v>5967258</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,13 +10605,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10620,43 +10620,43 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N114">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="O114">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q114">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T114">
         <v>3</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10665,16 +10665,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5967258</v>
+        <v>5967335</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,13 +10694,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -10709,43 +10709,43 @@
         <v>49</v>
       </c>
       <c r="K115">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>1.222</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.571</v>
+        <v>0.222</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10754,16 +10754,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5967339</v>
+        <v>5967257</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,58 +10783,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>49</v>
       </c>
       <c r="K116">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N116">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10843,16 +10843,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB116">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10860,7 +10860,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5967257</v>
+        <v>5967259</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10872,13 +10872,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -10887,43 +10887,43 @@
         <v>49</v>
       </c>
       <c r="K117">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M117">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N117">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O117">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P117">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q117">
         <v>-1.25</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10932,16 +10932,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5967335</v>
+        <v>5967339</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,58 +10961,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>49</v>
       </c>
       <c r="K118">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="L118">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M118">
-        <v>9.5</v>
+        <v>2.2</v>
       </c>
       <c r="N118">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="O118">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P118">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q118">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.222</v>
+        <v>1.15</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11021,16 +11021,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5967336</v>
+        <v>5967337</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,37 +11053,37 @@
         <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="N119">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
         <v>1.925</v>
@@ -11092,19 +11092,19 @@
         <v>1.875</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
@@ -11116,10 +11116,10 @@
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5967338</v>
+        <v>5967336</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="O120">
         <v>4</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R120">
+        <v>1.925</v>
+      </c>
+      <c r="S120">
         <v>1.875</v>
       </c>
-      <c r="S120">
-        <v>1.925</v>
-      </c>
       <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
+        <v>1.8</v>
+      </c>
+      <c r="V120">
+        <v>2</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
         <v>3</v>
       </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
-      <c r="W120">
-        <v>0.8</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5967337</v>
+        <v>5967338</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,58 +11228,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>49</v>
       </c>
       <c r="K121">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="L121">
         <v>3.5</v>
       </c>
       <c r="M121">
+        <v>3.3</v>
+      </c>
+      <c r="N121">
         <v>1.8</v>
       </c>
-      <c r="N121">
+      <c r="O121">
+        <v>4</v>
+      </c>
+      <c r="P121">
         <v>3.4</v>
       </c>
-      <c r="O121">
-        <v>3.6</v>
-      </c>
-      <c r="P121">
-        <v>1.85</v>
-      </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>1.875</v>
+      </c>
+      <c r="S121">
         <v>1.925</v>
-      </c>
-      <c r="S121">
-        <v>1.875</v>
       </c>
       <c r="T121">
         <v>3</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11288,13 +11288,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11495,7 +11495,7 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
         <v>42</v>
@@ -11940,7 +11940,7 @@
         <v>45152.375</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
         <v>36</v>
@@ -12477,7 +12477,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H135">
         <v>3</v>
@@ -12655,7 +12655,7 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12741,7 +12741,7 @@
         <v>45163.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -13186,7 +13186,7 @@
         <v>45165.375</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
         <v>32</v>
@@ -13812,7 +13812,7 @@
         <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13901,7 +13901,7 @@
         <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
         <v>35</v>
@@ -14521,7 +14521,7 @@
         <v>45193.375</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14791,7 +14791,7 @@
         <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14880,7 +14880,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H162">
         <v>6</v>
@@ -15411,7 +15411,7 @@
         <v>45205.375</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G168" t="s">
         <v>32</v>
@@ -15856,7 +15856,7 @@
         <v>45207.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
         <v>37</v>
@@ -16304,7 +16304,7 @@
         <v>45</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H178">
         <v>4</v>
@@ -16571,7 +16571,7 @@
         <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H181">
         <v>3</v>
@@ -16660,7 +16660,7 @@
         <v>43</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16924,7 +16924,7 @@
         <v>45227.375</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G185" t="s">
         <v>45</v>
@@ -17458,7 +17458,7 @@
         <v>45234.375</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
         <v>46</v>
@@ -17817,7 +17817,7 @@
         <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -18348,7 +18348,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G201" t="s">
         <v>37</v>
@@ -18618,7 +18618,7 @@
         <v>47</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,76 +18704,76 @@
         <v>45261.375</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K205">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M205">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N205">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
+        <v>1.875</v>
+      </c>
+      <c r="S205">
         <v>1.925</v>
       </c>
-      <c r="S205">
-        <v>1.875</v>
-      </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,76 +18793,76 @@
         <v>45261.375</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K206">
+        <v>1.7</v>
+      </c>
+      <c r="L206">
+        <v>3.75</v>
+      </c>
+      <c r="M206">
+        <v>4.2</v>
+      </c>
+      <c r="N206">
+        <v>1.7</v>
+      </c>
+      <c r="O206">
+        <v>3.75</v>
+      </c>
+      <c r="P206">
+        <v>4.333</v>
+      </c>
+      <c r="Q206">
+        <v>-0.75</v>
+      </c>
+      <c r="R206">
+        <v>1.925</v>
+      </c>
+      <c r="S206">
+        <v>1.875</v>
+      </c>
+      <c r="T206">
+        <v>2.5</v>
+      </c>
+      <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
         <v>1.95</v>
       </c>
-      <c r="L206">
-        <v>3.5</v>
-      </c>
-      <c r="M206">
-        <v>3.4</v>
-      </c>
-      <c r="N206">
-        <v>2.1</v>
-      </c>
-      <c r="O206">
-        <v>3.4</v>
-      </c>
-      <c r="P206">
-        <v>3</v>
-      </c>
-      <c r="Q206">
-        <v>-0.25</v>
-      </c>
-      <c r="R206">
-        <v>1.875</v>
-      </c>
-      <c r="S206">
-        <v>1.925</v>
-      </c>
-      <c r="T206">
-        <v>2.75</v>
-      </c>
-      <c r="U206">
-        <v>1.8</v>
-      </c>
-      <c r="V206">
-        <v>2</v>
-      </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA206">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC206">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19149,10 +19149,10 @@
         <v>45263.3125</v>
       </c>
       <c r="F210" t="s">
+        <v>40</v>
+      </c>
+      <c r="G210" t="s">
         <v>41</v>
-      </c>
-      <c r="G210" t="s">
-        <v>40</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19419,7 +19419,7 @@
         <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -19861,7 +19861,7 @@
         <v>45270.375</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
         <v>38</v>
@@ -20217,7 +20217,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20398,7 +20398,7 @@
         <v>46</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20932,7 +20932,7 @@
         <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21107,7 +21107,7 @@
         <v>45284.3125</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G232" t="s">
         <v>47</v>
@@ -21908,7 +21908,7 @@
         <v>45332.35416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
         <v>34</v>
@@ -22264,7 +22264,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G245" t="s">
         <v>42</v>
@@ -22623,7 +22623,7 @@
         <v>32</v>
       </c>
       <c r="G249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -23142,7 +23142,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6992662</v>
+        <v>6992660</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23151,49 +23151,49 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45339.33333333334</v>
+        <v>45340.3125</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G255" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K255">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="L255">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M255">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N255">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="O255">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P255">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q255">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R255">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S255">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T255">
         <v>2.75</v>
       </c>
       <c r="U255">
+        <v>1.8</v>
+      </c>
+      <c r="V255">
         <v>2</v>
-      </c>
-      <c r="V255">
-        <v>1.8</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23216,7 +23216,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6992332</v>
+        <v>6992663</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23225,49 +23225,49 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45339.35416666666</v>
+        <v>45340.33333333334</v>
       </c>
       <c r="F256" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G256" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K256">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L256">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M256">
+        <v>2.2</v>
+      </c>
+      <c r="N256">
+        <v>2.7</v>
+      </c>
+      <c r="O256">
+        <v>3.4</v>
+      </c>
+      <c r="P256">
         <v>2.25</v>
       </c>
-      <c r="N256">
-        <v>3.1</v>
-      </c>
-      <c r="O256">
-        <v>3.6</v>
-      </c>
-      <c r="P256">
-        <v>1.95</v>
-      </c>
       <c r="Q256">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R256">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S256">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V256">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23290,7 +23290,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6992666</v>
+        <v>6992664</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23299,49 +23299,49 @@
         <v>28</v>
       </c>
       <c r="E257" s="2">
-        <v>45339.375</v>
+        <v>45340.375</v>
       </c>
       <c r="F257" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G257" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L257">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M257">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="N257">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O257">
         <v>3.8</v>
       </c>
       <c r="P257">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q257">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R257">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S257">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V257">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23364,7 +23364,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6992665</v>
+        <v>6992661</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23373,49 +23373,49 @@
         <v>28</v>
       </c>
       <c r="E258" s="2">
-        <v>45339.41666666666</v>
+        <v>45341.35416666666</v>
       </c>
       <c r="F258" t="s">
         <v>40</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K258">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L258">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M258">
+        <v>3.1</v>
+      </c>
+      <c r="N258">
+        <v>2.15</v>
+      </c>
+      <c r="O258">
+        <v>3.2</v>
+      </c>
+      <c r="P258">
+        <v>3.1</v>
+      </c>
+      <c r="Q258">
+        <v>-0.25</v>
+      </c>
+      <c r="R258">
+        <v>1.9</v>
+      </c>
+      <c r="S258">
+        <v>1.9</v>
+      </c>
+      <c r="T258">
         <v>2.5</v>
       </c>
-      <c r="N258">
-        <v>2.3</v>
-      </c>
-      <c r="O258">
-        <v>3.4</v>
-      </c>
-      <c r="P258">
-        <v>2.6</v>
-      </c>
-      <c r="Q258">
-        <v>0</v>
-      </c>
-      <c r="R258">
-        <v>1.775</v>
-      </c>
-      <c r="S258">
-        <v>2.025</v>
-      </c>
-      <c r="T258">
-        <v>2.75</v>
-      </c>
       <c r="U258">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V258">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W258">
         <v>0</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -136,10 +136,10 @@
     <t>Nong Bua Pitchaya</t>
   </si>
   <si>
-    <t>Khonkaen United</t>
+    <t>Lamphun Warrior FC</t>
   </si>
   <si>
-    <t>Lamphun Warrior FC</t>
+    <t>Khonkaen United</t>
   </si>
   <si>
     <t>Buriram United</t>
@@ -907,7 +907,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5967269</v>
+        <v>5967270</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,37 +1708,37 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M14">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P14">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>1.85</v>
@@ -1750,31 +1750,31 @@
         <v>2.25</v>
       </c>
       <c r="U14">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5967270</v>
+        <v>5967269</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,37 +1797,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15">
+        <v>2.1</v>
+      </c>
+      <c r="L15">
+        <v>3.2</v>
+      </c>
+      <c r="M15">
+        <v>3.1</v>
+      </c>
+      <c r="N15">
+        <v>2.1</v>
+      </c>
+      <c r="O15">
         <v>3</v>
       </c>
-      <c r="L15">
-        <v>3.1</v>
-      </c>
-      <c r="M15">
-        <v>2.25</v>
-      </c>
-      <c r="N15">
-        <v>2.55</v>
-      </c>
-      <c r="O15">
-        <v>2.9</v>
-      </c>
       <c r="P15">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
         <v>1.85</v>
@@ -1839,31 +1839,31 @@
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X15">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC15">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2687,7 +2687,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>44968.35416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -3040,7 +3040,7 @@
         <v>44968.39583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -3755,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4019,7 +4019,7 @@
         <v>44976.35416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4286,7 +4286,7 @@
         <v>44982.35416666666</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
         <v>43</v>
@@ -4642,7 +4642,7 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -5001,7 +5001,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5446,7 +5446,7 @@
         <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5799,7 +5799,7 @@
         <v>44996.35416666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -6155,7 +6155,7 @@
         <v>44997.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
         <v>44</v>
@@ -6333,7 +6333,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
         <v>39</v>
@@ -6514,7 +6514,7 @@
         <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -7045,7 +7045,7 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7389,7 +7389,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6382423</v>
+        <v>5967310</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7401,76 +7401,76 @@
         <v>45020.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L78">
         <v>3.4</v>
       </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P78">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W78">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5967310</v>
+        <v>6382423</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7490,76 +7490,76 @@
         <v>45020.33333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L79">
         <v>3.4</v>
       </c>
       <c r="M79">
+        <v>2.1</v>
+      </c>
+      <c r="N79">
         <v>2.5</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>3.4</v>
       </c>
-      <c r="O79">
-        <v>3.3</v>
-      </c>
       <c r="P79">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7582,7 +7582,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -8027,7 +8027,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5967319</v>
+        <v>5967316</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,58 +8202,58 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>49</v>
       </c>
       <c r="K87">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="L87">
+        <v>3.8</v>
+      </c>
+      <c r="M87">
+        <v>1.571</v>
+      </c>
+      <c r="N87">
+        <v>4.333</v>
+      </c>
+      <c r="O87">
         <v>3.5</v>
       </c>
-      <c r="M87">
-        <v>5</v>
-      </c>
-      <c r="N87">
-        <v>1.571</v>
-      </c>
-      <c r="O87">
-        <v>3.6</v>
-      </c>
       <c r="P87">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>0.571</v>
+        <v>3.333</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8262,16 +8262,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5967316</v>
+        <v>5967319</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,58 +8291,58 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="L88">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88">
         <v>1.571</v>
       </c>
-      <c r="N88">
-        <v>4.333</v>
-      </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="Q88">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>3.333</v>
+        <v>0.571</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8351,16 +8351,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8647,10 +8647,10 @@
         <v>45038.375</v>
       </c>
       <c r="F92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G92" t="s">
         <v>40</v>
-      </c>
-      <c r="G92" t="s">
-        <v>41</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9270,7 +9270,7 @@
         <v>45045.35416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
         <v>29</v>
@@ -10071,7 +10071,7 @@
         <v>45052.375</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10252,7 +10252,7 @@
         <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5967258</v>
+        <v>5967259</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,13 +10605,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10620,43 +10620,43 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P114">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>3</v>
       </c>
       <c r="U114">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
-        <v>0.571</v>
+        <v>0.363</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10665,16 +10665,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10860,7 +10860,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5967259</v>
+        <v>5967258</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10872,13 +10872,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -10887,43 +10887,43 @@
         <v>49</v>
       </c>
       <c r="K117">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L117">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M117">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N117">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10932,16 +10932,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5967336</v>
+        <v>5967338</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="N120">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
         <v>4</v>
       </c>
       <c r="P120">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>1.875</v>
+      </c>
+      <c r="S120">
         <v>1.925</v>
       </c>
-      <c r="S120">
-        <v>1.875</v>
-      </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5967338</v>
+        <v>5967336</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="N121">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="O121">
         <v>4</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R121">
+        <v>1.925</v>
+      </c>
+      <c r="S121">
         <v>1.875</v>
       </c>
-      <c r="S121">
-        <v>1.925</v>
-      </c>
       <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>1.8</v>
+      </c>
+      <c r="V121">
+        <v>2</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
         <v>3</v>
       </c>
-      <c r="U121">
-        <v>1.9</v>
-      </c>
-      <c r="V121">
-        <v>1.9</v>
-      </c>
-      <c r="W121">
-        <v>0.8</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
         <v>42</v>
@@ -11940,7 +11940,7 @@
         <v>45152.375</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
         <v>36</v>
@@ -12477,7 +12477,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>3</v>
@@ -12655,7 +12655,7 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12741,7 +12741,7 @@
         <v>45163.375</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -13186,7 +13186,7 @@
         <v>45165.375</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
         <v>32</v>
@@ -13812,7 +13812,7 @@
         <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13901,7 +13901,7 @@
         <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
         <v>35</v>
@@ -14521,7 +14521,7 @@
         <v>45193.375</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14791,7 +14791,7 @@
         <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14880,7 +14880,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H162">
         <v>6</v>
@@ -15411,7 +15411,7 @@
         <v>45205.375</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
         <v>32</v>
@@ -15856,7 +15856,7 @@
         <v>45207.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
         <v>37</v>
@@ -16304,7 +16304,7 @@
         <v>45</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H178">
         <v>4</v>
@@ -16571,7 +16571,7 @@
         <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H181">
         <v>3</v>
@@ -16660,7 +16660,7 @@
         <v>43</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16924,7 +16924,7 @@
         <v>45227.375</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
         <v>45</v>
@@ -17458,7 +17458,7 @@
         <v>45234.375</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
         <v>46</v>
@@ -17817,7 +17817,7 @@
         <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -18348,7 +18348,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
         <v>37</v>
@@ -18618,7 +18618,7 @@
         <v>47</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,76 +18704,76 @@
         <v>45261.375</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K205">
+        <v>1.7</v>
+      </c>
+      <c r="L205">
+        <v>3.75</v>
+      </c>
+      <c r="M205">
+        <v>4.2</v>
+      </c>
+      <c r="N205">
+        <v>1.7</v>
+      </c>
+      <c r="O205">
+        <v>3.75</v>
+      </c>
+      <c r="P205">
+        <v>4.333</v>
+      </c>
+      <c r="Q205">
+        <v>-0.75</v>
+      </c>
+      <c r="R205">
+        <v>1.925</v>
+      </c>
+      <c r="S205">
+        <v>1.875</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>1.85</v>
+      </c>
+      <c r="V205">
         <v>1.95</v>
       </c>
-      <c r="L205">
-        <v>3.5</v>
-      </c>
-      <c r="M205">
-        <v>3.4</v>
-      </c>
-      <c r="N205">
-        <v>2.1</v>
-      </c>
-      <c r="O205">
-        <v>3.4</v>
-      </c>
-      <c r="P205">
-        <v>3</v>
-      </c>
-      <c r="Q205">
-        <v>-0.25</v>
-      </c>
-      <c r="R205">
-        <v>1.875</v>
-      </c>
-      <c r="S205">
-        <v>1.925</v>
-      </c>
-      <c r="T205">
-        <v>2.75</v>
-      </c>
-      <c r="U205">
-        <v>1.8</v>
-      </c>
-      <c r="V205">
-        <v>2</v>
-      </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X205">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA205">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC205">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,76 +18793,76 @@
         <v>45261.375</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K206">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M206">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N206">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
+        <v>1.875</v>
+      </c>
+      <c r="S206">
         <v>1.925</v>
       </c>
-      <c r="S206">
-        <v>1.875</v>
-      </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19149,10 +19149,10 @@
         <v>45263.3125</v>
       </c>
       <c r="F210" t="s">
+        <v>41</v>
+      </c>
+      <c r="G210" t="s">
         <v>40</v>
-      </c>
-      <c r="G210" t="s">
-        <v>41</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19419,7 +19419,7 @@
         <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -19861,7 +19861,7 @@
         <v>45270.375</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G218" t="s">
         <v>38</v>
@@ -20217,7 +20217,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20398,7 +20398,7 @@
         <v>46</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20932,7 +20932,7 @@
         <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21107,7 +21107,7 @@
         <v>45284.3125</v>
       </c>
       <c r="F232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
         <v>47</v>
@@ -21908,7 +21908,7 @@
         <v>45332.35416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G241" t="s">
         <v>34</v>
@@ -22264,7 +22264,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G245" t="s">
         <v>42</v>
@@ -22623,7 +22623,7 @@
         <v>32</v>
       </c>
       <c r="G249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -23169,31 +23169,31 @@
         <v>1.571</v>
       </c>
       <c r="N255">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="O255">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P255">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="Q255">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R255">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S255">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T255">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U255">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23243,16 +23243,16 @@
         <v>2.2</v>
       </c>
       <c r="N256">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O256">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P256">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q256">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R256">
         <v>1.775</v>
@@ -23264,10 +23264,10 @@
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V256">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23376,7 +23376,7 @@
         <v>45341.35416666666</v>
       </c>
       <c r="F258" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G258" t="s">
         <v>35</v>
@@ -23391,31 +23391,31 @@
         <v>3.1</v>
       </c>
       <c r="N258">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O258">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P258">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q258">
         <v>-0.25</v>
       </c>
       <c r="R258">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S258">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T258">
         <v>2.5</v>
       </c>
       <c r="U258">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V258">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W258">
         <v>0</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC258"/>
+  <dimension ref="A1:AC262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5967272</v>
+        <v>5967226</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,58 +2506,58 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
       </c>
       <c r="K23">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L23">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="N23">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O23">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>0.6000000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2566,16 +2566,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5967226</v>
+        <v>5967272</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,58 +2595,58 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="N24">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>1.8</v>
+      </c>
+      <c r="T24">
+        <v>2.75</v>
+      </c>
+      <c r="U24">
         <v>1.925</v>
       </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
-      <c r="U24">
-        <v>1.825</v>
-      </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>0.6659999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2655,16 +2655,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5967301</v>
+        <v>5967299</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>3</v>
-      </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L62">
         <v>3.4</v>
       </c>
       <c r="M62">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5967299</v>
+        <v>5967301</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>3</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L63">
         <v>3.4</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N63">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.85</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
       <c r="W63">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5967259</v>
+        <v>5967258</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,13 +10605,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10620,43 +10620,43 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N114">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="O114">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q114">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T114">
         <v>3</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10665,16 +10665,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5967335</v>
+        <v>5967259</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,13 +10694,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -10709,25 +10709,25 @@
         <v>49</v>
       </c>
       <c r="K115">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="L115">
+        <v>3.3</v>
+      </c>
+      <c r="M115">
+        <v>3.6</v>
+      </c>
+      <c r="N115">
+        <v>1.363</v>
+      </c>
+      <c r="O115">
+        <v>4.5</v>
+      </c>
+      <c r="P115">
         <v>6</v>
       </c>
-      <c r="M115">
-        <v>9.5</v>
-      </c>
-      <c r="N115">
-        <v>1.222</v>
-      </c>
-      <c r="O115">
-        <v>5.5</v>
-      </c>
-      <c r="P115">
-        <v>9</v>
-      </c>
       <c r="Q115">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R115">
         <v>1.8</v>
@@ -10736,16 +10736,16 @@
         <v>2</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>0.222</v>
+        <v>0.363</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10760,10 +10760,10 @@
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5967257</v>
+        <v>5967335</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,13 +10783,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10798,43 +10798,43 @@
         <v>49</v>
       </c>
       <c r="K116">
+        <v>1.222</v>
+      </c>
+      <c r="L116">
+        <v>6</v>
+      </c>
+      <c r="M116">
+        <v>9.5</v>
+      </c>
+      <c r="N116">
+        <v>1.222</v>
+      </c>
+      <c r="O116">
+        <v>5.5</v>
+      </c>
+      <c r="P116">
+        <v>9</v>
+      </c>
+      <c r="Q116">
+        <v>-1.75</v>
+      </c>
+      <c r="R116">
         <v>1.8</v>
       </c>
-      <c r="L116">
-        <v>3.4</v>
-      </c>
-      <c r="M116">
-        <v>3.8</v>
-      </c>
-      <c r="N116">
-        <v>1.444</v>
-      </c>
-      <c r="O116">
-        <v>4.2</v>
-      </c>
-      <c r="P116">
-        <v>5.75</v>
-      </c>
-      <c r="Q116">
-        <v>-1.25</v>
-      </c>
-      <c r="R116">
-        <v>1.95</v>
-      </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.444</v>
+        <v>0.222</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10843,16 +10843,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10860,7 +10860,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5967258</v>
+        <v>5967339</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10872,58 +10872,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
         <v>1</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>49</v>
       </c>
       <c r="K117">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L117">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N117">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
         <v>1.95</v>
       </c>
       <c r="W117">
-        <v>0.571</v>
+        <v>1.15</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10932,16 +10932,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5967339</v>
+        <v>5967337</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,13 +10961,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -10976,25 +10976,25 @@
         <v>49</v>
       </c>
       <c r="K118">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="L118">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N118">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
         <v>1.925</v>
@@ -11003,16 +11003,16 @@
         <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>1.15</v>
+        <v>2.4</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11027,10 +11027,10 @@
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5967337</v>
+        <v>5967338</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,58 +11050,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>49</v>
       </c>
       <c r="K119">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="L119">
         <v>3.5</v>
       </c>
       <c r="M119">
+        <v>3.3</v>
+      </c>
+      <c r="N119">
         <v>1.8</v>
       </c>
-      <c r="N119">
+      <c r="O119">
+        <v>4</v>
+      </c>
+      <c r="P119">
         <v>3.4</v>
       </c>
-      <c r="O119">
-        <v>3.6</v>
-      </c>
-      <c r="P119">
-        <v>1.85</v>
-      </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
+        <v>1.875</v>
+      </c>
+      <c r="S119">
         <v>1.925</v>
-      </c>
-      <c r="S119">
-        <v>1.875</v>
       </c>
       <c r="T119">
         <v>3</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11110,13 +11110,13 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5967338</v>
+        <v>5967336</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="O120">
         <v>4</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R120">
+        <v>1.925</v>
+      </c>
+      <c r="S120">
         <v>1.875</v>
       </c>
-      <c r="S120">
-        <v>1.925</v>
-      </c>
       <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
+        <v>1.8</v>
+      </c>
+      <c r="V120">
+        <v>2</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
         <v>3</v>
       </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
-      <c r="W120">
-        <v>0.8</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5967336</v>
+        <v>5967257</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="N121">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P121">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -23142,7 +23142,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6992660</v>
+        <v>6992662</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23151,43 +23151,52 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45340.3125</v>
+        <v>45339.33333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G255" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255" t="s">
+        <v>50</v>
       </c>
       <c r="K255">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="L255">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="N255">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O255">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P255">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="Q255">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R255">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S255">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T255">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
         <v>1.85</v>
@@ -23196,19 +23205,25 @@
         <v>1.95</v>
       </c>
       <c r="W255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA255">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB255">
+        <v>-1</v>
+      </c>
+      <c r="AC255">
+        <v>0.95</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23216,7 +23231,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6992663</v>
+        <v>6992332</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23225,72 +23240,87 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45340.33333333334</v>
+        <v>45339.35416666666</v>
       </c>
       <c r="F256" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G256" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" t="s">
+        <v>48</v>
       </c>
       <c r="K256">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L256">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M256">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N256">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O256">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P256">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="Q256">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R256">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
+        <v>1.925</v>
+      </c>
+      <c r="V256">
         <v>1.875</v>
       </c>
-      <c r="V256">
-        <v>1.925</v>
-      </c>
       <c r="W256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X256">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z256">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27">
+        <v>0.45</v>
+      </c>
+      <c r="AB256">
+        <v>-1</v>
+      </c>
+      <c r="AC256">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6992664</v>
+        <v>6992666</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23299,72 +23329,87 @@
         <v>28</v>
       </c>
       <c r="E257" s="2">
-        <v>45340.375</v>
+        <v>45339.375</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>50</v>
       </c>
       <c r="K257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L257">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M257">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="N257">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="O257">
         <v>3.8</v>
       </c>
       <c r="P257">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q257">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R257">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S257">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X257">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB257">
+        <v>-1</v>
+      </c>
+      <c r="AC257">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6992661</v>
+        <v>6992665</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23373,63 +23418,419 @@
         <v>28</v>
       </c>
       <c r="E258" s="2">
-        <v>45341.35416666666</v>
+        <v>45339.41666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G258" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="H258">
+        <v>2</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>49</v>
       </c>
       <c r="K258">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L258">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M258">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N258">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O258">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P258">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q258">
         <v>-0.25</v>
       </c>
       <c r="R258">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S258">
+        <v>1.85</v>
+      </c>
+      <c r="T258">
+        <v>2.75</v>
+      </c>
+      <c r="U258">
+        <v>1.925</v>
+      </c>
+      <c r="V258">
         <v>1.775</v>
       </c>
-      <c r="T258">
+      <c r="W258">
+        <v>1.2</v>
+      </c>
+      <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
+        <v>0.95</v>
+      </c>
+      <c r="AA258">
+        <v>-1</v>
+      </c>
+      <c r="AB258">
+        <v>0.4625</v>
+      </c>
+      <c r="AC258">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>6992660</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45340.3125</v>
+      </c>
+      <c r="F259" t="s">
+        <v>47</v>
+      </c>
+      <c r="G259" t="s">
+        <v>42</v>
+      </c>
+      <c r="H259">
+        <v>3</v>
+      </c>
+      <c r="I259">
+        <v>4</v>
+      </c>
+      <c r="J259" t="s">
+        <v>48</v>
+      </c>
+      <c r="K259">
+        <v>4.75</v>
+      </c>
+      <c r="L259">
+        <v>3.75</v>
+      </c>
+      <c r="M259">
+        <v>1.571</v>
+      </c>
+      <c r="N259">
+        <v>7</v>
+      </c>
+      <c r="O259">
+        <v>4.5</v>
+      </c>
+      <c r="P259">
+        <v>1.333</v>
+      </c>
+      <c r="Q259">
+        <v>1.5</v>
+      </c>
+      <c r="R259">
+        <v>1.925</v>
+      </c>
+      <c r="S259">
+        <v>1.875</v>
+      </c>
+      <c r="T259">
+        <v>3</v>
+      </c>
+      <c r="U259">
+        <v>1.8</v>
+      </c>
+      <c r="V259">
+        <v>2</v>
+      </c>
+      <c r="W259">
+        <v>-1</v>
+      </c>
+      <c r="X259">
+        <v>-1</v>
+      </c>
+      <c r="Y259">
+        <v>0.333</v>
+      </c>
+      <c r="Z259">
+        <v>0.925</v>
+      </c>
+      <c r="AA259">
+        <v>-1</v>
+      </c>
+      <c r="AB259">
+        <v>0.8</v>
+      </c>
+      <c r="AC259">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>6992663</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45340.33333333334</v>
+      </c>
+      <c r="F260" t="s">
+        <v>37</v>
+      </c>
+      <c r="G260" t="s">
+        <v>44</v>
+      </c>
+      <c r="H260">
+        <v>2</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260" t="s">
+        <v>49</v>
+      </c>
+      <c r="K260">
+        <v>2.75</v>
+      </c>
+      <c r="L260">
+        <v>3.4</v>
+      </c>
+      <c r="M260">
+        <v>2.2</v>
+      </c>
+      <c r="N260">
+        <v>3.2</v>
+      </c>
+      <c r="O260">
+        <v>3.5</v>
+      </c>
+      <c r="P260">
+        <v>1.95</v>
+      </c>
+      <c r="Q260">
+        <v>0.25</v>
+      </c>
+      <c r="R260">
+        <v>1.95</v>
+      </c>
+      <c r="S260">
+        <v>1.75</v>
+      </c>
+      <c r="T260">
+        <v>2.75</v>
+      </c>
+      <c r="U260">
+        <v>1.9</v>
+      </c>
+      <c r="V260">
+        <v>1.9</v>
+      </c>
+      <c r="W260">
+        <v>2.2</v>
+      </c>
+      <c r="X260">
+        <v>-1</v>
+      </c>
+      <c r="Y260">
+        <v>-1</v>
+      </c>
+      <c r="Z260">
+        <v>0.95</v>
+      </c>
+      <c r="AA260">
+        <v>-1</v>
+      </c>
+      <c r="AB260">
+        <v>-1</v>
+      </c>
+      <c r="AC260">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>6992664</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45340.375</v>
+      </c>
+      <c r="F261" t="s">
+        <v>46</v>
+      </c>
+      <c r="G261" t="s">
+        <v>45</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261" t="s">
+        <v>50</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>3.6</v>
+      </c>
+      <c r="M261">
+        <v>3</v>
+      </c>
+      <c r="N261">
+        <v>1.727</v>
+      </c>
+      <c r="O261">
+        <v>3.8</v>
+      </c>
+      <c r="P261">
+        <v>3.6</v>
+      </c>
+      <c r="Q261">
+        <v>-0.5</v>
+      </c>
+      <c r="R261">
+        <v>1.75</v>
+      </c>
+      <c r="S261">
+        <v>1.95</v>
+      </c>
+      <c r="T261">
+        <v>2.75</v>
+      </c>
+      <c r="U261">
+        <v>1.925</v>
+      </c>
+      <c r="V261">
+        <v>1.875</v>
+      </c>
+      <c r="W261">
+        <v>-1</v>
+      </c>
+      <c r="X261">
+        <v>2.8</v>
+      </c>
+      <c r="Y261">
+        <v>-1</v>
+      </c>
+      <c r="Z261">
+        <v>-1</v>
+      </c>
+      <c r="AA261">
+        <v>0.95</v>
+      </c>
+      <c r="AB261">
+        <v>-1</v>
+      </c>
+      <c r="AC261">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>6992661</v>
+      </c>
+      <c r="C262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45341.35416666666</v>
+      </c>
+      <c r="F262" t="s">
+        <v>41</v>
+      </c>
+      <c r="G262" t="s">
+        <v>35</v>
+      </c>
+      <c r="K262">
+        <v>2.1</v>
+      </c>
+      <c r="L262">
+        <v>3.2</v>
+      </c>
+      <c r="M262">
+        <v>3.1</v>
+      </c>
+      <c r="N262">
+        <v>2.3</v>
+      </c>
+      <c r="O262">
+        <v>3.1</v>
+      </c>
+      <c r="P262">
+        <v>2.8</v>
+      </c>
+      <c r="Q262">
+        <v>-0.25</v>
+      </c>
+      <c r="R262">
+        <v>2.05</v>
+      </c>
+      <c r="S262">
+        <v>1.75</v>
+      </c>
+      <c r="T262">
         <v>2.5</v>
       </c>
-      <c r="U258">
-        <v>1.875</v>
-      </c>
-      <c r="V258">
-        <v>1.925</v>
-      </c>
-      <c r="W258">
+      <c r="U262">
+        <v>1.95</v>
+      </c>
+      <c r="V262">
+        <v>1.85</v>
+      </c>
+      <c r="W262">
         <v>0</v>
       </c>
-      <c r="X258">
+      <c r="X262">
         <v>0</v>
       </c>
-      <c r="Y258">
+      <c r="Y262">
         <v>0</v>
       </c>
-      <c r="Z258">
+      <c r="Z262">
         <v>0</v>
       </c>
-      <c r="AA258">
+      <c r="AA262">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -136,10 +136,10 @@
     <t>Nong Bua Pitchaya</t>
   </si>
   <si>
-    <t>Lamphun Warrior FC</t>
+    <t>Khonkaen United</t>
   </si>
   <si>
-    <t>Khonkaen United</t>
+    <t>Lamphun Warrior FC</t>
   </si>
   <si>
     <t>Buriram United</t>
@@ -907,7 +907,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5967270</v>
+        <v>5967269</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,37 +1708,37 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
+        <v>2.1</v>
+      </c>
+      <c r="L14">
+        <v>3.2</v>
+      </c>
+      <c r="M14">
+        <v>3.1</v>
+      </c>
+      <c r="N14">
+        <v>2.1</v>
+      </c>
+      <c r="O14">
         <v>3</v>
       </c>
-      <c r="L14">
-        <v>3.1</v>
-      </c>
-      <c r="M14">
-        <v>2.25</v>
-      </c>
-      <c r="N14">
-        <v>2.55</v>
-      </c>
-      <c r="O14">
-        <v>2.9</v>
-      </c>
       <c r="P14">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
         <v>1.85</v>
@@ -1750,31 +1750,31 @@
         <v>2.25</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X14">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC14">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5967269</v>
+        <v>5967270</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,37 +1797,37 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P15">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>1.85</v>
@@ -1839,31 +1839,31 @@
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2598,7 +2598,7 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2687,7 +2687,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>44968.35416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -3040,7 +3040,7 @@
         <v>44968.39583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -3755,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4019,7 +4019,7 @@
         <v>44976.35416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4286,7 +4286,7 @@
         <v>44982.35416666666</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
         <v>43</v>
@@ -4642,7 +4642,7 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -5001,7 +5001,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5446,7 +5446,7 @@
         <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5799,7 +5799,7 @@
         <v>44996.35416666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5967299</v>
+        <v>5967301</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L62">
         <v>3.4</v>
       </c>
       <c r="M62">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N62">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>1.85</v>
+      </c>
+      <c r="V62">
         <v>1.95</v>
       </c>
-      <c r="S62">
-        <v>1.85</v>
-      </c>
-      <c r="T62">
-        <v>2.75</v>
-      </c>
-      <c r="U62">
-        <v>1.9</v>
-      </c>
-      <c r="V62">
-        <v>1.9</v>
-      </c>
       <c r="W62">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5967301</v>
+        <v>5967299</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>3</v>
-      </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L63">
         <v>3.4</v>
       </c>
       <c r="M63">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6155,7 +6155,7 @@
         <v>44997.35416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
         <v>44</v>
@@ -6333,7 +6333,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
         <v>39</v>
@@ -6514,7 +6514,7 @@
         <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -7045,7 +7045,7 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7582,7 +7582,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -8027,7 +8027,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8202,7 +8202,7 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
@@ -8647,10 +8647,10 @@
         <v>45038.375</v>
       </c>
       <c r="F92" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" t="s">
         <v>41</v>
-      </c>
-      <c r="G92" t="s">
-        <v>40</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9270,7 +9270,7 @@
         <v>45045.35416666666</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
         <v>29</v>
@@ -10071,7 +10071,7 @@
         <v>45052.375</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10252,7 +10252,7 @@
         <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5967258</v>
+        <v>5967339</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,58 +10605,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
         <v>1</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>49</v>
       </c>
       <c r="K114">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N114">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
         <v>1.95</v>
       </c>
       <c r="W114">
-        <v>0.571</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10665,16 +10665,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5967259</v>
+        <v>5967257</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,13 +10694,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -10709,43 +10709,43 @@
         <v>49</v>
       </c>
       <c r="K115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N115">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O115">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P115">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q115">
         <v>-1.25</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
         <v>3</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>0.363</v>
+        <v>0.444</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10754,16 +10754,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5967335</v>
+        <v>5967338</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,10 +10783,10 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>4</v>
@@ -10798,34 +10798,34 @@
         <v>49</v>
       </c>
       <c r="K116">
-        <v>1.222</v>
+        <v>1.95</v>
       </c>
       <c r="L116">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="N116">
-        <v>1.222</v>
+        <v>1.8</v>
       </c>
       <c r="O116">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="Q116">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U116">
         <v>1.9</v>
@@ -10834,7 +10834,7 @@
         <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10843,7 +10843,7 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10860,7 +10860,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5967339</v>
+        <v>5967258</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10872,58 +10872,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>49</v>
       </c>
       <c r="K117">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L117">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M117">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N117">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V117">
         <v>1.95</v>
       </c>
       <c r="W117">
-        <v>1.15</v>
+        <v>0.571</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10932,16 +10932,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10961,7 +10961,7 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5967338</v>
+        <v>5967336</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,76 +11050,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="O119">
         <v>4</v>
       </c>
       <c r="P119">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R119">
+        <v>1.925</v>
+      </c>
+      <c r="S119">
         <v>1.875</v>
       </c>
-      <c r="S119">
-        <v>1.925</v>
-      </c>
       <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.8</v>
+      </c>
+      <c r="V119">
+        <v>2</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
         <v>3</v>
       </c>
-      <c r="U119">
-        <v>1.9</v>
-      </c>
-      <c r="V119">
-        <v>1.9</v>
-      </c>
-      <c r="W119">
-        <v>0.8</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5967336</v>
+        <v>5967335</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>4.5</v>
+        <v>1.222</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M120">
-        <v>1.6</v>
+        <v>9.5</v>
       </c>
       <c r="N120">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P120">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5967257</v>
+        <v>5967259</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,13 +11228,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -11243,43 +11243,43 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N121">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O121">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P121">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q121">
         <v>-1.25</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>3</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11288,16 +11288,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
         <v>42</v>
@@ -11940,7 +11940,7 @@
         <v>45152.375</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
         <v>36</v>
@@ -12477,7 +12477,7 @@
         <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H135">
         <v>3</v>
@@ -12655,7 +12655,7 @@
         <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12741,7 +12741,7 @@
         <v>45163.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -13186,7 +13186,7 @@
         <v>45165.375</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
         <v>32</v>
@@ -13812,7 +13812,7 @@
         <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13901,7 +13901,7 @@
         <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
         <v>35</v>
@@ -14521,7 +14521,7 @@
         <v>45193.375</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14791,7 +14791,7 @@
         <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14880,7 +14880,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H162">
         <v>6</v>
@@ -15411,7 +15411,7 @@
         <v>45205.375</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G168" t="s">
         <v>32</v>
@@ -15856,7 +15856,7 @@
         <v>45207.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
         <v>37</v>
@@ -16304,7 +16304,7 @@
         <v>45</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H178">
         <v>4</v>
@@ -16571,7 +16571,7 @@
         <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H181">
         <v>3</v>
@@ -16660,7 +16660,7 @@
         <v>43</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16924,7 +16924,7 @@
         <v>45227.375</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G185" t="s">
         <v>45</v>
@@ -17458,7 +17458,7 @@
         <v>45234.375</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
         <v>46</v>
@@ -17817,7 +17817,7 @@
         <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -18348,7 +18348,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G201" t="s">
         <v>37</v>
@@ -18618,7 +18618,7 @@
         <v>47</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -19149,10 +19149,10 @@
         <v>45263.3125</v>
       </c>
       <c r="F210" t="s">
+        <v>40</v>
+      </c>
+      <c r="G210" t="s">
         <v>41</v>
-      </c>
-      <c r="G210" t="s">
-        <v>40</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19419,7 +19419,7 @@
         <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -19861,7 +19861,7 @@
         <v>45270.375</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
         <v>38</v>
@@ -20217,7 +20217,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20398,7 +20398,7 @@
         <v>46</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20932,7 +20932,7 @@
         <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21107,7 +21107,7 @@
         <v>45284.3125</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G232" t="s">
         <v>47</v>
@@ -21540,7 +21540,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21552,76 +21552,76 @@
         <v>45288.375</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>50</v>
       </c>
       <c r="K237">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L237">
+        <v>3.5</v>
+      </c>
+      <c r="M237">
+        <v>1.85</v>
+      </c>
+      <c r="N237">
+        <v>4.5</v>
+      </c>
+      <c r="O237">
         <v>4</v>
       </c>
-      <c r="M237">
-        <v>5.75</v>
-      </c>
-      <c r="N237">
-        <v>1.363</v>
-      </c>
-      <c r="O237">
-        <v>4.5</v>
-      </c>
       <c r="P237">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q237">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
         <v>3</v>
       </c>
       <c r="U237">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA237">
+        <v>-1</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
         <v>0.95</v>
-      </c>
-      <c r="AB237">
-        <v>0.825</v>
-      </c>
-      <c r="AC237">
-        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21629,7 +21629,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21641,76 +21641,76 @@
         <v>45288.375</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>50</v>
       </c>
       <c r="K238">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M238">
+        <v>5.75</v>
+      </c>
+      <c r="N238">
+        <v>1.363</v>
+      </c>
+      <c r="O238">
+        <v>4.5</v>
+      </c>
+      <c r="P238">
+        <v>6.5</v>
+      </c>
+      <c r="Q238">
+        <v>-1.25</v>
+      </c>
+      <c r="R238">
         <v>1.85</v>
       </c>
-      <c r="N238">
-        <v>4.5</v>
-      </c>
-      <c r="O238">
-        <v>4</v>
-      </c>
-      <c r="P238">
-        <v>1.615</v>
-      </c>
-      <c r="Q238">
-        <v>0.75</v>
-      </c>
-      <c r="R238">
-        <v>1.975</v>
-      </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T238">
         <v>3</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V238">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC238">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21908,7 +21908,7 @@
         <v>45332.35416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
         <v>34</v>
@@ -22264,7 +22264,7 @@
         <v>45333.33333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G245" t="s">
         <v>42</v>
@@ -22623,7 +22623,7 @@
         <v>32</v>
       </c>
       <c r="G249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -23421,7 +23421,7 @@
         <v>45339.41666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G258" t="s">
         <v>34</v>
@@ -23777,11 +23777,20 @@
         <v>45341.35416666666</v>
       </c>
       <c r="F262" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G262" t="s">
         <v>35</v>
       </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262" t="s">
+        <v>50</v>
+      </c>
       <c r="K262">
         <v>2.1</v>
       </c>
@@ -23792,46 +23801,52 @@
         <v>3.1</v>
       </c>
       <c r="N262">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O262">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P262">
         <v>2.8</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R262">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S262">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T262">
         <v>2.5</v>
       </c>
       <c r="U262">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V262">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
         <v>0</v>
       </c>
       <c r="AA262">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB262">
+        <v>-1</v>
+      </c>
+      <c r="AC262">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Port FC</t>
   </si>
   <si>
-    <t>Chonburi</t>
+    <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Chiangrai Utd</t>
+    <t>Chonburi</t>
   </si>
   <si>
     <t>Sukhothai FC</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC262"/>
+  <dimension ref="A1:AC263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5967263</v>
+        <v>5967262</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,73 +1085,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="N7">
-        <v>1.571</v>
+        <v>1.952</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5967262</v>
+        <v>5967263</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,73 +1174,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="N8">
-        <v>1.952</v>
+        <v>1.571</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X8">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>44961.33333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5967226</v>
+        <v>5967272</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,58 +2506,58 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
       </c>
       <c r="K23">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M23">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="N23">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
         <v>1.925</v>
       </c>
-      <c r="S23">
-        <v>1.875</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.825</v>
-      </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W23">
-        <v>0.6659999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2566,16 +2566,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5967272</v>
+        <v>5967226</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,58 +2595,58 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
       </c>
       <c r="K24">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="N24">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.6000000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2655,16 +2655,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2776,7 +2776,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3310,7 +3310,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>44975.375</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -4108,7 +4108,7 @@
         <v>44976.375</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4200,7 +4200,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4823,7 +4823,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4909,7 +4909,7 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -4998,7 +4998,7 @@
         <v>44989.35416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5710,7 +5710,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5967301</v>
+        <v>5967299</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>3</v>
-      </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L62">
         <v>3.4</v>
       </c>
       <c r="M62">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5967299</v>
+        <v>5967301</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>3</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L63">
         <v>3.4</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N63">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.85</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
       <c r="W63">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5967240</v>
+        <v>5967242</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,76 +6333,76 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66">
+      <c r="J66" t="s">
+        <v>48</v>
+      </c>
+      <c r="K66">
+        <v>2.875</v>
+      </c>
+      <c r="L66">
+        <v>3.4</v>
+      </c>
+      <c r="M66">
+        <v>2.2</v>
+      </c>
+      <c r="N66">
+        <v>2.6</v>
+      </c>
+      <c r="O66">
+        <v>3.5</v>
+      </c>
+      <c r="P66">
+        <v>2.375</v>
+      </c>
+      <c r="Q66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>49</v>
-      </c>
-      <c r="K66">
-        <v>2.2</v>
-      </c>
-      <c r="L66">
-        <v>3</v>
-      </c>
-      <c r="M66">
-        <v>3.3</v>
-      </c>
-      <c r="N66">
-        <v>2.15</v>
-      </c>
-      <c r="O66">
-        <v>3</v>
-      </c>
-      <c r="P66">
-        <v>3.4</v>
-      </c>
-      <c r="Q66">
-        <v>-0.25</v>
-      </c>
       <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>1.8</v>
+      </c>
+      <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
         <v>1.875</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.925</v>
       </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
-      <c r="U66">
-        <v>1.825</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
       <c r="W66">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5967242</v>
+        <v>5967240</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,76 +6422,76 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>3.3</v>
+      </c>
+      <c r="N67">
+        <v>2.15</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67">
         <v>3.4</v>
       </c>
-      <c r="M67">
-        <v>2.2</v>
-      </c>
-      <c r="N67">
-        <v>2.6</v>
-      </c>
-      <c r="O67">
-        <v>3.5</v>
-      </c>
-      <c r="P67">
-        <v>2.375</v>
-      </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6603,7 +6603,7 @@
         <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6689,7 +6689,7 @@
         <v>45004.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -7401,7 +7401,7 @@
         <v>45020.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>33</v>
@@ -7493,7 +7493,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -8113,10 +8113,10 @@
         <v>45025.3125</v>
       </c>
       <c r="F86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" t="s">
         <v>34</v>
-      </c>
-      <c r="G86" t="s">
-        <v>35</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5967316</v>
+        <v>5967319</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,58 +8202,58 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>49</v>
       </c>
       <c r="K87">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87">
         <v>1.571</v>
       </c>
-      <c r="N87">
-        <v>4.333</v>
-      </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.333</v>
+        <v>0.571</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8262,16 +8262,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5967319</v>
+        <v>5967316</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,58 +8291,58 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="L88">
+        <v>3.8</v>
+      </c>
+      <c r="M88">
+        <v>1.571</v>
+      </c>
+      <c r="N88">
+        <v>4.333</v>
+      </c>
+      <c r="O88">
         <v>3.5</v>
       </c>
-      <c r="M88">
-        <v>5</v>
-      </c>
-      <c r="N88">
-        <v>1.571</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
       <c r="P88">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.571</v>
+        <v>3.333</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8351,16 +8351,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8736,7 +8736,7 @@
         <v>45038.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
         <v>42</v>
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5967324</v>
+        <v>5967320</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,76 +8825,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="L94">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M94">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="N94">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P94">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q94">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5967320</v>
+        <v>5967324</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,76 +8914,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K95">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="L95">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="N95">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O95">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q95">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
+        <v>1.85</v>
+      </c>
+      <c r="S95">
+        <v>1.95</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
         <v>1.925</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.875</v>
       </c>
-      <c r="T95">
-        <v>3</v>
-      </c>
-      <c r="U95">
-        <v>1.8</v>
-      </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9006,7 +9006,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9448,7 +9448,7 @@
         <v>45045.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
         <v>31</v>
@@ -9629,7 +9629,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10160,7 +10160,7 @@
         <v>45052.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>44</v>
@@ -10341,7 +10341,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5967339</v>
+        <v>5967257</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,58 +10605,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>49</v>
       </c>
       <c r="K114">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10665,16 +10665,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB114">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5967257</v>
+        <v>5967258</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,10 +10694,10 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10709,43 +10709,43 @@
         <v>49</v>
       </c>
       <c r="K115">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="O115">
+        <v>4</v>
+      </c>
+      <c r="P115">
         <v>4.2</v>
       </c>
-      <c r="P115">
-        <v>5.75</v>
-      </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R115">
         <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T115">
         <v>3</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
-        <v>0.444</v>
+        <v>0.571</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10754,16 +10754,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5967338</v>
+        <v>5967259</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,13 +10783,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10798,61 +10798,61 @@
         <v>49</v>
       </c>
       <c r="K116">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
+        <v>1.363</v>
+      </c>
+      <c r="O116">
+        <v>4.5</v>
+      </c>
+      <c r="P116">
+        <v>6</v>
+      </c>
+      <c r="Q116">
+        <v>-1.25</v>
+      </c>
+      <c r="R116">
         <v>1.8</v>
       </c>
-      <c r="O116">
-        <v>4</v>
-      </c>
-      <c r="P116">
-        <v>3.4</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>1.875</v>
-      </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
+        <v>0.363</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
         <v>0.8</v>
       </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
-      <c r="Z116">
-        <v>0.875</v>
-      </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10860,7 +10860,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5967258</v>
+        <v>5967339</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10872,58 +10872,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
         <v>34</v>
       </c>
       <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
         <v>1</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>49</v>
       </c>
       <c r="K117">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L117">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N117">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
         <v>1.95</v>
       </c>
       <c r="W117">
-        <v>0.571</v>
+        <v>1.15</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10932,16 +10932,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5967337</v>
+        <v>5967335</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,58 +10961,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>49</v>
       </c>
       <c r="K118">
-        <v>3.8</v>
+        <v>1.222</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M118">
+        <v>9.5</v>
+      </c>
+      <c r="N118">
+        <v>1.222</v>
+      </c>
+      <c r="O118">
+        <v>5.5</v>
+      </c>
+      <c r="P118">
+        <v>9</v>
+      </c>
+      <c r="Q118">
+        <v>-1.75</v>
+      </c>
+      <c r="R118">
         <v>1.8</v>
       </c>
-      <c r="N118">
-        <v>3.4</v>
-      </c>
-      <c r="O118">
-        <v>3.6</v>
-      </c>
-      <c r="P118">
-        <v>1.85</v>
-      </c>
-      <c r="Q118">
-        <v>0.5</v>
-      </c>
-      <c r="R118">
-        <v>1.925</v>
-      </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>2.4</v>
+        <v>0.222</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11021,13 +11021,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5967336</v>
+        <v>5967337</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,40 +11050,40 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="N119">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
         <v>1.925</v>
@@ -11092,19 +11092,19 @@
         <v>1.875</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
@@ -11116,10 +11116,10 @@
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5967335</v>
+        <v>5967338</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,10 +11139,10 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -11154,34 +11154,34 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>1.222</v>
+        <v>1.95</v>
       </c>
       <c r="L120">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="N120">
-        <v>1.222</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U120">
         <v>1.9</v>
@@ -11190,7 +11190,7 @@
         <v>1.9</v>
       </c>
       <c r="W120">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11199,7 +11199,7 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5967259</v>
+        <v>5967336</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,67 +11228,67 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>50</v>
+      </c>
+      <c r="K121">
+        <v>4.5</v>
+      </c>
+      <c r="L121">
+        <v>3.75</v>
+      </c>
+      <c r="M121">
+        <v>1.6</v>
+      </c>
+      <c r="N121">
+        <v>5</v>
+      </c>
+      <c r="O121">
+        <v>4</v>
+      </c>
+      <c r="P121">
+        <v>1.5</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>1.925</v>
+      </c>
+      <c r="S121">
+        <v>1.875</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>1.8</v>
+      </c>
+      <c r="V121">
         <v>2</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121" t="s">
-        <v>49</v>
-      </c>
-      <c r="K121">
-        <v>1.85</v>
-      </c>
-      <c r="L121">
-        <v>3.3</v>
-      </c>
-      <c r="M121">
-        <v>3.6</v>
-      </c>
-      <c r="N121">
-        <v>1.363</v>
-      </c>
-      <c r="O121">
-        <v>4.5</v>
-      </c>
-      <c r="P121">
-        <v>6</v>
-      </c>
-      <c r="Q121">
-        <v>-1.25</v>
-      </c>
-      <c r="R121">
-        <v>1.8</v>
-      </c>
-      <c r="S121">
-        <v>2</v>
-      </c>
-      <c r="T121">
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
         <v>3</v>
       </c>
-      <c r="U121">
-        <v>1.875</v>
-      </c>
-      <c r="V121">
-        <v>1.925</v>
-      </c>
-      <c r="W121">
-        <v>0.363</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11297,7 +11297,7 @@
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11854,7 +11854,7 @@
         <v>47</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12385,7 +12385,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
         <v>46</v>
@@ -12652,7 +12652,7 @@
         <v>45159.35416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>40</v>
@@ -12922,7 +12922,7 @@
         <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13809,7 +13809,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13898,7 +13898,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>41</v>
@@ -14346,7 +14346,7 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -15233,7 +15233,7 @@
         <v>45200.375</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
         <v>46</v>
@@ -15322,7 +15322,7 @@
         <v>45201.35416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
         <v>36</v>
@@ -15948,7 +15948,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16037,7 +16037,7 @@
         <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16123,7 +16123,7 @@
         <v>45219.33333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
         <v>42</v>
@@ -16835,10 +16835,10 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F184" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" t="s">
         <v>35</v>
-      </c>
-      <c r="G184" t="s">
-        <v>34</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17639,7 +17639,7 @@
         <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17906,7 +17906,7 @@
         <v>36</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -18170,7 +18170,7 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
         <v>44</v>
@@ -18526,7 +18526,7 @@
         <v>45256.375</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,76 +18704,76 @@
         <v>45261.375</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K205">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M205">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N205">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
+        <v>1.875</v>
+      </c>
+      <c r="S205">
         <v>1.925</v>
       </c>
-      <c r="S205">
-        <v>1.875</v>
-      </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,76 +18793,76 @@
         <v>45261.375</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K206">
+        <v>1.7</v>
+      </c>
+      <c r="L206">
+        <v>3.75</v>
+      </c>
+      <c r="M206">
+        <v>4.2</v>
+      </c>
+      <c r="N206">
+        <v>1.7</v>
+      </c>
+      <c r="O206">
+        <v>3.75</v>
+      </c>
+      <c r="P206">
+        <v>4.333</v>
+      </c>
+      <c r="Q206">
+        <v>-0.75</v>
+      </c>
+      <c r="R206">
+        <v>1.925</v>
+      </c>
+      <c r="S206">
+        <v>1.875</v>
+      </c>
+      <c r="T206">
+        <v>2.5</v>
+      </c>
+      <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
         <v>1.95</v>
       </c>
-      <c r="L206">
-        <v>3.5</v>
-      </c>
-      <c r="M206">
-        <v>3.4</v>
-      </c>
-      <c r="N206">
-        <v>2.1</v>
-      </c>
-      <c r="O206">
-        <v>3.4</v>
-      </c>
-      <c r="P206">
-        <v>3</v>
-      </c>
-      <c r="Q206">
-        <v>-0.25</v>
-      </c>
-      <c r="R206">
-        <v>1.875</v>
-      </c>
-      <c r="S206">
-        <v>1.925</v>
-      </c>
-      <c r="T206">
-        <v>2.75</v>
-      </c>
-      <c r="U206">
-        <v>1.8</v>
-      </c>
-      <c r="V206">
-        <v>2</v>
-      </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA206">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC206">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>45</v>
       </c>
       <c r="G209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19772,7 +19772,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
         <v>33</v>
@@ -19950,7 +19950,7 @@
         <v>45271.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
         <v>43</v>
@@ -20131,7 +20131,7 @@
         <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -20487,7 +20487,7 @@
         <v>45</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20840,7 +20840,7 @@
         <v>45283.33333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G229" t="s">
         <v>37</v>
@@ -21196,7 +21196,7 @@
         <v>45284.33333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
         <v>38</v>
@@ -21552,7 +21552,7 @@
         <v>45288.375</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
         <v>30</v>
@@ -21644,7 +21644,7 @@
         <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21911,7 +21911,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22445,7 +22445,7 @@
         <v>46</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22798,7 +22798,7 @@
         <v>45336.35416666666</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G251" t="s">
         <v>43</v>
@@ -22976,7 +22976,7 @@
         <v>45337.33333333334</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G253" t="s">
         <v>47</v>
@@ -23424,7 +23424,7 @@
         <v>41</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -23780,7 +23780,7 @@
         <v>40</v>
       </c>
       <c r="G262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -23847,6 +23847,80 @@
       </c>
       <c r="AC262">
         <v>0.875</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>6992671</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263" t="s">
+        <v>28</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45345.375</v>
+      </c>
+      <c r="F263" t="s">
+        <v>45</v>
+      </c>
+      <c r="G263" t="s">
+        <v>37</v>
+      </c>
+      <c r="K263">
+        <v>3.2</v>
+      </c>
+      <c r="L263">
+        <v>3.4</v>
+      </c>
+      <c r="M263">
+        <v>2</v>
+      </c>
+      <c r="N263">
+        <v>3.2</v>
+      </c>
+      <c r="O263">
+        <v>3.4</v>
+      </c>
+      <c r="P263">
+        <v>2</v>
+      </c>
+      <c r="Q263">
+        <v>0.25</v>
+      </c>
+      <c r="R263">
+        <v>2</v>
+      </c>
+      <c r="S263">
+        <v>1.8</v>
+      </c>
+      <c r="T263">
+        <v>2.75</v>
+      </c>
+      <c r="U263">
+        <v>1.9</v>
+      </c>
+      <c r="V263">
+        <v>1.9</v>
+      </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
+      <c r="AA263">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Port FC</t>
   </si>
   <si>
-    <t>Chiangrai Utd</t>
+    <t>Chonburi</t>
   </si>
   <si>
-    <t>Chonburi</t>
+    <t>Chiangrai Utd</t>
   </si>
   <si>
     <t>Sukhothai FC</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC263"/>
+  <dimension ref="A1:AC264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5967262</v>
+        <v>5967263</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,73 +1085,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="N7">
-        <v>1.952</v>
+        <v>1.571</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5967263</v>
+        <v>5967262</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,73 +1174,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="N8">
-        <v>1.571</v>
+        <v>1.952</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>44961.33333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2506,7 +2506,7 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -2776,7 +2776,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3310,7 +3310,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>44975.375</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -4108,7 +4108,7 @@
         <v>44976.375</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4200,7 +4200,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4823,7 +4823,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4909,7 +4909,7 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -4998,7 +4998,7 @@
         <v>44989.35416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5710,7 +5710,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5967299</v>
+        <v>5967301</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L62">
         <v>3.4</v>
       </c>
       <c r="M62">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N62">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>1.85</v>
+      </c>
+      <c r="V62">
         <v>1.95</v>
       </c>
-      <c r="S62">
-        <v>1.85</v>
-      </c>
-      <c r="T62">
-        <v>2.75</v>
-      </c>
-      <c r="U62">
-        <v>1.9</v>
-      </c>
-      <c r="V62">
-        <v>1.9</v>
-      </c>
       <c r="W62">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5967301</v>
+        <v>5967299</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>3</v>
-      </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L63">
         <v>3.4</v>
       </c>
       <c r="M63">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6603,7 +6603,7 @@
         <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6689,7 +6689,7 @@
         <v>45004.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -7389,7 +7389,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5967310</v>
+        <v>6382423</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7401,76 +7401,76 @@
         <v>45020.33333333334</v>
       </c>
       <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s">
         <v>34</v>
       </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L78">
         <v>3.4</v>
       </c>
       <c r="M78">
+        <v>2.1</v>
+      </c>
+      <c r="N78">
         <v>2.5</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>3.4</v>
       </c>
-      <c r="O78">
-        <v>3.3</v>
-      </c>
       <c r="P78">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q78">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6382423</v>
+        <v>5967310</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7490,76 +7490,76 @@
         <v>45020.33333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L79">
         <v>3.4</v>
       </c>
       <c r="M79">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P79">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W79">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8113,10 +8113,10 @@
         <v>45025.3125</v>
       </c>
       <c r="F86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
         <v>35</v>
-      </c>
-      <c r="G86" t="s">
-        <v>34</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>45038.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>42</v>
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5967320</v>
+        <v>5967324</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,76 +8825,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="L94">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="N94">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O94">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q94">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R94">
+        <v>1.85</v>
+      </c>
+      <c r="S94">
+        <v>1.95</v>
+      </c>
+      <c r="T94">
+        <v>2.75</v>
+      </c>
+      <c r="U94">
         <v>1.925</v>
       </c>
-      <c r="S94">
+      <c r="V94">
         <v>1.875</v>
       </c>
-      <c r="T94">
-        <v>3</v>
-      </c>
-      <c r="U94">
-        <v>1.8</v>
-      </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
       <c r="W94">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5967324</v>
+        <v>5967320</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,76 +8914,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M95">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P95">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X95">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9006,7 +9006,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9448,7 +9448,7 @@
         <v>45045.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
         <v>31</v>
@@ -9629,7 +9629,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10160,7 +10160,7 @@
         <v>45052.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>44</v>
@@ -10341,7 +10341,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5967257</v>
+        <v>5967337</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,58 +10605,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
         <v>1</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>49</v>
       </c>
       <c r="K114">
+        <v>3.8</v>
+      </c>
+      <c r="L114">
+        <v>3.5</v>
+      </c>
+      <c r="M114">
         <v>1.8</v>
       </c>
-      <c r="L114">
+      <c r="N114">
         <v>3.4</v>
       </c>
-      <c r="M114">
-        <v>3.8</v>
-      </c>
-      <c r="N114">
-        <v>1.444</v>
-      </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q114">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T114">
         <v>3</v>
       </c>
       <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
         <v>1.975</v>
       </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
       <c r="W114">
-        <v>0.444</v>
+        <v>2.4</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10665,16 +10665,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5967258</v>
+        <v>5967336</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,76 +10694,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="L115">
         <v>3.75</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="O115">
         <v>4</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.8</v>
+      </c>
+      <c r="V115">
+        <v>2</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>3</v>
       </c>
-      <c r="U115">
-        <v>1.75</v>
-      </c>
-      <c r="V115">
-        <v>1.95</v>
-      </c>
-      <c r="W115">
-        <v>0.571</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5967259</v>
+        <v>5967339</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,58 +10783,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
         <v>49</v>
       </c>
       <c r="K116">
+        <v>2.8</v>
+      </c>
+      <c r="L116">
+        <v>3.25</v>
+      </c>
+      <c r="M116">
+        <v>2.2</v>
+      </c>
+      <c r="N116">
+        <v>2.15</v>
+      </c>
+      <c r="O116">
+        <v>3.3</v>
+      </c>
+      <c r="P116">
+        <v>3.2</v>
+      </c>
+      <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>1.925</v>
+      </c>
+      <c r="S116">
+        <v>1.875</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
         <v>1.85</v>
       </c>
-      <c r="L116">
-        <v>3.3</v>
-      </c>
-      <c r="M116">
-        <v>3.6</v>
-      </c>
-      <c r="N116">
-        <v>1.363</v>
-      </c>
-      <c r="O116">
-        <v>4.5</v>
-      </c>
-      <c r="P116">
-        <v>6</v>
-      </c>
-      <c r="Q116">
-        <v>-1.25</v>
-      </c>
-      <c r="R116">
-        <v>1.8</v>
-      </c>
-      <c r="S116">
-        <v>2</v>
-      </c>
-      <c r="T116">
-        <v>3</v>
-      </c>
-      <c r="U116">
-        <v>1.875</v>
-      </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>0.363</v>
+        <v>1.15</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10843,16 +10843,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC116">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10860,7 +10860,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5967339</v>
+        <v>5967335</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10872,58 +10872,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>49</v>
       </c>
       <c r="K117">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="L117">
+        <v>6</v>
+      </c>
+      <c r="M117">
+        <v>9.5</v>
+      </c>
+      <c r="N117">
+        <v>1.222</v>
+      </c>
+      <c r="O117">
+        <v>5.5</v>
+      </c>
+      <c r="P117">
+        <v>9</v>
+      </c>
+      <c r="Q117">
+        <v>-1.75</v>
+      </c>
+      <c r="R117">
+        <v>1.8</v>
+      </c>
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
         <v>3.25</v>
       </c>
-      <c r="M117">
-        <v>2.2</v>
-      </c>
-      <c r="N117">
-        <v>2.15</v>
-      </c>
-      <c r="O117">
-        <v>3.3</v>
-      </c>
-      <c r="P117">
-        <v>3.2</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.925</v>
-      </c>
-      <c r="S117">
-        <v>1.875</v>
-      </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>1.15</v>
+        <v>0.222</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10932,16 +10932,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5967335</v>
+        <v>5967338</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,10 +10961,10 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -10976,34 +10976,34 @@
         <v>49</v>
       </c>
       <c r="K118">
-        <v>1.222</v>
+        <v>1.95</v>
       </c>
       <c r="L118">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="N118">
-        <v>1.222</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="Q118">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U118">
         <v>1.9</v>
@@ -11012,7 +11012,7 @@
         <v>1.9</v>
       </c>
       <c r="W118">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11021,7 +11021,7 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA118">
         <v>-1</v>
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5967337</v>
+        <v>5967259</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,58 +11050,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>49</v>
       </c>
       <c r="K119">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
+        <v>3.6</v>
+      </c>
+      <c r="N119">
+        <v>1.363</v>
+      </c>
+      <c r="O119">
+        <v>4.5</v>
+      </c>
+      <c r="P119">
+        <v>6</v>
+      </c>
+      <c r="Q119">
+        <v>-1.25</v>
+      </c>
+      <c r="R119">
         <v>1.8</v>
       </c>
-      <c r="N119">
-        <v>3.4</v>
-      </c>
-      <c r="O119">
-        <v>3.6</v>
-      </c>
-      <c r="P119">
-        <v>1.85</v>
-      </c>
-      <c r="Q119">
-        <v>0.5</v>
-      </c>
-      <c r="R119">
-        <v>1.925</v>
-      </c>
       <c r="S119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T119">
         <v>3</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11110,16 +11110,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
+        <v>0.8</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>0.925</v>
-      </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
-      <c r="AB119">
-        <v>0.825</v>
-      </c>
-      <c r="AC119">
-        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5967338</v>
+        <v>5967257</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,13 +11139,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -11154,43 +11154,43 @@
         <v>49</v>
       </c>
       <c r="K120">
+        <v>1.8</v>
+      </c>
+      <c r="L120">
+        <v>3.4</v>
+      </c>
+      <c r="M120">
+        <v>3.8</v>
+      </c>
+      <c r="N120">
+        <v>1.444</v>
+      </c>
+      <c r="O120">
+        <v>4.2</v>
+      </c>
+      <c r="P120">
+        <v>5.75</v>
+      </c>
+      <c r="Q120">
+        <v>-1.25</v>
+      </c>
+      <c r="R120">
         <v>1.95</v>
       </c>
-      <c r="L120">
-        <v>3.5</v>
-      </c>
-      <c r="M120">
-        <v>3.3</v>
-      </c>
-      <c r="N120">
-        <v>1.8</v>
-      </c>
-      <c r="O120">
-        <v>4</v>
-      </c>
-      <c r="P120">
-        <v>3.4</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>1.875</v>
-      </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
         <v>3</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W120">
-        <v>0.8</v>
+        <v>0.444</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11199,16 +11199,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5967336</v>
+        <v>5967258</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="L121">
         <v>3.75</v>
       </c>
       <c r="M121">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="N121">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="O121">
         <v>4</v>
       </c>
       <c r="P121">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11854,7 +11854,7 @@
         <v>47</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12385,7 +12385,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
         <v>46</v>
@@ -12652,7 +12652,7 @@
         <v>45159.35416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
         <v>40</v>
@@ -12922,7 +12922,7 @@
         <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13809,7 +13809,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13898,7 +13898,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
         <v>41</v>
@@ -14346,7 +14346,7 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -15233,7 +15233,7 @@
         <v>45200.375</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
         <v>46</v>
@@ -15322,7 +15322,7 @@
         <v>45201.35416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>36</v>
@@ -15948,7 +15948,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16037,7 +16037,7 @@
         <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16123,7 +16123,7 @@
         <v>45219.33333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>42</v>
@@ -16835,10 +16835,10 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F184" t="s">
+        <v>35</v>
+      </c>
+      <c r="G184" t="s">
         <v>34</v>
-      </c>
-      <c r="G184" t="s">
-        <v>35</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17639,7 +17639,7 @@
         <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17906,7 +17906,7 @@
         <v>36</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -18170,7 +18170,7 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
         <v>44</v>
@@ -18526,7 +18526,7 @@
         <v>45256.375</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,76 +18704,76 @@
         <v>45261.375</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K205">
+        <v>1.7</v>
+      </c>
+      <c r="L205">
+        <v>3.75</v>
+      </c>
+      <c r="M205">
+        <v>4.2</v>
+      </c>
+      <c r="N205">
+        <v>1.7</v>
+      </c>
+      <c r="O205">
+        <v>3.75</v>
+      </c>
+      <c r="P205">
+        <v>4.333</v>
+      </c>
+      <c r="Q205">
+        <v>-0.75</v>
+      </c>
+      <c r="R205">
+        <v>1.925</v>
+      </c>
+      <c r="S205">
+        <v>1.875</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>1.85</v>
+      </c>
+      <c r="V205">
         <v>1.95</v>
       </c>
-      <c r="L205">
-        <v>3.5</v>
-      </c>
-      <c r="M205">
-        <v>3.4</v>
-      </c>
-      <c r="N205">
-        <v>2.1</v>
-      </c>
-      <c r="O205">
-        <v>3.4</v>
-      </c>
-      <c r="P205">
-        <v>3</v>
-      </c>
-      <c r="Q205">
-        <v>-0.25</v>
-      </c>
-      <c r="R205">
-        <v>1.875</v>
-      </c>
-      <c r="S205">
-        <v>1.925</v>
-      </c>
-      <c r="T205">
-        <v>2.75</v>
-      </c>
-      <c r="U205">
-        <v>1.8</v>
-      </c>
-      <c r="V205">
-        <v>2</v>
-      </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X205">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA205">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC205">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,76 +18793,76 @@
         <v>45261.375</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G206" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K206">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M206">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N206">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
+        <v>1.875</v>
+      </c>
+      <c r="S206">
         <v>1.925</v>
       </c>
-      <c r="S206">
-        <v>1.875</v>
-      </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>45</v>
       </c>
       <c r="G209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19772,7 +19772,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G217" t="s">
         <v>33</v>
@@ -19950,7 +19950,7 @@
         <v>45271.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
         <v>43</v>
@@ -20131,7 +20131,7 @@
         <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -20487,7 +20487,7 @@
         <v>45</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20840,7 +20840,7 @@
         <v>45283.33333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G229" t="s">
         <v>37</v>
@@ -21196,7 +21196,7 @@
         <v>45284.33333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
         <v>38</v>
@@ -21552,7 +21552,7 @@
         <v>45288.375</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
         <v>30</v>
@@ -21644,7 +21644,7 @@
         <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21911,7 +21911,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22445,7 +22445,7 @@
         <v>46</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22798,7 +22798,7 @@
         <v>45336.35416666666</v>
       </c>
       <c r="F251" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
         <v>43</v>
@@ -22976,7 +22976,7 @@
         <v>45337.33333333334</v>
       </c>
       <c r="F253" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G253" t="s">
         <v>47</v>
@@ -23424,7 +23424,7 @@
         <v>41</v>
       </c>
       <c r="G258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -23780,7 +23780,7 @@
         <v>40</v>
       </c>
       <c r="G262" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0.25</v>
       </c>
       <c r="R263">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S263">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T263">
         <v>2.75</v>
@@ -23920,6 +23920,80 @@
         <v>0</v>
       </c>
       <c r="AA263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>6992668</v>
+      </c>
+      <c r="C264" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" t="s">
+        <v>28</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45346.375</v>
+      </c>
+      <c r="F264" t="s">
+        <v>33</v>
+      </c>
+      <c r="G264" t="s">
+        <v>47</v>
+      </c>
+      <c r="K264">
+        <v>1.2</v>
+      </c>
+      <c r="L264">
+        <v>6</v>
+      </c>
+      <c r="M264">
+        <v>9.5</v>
+      </c>
+      <c r="N264">
+        <v>1.25</v>
+      </c>
+      <c r="O264">
+        <v>5.75</v>
+      </c>
+      <c r="P264">
+        <v>7.5</v>
+      </c>
+      <c r="Q264">
+        <v>-1.75</v>
+      </c>
+      <c r="R264">
+        <v>1.8</v>
+      </c>
+      <c r="S264">
+        <v>2</v>
+      </c>
+      <c r="T264">
+        <v>3.5</v>
+      </c>
+      <c r="U264">
+        <v>1.925</v>
+      </c>
+      <c r="V264">
+        <v>1.875</v>
+      </c>
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
+      <c r="Z264">
+        <v>0</v>
+      </c>
+      <c r="AA264">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC264"/>
+  <dimension ref="A1:AC268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5967272</v>
+        <v>5967226</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,58 +2506,58 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
       </c>
       <c r="K23">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L23">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="N23">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O23">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>0.6000000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2566,16 +2566,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5967226</v>
+        <v>5967272</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,58 +2595,58 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M24">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="N24">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>1.8</v>
+      </c>
+      <c r="T24">
+        <v>2.75</v>
+      </c>
+      <c r="U24">
         <v>1.925</v>
       </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
-      <c r="U24">
-        <v>1.825</v>
-      </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>0.6659999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2655,16 +2655,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5967301</v>
+        <v>5967299</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>3</v>
-      </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L62">
         <v>3.4</v>
       </c>
       <c r="M62">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O62">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5967299</v>
+        <v>5967301</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>3</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L63">
         <v>3.4</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N63">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.85</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
       <c r="W63">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5967242</v>
+        <v>5967240</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,76 +6333,76 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>3.3</v>
+      </c>
+      <c r="N66">
+        <v>2.15</v>
+      </c>
+      <c r="O66">
+        <v>3</v>
+      </c>
+      <c r="P66">
         <v>3.4</v>
       </c>
-      <c r="M66">
-        <v>2.2</v>
-      </c>
-      <c r="N66">
-        <v>2.6</v>
-      </c>
-      <c r="O66">
-        <v>3.5</v>
-      </c>
-      <c r="P66">
-        <v>2.375</v>
-      </c>
       <c r="Q66">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5967240</v>
+        <v>5967242</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,76 +6422,76 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="I67">
+      <c r="J67" t="s">
+        <v>48</v>
+      </c>
+      <c r="K67">
+        <v>2.875</v>
+      </c>
+      <c r="L67">
+        <v>3.4</v>
+      </c>
+      <c r="M67">
+        <v>2.2</v>
+      </c>
+      <c r="N67">
+        <v>2.6</v>
+      </c>
+      <c r="O67">
+        <v>3.5</v>
+      </c>
+      <c r="P67">
+        <v>2.375</v>
+      </c>
+      <c r="Q67">
         <v>0</v>
       </c>
-      <c r="J67" t="s">
-        <v>49</v>
-      </c>
-      <c r="K67">
-        <v>2.2</v>
-      </c>
-      <c r="L67">
-        <v>3</v>
-      </c>
-      <c r="M67">
-        <v>3.3</v>
-      </c>
-      <c r="N67">
-        <v>2.15</v>
-      </c>
-      <c r="O67">
-        <v>3</v>
-      </c>
-      <c r="P67">
-        <v>3.4</v>
-      </c>
-      <c r="Q67">
-        <v>-0.25</v>
-      </c>
       <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>1.8</v>
+      </c>
+      <c r="T67">
+        <v>2.75</v>
+      </c>
+      <c r="U67">
         <v>1.875</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>1.925</v>
       </c>
-      <c r="T67">
-        <v>2.25</v>
-      </c>
-      <c r="U67">
-        <v>1.825</v>
-      </c>
-      <c r="V67">
-        <v>1.975</v>
-      </c>
       <c r="W67">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5967337</v>
+        <v>5967339</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,13 +10605,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -10620,25 +10620,25 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M114">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N114">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P114">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q114">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
         <v>1.925</v>
@@ -10647,16 +10647,16 @@
         <v>1.875</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10671,10 +10671,10 @@
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5967336</v>
+        <v>5967338</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,76 +10694,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="N115">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O115">
         <v>4</v>
       </c>
       <c r="P115">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q115">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>1.875</v>
+      </c>
+      <c r="S115">
         <v>1.925</v>
       </c>
-      <c r="S115">
-        <v>1.875</v>
-      </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X115">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5967339</v>
+        <v>5967257</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,58 +10783,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>49</v>
       </c>
       <c r="K116">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N116">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10843,16 +10843,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB116">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5967338</v>
+        <v>5967259</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,13 +10961,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -10976,61 +10976,61 @@
         <v>49</v>
       </c>
       <c r="K118">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N118">
+        <v>1.363</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>6</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
         <v>1.8</v>
       </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>3.4</v>
-      </c>
-      <c r="Q118">
-        <v>-0.5</v>
-      </c>
-      <c r="R118">
-        <v>1.875</v>
-      </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
+        <v>0.363</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
         <v>0.8</v>
       </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>-1</v>
-      </c>
-      <c r="Z118">
-        <v>0.875</v>
-      </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5967259</v>
+        <v>5967336</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,67 +11050,67 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>50</v>
+      </c>
+      <c r="K119">
+        <v>4.5</v>
+      </c>
+      <c r="L119">
+        <v>3.75</v>
+      </c>
+      <c r="M119">
+        <v>1.6</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119">
+        <v>4</v>
+      </c>
+      <c r="P119">
+        <v>1.5</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+      <c r="R119">
+        <v>1.925</v>
+      </c>
+      <c r="S119">
+        <v>1.875</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.8</v>
+      </c>
+      <c r="V119">
         <v>2</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119" t="s">
-        <v>49</v>
-      </c>
-      <c r="K119">
-        <v>1.85</v>
-      </c>
-      <c r="L119">
-        <v>3.3</v>
-      </c>
-      <c r="M119">
-        <v>3.6</v>
-      </c>
-      <c r="N119">
-        <v>1.363</v>
-      </c>
-      <c r="O119">
-        <v>4.5</v>
-      </c>
-      <c r="P119">
-        <v>6</v>
-      </c>
-      <c r="Q119">
-        <v>-1.25</v>
-      </c>
-      <c r="R119">
-        <v>1.8</v>
-      </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
-      <c r="T119">
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
         <v>3</v>
       </c>
-      <c r="U119">
-        <v>1.875</v>
-      </c>
-      <c r="V119">
-        <v>1.925</v>
-      </c>
-      <c r="W119">
-        <v>0.363</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
         <v>-1</v>
@@ -11119,7 +11119,7 @@
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5967257</v>
+        <v>5967258</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,10 +11139,10 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11154,43 +11154,43 @@
         <v>49</v>
       </c>
       <c r="K120">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N120">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="O120">
+        <v>4</v>
+      </c>
+      <c r="P120">
         <v>4.2</v>
       </c>
-      <c r="P120">
-        <v>5.75</v>
-      </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R120">
         <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T120">
         <v>3</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>0.444</v>
+        <v>0.571</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11199,16 +11199,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5967258</v>
+        <v>5967337</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,58 +11228,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
         <v>1</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>49</v>
       </c>
       <c r="K121">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M121">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N121">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
         <v>3</v>
       </c>
       <c r="U121">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>0.571</v>
+        <v>2.4</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11288,16 +11288,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,76 +18704,76 @@
         <v>45261.375</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K205">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M205">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N205">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
+        <v>1.875</v>
+      </c>
+      <c r="S205">
         <v>1.925</v>
       </c>
-      <c r="S205">
-        <v>1.875</v>
-      </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,76 +18793,76 @@
         <v>45261.375</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K206">
+        <v>1.7</v>
+      </c>
+      <c r="L206">
+        <v>3.75</v>
+      </c>
+      <c r="M206">
+        <v>4.2</v>
+      </c>
+      <c r="N206">
+        <v>1.7</v>
+      </c>
+      <c r="O206">
+        <v>3.75</v>
+      </c>
+      <c r="P206">
+        <v>4.333</v>
+      </c>
+      <c r="Q206">
+        <v>-0.75</v>
+      </c>
+      <c r="R206">
+        <v>1.925</v>
+      </c>
+      <c r="S206">
+        <v>1.875</v>
+      </c>
+      <c r="T206">
+        <v>2.5</v>
+      </c>
+      <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
         <v>1.95</v>
       </c>
-      <c r="L206">
-        <v>3.5</v>
-      </c>
-      <c r="M206">
-        <v>3.4</v>
-      </c>
-      <c r="N206">
-        <v>2.1</v>
-      </c>
-      <c r="O206">
-        <v>3.4</v>
-      </c>
-      <c r="P206">
-        <v>3</v>
-      </c>
-      <c r="Q206">
-        <v>-0.25</v>
-      </c>
-      <c r="R206">
-        <v>1.875</v>
-      </c>
-      <c r="S206">
-        <v>1.925</v>
-      </c>
-      <c r="T206">
-        <v>2.75</v>
-      </c>
-      <c r="U206">
-        <v>1.8</v>
-      </c>
-      <c r="V206">
-        <v>2</v>
-      </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA206">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC206">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -23884,7 +23884,7 @@
         <v>3.2</v>
       </c>
       <c r="O263">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P263">
         <v>2</v>
@@ -23893,19 +23893,19 @@
         <v>0.25</v>
       </c>
       <c r="R263">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S263">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T263">
         <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
         <v>0</v>
@@ -23928,7 +23928,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6992668</v>
+        <v>6992333</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23937,49 +23937,49 @@
         <v>28</v>
       </c>
       <c r="E264" s="2">
-        <v>45346.375</v>
+        <v>45346.33333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K264">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L264">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M264">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="N264">
-        <v>1.25</v>
+        <v>1.181</v>
       </c>
       <c r="O264">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="P264">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Q264">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R264">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S264">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T264">
         <v>3.5</v>
       </c>
       <c r="U264">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W264">
         <v>0</v>
@@ -23994,6 +23994,302 @@
         <v>0</v>
       </c>
       <c r="AA264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>6992672</v>
+      </c>
+      <c r="C265" t="s">
+        <v>28</v>
+      </c>
+      <c r="D265" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45346.35416666666</v>
+      </c>
+      <c r="F265" t="s">
+        <v>38</v>
+      </c>
+      <c r="G265" t="s">
+        <v>40</v>
+      </c>
+      <c r="K265">
+        <v>1.727</v>
+      </c>
+      <c r="L265">
+        <v>3.4</v>
+      </c>
+      <c r="M265">
+        <v>4.333</v>
+      </c>
+      <c r="N265">
+        <v>1.615</v>
+      </c>
+      <c r="O265">
+        <v>3.75</v>
+      </c>
+      <c r="P265">
+        <v>4.5</v>
+      </c>
+      <c r="Q265">
+        <v>-0.75</v>
+      </c>
+      <c r="R265">
+        <v>1.825</v>
+      </c>
+      <c r="S265">
+        <v>1.975</v>
+      </c>
+      <c r="T265">
+        <v>2.75</v>
+      </c>
+      <c r="U265">
+        <v>1.9</v>
+      </c>
+      <c r="V265">
+        <v>1.9</v>
+      </c>
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>6992668</v>
+      </c>
+      <c r="C266" t="s">
+        <v>28</v>
+      </c>
+      <c r="D266" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45346.375</v>
+      </c>
+      <c r="F266" t="s">
+        <v>33</v>
+      </c>
+      <c r="G266" t="s">
+        <v>47</v>
+      </c>
+      <c r="K266">
+        <v>1.2</v>
+      </c>
+      <c r="L266">
+        <v>6</v>
+      </c>
+      <c r="M266">
+        <v>9.5</v>
+      </c>
+      <c r="N266">
+        <v>1.2</v>
+      </c>
+      <c r="O266">
+        <v>6</v>
+      </c>
+      <c r="P266">
+        <v>8.5</v>
+      </c>
+      <c r="Q266">
+        <v>-2</v>
+      </c>
+      <c r="R266">
+        <v>1.85</v>
+      </c>
+      <c r="S266">
+        <v>1.95</v>
+      </c>
+      <c r="T266">
+        <v>3.5</v>
+      </c>
+      <c r="U266">
+        <v>1.85</v>
+      </c>
+      <c r="V266">
+        <v>1.95</v>
+      </c>
+      <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <v>0</v>
+      </c>
+      <c r="AA266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>6992667</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45346.41666666666</v>
+      </c>
+      <c r="F267" t="s">
+        <v>35</v>
+      </c>
+      <c r="G267" t="s">
+        <v>41</v>
+      </c>
+      <c r="K267">
+        <v>1.727</v>
+      </c>
+      <c r="L267">
+        <v>3.5</v>
+      </c>
+      <c r="M267">
+        <v>4.2</v>
+      </c>
+      <c r="N267">
+        <v>2.25</v>
+      </c>
+      <c r="O267">
+        <v>3.4</v>
+      </c>
+      <c r="P267">
+        <v>2.75</v>
+      </c>
+      <c r="Q267">
+        <v>-0.25</v>
+      </c>
+      <c r="R267">
+        <v>2.025</v>
+      </c>
+      <c r="S267">
+        <v>1.775</v>
+      </c>
+      <c r="T267">
+        <v>2.5</v>
+      </c>
+      <c r="U267">
+        <v>1.9</v>
+      </c>
+      <c r="V267">
+        <v>1.9</v>
+      </c>
+      <c r="W267">
+        <v>0</v>
+      </c>
+      <c r="X267">
+        <v>0</v>
+      </c>
+      <c r="Y267">
+        <v>0</v>
+      </c>
+      <c r="Z267">
+        <v>0</v>
+      </c>
+      <c r="AA267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>6992673</v>
+      </c>
+      <c r="C268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45347.33333333334</v>
+      </c>
+      <c r="F268" t="s">
+        <v>44</v>
+      </c>
+      <c r="G268" t="s">
+        <v>30</v>
+      </c>
+      <c r="K268">
+        <v>2.8</v>
+      </c>
+      <c r="L268">
+        <v>3.4</v>
+      </c>
+      <c r="M268">
+        <v>2.2</v>
+      </c>
+      <c r="N268">
+        <v>2.375</v>
+      </c>
+      <c r="O268">
+        <v>3.3</v>
+      </c>
+      <c r="P268">
+        <v>2.625</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>1.8</v>
+      </c>
+      <c r="S268">
+        <v>2</v>
+      </c>
+      <c r="T268">
+        <v>2.5</v>
+      </c>
+      <c r="U268">
+        <v>1.875</v>
+      </c>
+      <c r="V268">
+        <v>1.925</v>
+      </c>
+      <c r="W268">
+        <v>0</v>
+      </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
+      <c r="Y268">
+        <v>0</v>
+      </c>
+      <c r="Z268">
+        <v>0</v>
+      </c>
+      <c r="AA268">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Port FC</t>
   </si>
   <si>
-    <t>Chonburi</t>
+    <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Chiangrai Utd</t>
+    <t>Chonburi</t>
   </si>
   <si>
     <t>Sukhothai FC</t>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5967263</v>
+        <v>5967262</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,73 +1085,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="N7">
-        <v>1.571</v>
+        <v>1.952</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5967262</v>
+        <v>5967263</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,73 +1174,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="N8">
-        <v>1.952</v>
+        <v>1.571</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X8">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>44961.33333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2494,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5967226</v>
+        <v>5967272</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2506,58 +2506,58 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
       </c>
       <c r="K23">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M23">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="N23">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
         <v>1.925</v>
       </c>
-      <c r="S23">
-        <v>1.875</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.825</v>
-      </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W23">
-        <v>0.6659999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2566,16 +2566,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5967272</v>
+        <v>5967226</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2595,58 +2595,58 @@
         <v>44962.33333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
       </c>
       <c r="K24">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="N24">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.6000000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2655,16 +2655,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2776,7 +2776,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3310,7 +3310,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>44975.375</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -4108,7 +4108,7 @@
         <v>44976.375</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4200,7 +4200,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4823,7 +4823,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4909,7 +4909,7 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -4998,7 +4998,7 @@
         <v>44989.35416666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5967236</v>
+        <v>5967293</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,61 +5354,61 @@
         <v>44990.33333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>1.166</v>
       </c>
       <c r="L55">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M55">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="N55">
-        <v>2.8</v>
+        <v>1.181</v>
       </c>
       <c r="O55">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P55">
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X55">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5420,10 +5420,10 @@
         <v>-0</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5967293</v>
+        <v>5967236</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,61 +5443,61 @@
         <v>44990.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>50</v>
+      </c>
+      <c r="K56">
         <v>2</v>
       </c>
-      <c r="I56">
+      <c r="L56">
+        <v>3.3</v>
+      </c>
+      <c r="M56">
+        <v>3.4</v>
+      </c>
+      <c r="N56">
+        <v>2.8</v>
+      </c>
+      <c r="O56">
+        <v>3.1</v>
+      </c>
+      <c r="P56">
+        <v>2.4</v>
+      </c>
+      <c r="Q56">
         <v>0</v>
       </c>
-      <c r="J56" t="s">
-        <v>49</v>
-      </c>
-      <c r="K56">
-        <v>1.166</v>
-      </c>
-      <c r="L56">
-        <v>6.5</v>
-      </c>
-      <c r="M56">
-        <v>12</v>
-      </c>
-      <c r="N56">
-        <v>1.181</v>
-      </c>
-      <c r="O56">
-        <v>6</v>
-      </c>
-      <c r="P56">
-        <v>12</v>
-      </c>
-      <c r="Q56">
-        <v>-2</v>
-      </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5509,10 +5509,10 @@
         <v>-0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC56">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5980,7 +5980,7 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5967240</v>
+        <v>5967242</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,76 +6333,76 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66">
+      <c r="J66" t="s">
+        <v>48</v>
+      </c>
+      <c r="K66">
+        <v>2.875</v>
+      </c>
+      <c r="L66">
+        <v>3.4</v>
+      </c>
+      <c r="M66">
+        <v>2.2</v>
+      </c>
+      <c r="N66">
+        <v>2.6</v>
+      </c>
+      <c r="O66">
+        <v>3.5</v>
+      </c>
+      <c r="P66">
+        <v>2.375</v>
+      </c>
+      <c r="Q66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>49</v>
-      </c>
-      <c r="K66">
-        <v>2.2</v>
-      </c>
-      <c r="L66">
-        <v>3</v>
-      </c>
-      <c r="M66">
-        <v>3.3</v>
-      </c>
-      <c r="N66">
-        <v>2.15</v>
-      </c>
-      <c r="O66">
-        <v>3</v>
-      </c>
-      <c r="P66">
-        <v>3.4</v>
-      </c>
-      <c r="Q66">
-        <v>-0.25</v>
-      </c>
       <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>1.8</v>
+      </c>
+      <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
         <v>1.875</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.925</v>
       </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
-      <c r="U66">
-        <v>1.825</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
       <c r="W66">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5967242</v>
+        <v>5967240</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,76 +6422,76 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>3.3</v>
+      </c>
+      <c r="N67">
+        <v>2.15</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67">
         <v>3.4</v>
       </c>
-      <c r="M67">
-        <v>2.2</v>
-      </c>
-      <c r="N67">
-        <v>2.6</v>
-      </c>
-      <c r="O67">
-        <v>3.5</v>
-      </c>
-      <c r="P67">
-        <v>2.375</v>
-      </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6603,7 +6603,7 @@
         <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6689,7 +6689,7 @@
         <v>45004.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -7404,7 +7404,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7490,7 +7490,7 @@
         <v>45020.33333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -8113,10 +8113,10 @@
         <v>45025.3125</v>
       </c>
       <c r="F86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" t="s">
         <v>34</v>
-      </c>
-      <c r="G86" t="s">
-        <v>35</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>45038.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
         <v>42</v>
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5967324</v>
+        <v>5967320</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,76 +8825,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="L94">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M94">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="N94">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P94">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q94">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X94">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5967320</v>
+        <v>5967324</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,76 +8914,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K95">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="L95">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="N95">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O95">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q95">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
+        <v>1.85</v>
+      </c>
+      <c r="S95">
+        <v>1.95</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
         <v>1.925</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.875</v>
       </c>
-      <c r="T95">
-        <v>3</v>
-      </c>
-      <c r="U95">
-        <v>1.8</v>
-      </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9006,7 +9006,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9448,7 +9448,7 @@
         <v>45045.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
         <v>31</v>
@@ -9629,7 +9629,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10160,7 +10160,7 @@
         <v>45052.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>44</v>
@@ -10341,7 +10341,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5967339</v>
+        <v>5967336</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,40 +10605,40 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="L114">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R114">
         <v>1.925</v>
@@ -10650,16 +10650,16 @@
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W114">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y114">
         <v>-1</v>
@@ -10671,10 +10671,10 @@
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5967338</v>
+        <v>5967339</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,76 +10694,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>49</v>
       </c>
       <c r="K115">
+        <v>2.8</v>
+      </c>
+      <c r="L115">
+        <v>3.25</v>
+      </c>
+      <c r="M115">
+        <v>2.2</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
+        <v>3.3</v>
+      </c>
+      <c r="P115">
+        <v>3.2</v>
+      </c>
+      <c r="Q115">
+        <v>-0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.925</v>
+      </c>
+      <c r="S115">
+        <v>1.875</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.85</v>
+      </c>
+      <c r="V115">
         <v>1.95</v>
       </c>
-      <c r="L115">
-        <v>3.5</v>
-      </c>
-      <c r="M115">
-        <v>3.3</v>
-      </c>
-      <c r="N115">
-        <v>1.8</v>
-      </c>
-      <c r="O115">
-        <v>4</v>
-      </c>
-      <c r="P115">
-        <v>3.4</v>
-      </c>
-      <c r="Q115">
+      <c r="W115">
+        <v>1.15</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.925</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
+        <v>0.425</v>
+      </c>
+      <c r="AC115">
         <v>-0.5</v>
-      </c>
-      <c r="R115">
-        <v>1.875</v>
-      </c>
-      <c r="S115">
-        <v>1.925</v>
-      </c>
-      <c r="T115">
-        <v>3</v>
-      </c>
-      <c r="U115">
-        <v>1.9</v>
-      </c>
-      <c r="V115">
-        <v>1.9</v>
-      </c>
-      <c r="W115">
-        <v>0.8</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>0.875</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC115">
-        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5967257</v>
+        <v>5967338</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,13 +10783,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10798,43 +10798,43 @@
         <v>49</v>
       </c>
       <c r="K116">
+        <v>1.95</v>
+      </c>
+      <c r="L116">
+        <v>3.5</v>
+      </c>
+      <c r="M116">
+        <v>3.3</v>
+      </c>
+      <c r="N116">
         <v>1.8</v>
       </c>
-      <c r="L116">
+      <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116">
         <v>3.4</v>
       </c>
-      <c r="M116">
-        <v>3.8</v>
-      </c>
-      <c r="N116">
-        <v>1.444</v>
-      </c>
-      <c r="O116">
-        <v>4.2</v>
-      </c>
-      <c r="P116">
-        <v>5.75</v>
-      </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.444</v>
+        <v>0.8</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10843,16 +10843,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10860,7 +10860,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5967335</v>
+        <v>5967257</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10872,13 +10872,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -10887,43 +10887,43 @@
         <v>49</v>
       </c>
       <c r="K117">
-        <v>1.222</v>
+        <v>1.8</v>
       </c>
       <c r="L117">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="N117">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="O117">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="Q117">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
-        <v>0.222</v>
+        <v>0.444</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10932,16 +10932,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5967259</v>
+        <v>5967258</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,13 +10961,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -10976,43 +10976,43 @@
         <v>49</v>
       </c>
       <c r="K118">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N118">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.363</v>
+        <v>0.571</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11021,16 +11021,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5967336</v>
+        <v>5967259</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,76 +11050,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
+        <v>1.85</v>
+      </c>
+      <c r="L119">
+        <v>3.3</v>
+      </c>
+      <c r="M119">
+        <v>3.6</v>
+      </c>
+      <c r="N119">
+        <v>1.363</v>
+      </c>
+      <c r="O119">
         <v>4.5</v>
       </c>
-      <c r="L119">
-        <v>3.75</v>
-      </c>
-      <c r="M119">
-        <v>1.6</v>
-      </c>
-      <c r="N119">
-        <v>5</v>
-      </c>
-      <c r="O119">
-        <v>4</v>
-      </c>
       <c r="P119">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.925</v>
       </c>
-      <c r="S119">
-        <v>1.875</v>
-      </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.8</v>
-      </c>
-      <c r="V119">
-        <v>2</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
+        <v>0.8</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>0.925</v>
-      </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
-      <c r="AB119">
-        <v>-1</v>
-      </c>
-      <c r="AC119">
-        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5967258</v>
+        <v>5967337</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,58 +11139,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
         <v>1</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>49</v>
       </c>
       <c r="K120">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N120">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q120">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T120">
         <v>3</v>
       </c>
       <c r="U120">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>0.571</v>
+        <v>2.4</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11199,16 +11199,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5967337</v>
+        <v>5967335</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,58 +11228,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>49</v>
       </c>
       <c r="K121">
-        <v>3.8</v>
+        <v>1.222</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M121">
+        <v>9.5</v>
+      </c>
+      <c r="N121">
+        <v>1.222</v>
+      </c>
+      <c r="O121">
+        <v>5.5</v>
+      </c>
+      <c r="P121">
+        <v>9</v>
+      </c>
+      <c r="Q121">
+        <v>-1.75</v>
+      </c>
+      <c r="R121">
         <v>1.8</v>
       </c>
-      <c r="N121">
-        <v>3.4</v>
-      </c>
-      <c r="O121">
-        <v>3.6</v>
-      </c>
-      <c r="P121">
-        <v>1.85</v>
-      </c>
-      <c r="Q121">
-        <v>0.5</v>
-      </c>
-      <c r="R121">
-        <v>1.925</v>
-      </c>
       <c r="S121">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>2.4</v>
+        <v>0.222</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11288,13 +11288,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11765,7 +11765,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11854,7 +11854,7 @@
         <v>47</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12385,7 +12385,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
         <v>46</v>
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,49 +12474,49 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K135">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L135">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N135">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O135">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q135">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
         <v>1.975</v>
@@ -12525,25 +12525,25 @@
         <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,49 +12563,49 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M136">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N136">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P136">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U136">
         <v>1.975</v>
@@ -12614,25 +12614,25 @@
         <v>1.825</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X136">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12652,7 +12652,7 @@
         <v>45159.35416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>40</v>
@@ -12922,7 +12922,7 @@
         <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13809,7 +13809,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13898,7 +13898,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>41</v>
@@ -14346,7 +14346,7 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -15233,7 +15233,7 @@
         <v>45200.375</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
         <v>46</v>
@@ -15322,7 +15322,7 @@
         <v>45201.35416666666</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
         <v>36</v>
@@ -15948,7 +15948,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16037,7 +16037,7 @@
         <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16123,7 +16123,7 @@
         <v>45219.33333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
         <v>42</v>
@@ -16835,10 +16835,10 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F184" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" t="s">
         <v>35</v>
-      </c>
-      <c r="G184" t="s">
-        <v>34</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17639,7 +17639,7 @@
         <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17906,7 +17906,7 @@
         <v>36</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -18170,7 +18170,7 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
         <v>44</v>
@@ -18526,7 +18526,7 @@
         <v>45256.375</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18796,7 +18796,7 @@
         <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -19063,7 +19063,7 @@
         <v>45</v>
       </c>
       <c r="G209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19772,7 +19772,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
         <v>33</v>
@@ -19950,7 +19950,7 @@
         <v>45271.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
         <v>43</v>
@@ -20131,7 +20131,7 @@
         <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -20487,7 +20487,7 @@
         <v>45</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20840,7 +20840,7 @@
         <v>45283.33333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G229" t="s">
         <v>37</v>
@@ -21196,7 +21196,7 @@
         <v>45284.33333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
         <v>38</v>
@@ -21552,7 +21552,7 @@
         <v>45288.375</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
         <v>30</v>
@@ -21644,7 +21644,7 @@
         <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21911,7 +21911,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22445,7 +22445,7 @@
         <v>46</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22798,7 +22798,7 @@
         <v>45336.35416666666</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G251" t="s">
         <v>43</v>
@@ -22976,7 +22976,7 @@
         <v>45337.33333333334</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G253" t="s">
         <v>47</v>
@@ -23424,7 +23424,7 @@
         <v>41</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -23780,7 +23780,7 @@
         <v>40</v>
       </c>
       <c r="G262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -23871,6 +23871,15 @@
       <c r="G263" t="s">
         <v>37</v>
       </c>
+      <c r="H263">
+        <v>2</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263" t="s">
+        <v>50</v>
+      </c>
       <c r="K263">
         <v>3.2</v>
       </c>
@@ -23881,46 +23890,52 @@
         <v>2</v>
       </c>
       <c r="N263">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O263">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P263">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R263">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S263">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T263">
         <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA263">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB263">
+        <v>0.825</v>
+      </c>
+      <c r="AC263">
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23967,10 +23982,10 @@
         <v>-2.25</v>
       </c>
       <c r="R264">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
         <v>3.5</v>
@@ -24029,31 +24044,31 @@
         <v>4.333</v>
       </c>
       <c r="N265">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O265">
         <v>3.75</v>
       </c>
       <c r="P265">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q265">
         <v>-0.75</v>
       </c>
       <c r="R265">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S265">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T265">
         <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V265">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W265">
         <v>0</v>
@@ -24115,10 +24130,10 @@
         <v>-2</v>
       </c>
       <c r="R266">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S266">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T266">
         <v>3.5</v>
@@ -24162,7 +24177,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G267" t="s">
         <v>41</v>
@@ -24177,31 +24192,31 @@
         <v>4.2</v>
       </c>
       <c r="N267">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O267">
         <v>3.4</v>
       </c>
       <c r="P267">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R267">
+        <v>1.775</v>
+      </c>
+      <c r="S267">
         <v>2.025</v>
-      </c>
-      <c r="S267">
-        <v>1.775</v>
       </c>
       <c r="T267">
         <v>2.5</v>
       </c>
       <c r="U267">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V267">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
         <v>0</v>
@@ -24263,10 +24278,10 @@
         <v>0</v>
       </c>
       <c r="R268">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S268">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T268">
         <v>2.5</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC268"/>
+  <dimension ref="A1:AC266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7389,7 +7389,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6382423</v>
+        <v>5967310</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7401,76 +7401,76 @@
         <v>45020.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L78">
         <v>3.4</v>
       </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P78">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W78">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7478,7 +7478,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5967310</v>
+        <v>6382423</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7490,76 +7490,76 @@
         <v>45020.33333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L79">
         <v>3.4</v>
       </c>
       <c r="M79">
+        <v>2.1</v>
+      </c>
+      <c r="N79">
         <v>2.5</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>3.4</v>
       </c>
-      <c r="O79">
-        <v>3.3</v>
-      </c>
       <c r="P79">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5967319</v>
+        <v>5967316</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,58 +8202,58 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>49</v>
       </c>
       <c r="K87">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="L87">
+        <v>3.8</v>
+      </c>
+      <c r="M87">
+        <v>1.571</v>
+      </c>
+      <c r="N87">
+        <v>4.333</v>
+      </c>
+      <c r="O87">
         <v>3.5</v>
       </c>
-      <c r="M87">
-        <v>5</v>
-      </c>
-      <c r="N87">
-        <v>1.571</v>
-      </c>
-      <c r="O87">
-        <v>3.6</v>
-      </c>
       <c r="P87">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>0.571</v>
+        <v>3.333</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8262,16 +8262,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5967316</v>
+        <v>5967319</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,58 +8291,58 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="L88">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88">
         <v>1.571</v>
       </c>
-      <c r="N88">
-        <v>4.333</v>
-      </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="Q88">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>3.333</v>
+        <v>0.571</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8351,16 +8351,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -21540,7 +21540,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21552,76 +21552,76 @@
         <v>45288.375</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>50</v>
       </c>
       <c r="K237">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M237">
+        <v>5.75</v>
+      </c>
+      <c r="N237">
+        <v>1.363</v>
+      </c>
+      <c r="O237">
+        <v>4.5</v>
+      </c>
+      <c r="P237">
+        <v>6.5</v>
+      </c>
+      <c r="Q237">
+        <v>-1.25</v>
+      </c>
+      <c r="R237">
         <v>1.85</v>
       </c>
-      <c r="N237">
-        <v>4.5</v>
-      </c>
-      <c r="O237">
-        <v>4</v>
-      </c>
-      <c r="P237">
-        <v>1.615</v>
-      </c>
-      <c r="Q237">
-        <v>0.75</v>
-      </c>
-      <c r="R237">
-        <v>1.975</v>
-      </c>
       <c r="S237">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T237">
         <v>3</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC237">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21629,7 +21629,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21641,76 +21641,76 @@
         <v>45288.375</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
         <v>50</v>
       </c>
       <c r="K238">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L238">
+        <v>3.5</v>
+      </c>
+      <c r="M238">
+        <v>1.85</v>
+      </c>
+      <c r="N238">
+        <v>4.5</v>
+      </c>
+      <c r="O238">
         <v>4</v>
       </c>
-      <c r="M238">
-        <v>5.75</v>
-      </c>
-      <c r="N238">
-        <v>1.363</v>
-      </c>
-      <c r="O238">
-        <v>4.5</v>
-      </c>
       <c r="P238">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
         <v>3</v>
       </c>
       <c r="U238">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA238">
+        <v>-1</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
         <v>0.95</v>
-      </c>
-      <c r="AB238">
-        <v>0.825</v>
-      </c>
-      <c r="AC238">
-        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -23943,7 +23943,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6992333</v>
+        <v>6992669</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,49 +23952,49 @@
         <v>28</v>
       </c>
       <c r="E264" s="2">
-        <v>45346.33333333334</v>
+        <v>45347.3125</v>
       </c>
       <c r="F264" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G264" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K264">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="L264">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M264">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N264">
-        <v>1.181</v>
+        <v>1.7</v>
       </c>
       <c r="O264">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P264">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="Q264">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R264">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S264">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T264">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V264">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W264">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6992672</v>
+        <v>6992673</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24026,49 +24026,49 @@
         <v>28</v>
       </c>
       <c r="E265" s="2">
-        <v>45346.35416666666</v>
+        <v>45347.33333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K265">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L265">
         <v>3.4</v>
       </c>
       <c r="M265">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N265">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O265">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P265">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q265">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S265">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V265">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
         <v>0</v>
@@ -24091,7 +24091,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6992668</v>
+        <v>6992670</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24100,49 +24100,49 @@
         <v>28</v>
       </c>
       <c r="E266" s="2">
-        <v>45346.375</v>
+        <v>45347.375</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K266">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="L266">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M266">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="N266">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O266">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P266">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q266">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R266">
+        <v>1.8</v>
+      </c>
+      <c r="S266">
+        <v>2</v>
+      </c>
+      <c r="T266">
+        <v>2.75</v>
+      </c>
+      <c r="U266">
         <v>1.9</v>
       </c>
-      <c r="S266">
+      <c r="V266">
         <v>1.9</v>
-      </c>
-      <c r="T266">
-        <v>3.5</v>
-      </c>
-      <c r="U266">
-        <v>1.85</v>
-      </c>
-      <c r="V266">
-        <v>1.95</v>
       </c>
       <c r="W266">
         <v>0</v>
@@ -24157,154 +24157,6 @@
         <v>0</v>
       </c>
       <c r="AA266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:29">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267">
-        <v>6992667</v>
-      </c>
-      <c r="C267" t="s">
-        <v>28</v>
-      </c>
-      <c r="D267" t="s">
-        <v>28</v>
-      </c>
-      <c r="E267" s="2">
-        <v>45346.41666666666</v>
-      </c>
-      <c r="F267" t="s">
-        <v>34</v>
-      </c>
-      <c r="G267" t="s">
-        <v>41</v>
-      </c>
-      <c r="K267">
-        <v>1.727</v>
-      </c>
-      <c r="L267">
-        <v>3.5</v>
-      </c>
-      <c r="M267">
-        <v>4.2</v>
-      </c>
-      <c r="N267">
-        <v>2.3</v>
-      </c>
-      <c r="O267">
-        <v>3.4</v>
-      </c>
-      <c r="P267">
-        <v>2.7</v>
-      </c>
-      <c r="Q267">
-        <v>0</v>
-      </c>
-      <c r="R267">
-        <v>1.775</v>
-      </c>
-      <c r="S267">
-        <v>2.025</v>
-      </c>
-      <c r="T267">
-        <v>2.5</v>
-      </c>
-      <c r="U267">
-        <v>1.875</v>
-      </c>
-      <c r="V267">
-        <v>1.925</v>
-      </c>
-      <c r="W267">
-        <v>0</v>
-      </c>
-      <c r="X267">
-        <v>0</v>
-      </c>
-      <c r="Y267">
-        <v>0</v>
-      </c>
-      <c r="Z267">
-        <v>0</v>
-      </c>
-      <c r="AA267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:29">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268">
-        <v>6992673</v>
-      </c>
-      <c r="C268" t="s">
-        <v>28</v>
-      </c>
-      <c r="D268" t="s">
-        <v>28</v>
-      </c>
-      <c r="E268" s="2">
-        <v>45347.33333333334</v>
-      </c>
-      <c r="F268" t="s">
-        <v>44</v>
-      </c>
-      <c r="G268" t="s">
-        <v>30</v>
-      </c>
-      <c r="K268">
-        <v>2.8</v>
-      </c>
-      <c r="L268">
-        <v>3.4</v>
-      </c>
-      <c r="M268">
-        <v>2.2</v>
-      </c>
-      <c r="N268">
-        <v>2.375</v>
-      </c>
-      <c r="O268">
-        <v>3.3</v>
-      </c>
-      <c r="P268">
-        <v>2.625</v>
-      </c>
-      <c r="Q268">
-        <v>0</v>
-      </c>
-      <c r="R268">
-        <v>1.825</v>
-      </c>
-      <c r="S268">
-        <v>1.975</v>
-      </c>
-      <c r="T268">
-        <v>2.5</v>
-      </c>
-      <c r="U268">
-        <v>1.875</v>
-      </c>
-      <c r="V268">
-        <v>1.925</v>
-      </c>
-      <c r="W268">
-        <v>0</v>
-      </c>
-      <c r="X268">
-        <v>0</v>
-      </c>
-      <c r="Y268">
-        <v>0</v>
-      </c>
-      <c r="Z268">
-        <v>0</v>
-      </c>
-      <c r="AA268">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC266"/>
+  <dimension ref="A1:AC270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5967293</v>
+        <v>5967236</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,61 +5354,61 @@
         <v>44990.33333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>50</v>
+      </c>
+      <c r="K55">
         <v>2</v>
       </c>
-      <c r="I55">
+      <c r="L55">
+        <v>3.3</v>
+      </c>
+      <c r="M55">
+        <v>3.4</v>
+      </c>
+      <c r="N55">
+        <v>2.8</v>
+      </c>
+      <c r="O55">
+        <v>3.1</v>
+      </c>
+      <c r="P55">
+        <v>2.4</v>
+      </c>
+      <c r="Q55">
         <v>0</v>
       </c>
-      <c r="J55" t="s">
-        <v>49</v>
-      </c>
-      <c r="K55">
-        <v>1.166</v>
-      </c>
-      <c r="L55">
-        <v>6.5</v>
-      </c>
-      <c r="M55">
-        <v>12</v>
-      </c>
-      <c r="N55">
-        <v>1.181</v>
-      </c>
-      <c r="O55">
-        <v>6</v>
-      </c>
-      <c r="P55">
-        <v>12</v>
-      </c>
-      <c r="Q55">
-        <v>-2</v>
-      </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5420,10 +5420,10 @@
         <v>-0</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5967236</v>
+        <v>5967293</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,61 +5443,61 @@
         <v>44990.33333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1.166</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M56">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="N56">
-        <v>2.8</v>
+        <v>1.181</v>
       </c>
       <c r="O56">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P56">
-        <v>2.4</v>
+        <v>12</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X56">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5509,10 +5509,10 @@
         <v>-0</v>
       </c>
       <c r="AB56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5967299</v>
+        <v>5967301</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,73 +5977,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L62">
         <v>3.4</v>
       </c>
       <c r="M62">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N62">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="O62">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>2.5</v>
+      </c>
+      <c r="U62">
+        <v>1.85</v>
+      </c>
+      <c r="V62">
         <v>1.95</v>
       </c>
-      <c r="S62">
-        <v>1.85</v>
-      </c>
-      <c r="T62">
-        <v>2.75</v>
-      </c>
-      <c r="U62">
-        <v>1.9</v>
-      </c>
-      <c r="V62">
-        <v>1.9</v>
-      </c>
       <c r="W62">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5967301</v>
+        <v>5967299</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>44997.33333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>3</v>
-      </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L63">
         <v>3.4</v>
       </c>
       <c r="M63">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5967316</v>
+        <v>5967319</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,58 +8202,58 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>49</v>
       </c>
       <c r="K87">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87">
         <v>1.571</v>
       </c>
-      <c r="N87">
-        <v>4.333</v>
-      </c>
       <c r="O87">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.333</v>
+        <v>0.571</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8262,16 +8262,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5967319</v>
+        <v>5967316</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,58 +8291,58 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="L88">
+        <v>3.8</v>
+      </c>
+      <c r="M88">
+        <v>1.571</v>
+      </c>
+      <c r="N88">
+        <v>4.333</v>
+      </c>
+      <c r="O88">
         <v>3.5</v>
       </c>
-      <c r="M88">
-        <v>5</v>
-      </c>
-      <c r="N88">
-        <v>1.571</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
       <c r="P88">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.571</v>
+        <v>3.333</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8351,16 +8351,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5967320</v>
+        <v>5967324</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,76 +8825,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="L94">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="N94">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O94">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q94">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R94">
+        <v>1.85</v>
+      </c>
+      <c r="S94">
+        <v>1.95</v>
+      </c>
+      <c r="T94">
+        <v>2.75</v>
+      </c>
+      <c r="U94">
         <v>1.925</v>
       </c>
-      <c r="S94">
+      <c r="V94">
         <v>1.875</v>
       </c>
-      <c r="T94">
-        <v>3</v>
-      </c>
-      <c r="U94">
-        <v>1.8</v>
-      </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
       <c r="W94">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5967324</v>
+        <v>5967320</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,76 +8914,76 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M95">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P95">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X95">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5967336</v>
+        <v>5967259</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,76 +10605,76 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K114">
+        <v>1.85</v>
+      </c>
+      <c r="L114">
+        <v>3.3</v>
+      </c>
+      <c r="M114">
+        <v>3.6</v>
+      </c>
+      <c r="N114">
+        <v>1.363</v>
+      </c>
+      <c r="O114">
         <v>4.5</v>
       </c>
-      <c r="L114">
-        <v>3.75</v>
-      </c>
-      <c r="M114">
-        <v>1.6</v>
-      </c>
-      <c r="N114">
-        <v>5</v>
-      </c>
-      <c r="O114">
-        <v>4</v>
-      </c>
       <c r="P114">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="Q114">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R114">
+        <v>1.8</v>
+      </c>
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>1.875</v>
+      </c>
+      <c r="V114">
         <v>1.925</v>
       </c>
-      <c r="S114">
-        <v>1.875</v>
-      </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
-      <c r="U114">
-        <v>1.8</v>
-      </c>
-      <c r="V114">
-        <v>2</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X114">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
+        <v>0.8</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.925</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
-      <c r="AC114">
-        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10682,7 +10682,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5967339</v>
+        <v>5967336</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10694,40 +10694,40 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="L115">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R115">
         <v>1.925</v>
@@ -10739,16 +10739,16 @@
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y115">
         <v>-1</v>
@@ -10760,10 +10760,10 @@
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10771,7 +10771,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5967338</v>
+        <v>5967257</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10783,13 +10783,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10798,43 +10798,43 @@
         <v>49</v>
       </c>
       <c r="K116">
+        <v>1.8</v>
+      </c>
+      <c r="L116">
+        <v>3.4</v>
+      </c>
+      <c r="M116">
+        <v>3.8</v>
+      </c>
+      <c r="N116">
+        <v>1.444</v>
+      </c>
+      <c r="O116">
+        <v>4.2</v>
+      </c>
+      <c r="P116">
+        <v>5.75</v>
+      </c>
+      <c r="Q116">
+        <v>-1.25</v>
+      </c>
+      <c r="R116">
         <v>1.95</v>
       </c>
-      <c r="L116">
-        <v>3.5</v>
-      </c>
-      <c r="M116">
-        <v>3.3</v>
-      </c>
-      <c r="N116">
-        <v>1.8</v>
-      </c>
-      <c r="O116">
-        <v>4</v>
-      </c>
-      <c r="P116">
-        <v>3.4</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>1.875</v>
-      </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>0.8</v>
+        <v>0.444</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10843,16 +10843,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10860,7 +10860,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5967257</v>
+        <v>5967338</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10872,13 +10872,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -10887,43 +10887,43 @@
         <v>49</v>
       </c>
       <c r="K117">
+        <v>1.95</v>
+      </c>
+      <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>3.3</v>
+      </c>
+      <c r="N117">
         <v>1.8</v>
       </c>
-      <c r="L117">
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
         <v>3.4</v>
       </c>
-      <c r="M117">
-        <v>3.8</v>
-      </c>
-      <c r="N117">
-        <v>1.444</v>
-      </c>
-      <c r="O117">
-        <v>4.2</v>
-      </c>
-      <c r="P117">
-        <v>5.75</v>
-      </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>0.444</v>
+        <v>0.8</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10932,16 +10932,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA117">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10949,7 +10949,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5967258</v>
+        <v>5967339</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10961,58 +10961,58 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
         <v>1</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>49</v>
       </c>
       <c r="K118">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N118">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q118">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
         <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.571</v>
+        <v>1.15</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11021,16 +11021,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5967259</v>
+        <v>5967335</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,13 +11050,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -11065,25 +11065,25 @@
         <v>49</v>
       </c>
       <c r="K119">
-        <v>1.85</v>
+        <v>1.222</v>
       </c>
       <c r="L119">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M119">
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="N119">
-        <v>1.363</v>
+        <v>1.222</v>
       </c>
       <c r="O119">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P119">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R119">
         <v>1.8</v>
@@ -11092,16 +11092,16 @@
         <v>2</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>0.363</v>
+        <v>0.222</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11116,10 +11116,10 @@
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5967335</v>
+        <v>5967258</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,13 +11228,13 @@
         <v>45058.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -11243,43 +11243,43 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="L121">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="N121">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="O121">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T121">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>0.222</v>
+        <v>0.571</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11288,16 +11288,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12462,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,49 +12474,49 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M135">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N135">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P135">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U135">
         <v>1.975</v>
@@ -12525,25 +12525,25 @@
         <v>1.825</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X135">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,49 +12563,49 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K136">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L136">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N136">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O136">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q136">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
         <v>1.975</v>
@@ -12614,25 +12614,25 @@
         <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -18692,7 +18692,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18704,76 +18704,76 @@
         <v>45261.375</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K205">
+        <v>1.7</v>
+      </c>
+      <c r="L205">
+        <v>3.75</v>
+      </c>
+      <c r="M205">
+        <v>4.2</v>
+      </c>
+      <c r="N205">
+        <v>1.7</v>
+      </c>
+      <c r="O205">
+        <v>3.75</v>
+      </c>
+      <c r="P205">
+        <v>4.333</v>
+      </c>
+      <c r="Q205">
+        <v>-0.75</v>
+      </c>
+      <c r="R205">
+        <v>1.925</v>
+      </c>
+      <c r="S205">
+        <v>1.875</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>1.85</v>
+      </c>
+      <c r="V205">
         <v>1.95</v>
       </c>
-      <c r="L205">
-        <v>3.5</v>
-      </c>
-      <c r="M205">
-        <v>3.4</v>
-      </c>
-      <c r="N205">
-        <v>2.1</v>
-      </c>
-      <c r="O205">
-        <v>3.4</v>
-      </c>
-      <c r="P205">
-        <v>3</v>
-      </c>
-      <c r="Q205">
-        <v>-0.25</v>
-      </c>
-      <c r="R205">
-        <v>1.875</v>
-      </c>
-      <c r="S205">
-        <v>1.925</v>
-      </c>
-      <c r="T205">
-        <v>2.75</v>
-      </c>
-      <c r="U205">
-        <v>1.8</v>
-      </c>
-      <c r="V205">
-        <v>2</v>
-      </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X205">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA205">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC205">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18781,7 +18781,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18793,76 +18793,76 @@
         <v>45261.375</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G206" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K206">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M206">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N206">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
+        <v>1.875</v>
+      </c>
+      <c r="S206">
         <v>1.925</v>
       </c>
-      <c r="S206">
-        <v>1.875</v>
-      </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -23943,7 +23943,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6992669</v>
+        <v>6992333</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,64 +23952,79 @@
         <v>28</v>
       </c>
       <c r="E264" s="2">
-        <v>45347.3125</v>
+        <v>45346.33333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="H264">
+        <v>6</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264" t="s">
+        <v>49</v>
       </c>
       <c r="K264">
-        <v>1.75</v>
+        <v>1.166</v>
       </c>
       <c r="L264">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M264">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N264">
-        <v>1.7</v>
+        <v>1.111</v>
       </c>
       <c r="O264">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="P264">
-        <v>4.2</v>
+        <v>15</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R264">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S264">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T264">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U264">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W264">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="X264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA264">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB264">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC264">
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24017,7 +24032,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6992673</v>
+        <v>6992672</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24026,64 +24041,79 @@
         <v>28</v>
       </c>
       <c r="E265" s="2">
-        <v>45347.33333333334</v>
+        <v>45346.35416666666</v>
       </c>
       <c r="F265" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G265" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>49</v>
       </c>
       <c r="K265">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L265">
         <v>3.4</v>
       </c>
       <c r="M265">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N265">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O265">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P265">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R265">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S265">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T265">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W265">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
         <v>0</v>
       </c>
       <c r="AA265">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB265">
+        <v>-1</v>
+      </c>
+      <c r="AC265">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24091,72 +24121,398 @@
         <v>264</v>
       </c>
       <c r="B266">
+        <v>6992668</v>
+      </c>
+      <c r="C266" t="s">
+        <v>28</v>
+      </c>
+      <c r="D266" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45346.375</v>
+      </c>
+      <c r="F266" t="s">
+        <v>33</v>
+      </c>
+      <c r="G266" t="s">
+        <v>47</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266" t="s">
+        <v>49</v>
+      </c>
+      <c r="K266">
+        <v>1.2</v>
+      </c>
+      <c r="L266">
+        <v>6</v>
+      </c>
+      <c r="M266">
+        <v>9.5</v>
+      </c>
+      <c r="N266">
+        <v>1.2</v>
+      </c>
+      <c r="O266">
+        <v>6</v>
+      </c>
+      <c r="P266">
+        <v>8.5</v>
+      </c>
+      <c r="Q266">
+        <v>-2</v>
+      </c>
+      <c r="R266">
+        <v>1.9</v>
+      </c>
+      <c r="S266">
+        <v>1.9</v>
+      </c>
+      <c r="T266">
+        <v>3.5</v>
+      </c>
+      <c r="U266">
+        <v>1.825</v>
+      </c>
+      <c r="V266">
+        <v>1.975</v>
+      </c>
+      <c r="W266">
+        <v>0.2</v>
+      </c>
+      <c r="X266">
+        <v>-1</v>
+      </c>
+      <c r="Y266">
+        <v>-1</v>
+      </c>
+      <c r="Z266">
+        <v>-1</v>
+      </c>
+      <c r="AA266">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB266">
+        <v>-1</v>
+      </c>
+      <c r="AC266">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>6992667</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45346.41666666666</v>
+      </c>
+      <c r="F267" t="s">
+        <v>34</v>
+      </c>
+      <c r="G267" t="s">
+        <v>41</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267" t="s">
+        <v>48</v>
+      </c>
+      <c r="K267">
+        <v>1.727</v>
+      </c>
+      <c r="L267">
+        <v>3.5</v>
+      </c>
+      <c r="M267">
+        <v>4.2</v>
+      </c>
+      <c r="N267">
+        <v>2.6</v>
+      </c>
+      <c r="O267">
+        <v>3.4</v>
+      </c>
+      <c r="P267">
+        <v>2.375</v>
+      </c>
+      <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267">
+        <v>2.025</v>
+      </c>
+      <c r="S267">
+        <v>1.775</v>
+      </c>
+      <c r="T267">
+        <v>2.5</v>
+      </c>
+      <c r="U267">
+        <v>1.9</v>
+      </c>
+      <c r="V267">
+        <v>1.9</v>
+      </c>
+      <c r="W267">
+        <v>-1</v>
+      </c>
+      <c r="X267">
+        <v>-1</v>
+      </c>
+      <c r="Y267">
+        <v>1.375</v>
+      </c>
+      <c r="Z267">
+        <v>-1</v>
+      </c>
+      <c r="AA267">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB267">
+        <v>-1</v>
+      </c>
+      <c r="AC267">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>6992669</v>
+      </c>
+      <c r="C268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45347.3125</v>
+      </c>
+      <c r="F268" t="s">
+        <v>32</v>
+      </c>
+      <c r="G268" t="s">
+        <v>46</v>
+      </c>
+      <c r="K268">
+        <v>1.75</v>
+      </c>
+      <c r="L268">
+        <v>3.5</v>
+      </c>
+      <c r="M268">
+        <v>4</v>
+      </c>
+      <c r="N268">
+        <v>1.615</v>
+      </c>
+      <c r="O268">
+        <v>3.75</v>
+      </c>
+      <c r="P268">
+        <v>4.5</v>
+      </c>
+      <c r="Q268">
+        <v>-0.75</v>
+      </c>
+      <c r="R268">
+        <v>1.8</v>
+      </c>
+      <c r="S268">
+        <v>2</v>
+      </c>
+      <c r="T268">
+        <v>2.75</v>
+      </c>
+      <c r="U268">
+        <v>1.95</v>
+      </c>
+      <c r="V268">
+        <v>1.85</v>
+      </c>
+      <c r="W268">
+        <v>0</v>
+      </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
+      <c r="Y268">
+        <v>0</v>
+      </c>
+      <c r="Z268">
+        <v>0</v>
+      </c>
+      <c r="AA268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>6992673</v>
+      </c>
+      <c r="C269" t="s">
+        <v>28</v>
+      </c>
+      <c r="D269" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45347.33333333334</v>
+      </c>
+      <c r="F269" t="s">
+        <v>44</v>
+      </c>
+      <c r="G269" t="s">
+        <v>30</v>
+      </c>
+      <c r="K269">
+        <v>2.8</v>
+      </c>
+      <c r="L269">
+        <v>3.4</v>
+      </c>
+      <c r="M269">
+        <v>2.2</v>
+      </c>
+      <c r="N269">
+        <v>2.375</v>
+      </c>
+      <c r="O269">
+        <v>3.3</v>
+      </c>
+      <c r="P269">
+        <v>2.625</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>1.775</v>
+      </c>
+      <c r="S269">
+        <v>2.025</v>
+      </c>
+      <c r="T269">
+        <v>2.5</v>
+      </c>
+      <c r="U269">
+        <v>1.9</v>
+      </c>
+      <c r="V269">
+        <v>1.9</v>
+      </c>
+      <c r="W269">
+        <v>0</v>
+      </c>
+      <c r="X269">
+        <v>0</v>
+      </c>
+      <c r="Y269">
+        <v>0</v>
+      </c>
+      <c r="Z269">
+        <v>0</v>
+      </c>
+      <c r="AA269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
         <v>6992670</v>
       </c>
-      <c r="C266" t="s">
-        <v>28</v>
-      </c>
-      <c r="D266" t="s">
-        <v>28</v>
-      </c>
-      <c r="E266" s="2">
+      <c r="C270" t="s">
+        <v>28</v>
+      </c>
+      <c r="D270" t="s">
+        <v>28</v>
+      </c>
+      <c r="E270" s="2">
         <v>45347.375</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F270" t="s">
         <v>35</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G270" t="s">
         <v>36</v>
       </c>
-      <c r="K266">
+      <c r="K270">
         <v>1.95</v>
       </c>
-      <c r="L266">
+      <c r="L270">
         <v>3.5</v>
       </c>
-      <c r="M266">
+      <c r="M270">
         <v>3.25</v>
       </c>
-      <c r="N266">
-        <v>1.8</v>
-      </c>
-      <c r="O266">
+      <c r="N270">
+        <v>1.75</v>
+      </c>
+      <c r="O270">
         <v>3.6</v>
       </c>
-      <c r="P266">
-        <v>3.6</v>
-      </c>
-      <c r="Q266">
+      <c r="P270">
+        <v>3.75</v>
+      </c>
+      <c r="Q270">
         <v>-0.5</v>
       </c>
-      <c r="R266">
-        <v>1.8</v>
-      </c>
-      <c r="S266">
-        <v>2</v>
-      </c>
-      <c r="T266">
+      <c r="R270">
+        <v>1.825</v>
+      </c>
+      <c r="S270">
+        <v>1.975</v>
+      </c>
+      <c r="T270">
         <v>2.75</v>
       </c>
-      <c r="U266">
+      <c r="U270">
         <v>1.9</v>
       </c>
-      <c r="V266">
+      <c r="V270">
         <v>1.9</v>
       </c>
-      <c r="W266">
+      <c r="W270">
         <v>0</v>
       </c>
-      <c r="X266">
+      <c r="X270">
         <v>0</v>
       </c>
-      <c r="Y266">
+      <c r="Y270">
         <v>0</v>
       </c>
-      <c r="Z266">
+      <c r="Z270">
         <v>0</v>
       </c>
-      <c r="AA266">
+      <c r="AA270">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -24412,19 +24412,19 @@
         <v>0</v>
       </c>
       <c r="R269">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S269">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T269">
         <v>2.5</v>
       </c>
       <c r="U269">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V269">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W269">
         <v>0</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N15">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O15">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8107,7 +8107,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" t="s">
         <v>42</v>
-      </c>
-      <c r="G130" t="s">
-        <v>43</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>3</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N16">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O16">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
         <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8107,7 +8107,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>1.85</v>
+      </c>
+      <c r="N117">
+        <v>4.5</v>
+      </c>
+      <c r="O117">
         <v>4</v>
       </c>
-      <c r="M117">
-        <v>5.75</v>
-      </c>
-      <c r="N117">
-        <v>1.363</v>
-      </c>
-      <c r="O117">
-        <v>4.5</v>
-      </c>
       <c r="P117">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AB117">
-        <v>0.825</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M118">
+        <v>5.75</v>
+      </c>
+      <c r="N118">
+        <v>1.363</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>6.5</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
         <v>1.85</v>
       </c>
-      <c r="N118">
-        <v>4.5</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>1.615</v>
-      </c>
-      <c r="Q118">
-        <v>0.75</v>
-      </c>
-      <c r="R118">
-        <v>1.975</v>
-      </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" t="s">
         <v>43</v>
-      </c>
-      <c r="G130" t="s">
-        <v>42</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>3</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC150"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N15">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O15">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
       </c>
-      <c r="S85">
-        <v>1.875</v>
-      </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
+        <v>1.7</v>
+      </c>
+      <c r="L86">
+        <v>3.75</v>
+      </c>
+      <c r="M86">
+        <v>4.2</v>
+      </c>
+      <c r="N86">
+        <v>1.7</v>
+      </c>
+      <c r="O86">
+        <v>3.75</v>
+      </c>
+      <c r="P86">
+        <v>4.333</v>
+      </c>
+      <c r="Q86">
+        <v>-0.75</v>
+      </c>
+      <c r="R86">
+        <v>1.925</v>
+      </c>
+      <c r="S86">
+        <v>1.875</v>
+      </c>
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="L86">
-        <v>3.5</v>
-      </c>
-      <c r="M86">
-        <v>3.4</v>
-      </c>
-      <c r="N86">
-        <v>2.1</v>
-      </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>-0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.8</v>
-      </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" t="s">
         <v>42</v>
-      </c>
-      <c r="G130" t="s">
-        <v>43</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13870,6 +13870,524 @@
       </c>
       <c r="AC150">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>6992674</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45353.35416666666</v>
+      </c>
+      <c r="F151" t="s">
+        <v>42</v>
+      </c>
+      <c r="G151" t="s">
+        <v>41</v>
+      </c>
+      <c r="K151">
+        <v>2.15</v>
+      </c>
+      <c r="L151">
+        <v>3.4</v>
+      </c>
+      <c r="M151">
+        <v>2.875</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151">
+        <v>3.4</v>
+      </c>
+      <c r="P151">
+        <v>3.3</v>
+      </c>
+      <c r="Q151">
+        <v>-0.5</v>
+      </c>
+      <c r="R151">
+        <v>2.025</v>
+      </c>
+      <c r="S151">
+        <v>1.775</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.825</v>
+      </c>
+      <c r="V151">
+        <v>1.975</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>6992680</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F152" t="s">
+        <v>36</v>
+      </c>
+      <c r="G152" t="s">
+        <v>37</v>
+      </c>
+      <c r="K152">
+        <v>2.7</v>
+      </c>
+      <c r="L152">
+        <v>3.4</v>
+      </c>
+      <c r="M152">
+        <v>2.25</v>
+      </c>
+      <c r="N152">
+        <v>2.8</v>
+      </c>
+      <c r="O152">
+        <v>3.4</v>
+      </c>
+      <c r="P152">
+        <v>2.2</v>
+      </c>
+      <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.775</v>
+      </c>
+      <c r="S152">
+        <v>2.025</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
+        <v>1.9</v>
+      </c>
+      <c r="V152">
+        <v>1.9</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>6995901</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F153" t="s">
+        <v>30</v>
+      </c>
+      <c r="G153" t="s">
+        <v>29</v>
+      </c>
+      <c r="K153">
+        <v>2.15</v>
+      </c>
+      <c r="L153">
+        <v>3.3</v>
+      </c>
+      <c r="M153">
+        <v>2.9</v>
+      </c>
+      <c r="N153">
+        <v>2.25</v>
+      </c>
+      <c r="O153">
+        <v>3.25</v>
+      </c>
+      <c r="P153">
+        <v>2.8</v>
+      </c>
+      <c r="Q153">
+        <v>-0.25</v>
+      </c>
+      <c r="R153">
+        <v>2.025</v>
+      </c>
+      <c r="S153">
+        <v>1.775</v>
+      </c>
+      <c r="T153">
+        <v>2.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>6992678</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45354.3125</v>
+      </c>
+      <c r="F154" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" t="s">
+        <v>33</v>
+      </c>
+      <c r="K154">
+        <v>1.95</v>
+      </c>
+      <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
+        <v>3.2</v>
+      </c>
+      <c r="N154">
+        <v>1.85</v>
+      </c>
+      <c r="O154">
+        <v>3.75</v>
+      </c>
+      <c r="P154">
+        <v>3.4</v>
+      </c>
+      <c r="Q154">
+        <v>-0.5</v>
+      </c>
+      <c r="R154">
+        <v>1.875</v>
+      </c>
+      <c r="S154">
+        <v>1.925</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
+        <v>1.8</v>
+      </c>
+      <c r="V154">
+        <v>2</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>6992675</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45354.33333333334</v>
+      </c>
+      <c r="F155" t="s">
+        <v>43</v>
+      </c>
+      <c r="G155" t="s">
+        <v>39</v>
+      </c>
+      <c r="K155">
+        <v>1.833</v>
+      </c>
+      <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
+        <v>3.5</v>
+      </c>
+      <c r="N155">
+        <v>1.727</v>
+      </c>
+      <c r="O155">
+        <v>3.6</v>
+      </c>
+      <c r="P155">
+        <v>4</v>
+      </c>
+      <c r="Q155">
+        <v>-0.75</v>
+      </c>
+      <c r="R155">
+        <v>1.975</v>
+      </c>
+      <c r="S155">
+        <v>1.825</v>
+      </c>
+      <c r="T155">
+        <v>2.5</v>
+      </c>
+      <c r="U155">
+        <v>1.825</v>
+      </c>
+      <c r="V155">
+        <v>1.975</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>6992679</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45354.375</v>
+      </c>
+      <c r="F156" t="s">
+        <v>32</v>
+      </c>
+      <c r="G156" t="s">
+        <v>44</v>
+      </c>
+      <c r="K156">
+        <v>1.95</v>
+      </c>
+      <c r="L156">
+        <v>3.5</v>
+      </c>
+      <c r="M156">
+        <v>3.25</v>
+      </c>
+      <c r="N156">
+        <v>2.1</v>
+      </c>
+      <c r="O156">
+        <v>3.4</v>
+      </c>
+      <c r="P156">
+        <v>3</v>
+      </c>
+      <c r="Q156">
+        <v>-0.25</v>
+      </c>
+      <c r="R156">
+        <v>1.9</v>
+      </c>
+      <c r="S156">
+        <v>1.9</v>
+      </c>
+      <c r="T156">
+        <v>2.75</v>
+      </c>
+      <c r="U156">
+        <v>1.975</v>
+      </c>
+      <c r="V156">
+        <v>1.825</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>6992677</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45355.35416666666</v>
+      </c>
+      <c r="F157" t="s">
+        <v>35</v>
+      </c>
+      <c r="G157" t="s">
+        <v>40</v>
+      </c>
+      <c r="K157">
+        <v>2.875</v>
+      </c>
+      <c r="L157">
+        <v>3.4</v>
+      </c>
+      <c r="M157">
+        <v>2.15</v>
+      </c>
+      <c r="N157">
+        <v>3.6</v>
+      </c>
+      <c r="O157">
+        <v>3.5</v>
+      </c>
+      <c r="P157">
+        <v>1.85</v>
+      </c>
+      <c r="Q157">
+        <v>0.5</v>
+      </c>
+      <c r="R157">
+        <v>1.85</v>
+      </c>
+      <c r="S157">
+        <v>1.95</v>
+      </c>
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
+        <v>1.85</v>
+      </c>
+      <c r="V157">
+        <v>1.95</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N16">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O16">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
         <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K85">
+        <v>1.7</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.2</v>
+      </c>
+      <c r="N85">
+        <v>1.7</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>4.333</v>
+      </c>
+      <c r="Q85">
+        <v>-0.75</v>
+      </c>
+      <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
+        <v>1.875</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="L85">
-        <v>3.5</v>
-      </c>
-      <c r="M85">
-        <v>3.4</v>
-      </c>
-      <c r="N85">
-        <v>2.1</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>3</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>1.8</v>
-      </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N86">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
         <v>1.925</v>
       </c>
-      <c r="S86">
-        <v>1.875</v>
-      </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M117">
+        <v>5.75</v>
+      </c>
+      <c r="N117">
+        <v>1.363</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>6.5</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
         <v>1.85</v>
       </c>
-      <c r="N117">
-        <v>4.5</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>1.615</v>
-      </c>
-      <c r="Q117">
-        <v>0.75</v>
-      </c>
-      <c r="R117">
-        <v>1.975</v>
-      </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>1.85</v>
+      </c>
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>5.75</v>
-      </c>
-      <c r="N118">
-        <v>1.363</v>
-      </c>
-      <c r="O118">
-        <v>4.5</v>
-      </c>
       <c r="P118">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.95</v>
-      </c>
-      <c r="AB118">
-        <v>0.825</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" t="s">
         <v>43</v>
-      </c>
-      <c r="G130" t="s">
-        <v>42</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6992674</v>
+        <v>6992676</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13886,64 +13886,79 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45353.35416666666</v>
+        <v>45353.33333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>45</v>
       </c>
       <c r="K151">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M151">
-        <v>2.875</v>
+        <v>1.55</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="O151">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P151">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R151">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA151">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB151">
+        <v>-1</v>
+      </c>
+      <c r="AC151">
+        <v>0.925</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13951,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6992680</v>
+        <v>6992674</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13960,64 +13975,79 @@
         <v>28</v>
       </c>
       <c r="E152" s="2">
-        <v>45353.375</v>
+        <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L152">
         <v>3.4</v>
       </c>
       <c r="M152">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="N152">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O152">
         <v>3.4</v>
       </c>
       <c r="P152">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB152">
+        <v>0.825</v>
+      </c>
+      <c r="AC152">
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14025,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6995901</v>
+        <v>6992680</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14034,64 +14064,79 @@
         <v>28</v>
       </c>
       <c r="E153" s="2">
-        <v>45353.41666666666</v>
+        <v>45353.375</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>47</v>
       </c>
       <c r="K153">
+        <v>2.7</v>
+      </c>
+      <c r="L153">
+        <v>3.4</v>
+      </c>
+      <c r="M153">
+        <v>2.25</v>
+      </c>
+      <c r="N153">
+        <v>2.8</v>
+      </c>
+      <c r="O153">
+        <v>3.4</v>
+      </c>
+      <c r="P153">
         <v>2.15</v>
       </c>
-      <c r="L153">
-        <v>3.3</v>
-      </c>
-      <c r="M153">
-        <v>2.9</v>
-      </c>
-      <c r="N153">
-        <v>2.25</v>
-      </c>
-      <c r="O153">
-        <v>3.25</v>
-      </c>
-      <c r="P153">
-        <v>2.8</v>
-      </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W153">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14099,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6992678</v>
+        <v>6995901</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14108,64 +14153,79 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45354.3125</v>
+        <v>45353.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>45</v>
       </c>
       <c r="K154">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M154">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N154">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O154">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P154">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
         <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
         <v>0</v>
       </c>
       <c r="AA154">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
+        <v>0.825</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14173,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6992675</v>
+        <v>6992678</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14182,49 +14242,49 @@
         <v>28</v>
       </c>
       <c r="E155" s="2">
-        <v>45354.33333333334</v>
+        <v>45354.3125</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K155">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L155">
         <v>3.6</v>
       </c>
       <c r="M155">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N155">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P155">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S155">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14247,7 +14307,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6992679</v>
+        <v>6992675</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14256,49 +14316,49 @@
         <v>28</v>
       </c>
       <c r="E156" s="2">
-        <v>45354.375</v>
+        <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K156">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L156">
+        <v>3.6</v>
+      </c>
+      <c r="M156">
         <v>3.5</v>
       </c>
-      <c r="M156">
-        <v>3.25</v>
-      </c>
       <c r="N156">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
+        <v>1.825</v>
+      </c>
+      <c r="V156">
         <v>1.975</v>
-      </c>
-      <c r="V156">
-        <v>1.825</v>
       </c>
       <c r="W156">
         <v>0</v>
@@ -14321,7 +14381,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6992677</v>
+        <v>6992679</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14330,49 +14390,49 @@
         <v>28</v>
       </c>
       <c r="E157" s="2">
-        <v>45355.35416666666</v>
+        <v>45354.375</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K157">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="L157">
+        <v>3.5</v>
+      </c>
+      <c r="M157">
+        <v>3.25</v>
+      </c>
+      <c r="N157">
+        <v>2.1</v>
+      </c>
+      <c r="O157">
         <v>3.4</v>
       </c>
-      <c r="M157">
-        <v>2.15</v>
-      </c>
-      <c r="N157">
-        <v>3.6</v>
-      </c>
-      <c r="O157">
-        <v>3.5</v>
-      </c>
       <c r="P157">
+        <v>3</v>
+      </c>
+      <c r="Q157">
+        <v>-0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.9</v>
+      </c>
+      <c r="T157">
+        <v>2.75</v>
+      </c>
+      <c r="U157">
+        <v>1.95</v>
+      </c>
+      <c r="V157">
         <v>1.85</v>
-      </c>
-      <c r="Q157">
-        <v>0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.85</v>
-      </c>
-      <c r="S157">
-        <v>1.95</v>
-      </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>1.85</v>
-      </c>
-      <c r="V157">
-        <v>1.95</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14387,6 +14447,80 @@
         <v>0</v>
       </c>
       <c r="AA157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>6992677</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45355.35416666666</v>
+      </c>
+      <c r="F158" t="s">
+        <v>35</v>
+      </c>
+      <c r="G158" t="s">
+        <v>40</v>
+      </c>
+      <c r="K158">
+        <v>2.875</v>
+      </c>
+      <c r="L158">
+        <v>3.4</v>
+      </c>
+      <c r="M158">
+        <v>2.15</v>
+      </c>
+      <c r="N158">
+        <v>3.6</v>
+      </c>
+      <c r="O158">
+        <v>3.5</v>
+      </c>
+      <c r="P158">
+        <v>1.85</v>
+      </c>
+      <c r="Q158">
+        <v>0.5</v>
+      </c>
+      <c r="R158">
+        <v>1.85</v>
+      </c>
+      <c r="S158">
+        <v>1.95</v>
+      </c>
+      <c r="T158">
+        <v>2.5</v>
+      </c>
+      <c r="U158">
+        <v>1.8</v>
+      </c>
+      <c r="V158">
+        <v>2</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
       </c>
-      <c r="S85">
-        <v>1.875</v>
-      </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
+        <v>1.7</v>
+      </c>
+      <c r="L86">
+        <v>3.75</v>
+      </c>
+      <c r="M86">
+        <v>4.2</v>
+      </c>
+      <c r="N86">
+        <v>1.7</v>
+      </c>
+      <c r="O86">
+        <v>3.75</v>
+      </c>
+      <c r="P86">
+        <v>4.333</v>
+      </c>
+      <c r="Q86">
+        <v>-0.75</v>
+      </c>
+      <c r="R86">
+        <v>1.925</v>
+      </c>
+      <c r="S86">
+        <v>1.875</v>
+      </c>
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="L86">
-        <v>3.5</v>
-      </c>
-      <c r="M86">
-        <v>3.4</v>
-      </c>
-      <c r="N86">
-        <v>2.1</v>
-      </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>-0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.8</v>
-      </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>1.85</v>
+      </c>
+      <c r="N117">
+        <v>4.5</v>
+      </c>
+      <c r="O117">
         <v>4</v>
       </c>
-      <c r="M117">
-        <v>5.75</v>
-      </c>
-      <c r="N117">
-        <v>1.363</v>
-      </c>
-      <c r="O117">
-        <v>4.5</v>
-      </c>
       <c r="P117">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AB117">
-        <v>0.825</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M118">
+        <v>5.75</v>
+      </c>
+      <c r="N118">
+        <v>1.363</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>6.5</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
         <v>1.85</v>
       </c>
-      <c r="N118">
-        <v>4.5</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>1.615</v>
-      </c>
-      <c r="Q118">
-        <v>0.75</v>
-      </c>
-      <c r="R118">
-        <v>1.975</v>
-      </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -14250,6 +14250,15 @@
       <c r="G155" t="s">
         <v>33</v>
       </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>47</v>
+      </c>
       <c r="K155">
         <v>1.95</v>
       </c>
@@ -14260,46 +14269,52 @@
         <v>3.2</v>
       </c>
       <c r="N155">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O155">
+        <v>3.8</v>
+      </c>
+      <c r="P155">
         <v>3.75</v>
       </c>
-      <c r="P155">
-        <v>3.4</v>
-      </c>
       <c r="Q155">
+        <v>-0.75</v>
+      </c>
+      <c r="R155">
+        <v>1.975</v>
+      </c>
+      <c r="S155">
+        <v>1.825</v>
+      </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
+      <c r="U155">
+        <v>1.925</v>
+      </c>
+      <c r="V155">
+        <v>1.875</v>
+      </c>
+      <c r="W155">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0.4875</v>
+      </c>
+      <c r="AA155">
         <v>-0.5</v>
       </c>
-      <c r="R155">
-        <v>1.9</v>
-      </c>
-      <c r="S155">
-        <v>1.9</v>
-      </c>
-      <c r="T155">
-        <v>2.75</v>
-      </c>
-      <c r="U155">
-        <v>1.8</v>
-      </c>
-      <c r="V155">
-        <v>2</v>
-      </c>
-      <c r="W155">
+      <c r="AB155">
         <v>0</v>
       </c>
-      <c r="X155">
-        <v>0</v>
-      </c>
-      <c r="Y155">
-        <v>0</v>
-      </c>
-      <c r="Z155">
-        <v>0</v>
-      </c>
-      <c r="AA155">
-        <v>0</v>
+      <c r="AC155">
+        <v>-0</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14324,6 +14339,15 @@
       <c r="G156" t="s">
         <v>39</v>
       </c>
+      <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156" t="s">
+        <v>47</v>
+      </c>
       <c r="K156">
         <v>1.833</v>
       </c>
@@ -14343,37 +14367,43 @@
         <v>3.8</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB156">
+        <v>0.8</v>
+      </c>
+      <c r="AC156">
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14398,6 +14428,15 @@
       <c r="G157" t="s">
         <v>44</v>
       </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>45</v>
+      </c>
       <c r="K157">
         <v>1.95</v>
       </c>
@@ -14408,22 +14447,22 @@
         <v>3.25</v>
       </c>
       <c r="N157">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O157">
         <v>3.4</v>
       </c>
       <c r="P157">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q157">
         <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T157">
         <v>2.75</v>
@@ -14435,19 +14474,25 @@
         <v>1.85</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14472,6 +14517,15 @@
       <c r="G158" t="s">
         <v>40</v>
       </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>45</v>
+      </c>
       <c r="K158">
         <v>2.875</v>
       </c>
@@ -14482,45 +14536,643 @@
         <v>2.15</v>
       </c>
       <c r="N158">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P158">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q158">
         <v>0.5</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
+        <v>1.875</v>
+      </c>
+      <c r="V158">
+        <v>1.925</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>2.3</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
+        <v>0.875</v>
+      </c>
+      <c r="AC158">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>6992334</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45359.375</v>
+      </c>
+      <c r="F159" t="s">
+        <v>33</v>
+      </c>
+      <c r="G159" t="s">
+        <v>30</v>
+      </c>
+      <c r="K159">
+        <v>1.533</v>
+      </c>
+      <c r="L159">
+        <v>4.2</v>
+      </c>
+      <c r="M159">
+        <v>4.5</v>
+      </c>
+      <c r="N159">
+        <v>1.5</v>
+      </c>
+      <c r="O159">
+        <v>4.2</v>
+      </c>
+      <c r="P159">
+        <v>4.75</v>
+      </c>
+      <c r="Q159">
+        <v>-1</v>
+      </c>
+      <c r="R159">
+        <v>1.825</v>
+      </c>
+      <c r="S159">
+        <v>1.975</v>
+      </c>
+      <c r="T159">
+        <v>3</v>
+      </c>
+      <c r="U159">
+        <v>2</v>
+      </c>
+      <c r="V159">
         <v>1.8</v>
       </c>
-      <c r="V158">
-        <v>2</v>
-      </c>
-      <c r="W158">
+      <c r="W159">
         <v>0</v>
       </c>
-      <c r="X158">
+      <c r="X159">
         <v>0</v>
       </c>
-      <c r="Y158">
+      <c r="Y159">
         <v>0</v>
       </c>
-      <c r="Z158">
+      <c r="Z159">
         <v>0</v>
       </c>
-      <c r="AA158">
+      <c r="AA159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>6992683</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45360.33333333334</v>
+      </c>
+      <c r="F160" t="s">
+        <v>41</v>
+      </c>
+      <c r="G160" t="s">
+        <v>39</v>
+      </c>
+      <c r="K160">
+        <v>5.5</v>
+      </c>
+      <c r="L160">
+        <v>3.75</v>
+      </c>
+      <c r="M160">
+        <v>1.5</v>
+      </c>
+      <c r="N160">
+        <v>5.5</v>
+      </c>
+      <c r="O160">
+        <v>3.75</v>
+      </c>
+      <c r="P160">
+        <v>1.5</v>
+      </c>
+      <c r="Q160">
+        <v>1</v>
+      </c>
+      <c r="R160">
+        <v>1.95</v>
+      </c>
+      <c r="S160">
+        <v>1.85</v>
+      </c>
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
+        <v>1.925</v>
+      </c>
+      <c r="V160">
+        <v>1.875</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>6992682</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45360.35416666666</v>
+      </c>
+      <c r="F161" t="s">
+        <v>37</v>
+      </c>
+      <c r="G161" t="s">
+        <v>43</v>
+      </c>
+      <c r="K161">
+        <v>1.3</v>
+      </c>
+      <c r="L161">
+        <v>4.75</v>
+      </c>
+      <c r="M161">
+        <v>7.5</v>
+      </c>
+      <c r="N161">
+        <v>1.363</v>
+      </c>
+      <c r="O161">
+        <v>4.5</v>
+      </c>
+      <c r="P161">
+        <v>6</v>
+      </c>
+      <c r="Q161">
+        <v>-1.25</v>
+      </c>
+      <c r="R161">
+        <v>1.825</v>
+      </c>
+      <c r="S161">
+        <v>1.975</v>
+      </c>
+      <c r="T161">
+        <v>2.75</v>
+      </c>
+      <c r="U161">
+        <v>1.825</v>
+      </c>
+      <c r="V161">
+        <v>1.975</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>6992686</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45360.375</v>
+      </c>
+      <c r="F162" t="s">
+        <v>40</v>
+      </c>
+      <c r="G162" t="s">
+        <v>36</v>
+      </c>
+      <c r="K162">
+        <v>1.833</v>
+      </c>
+      <c r="L162">
+        <v>3.4</v>
+      </c>
+      <c r="M162">
+        <v>3.6</v>
+      </c>
+      <c r="N162">
+        <v>1.833</v>
+      </c>
+      <c r="O162">
+        <v>3.3</v>
+      </c>
+      <c r="P162">
+        <v>3.75</v>
+      </c>
+      <c r="Q162">
+        <v>-0.5</v>
+      </c>
+      <c r="R162">
+        <v>1.875</v>
+      </c>
+      <c r="S162">
+        <v>1.925</v>
+      </c>
+      <c r="T162">
+        <v>2.5</v>
+      </c>
+      <c r="U162">
+        <v>2</v>
+      </c>
+      <c r="V162">
+        <v>1.8</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>6992684</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F163" t="s">
+        <v>38</v>
+      </c>
+      <c r="G163" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163">
+        <v>1.4</v>
+      </c>
+      <c r="L163">
+        <v>4.5</v>
+      </c>
+      <c r="M163">
+        <v>6</v>
+      </c>
+      <c r="N163">
+        <v>1.4</v>
+      </c>
+      <c r="O163">
+        <v>4.5</v>
+      </c>
+      <c r="P163">
+        <v>6</v>
+      </c>
+      <c r="Q163">
+        <v>-1.5</v>
+      </c>
+      <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
+        <v>1.8</v>
+      </c>
+      <c r="T163">
+        <v>3.25</v>
+      </c>
+      <c r="U163">
+        <v>1.925</v>
+      </c>
+      <c r="V163">
+        <v>1.875</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>6992685</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45361.3125</v>
+      </c>
+      <c r="F164" t="s">
+        <v>29</v>
+      </c>
+      <c r="G164" t="s">
+        <v>35</v>
+      </c>
+      <c r="K164">
+        <v>2.05</v>
+      </c>
+      <c r="L164">
+        <v>3.4</v>
+      </c>
+      <c r="M164">
+        <v>3</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164">
+        <v>3.4</v>
+      </c>
+      <c r="P164">
+        <v>3.1</v>
+      </c>
+      <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.8</v>
+      </c>
+      <c r="S164">
+        <v>2</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
+        <v>1.925</v>
+      </c>
+      <c r="V164">
+        <v>1.875</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>6992681</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45361.33333333334</v>
+      </c>
+      <c r="F165" t="s">
+        <v>44</v>
+      </c>
+      <c r="G165" t="s">
+        <v>42</v>
+      </c>
+      <c r="K165">
+        <v>4.5</v>
+      </c>
+      <c r="L165">
+        <v>4</v>
+      </c>
+      <c r="M165">
+        <v>1.571</v>
+      </c>
+      <c r="N165">
+        <v>4.5</v>
+      </c>
+      <c r="O165">
+        <v>3.8</v>
+      </c>
+      <c r="P165">
+        <v>1.6</v>
+      </c>
+      <c r="Q165">
+        <v>1</v>
+      </c>
+      <c r="R165">
+        <v>1.825</v>
+      </c>
+      <c r="S165">
+        <v>1.975</v>
+      </c>
+      <c r="T165">
+        <v>3</v>
+      </c>
+      <c r="U165">
+        <v>1.875</v>
+      </c>
+      <c r="V165">
+        <v>1.925</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>6992687</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F166" t="s">
+        <v>34</v>
+      </c>
+      <c r="G166" t="s">
+        <v>31</v>
+      </c>
+      <c r="K166">
+        <v>1.5</v>
+      </c>
+      <c r="L166">
+        <v>4</v>
+      </c>
+      <c r="M166">
+        <v>5</v>
+      </c>
+      <c r="N166">
+        <v>1.5</v>
+      </c>
+      <c r="O166">
+        <v>4</v>
+      </c>
+      <c r="P166">
+        <v>5</v>
+      </c>
+      <c r="Q166">
+        <v>-1</v>
+      </c>
+      <c r="R166">
+        <v>1.775</v>
+      </c>
+      <c r="S166">
+        <v>2.025</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>1.925</v>
+      </c>
+      <c r="V166">
+        <v>1.875</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC166"/>
+  <dimension ref="A1:AC162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M117">
+        <v>5.75</v>
+      </c>
+      <c r="N117">
+        <v>1.363</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>6.5</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
         <v>1.85</v>
       </c>
-      <c r="N117">
-        <v>4.5</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>1.615</v>
-      </c>
-      <c r="Q117">
-        <v>0.75</v>
-      </c>
-      <c r="R117">
-        <v>1.975</v>
-      </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>1.85</v>
+      </c>
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>5.75</v>
-      </c>
-      <c r="N118">
-        <v>1.363</v>
-      </c>
-      <c r="O118">
-        <v>4.5</v>
-      </c>
       <c r="P118">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.95</v>
-      </c>
-      <c r="AB118">
-        <v>0.825</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -14606,6 +14606,15 @@
       <c r="G159" t="s">
         <v>30</v>
       </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159" t="s">
+        <v>47</v>
+      </c>
       <c r="K159">
         <v>1.533</v>
       </c>
@@ -14616,46 +14625,52 @@
         <v>4.5</v>
       </c>
       <c r="N159">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O159">
         <v>4.2</v>
       </c>
       <c r="P159">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q159">
         <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB159">
+        <v>-1</v>
+      </c>
+      <c r="AC159">
+        <v>0.875</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14663,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6992683</v>
+        <v>6992685</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14672,49 +14687,49 @@
         <v>28</v>
       </c>
       <c r="E160" s="2">
-        <v>45360.33333333334</v>
+        <v>45361.3125</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K160">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N160">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="O160">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P160">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q160">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W160">
         <v>0</v>
@@ -14737,7 +14752,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6992682</v>
+        <v>6992681</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14746,49 +14761,49 @@
         <v>28</v>
       </c>
       <c r="E161" s="2">
-        <v>45360.35416666666</v>
+        <v>45361.33333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K161">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="L161">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>7.5</v>
+        <v>1.571</v>
       </c>
       <c r="N161">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O161">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="Q161">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R161">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
         <v>0</v>
@@ -14811,7 +14826,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6992686</v>
+        <v>6992687</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14820,49 +14835,49 @@
         <v>28</v>
       </c>
       <c r="E162" s="2">
-        <v>45360.375</v>
+        <v>45361.375</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K162">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M162">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N162">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O162">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R162">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S162">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
         <v>0</v>
@@ -14877,302 +14892,6 @@
         <v>0</v>
       </c>
       <c r="AA162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>6992684</v>
-      </c>
-      <c r="C163" t="s">
-        <v>28</v>
-      </c>
-      <c r="D163" t="s">
-        <v>28</v>
-      </c>
-      <c r="E163" s="2">
-        <v>45360.41666666666</v>
-      </c>
-      <c r="F163" t="s">
-        <v>38</v>
-      </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
-      <c r="K163">
-        <v>1.4</v>
-      </c>
-      <c r="L163">
-        <v>4.5</v>
-      </c>
-      <c r="M163">
-        <v>6</v>
-      </c>
-      <c r="N163">
-        <v>1.4</v>
-      </c>
-      <c r="O163">
-        <v>4.5</v>
-      </c>
-      <c r="P163">
-        <v>6</v>
-      </c>
-      <c r="Q163">
-        <v>-1.5</v>
-      </c>
-      <c r="R163">
-        <v>2</v>
-      </c>
-      <c r="S163">
-        <v>1.8</v>
-      </c>
-      <c r="T163">
-        <v>3.25</v>
-      </c>
-      <c r="U163">
-        <v>1.925</v>
-      </c>
-      <c r="V163">
-        <v>1.875</v>
-      </c>
-      <c r="W163">
-        <v>0</v>
-      </c>
-      <c r="X163">
-        <v>0</v>
-      </c>
-      <c r="Y163">
-        <v>0</v>
-      </c>
-      <c r="Z163">
-        <v>0</v>
-      </c>
-      <c r="AA163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:27">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>6992685</v>
-      </c>
-      <c r="C164" t="s">
-        <v>28</v>
-      </c>
-      <c r="D164" t="s">
-        <v>28</v>
-      </c>
-      <c r="E164" s="2">
-        <v>45361.3125</v>
-      </c>
-      <c r="F164" t="s">
-        <v>29</v>
-      </c>
-      <c r="G164" t="s">
-        <v>35</v>
-      </c>
-      <c r="K164">
-        <v>2.05</v>
-      </c>
-      <c r="L164">
-        <v>3.4</v>
-      </c>
-      <c r="M164">
-        <v>3</v>
-      </c>
-      <c r="N164">
-        <v>2</v>
-      </c>
-      <c r="O164">
-        <v>3.4</v>
-      </c>
-      <c r="P164">
-        <v>3.1</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>1.8</v>
-      </c>
-      <c r="S164">
-        <v>2</v>
-      </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>1.925</v>
-      </c>
-      <c r="V164">
-        <v>1.875</v>
-      </c>
-      <c r="W164">
-        <v>0</v>
-      </c>
-      <c r="X164">
-        <v>0</v>
-      </c>
-      <c r="Y164">
-        <v>0</v>
-      </c>
-      <c r="Z164">
-        <v>0</v>
-      </c>
-      <c r="AA164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:27">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>6992681</v>
-      </c>
-      <c r="C165" t="s">
-        <v>28</v>
-      </c>
-      <c r="D165" t="s">
-        <v>28</v>
-      </c>
-      <c r="E165" s="2">
-        <v>45361.33333333334</v>
-      </c>
-      <c r="F165" t="s">
-        <v>44</v>
-      </c>
-      <c r="G165" t="s">
-        <v>42</v>
-      </c>
-      <c r="K165">
-        <v>4.5</v>
-      </c>
-      <c r="L165">
-        <v>4</v>
-      </c>
-      <c r="M165">
-        <v>1.571</v>
-      </c>
-      <c r="N165">
-        <v>4.5</v>
-      </c>
-      <c r="O165">
-        <v>3.8</v>
-      </c>
-      <c r="P165">
-        <v>1.6</v>
-      </c>
-      <c r="Q165">
-        <v>1</v>
-      </c>
-      <c r="R165">
-        <v>1.825</v>
-      </c>
-      <c r="S165">
-        <v>1.975</v>
-      </c>
-      <c r="T165">
-        <v>3</v>
-      </c>
-      <c r="U165">
-        <v>1.875</v>
-      </c>
-      <c r="V165">
-        <v>1.925</v>
-      </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-      <c r="X165">
-        <v>0</v>
-      </c>
-      <c r="Y165">
-        <v>0</v>
-      </c>
-      <c r="Z165">
-        <v>0</v>
-      </c>
-      <c r="AA165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:27">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>6992687</v>
-      </c>
-      <c r="C166" t="s">
-        <v>28</v>
-      </c>
-      <c r="D166" t="s">
-        <v>28</v>
-      </c>
-      <c r="E166" s="2">
-        <v>45361.375</v>
-      </c>
-      <c r="F166" t="s">
-        <v>34</v>
-      </c>
-      <c r="G166" t="s">
-        <v>31</v>
-      </c>
-      <c r="K166">
-        <v>1.5</v>
-      </c>
-      <c r="L166">
-        <v>4</v>
-      </c>
-      <c r="M166">
-        <v>5</v>
-      </c>
-      <c r="N166">
-        <v>1.5</v>
-      </c>
-      <c r="O166">
-        <v>4</v>
-      </c>
-      <c r="P166">
-        <v>5</v>
-      </c>
-      <c r="Q166">
-        <v>-1</v>
-      </c>
-      <c r="R166">
-        <v>1.775</v>
-      </c>
-      <c r="S166">
-        <v>2.025</v>
-      </c>
-      <c r="T166">
-        <v>3</v>
-      </c>
-      <c r="U166">
-        <v>1.925</v>
-      </c>
-      <c r="V166">
-        <v>1.875</v>
-      </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <v>0</v>
-      </c>
-      <c r="Y166">
-        <v>0</v>
-      </c>
-      <c r="Z166">
-        <v>0</v>
-      </c>
-      <c r="AA166">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC162"/>
+  <dimension ref="A1:AC166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6992685</v>
+        <v>6992683</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14687,72 +14687,87 @@
         <v>28</v>
       </c>
       <c r="E160" s="2">
-        <v>45361.3125</v>
+        <v>45360.33333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>46</v>
       </c>
       <c r="K160">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="O160">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V160">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z160">
         <v>0</v>
       </c>
       <c r="AA160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6992681</v>
+        <v>6992682</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14761,138 +14776,524 @@
         <v>28</v>
       </c>
       <c r="E161" s="2">
-        <v>45361.33333333334</v>
+        <v>45360.35416666666</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="H161">
+        <v>7</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>47</v>
       </c>
       <c r="K161">
+        <v>1.3</v>
+      </c>
+      <c r="L161">
+        <v>4.75</v>
+      </c>
+      <c r="M161">
+        <v>7.5</v>
+      </c>
+      <c r="N161">
+        <v>1.444</v>
+      </c>
+      <c r="O161">
         <v>4.5</v>
       </c>
-      <c r="L161">
-        <v>4</v>
-      </c>
-      <c r="M161">
-        <v>1.571</v>
-      </c>
-      <c r="N161">
-        <v>4.5</v>
-      </c>
-      <c r="O161">
-        <v>3.8</v>
-      </c>
       <c r="P161">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q161">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R161">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T161">
         <v>3</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="X161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB161">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC161">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
+        <v>6992686</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45360.375</v>
+      </c>
+      <c r="F162" t="s">
+        <v>40</v>
+      </c>
+      <c r="G162" t="s">
+        <v>36</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162" t="s">
+        <v>47</v>
+      </c>
+      <c r="K162">
+        <v>1.833</v>
+      </c>
+      <c r="L162">
+        <v>3.4</v>
+      </c>
+      <c r="M162">
+        <v>3.6</v>
+      </c>
+      <c r="N162">
+        <v>1.833</v>
+      </c>
+      <c r="O162">
+        <v>3.4</v>
+      </c>
+      <c r="P162">
+        <v>3.6</v>
+      </c>
+      <c r="Q162">
+        <v>-0.5</v>
+      </c>
+      <c r="R162">
+        <v>1.875</v>
+      </c>
+      <c r="S162">
+        <v>1.925</v>
+      </c>
+      <c r="T162">
+        <v>2.5</v>
+      </c>
+      <c r="U162">
+        <v>1.875</v>
+      </c>
+      <c r="V162">
+        <v>1.925</v>
+      </c>
+      <c r="W162">
+        <v>0.833</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>-1</v>
+      </c>
+      <c r="Z162">
+        <v>0.875</v>
+      </c>
+      <c r="AA162">
+        <v>-1</v>
+      </c>
+      <c r="AB162">
+        <v>-1</v>
+      </c>
+      <c r="AC162">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>6992684</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F163" t="s">
+        <v>38</v>
+      </c>
+      <c r="G163" t="s">
+        <v>32</v>
+      </c>
+      <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
+        <v>3</v>
+      </c>
+      <c r="J163" t="s">
+        <v>45</v>
+      </c>
+      <c r="K163">
+        <v>1.4</v>
+      </c>
+      <c r="L163">
+        <v>4.5</v>
+      </c>
+      <c r="M163">
+        <v>6</v>
+      </c>
+      <c r="N163">
+        <v>1.45</v>
+      </c>
+      <c r="O163">
+        <v>4.2</v>
+      </c>
+      <c r="P163">
+        <v>5.5</v>
+      </c>
+      <c r="Q163">
+        <v>-1.25</v>
+      </c>
+      <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>3</v>
+      </c>
+      <c r="U163">
+        <v>1.75</v>
+      </c>
+      <c r="V163">
+        <v>1.95</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>3.2</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
+        <v>-1</v>
+      </c>
+      <c r="AA163">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB163">
+        <v>0.75</v>
+      </c>
+      <c r="AC163">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>6992685</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45361.3125</v>
+      </c>
+      <c r="F164" t="s">
+        <v>29</v>
+      </c>
+      <c r="G164" t="s">
+        <v>35</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>47</v>
+      </c>
+      <c r="K164">
+        <v>2.05</v>
+      </c>
+      <c r="L164">
+        <v>3.4</v>
+      </c>
+      <c r="M164">
+        <v>3</v>
+      </c>
+      <c r="N164">
+        <v>2.05</v>
+      </c>
+      <c r="O164">
+        <v>3.3</v>
+      </c>
+      <c r="P164">
+        <v>3</v>
+      </c>
+      <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
+        <v>1.925</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
+        <v>1.925</v>
+      </c>
+      <c r="V164">
+        <v>1.875</v>
+      </c>
+      <c r="W164">
+        <v>1.05</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>0.875</v>
+      </c>
+      <c r="AA164">
+        <v>-1</v>
+      </c>
+      <c r="AB164">
+        <v>0.4625</v>
+      </c>
+      <c r="AC164">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>6992681</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45361.33333333334</v>
+      </c>
+      <c r="F165" t="s">
+        <v>44</v>
+      </c>
+      <c r="G165" t="s">
+        <v>42</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>45</v>
+      </c>
+      <c r="K165">
+        <v>4.5</v>
+      </c>
+      <c r="L165">
+        <v>4</v>
+      </c>
+      <c r="M165">
+        <v>1.571</v>
+      </c>
+      <c r="N165">
+        <v>5.25</v>
+      </c>
+      <c r="O165">
+        <v>4.2</v>
+      </c>
+      <c r="P165">
+        <v>1.5</v>
+      </c>
+      <c r="Q165">
+        <v>1.25</v>
+      </c>
+      <c r="R165">
+        <v>1.8</v>
+      </c>
+      <c r="S165">
+        <v>2</v>
+      </c>
+      <c r="T165">
+        <v>3</v>
+      </c>
+      <c r="U165">
+        <v>1.825</v>
+      </c>
+      <c r="V165">
+        <v>1.975</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>3.2</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
+        <v>0.8</v>
+      </c>
+      <c r="AA165">
+        <v>-1</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
         <v>6992687</v>
       </c>
-      <c r="C162" t="s">
-        <v>28</v>
-      </c>
-      <c r="D162" t="s">
-        <v>28</v>
-      </c>
-      <c r="E162" s="2">
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="2">
         <v>45361.375</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F166" t="s">
         <v>34</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G166" t="s">
         <v>31</v>
       </c>
-      <c r="K162">
+      <c r="H166">
+        <v>4</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>47</v>
+      </c>
+      <c r="K166">
         <v>1.5</v>
       </c>
-      <c r="L162">
+      <c r="L166">
         <v>4</v>
       </c>
-      <c r="M162">
+      <c r="M166">
         <v>5</v>
       </c>
-      <c r="N162">
-        <v>1.5</v>
-      </c>
-      <c r="O162">
-        <v>4</v>
-      </c>
-      <c r="P162">
-        <v>5</v>
-      </c>
-      <c r="Q162">
-        <v>-1</v>
-      </c>
-      <c r="R162">
-        <v>1.775</v>
-      </c>
-      <c r="S162">
-        <v>2.025</v>
-      </c>
-      <c r="T162">
-        <v>3</v>
-      </c>
-      <c r="U162">
-        <v>1.95</v>
-      </c>
-      <c r="V162">
-        <v>1.85</v>
-      </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-      <c r="X162">
-        <v>0</v>
-      </c>
-      <c r="Y162">
-        <v>0</v>
-      </c>
-      <c r="Z162">
-        <v>0</v>
-      </c>
-      <c r="AA162">
-        <v>0</v>
+      <c r="N166">
+        <v>1.6</v>
+      </c>
+      <c r="O166">
+        <v>3.75</v>
+      </c>
+      <c r="P166">
+        <v>4.5</v>
+      </c>
+      <c r="Q166">
+        <v>-0.75</v>
+      </c>
+      <c r="R166">
+        <v>1.8</v>
+      </c>
+      <c r="S166">
+        <v>2</v>
+      </c>
+      <c r="T166">
+        <v>2.75</v>
+      </c>
+      <c r="U166">
+        <v>1.825</v>
+      </c>
+      <c r="V166">
+        <v>1.975</v>
+      </c>
+      <c r="W166">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.8</v>
+      </c>
+      <c r="AA166">
+        <v>-1</v>
+      </c>
+      <c r="AB166">
+        <v>0.825</v>
+      </c>
+      <c r="AC166">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N15">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O15">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8018,7 +8018,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" t="s">
         <v>42</v>
-      </c>
-      <c r="G130" t="s">
-        <v>43</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13978,7 +13978,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14334,7 +14334,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14782,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H165">
         <v>1</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N16">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O16">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
         <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8018,7 +8018,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" t="s">
         <v>43</v>
-      </c>
-      <c r="G130" t="s">
-        <v>42</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13978,7 +13978,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14334,7 +14334,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14782,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H165">
         <v>1</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC166"/>
+  <dimension ref="A1:AC170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15296,6 +15296,302 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="167" spans="1:29">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>6992690</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45381.33333333334</v>
+      </c>
+      <c r="F167" t="s">
+        <v>32</v>
+      </c>
+      <c r="G167" t="s">
+        <v>33</v>
+      </c>
+      <c r="K167">
+        <v>2.3</v>
+      </c>
+      <c r="L167">
+        <v>3.2</v>
+      </c>
+      <c r="M167">
+        <v>2.7</v>
+      </c>
+      <c r="N167">
+        <v>2.4</v>
+      </c>
+      <c r="O167">
+        <v>3.2</v>
+      </c>
+      <c r="P167">
+        <v>2.55</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>1.8</v>
+      </c>
+      <c r="S167">
+        <v>2</v>
+      </c>
+      <c r="T167">
+        <v>2.75</v>
+      </c>
+      <c r="U167">
+        <v>1.9</v>
+      </c>
+      <c r="V167">
+        <v>1.9</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>6992689</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45381.35416666666</v>
+      </c>
+      <c r="F168" t="s">
+        <v>36</v>
+      </c>
+      <c r="G168" t="s">
+        <v>38</v>
+      </c>
+      <c r="K168">
+        <v>3.25</v>
+      </c>
+      <c r="L168">
+        <v>3.5</v>
+      </c>
+      <c r="M168">
+        <v>1.909</v>
+      </c>
+      <c r="N168">
+        <v>3.5</v>
+      </c>
+      <c r="O168">
+        <v>3.4</v>
+      </c>
+      <c r="P168">
+        <v>1.85</v>
+      </c>
+      <c r="Q168">
+        <v>0.5</v>
+      </c>
+      <c r="R168">
+        <v>1.875</v>
+      </c>
+      <c r="S168">
+        <v>1.925</v>
+      </c>
+      <c r="T168">
+        <v>3</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
+      <c r="V168">
+        <v>1.8</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>6992691</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45381.375</v>
+      </c>
+      <c r="F169" t="s">
+        <v>43</v>
+      </c>
+      <c r="G169" t="s">
+        <v>40</v>
+      </c>
+      <c r="K169">
+        <v>2.75</v>
+      </c>
+      <c r="L169">
+        <v>3.25</v>
+      </c>
+      <c r="M169">
+        <v>2.25</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169">
+        <v>3.25</v>
+      </c>
+      <c r="P169">
+        <v>2.1</v>
+      </c>
+      <c r="Q169">
+        <v>0.25</v>
+      </c>
+      <c r="R169">
+        <v>1.925</v>
+      </c>
+      <c r="S169">
+        <v>1.875</v>
+      </c>
+      <c r="T169">
+        <v>2.75</v>
+      </c>
+      <c r="U169">
+        <v>1.875</v>
+      </c>
+      <c r="V169">
+        <v>1.925</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>6992694</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F170" t="s">
+        <v>35</v>
+      </c>
+      <c r="G170" t="s">
+        <v>37</v>
+      </c>
+      <c r="K170">
+        <v>4</v>
+      </c>
+      <c r="L170">
+        <v>4</v>
+      </c>
+      <c r="M170">
+        <v>1.615</v>
+      </c>
+      <c r="N170">
+        <v>3.75</v>
+      </c>
+      <c r="O170">
+        <v>3.8</v>
+      </c>
+      <c r="P170">
+        <v>1.666</v>
+      </c>
+      <c r="Q170">
+        <v>0.75</v>
+      </c>
+      <c r="R170">
+        <v>1.9</v>
+      </c>
+      <c r="S170">
+        <v>1.9</v>
+      </c>
+      <c r="T170">
+        <v>3.25</v>
+      </c>
+      <c r="U170">
+        <v>1.975</v>
+      </c>
+      <c r="V170">
+        <v>1.825</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -15414,19 +15414,19 @@
         <v>0.5</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
         <v>3</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15488,19 +15488,19 @@
         <v>0.25</v>
       </c>
       <c r="R169">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S169">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T169">
         <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V169">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
         <v>0</v>
@@ -15550,31 +15550,31 @@
         <v>1.615</v>
       </c>
       <c r="N170">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O170">
         <v>3.8</v>
       </c>
       <c r="P170">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="Q170">
         <v>0.75</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W170">
         <v>0</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6992690</v>
+        <v>6992693</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15310,49 +15310,49 @@
         <v>28</v>
       </c>
       <c r="E167" s="2">
-        <v>45381.33333333334</v>
+        <v>45382.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K167">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M167">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N167">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O167">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P167">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S167">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U167">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15375,7 +15375,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6992689</v>
+        <v>6992335</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15384,49 +15384,49 @@
         <v>28</v>
       </c>
       <c r="E168" s="2">
-        <v>45381.35416666666</v>
+        <v>45382.33333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K168">
+        <v>1.444</v>
+      </c>
+      <c r="L168">
+        <v>4.2</v>
+      </c>
+      <c r="M168">
+        <v>5.5</v>
+      </c>
+      <c r="N168">
+        <v>1.4</v>
+      </c>
+      <c r="O168">
+        <v>4.333</v>
+      </c>
+      <c r="P168">
+        <v>5.75</v>
+      </c>
+      <c r="Q168">
+        <v>-1.25</v>
+      </c>
+      <c r="R168">
+        <v>1.825</v>
+      </c>
+      <c r="S168">
+        <v>1.975</v>
+      </c>
+      <c r="T168">
         <v>3.25</v>
       </c>
-      <c r="L168">
-        <v>3.5</v>
-      </c>
-      <c r="M168">
-        <v>1.909</v>
-      </c>
-      <c r="N168">
-        <v>3.5</v>
-      </c>
-      <c r="O168">
-        <v>3.4</v>
-      </c>
-      <c r="P168">
-        <v>1.85</v>
-      </c>
-      <c r="Q168">
-        <v>0.5</v>
-      </c>
-      <c r="R168">
-        <v>1.85</v>
-      </c>
-      <c r="S168">
-        <v>1.95</v>
-      </c>
-      <c r="T168">
-        <v>3</v>
-      </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15449,7 +15449,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6992691</v>
+        <v>6992692</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15458,34 +15458,34 @@
         <v>28</v>
       </c>
       <c r="E169" s="2">
-        <v>45381.375</v>
+        <v>45382.35416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K169">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L169">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M169">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N169">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O169">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P169">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R169">
         <v>1.9</v>
@@ -15523,7 +15523,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6992694</v>
+        <v>6992688</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15532,49 +15532,49 @@
         <v>28</v>
       </c>
       <c r="E170" s="2">
-        <v>45381.41666666666</v>
+        <v>45382.375</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K170">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="N170">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O170">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q170">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
         <v>0</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N15">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O15">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K85">
+        <v>1.7</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.2</v>
+      </c>
+      <c r="N85">
+        <v>1.7</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>4.333</v>
+      </c>
+      <c r="Q85">
+        <v>-0.75</v>
+      </c>
+      <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
+        <v>1.875</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="L85">
-        <v>3.5</v>
-      </c>
-      <c r="M85">
-        <v>3.4</v>
-      </c>
-      <c r="N85">
-        <v>2.1</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>3</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>1.8</v>
-      </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N86">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
         <v>1.925</v>
       </c>
-      <c r="S86">
-        <v>1.875</v>
-      </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>1.85</v>
+      </c>
+      <c r="N117">
+        <v>4.5</v>
+      </c>
+      <c r="O117">
         <v>4</v>
       </c>
-      <c r="M117">
-        <v>5.75</v>
-      </c>
-      <c r="N117">
-        <v>1.363</v>
-      </c>
-      <c r="O117">
-        <v>4.5</v>
-      </c>
       <c r="P117">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AB117">
-        <v>0.825</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M118">
+        <v>5.75</v>
+      </c>
+      <c r="N118">
+        <v>1.363</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>6.5</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
         <v>1.85</v>
       </c>
-      <c r="N118">
-        <v>4.5</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>1.615</v>
-      </c>
-      <c r="Q118">
-        <v>0.75</v>
-      </c>
-      <c r="R118">
-        <v>1.975</v>
-      </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" t="s">
         <v>42</v>
-      </c>
-      <c r="G130" t="s">
-        <v>43</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13978,7 +13978,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14334,7 +14334,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14782,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6992693</v>
+        <v>6992690</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15310,64 +15310,79 @@
         <v>28</v>
       </c>
       <c r="E167" s="2">
-        <v>45382.3125</v>
+        <v>45381.33333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167" t="s">
+        <v>45</v>
       </c>
       <c r="K167">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L167">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N167">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O167">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
+        <v>1.85</v>
+      </c>
+      <c r="S167">
         <v>1.95</v>
       </c>
-      <c r="S167">
-        <v>1.85</v>
-      </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0</v>
+        <v>0.475</v>
+      </c>
+      <c r="AB167">
+        <v>0.925</v>
+      </c>
+      <c r="AC167">
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15375,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6992335</v>
+        <v>6992689</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15384,64 +15399,79 @@
         <v>28</v>
       </c>
       <c r="E168" s="2">
-        <v>45382.33333333334</v>
+        <v>45381.35416666666</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168" t="s">
+        <v>45</v>
       </c>
       <c r="K168">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L168">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N168">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O168">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA168">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB168">
+        <v>0.925</v>
+      </c>
+      <c r="AC168">
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15449,7 +15479,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6992692</v>
+        <v>6992691</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15458,64 +15488,79 @@
         <v>28</v>
       </c>
       <c r="E169" s="2">
-        <v>45382.35416666666</v>
+        <v>45381.375</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L169">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M169">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N169">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q169">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S169">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T169">
         <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA169">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB169">
+        <v>-1</v>
+      </c>
+      <c r="AC169">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15523,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6992688</v>
+        <v>6992694</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15532,64 +15577,79 @@
         <v>28</v>
       </c>
       <c r="E170" s="2">
-        <v>45382.375</v>
+        <v>45381.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="s">
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="N170">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="O170">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P170">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S170">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W170">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA170">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>-0.5</v>
+      </c>
+      <c r="AC170">
+        <v>0.3875</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC170"/>
+  <dimension ref="A1:AC175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N16">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O16">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
         <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
       </c>
-      <c r="S85">
-        <v>1.875</v>
-      </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
+        <v>1.7</v>
+      </c>
+      <c r="L86">
+        <v>3.75</v>
+      </c>
+      <c r="M86">
+        <v>4.2</v>
+      </c>
+      <c r="N86">
+        <v>1.7</v>
+      </c>
+      <c r="O86">
+        <v>3.75</v>
+      </c>
+      <c r="P86">
+        <v>4.333</v>
+      </c>
+      <c r="Q86">
+        <v>-0.75</v>
+      </c>
+      <c r="R86">
+        <v>1.925</v>
+      </c>
+      <c r="S86">
+        <v>1.875</v>
+      </c>
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="L86">
-        <v>3.5</v>
-      </c>
-      <c r="M86">
-        <v>3.4</v>
-      </c>
-      <c r="N86">
-        <v>2.1</v>
-      </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>-0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.8</v>
-      </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" t="s">
         <v>43</v>
-      </c>
-      <c r="G130" t="s">
-        <v>42</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13978,7 +13978,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14334,7 +14334,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14782,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45381.375</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15650,6 +15650,436 @@
       </c>
       <c r="AC170">
         <v>0.3875</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>6992693</v>
+      </c>
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45382.3125</v>
+      </c>
+      <c r="F171" t="s">
+        <v>42</v>
+      </c>
+      <c r="G171" t="s">
+        <v>41</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="s">
+        <v>47</v>
+      </c>
+      <c r="K171">
+        <v>1.4</v>
+      </c>
+      <c r="L171">
+        <v>4.333</v>
+      </c>
+      <c r="M171">
+        <v>6</v>
+      </c>
+      <c r="N171">
+        <v>1.2</v>
+      </c>
+      <c r="O171">
+        <v>6</v>
+      </c>
+      <c r="P171">
+        <v>9</v>
+      </c>
+      <c r="Q171">
+        <v>-2</v>
+      </c>
+      <c r="R171">
+        <v>1.85</v>
+      </c>
+      <c r="S171">
+        <v>1.95</v>
+      </c>
+      <c r="T171">
+        <v>3.5</v>
+      </c>
+      <c r="U171">
+        <v>1.975</v>
+      </c>
+      <c r="V171">
+        <v>1.825</v>
+      </c>
+      <c r="W171">
+        <v>0.2</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
+        <v>0.95</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>6992335</v>
+      </c>
+      <c r="C172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45382.33333333334</v>
+      </c>
+      <c r="F172" t="s">
+        <v>34</v>
+      </c>
+      <c r="G172" t="s">
+        <v>30</v>
+      </c>
+      <c r="H172">
+        <v>3</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>47</v>
+      </c>
+      <c r="K172">
+        <v>1.444</v>
+      </c>
+      <c r="L172">
+        <v>4.2</v>
+      </c>
+      <c r="M172">
+        <v>5.5</v>
+      </c>
+      <c r="N172">
+        <v>1.363</v>
+      </c>
+      <c r="O172">
+        <v>4.5</v>
+      </c>
+      <c r="P172">
+        <v>6</v>
+      </c>
+      <c r="Q172">
+        <v>-1.5</v>
+      </c>
+      <c r="R172">
+        <v>1.975</v>
+      </c>
+      <c r="S172">
+        <v>1.825</v>
+      </c>
+      <c r="T172">
+        <v>3.25</v>
+      </c>
+      <c r="U172">
+        <v>1.875</v>
+      </c>
+      <c r="V172">
+        <v>1.925</v>
+      </c>
+      <c r="W172">
+        <v>0.363</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>0.875</v>
+      </c>
+      <c r="AC172">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>6992692</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45382.35416666666</v>
+      </c>
+      <c r="F173" t="s">
+        <v>39</v>
+      </c>
+      <c r="G173" t="s">
+        <v>44</v>
+      </c>
+      <c r="H173">
+        <v>6</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>47</v>
+      </c>
+      <c r="K173">
+        <v>1.444</v>
+      </c>
+      <c r="L173">
+        <v>4.2</v>
+      </c>
+      <c r="M173">
+        <v>5.5</v>
+      </c>
+      <c r="N173">
+        <v>1.4</v>
+      </c>
+      <c r="O173">
+        <v>4.333</v>
+      </c>
+      <c r="P173">
+        <v>6</v>
+      </c>
+      <c r="Q173">
+        <v>-1.25</v>
+      </c>
+      <c r="R173">
+        <v>1.825</v>
+      </c>
+      <c r="S173">
+        <v>1.975</v>
+      </c>
+      <c r="T173">
+        <v>2.75</v>
+      </c>
+      <c r="U173">
+        <v>1.75</v>
+      </c>
+      <c r="V173">
+        <v>1.95</v>
+      </c>
+      <c r="W173">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>0.825</v>
+      </c>
+      <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
+        <v>0.75</v>
+      </c>
+      <c r="AC173">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>6992688</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45382.375</v>
+      </c>
+      <c r="F174" t="s">
+        <v>31</v>
+      </c>
+      <c r="G174" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" t="s">
+        <v>47</v>
+      </c>
+      <c r="K174">
+        <v>2.7</v>
+      </c>
+      <c r="L174">
+        <v>3.6</v>
+      </c>
+      <c r="M174">
+        <v>2.15</v>
+      </c>
+      <c r="N174">
+        <v>2.1</v>
+      </c>
+      <c r="O174">
+        <v>3.5</v>
+      </c>
+      <c r="P174">
+        <v>2.875</v>
+      </c>
+      <c r="Q174">
+        <v>-0.25</v>
+      </c>
+      <c r="R174">
+        <v>1.9</v>
+      </c>
+      <c r="S174">
+        <v>1.9</v>
+      </c>
+      <c r="T174">
+        <v>2.75</v>
+      </c>
+      <c r="U174">
+        <v>1.825</v>
+      </c>
+      <c r="V174">
+        <v>1.975</v>
+      </c>
+      <c r="W174">
+        <v>1.1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
+        <v>0.4125</v>
+      </c>
+      <c r="AC174">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>6992698</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45384.33333333334</v>
+      </c>
+      <c r="F175" t="s">
+        <v>33</v>
+      </c>
+      <c r="G175" t="s">
+        <v>35</v>
+      </c>
+      <c r="K175">
+        <v>1.8</v>
+      </c>
+      <c r="L175">
+        <v>3.6</v>
+      </c>
+      <c r="M175">
+        <v>3.6</v>
+      </c>
+      <c r="N175">
+        <v>1.8</v>
+      </c>
+      <c r="O175">
+        <v>3.6</v>
+      </c>
+      <c r="P175">
+        <v>3.6</v>
+      </c>
+      <c r="Q175">
+        <v>-0.5</v>
+      </c>
+      <c r="R175">
+        <v>1.825</v>
+      </c>
+      <c r="S175">
+        <v>1.975</v>
+      </c>
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
+        <v>1.95</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC175"/>
+  <dimension ref="A1:AC180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N15">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O15">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K85">
+        <v>1.7</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.2</v>
+      </c>
+      <c r="N85">
+        <v>1.7</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>4.333</v>
+      </c>
+      <c r="Q85">
+        <v>-0.75</v>
+      </c>
+      <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
+        <v>1.875</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="L85">
-        <v>3.5</v>
-      </c>
-      <c r="M85">
-        <v>3.4</v>
-      </c>
-      <c r="N85">
-        <v>2.1</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>3</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>1.8</v>
-      </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N86">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
         <v>1.925</v>
       </c>
-      <c r="S86">
-        <v>1.875</v>
-      </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" t="s">
         <v>42</v>
-      </c>
-      <c r="G130" t="s">
-        <v>43</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13978,7 +13978,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14334,7 +14334,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14782,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45381.375</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15669,7 +15669,7 @@
         <v>45382.3125</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
@@ -16030,6 +16030,15 @@
       <c r="G175" t="s">
         <v>35</v>
       </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>47</v>
+      </c>
       <c r="K175">
         <v>1.8</v>
       </c>
@@ -16040,16 +16049,16 @@
         <v>3.6</v>
       </c>
       <c r="N175">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P175">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
         <v>1.825</v>
@@ -16061,24 +16070,415 @@
         <v>2.75</v>
       </c>
       <c r="U175">
+        <v>1.975</v>
+      </c>
+      <c r="V175">
+        <v>1.825</v>
+      </c>
+      <c r="W175">
+        <v>0.615</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
+        <v>0.4125</v>
+      </c>
+      <c r="AA175">
+        <v>-0.5</v>
+      </c>
+      <c r="AB175">
+        <v>0.4875</v>
+      </c>
+      <c r="AC175">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>6992700</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45384.375</v>
+      </c>
+      <c r="F176" t="s">
+        <v>38</v>
+      </c>
+      <c r="G176" t="s">
+        <v>42</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>47</v>
+      </c>
+      <c r="K176">
+        <v>1.222</v>
+      </c>
+      <c r="L176">
+        <v>5.5</v>
+      </c>
+      <c r="M176">
+        <v>8.5</v>
+      </c>
+      <c r="N176">
+        <v>1.363</v>
+      </c>
+      <c r="O176">
+        <v>5</v>
+      </c>
+      <c r="P176">
+        <v>5.75</v>
+      </c>
+      <c r="Q176">
+        <v>-1.5</v>
+      </c>
+      <c r="R176">
+        <v>1.925</v>
+      </c>
+      <c r="S176">
+        <v>1.875</v>
+      </c>
+      <c r="T176">
+        <v>3.25</v>
+      </c>
+      <c r="U176">
+        <v>1.975</v>
+      </c>
+      <c r="V176">
+        <v>1.825</v>
+      </c>
+      <c r="W176">
+        <v>0.363</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>0.875</v>
+      </c>
+      <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>6992696</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45385.33333333334</v>
+      </c>
+      <c r="F177" t="s">
+        <v>44</v>
+      </c>
+      <c r="G177" t="s">
+        <v>41</v>
+      </c>
+      <c r="K177">
+        <v>1.833</v>
+      </c>
+      <c r="L177">
+        <v>3.6</v>
+      </c>
+      <c r="M177">
+        <v>3.4</v>
+      </c>
+      <c r="N177">
+        <v>1.75</v>
+      </c>
+      <c r="O177">
+        <v>3.6</v>
+      </c>
+      <c r="P177">
+        <v>3.75</v>
+      </c>
+      <c r="Q177">
+        <v>-0.5</v>
+      </c>
+      <c r="R177">
+        <v>1.8</v>
+      </c>
+      <c r="S177">
+        <v>2</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>2</v>
+      </c>
+      <c r="V177">
+        <v>1.8</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>6992336</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45385.35416666666</v>
+      </c>
+      <c r="F178" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" t="s">
+        <v>30</v>
+      </c>
+      <c r="K178">
+        <v>1.8</v>
+      </c>
+      <c r="L178">
+        <v>3.6</v>
+      </c>
+      <c r="M178">
+        <v>3.6</v>
+      </c>
+      <c r="N178">
+        <v>1.8</v>
+      </c>
+      <c r="O178">
+        <v>3.6</v>
+      </c>
+      <c r="P178">
+        <v>3.6</v>
+      </c>
+      <c r="Q178">
+        <v>-0.5</v>
+      </c>
+      <c r="R178">
+        <v>1.825</v>
+      </c>
+      <c r="S178">
+        <v>1.975</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
+        <v>1.825</v>
+      </c>
+      <c r="V178">
+        <v>1.975</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>8026714</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45385.375</v>
+      </c>
+      <c r="F179" t="s">
+        <v>37</v>
+      </c>
+      <c r="G179" t="s">
+        <v>43</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>3.6</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>3.2</v>
+      </c>
+      <c r="O179">
+        <v>3.8</v>
+      </c>
+      <c r="P179">
         <v>1.85</v>
       </c>
-      <c r="V175">
+      <c r="Q179">
+        <v>0.5</v>
+      </c>
+      <c r="R179">
+        <v>1.925</v>
+      </c>
+      <c r="S179">
+        <v>1.875</v>
+      </c>
+      <c r="T179">
+        <v>3</v>
+      </c>
+      <c r="U179">
+        <v>2</v>
+      </c>
+      <c r="V179">
+        <v>1.8</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>6992695</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45385.375</v>
+      </c>
+      <c r="F180" t="s">
+        <v>34</v>
+      </c>
+      <c r="G180" t="s">
+        <v>32</v>
+      </c>
+      <c r="K180">
+        <v>2.1</v>
+      </c>
+      <c r="L180">
+        <v>3.75</v>
+      </c>
+      <c r="M180">
+        <v>2.7</v>
+      </c>
+      <c r="N180">
+        <v>1.75</v>
+      </c>
+      <c r="O180">
+        <v>4</v>
+      </c>
+      <c r="P180">
+        <v>3.4</v>
+      </c>
+      <c r="Q180">
+        <v>-0.5</v>
+      </c>
+      <c r="R180">
+        <v>1.8</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
+        <v>3</v>
+      </c>
+      <c r="U180">
+        <v>1.85</v>
+      </c>
+      <c r="V180">
         <v>1.95</v>
       </c>
-      <c r="W175">
+      <c r="W180">
         <v>0</v>
       </c>
-      <c r="X175">
+      <c r="X180">
         <v>0</v>
       </c>
-      <c r="Y175">
+      <c r="Y180">
         <v>0</v>
       </c>
-      <c r="Z175">
+      <c r="Z180">
         <v>0</v>
       </c>
-      <c r="AA175">
+      <c r="AA180">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC180"/>
+  <dimension ref="A1:AC178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6992696</v>
+        <v>6992701</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16200,49 +16200,49 @@
         <v>28</v>
       </c>
       <c r="E177" s="2">
-        <v>45385.33333333334</v>
+        <v>45386.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K177">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N177">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P177">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -16265,7 +16265,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6992336</v>
+        <v>6992699</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16274,49 +16274,49 @@
         <v>28</v>
       </c>
       <c r="E178" s="2">
-        <v>45385.35416666666</v>
+        <v>45386.375</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K178">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L178">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N178">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
+        <v>1.975</v>
+      </c>
+      <c r="V178">
         <v>1.825</v>
-      </c>
-      <c r="V178">
-        <v>1.975</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -16331,154 +16331,6 @@
         <v>0</v>
       </c>
       <c r="AA178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>8026714</v>
-      </c>
-      <c r="C179" t="s">
-        <v>28</v>
-      </c>
-      <c r="D179" t="s">
-        <v>28</v>
-      </c>
-      <c r="E179" s="2">
-        <v>45385.375</v>
-      </c>
-      <c r="F179" t="s">
-        <v>37</v>
-      </c>
-      <c r="G179" t="s">
-        <v>43</v>
-      </c>
-      <c r="K179">
-        <v>3</v>
-      </c>
-      <c r="L179">
-        <v>3.6</v>
-      </c>
-      <c r="M179">
-        <v>2</v>
-      </c>
-      <c r="N179">
-        <v>3.2</v>
-      </c>
-      <c r="O179">
-        <v>3.8</v>
-      </c>
-      <c r="P179">
-        <v>1.85</v>
-      </c>
-      <c r="Q179">
-        <v>0.5</v>
-      </c>
-      <c r="R179">
-        <v>1.925</v>
-      </c>
-      <c r="S179">
-        <v>1.875</v>
-      </c>
-      <c r="T179">
-        <v>3</v>
-      </c>
-      <c r="U179">
-        <v>2</v>
-      </c>
-      <c r="V179">
-        <v>1.8</v>
-      </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-      <c r="X179">
-        <v>0</v>
-      </c>
-      <c r="Y179">
-        <v>0</v>
-      </c>
-      <c r="Z179">
-        <v>0</v>
-      </c>
-      <c r="AA179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:27">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>6992695</v>
-      </c>
-      <c r="C180" t="s">
-        <v>28</v>
-      </c>
-      <c r="D180" t="s">
-        <v>28</v>
-      </c>
-      <c r="E180" s="2">
-        <v>45385.375</v>
-      </c>
-      <c r="F180" t="s">
-        <v>34</v>
-      </c>
-      <c r="G180" t="s">
-        <v>32</v>
-      </c>
-      <c r="K180">
-        <v>2.1</v>
-      </c>
-      <c r="L180">
-        <v>3.75</v>
-      </c>
-      <c r="M180">
-        <v>2.7</v>
-      </c>
-      <c r="N180">
-        <v>1.75</v>
-      </c>
-      <c r="O180">
-        <v>4</v>
-      </c>
-      <c r="P180">
-        <v>3.4</v>
-      </c>
-      <c r="Q180">
-        <v>-0.5</v>
-      </c>
-      <c r="R180">
-        <v>1.8</v>
-      </c>
-      <c r="S180">
-        <v>2</v>
-      </c>
-      <c r="T180">
-        <v>3</v>
-      </c>
-      <c r="U180">
-        <v>1.85</v>
-      </c>
-      <c r="V180">
-        <v>1.95</v>
-      </c>
-      <c r="W180">
-        <v>0</v>
-      </c>
-      <c r="X180">
-        <v>0</v>
-      </c>
-      <c r="Y180">
-        <v>0</v>
-      </c>
-      <c r="Z180">
-        <v>0</v>
-      </c>
-      <c r="AA180">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC178"/>
+  <dimension ref="A1:AC176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16186,154 +16186,6 @@
         <v>0.825</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>6992701</v>
-      </c>
-      <c r="C177" t="s">
-        <v>28</v>
-      </c>
-      <c r="D177" t="s">
-        <v>28</v>
-      </c>
-      <c r="E177" s="2">
-        <v>45386.33333333334</v>
-      </c>
-      <c r="F177" t="s">
-        <v>40</v>
-      </c>
-      <c r="G177" t="s">
-        <v>39</v>
-      </c>
-      <c r="K177">
-        <v>3.3</v>
-      </c>
-      <c r="L177">
-        <v>3.25</v>
-      </c>
-      <c r="M177">
-        <v>1.95</v>
-      </c>
-      <c r="N177">
-        <v>3.3</v>
-      </c>
-      <c r="O177">
-        <v>3.25</v>
-      </c>
-      <c r="P177">
-        <v>1.95</v>
-      </c>
-      <c r="Q177">
-        <v>0.5</v>
-      </c>
-      <c r="R177">
-        <v>1.775</v>
-      </c>
-      <c r="S177">
-        <v>2.025</v>
-      </c>
-      <c r="T177">
-        <v>2.25</v>
-      </c>
-      <c r="U177">
-        <v>1.825</v>
-      </c>
-      <c r="V177">
-        <v>1.975</v>
-      </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-      <c r="X177">
-        <v>0</v>
-      </c>
-      <c r="Y177">
-        <v>0</v>
-      </c>
-      <c r="Z177">
-        <v>0</v>
-      </c>
-      <c r="AA177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>6992699</v>
-      </c>
-      <c r="C178" t="s">
-        <v>28</v>
-      </c>
-      <c r="D178" t="s">
-        <v>28</v>
-      </c>
-      <c r="E178" s="2">
-        <v>45386.375</v>
-      </c>
-      <c r="F178" t="s">
-        <v>29</v>
-      </c>
-      <c r="G178" t="s">
-        <v>36</v>
-      </c>
-      <c r="K178">
-        <v>2.7</v>
-      </c>
-      <c r="L178">
-        <v>3.4</v>
-      </c>
-      <c r="M178">
-        <v>2.25</v>
-      </c>
-      <c r="N178">
-        <v>2.7</v>
-      </c>
-      <c r="O178">
-        <v>3.4</v>
-      </c>
-      <c r="P178">
-        <v>2.25</v>
-      </c>
-      <c r="Q178">
-        <v>0.25</v>
-      </c>
-      <c r="R178">
-        <v>1.775</v>
-      </c>
-      <c r="S178">
-        <v>2.025</v>
-      </c>
-      <c r="T178">
-        <v>2.75</v>
-      </c>
-      <c r="U178">
-        <v>1.975</v>
-      </c>
-      <c r="V178">
-        <v>1.825</v>
-      </c>
-      <c r="W178">
-        <v>0</v>
-      </c>
-      <c r="X178">
-        <v>0</v>
-      </c>
-      <c r="Y178">
-        <v>0</v>
-      </c>
-      <c r="Z178">
-        <v>0</v>
-      </c>
-      <c r="AA178">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC176"/>
+  <dimension ref="A1:AC186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N16">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O16">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
         <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
       </c>
-      <c r="S85">
-        <v>1.875</v>
-      </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
+        <v>1.7</v>
+      </c>
+      <c r="L86">
+        <v>3.75</v>
+      </c>
+      <c r="M86">
+        <v>4.2</v>
+      </c>
+      <c r="N86">
+        <v>1.7</v>
+      </c>
+      <c r="O86">
+        <v>3.75</v>
+      </c>
+      <c r="P86">
+        <v>4.333</v>
+      </c>
+      <c r="Q86">
+        <v>-0.75</v>
+      </c>
+      <c r="R86">
+        <v>1.925</v>
+      </c>
+      <c r="S86">
+        <v>1.875</v>
+      </c>
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="L86">
-        <v>3.5</v>
-      </c>
-      <c r="M86">
-        <v>3.4</v>
-      </c>
-      <c r="N86">
-        <v>2.1</v>
-      </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>-0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.8</v>
-      </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M117">
+        <v>5.75</v>
+      </c>
+      <c r="N117">
+        <v>1.363</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>6.5</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
         <v>1.85</v>
       </c>
-      <c r="N117">
-        <v>4.5</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>1.615</v>
-      </c>
-      <c r="Q117">
-        <v>0.75</v>
-      </c>
-      <c r="R117">
-        <v>1.975</v>
-      </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>1.85</v>
+      </c>
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>5.75</v>
-      </c>
-      <c r="N118">
-        <v>1.363</v>
-      </c>
-      <c r="O118">
-        <v>4.5</v>
-      </c>
       <c r="P118">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.95</v>
-      </c>
-      <c r="AB118">
-        <v>0.825</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" t="s">
         <v>43</v>
-      </c>
-      <c r="G130" t="s">
-        <v>42</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13978,7 +13978,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14334,7 +14334,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14782,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45381.375</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15669,7 +15669,7 @@
         <v>45382.3125</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
@@ -16117,7 +16117,7 @@
         <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16184,6 +16184,836 @@
       </c>
       <c r="AC176">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>6992696</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45385.33333333334</v>
+      </c>
+      <c r="F177" t="s">
+        <v>44</v>
+      </c>
+      <c r="G177" t="s">
+        <v>41</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>47</v>
+      </c>
+      <c r="K177">
+        <v>1.833</v>
+      </c>
+      <c r="L177">
+        <v>3.6</v>
+      </c>
+      <c r="M177">
+        <v>3.4</v>
+      </c>
+      <c r="N177">
+        <v>1.727</v>
+      </c>
+      <c r="O177">
+        <v>3.6</v>
+      </c>
+      <c r="P177">
+        <v>3.8</v>
+      </c>
+      <c r="Q177">
+        <v>-0.5</v>
+      </c>
+      <c r="R177">
+        <v>1.8</v>
+      </c>
+      <c r="S177">
+        <v>2</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>2</v>
+      </c>
+      <c r="V177">
+        <v>1.8</v>
+      </c>
+      <c r="W177">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.8</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>6992336</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45385.35416666666</v>
+      </c>
+      <c r="F178" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" t="s">
+        <v>30</v>
+      </c>
+      <c r="H178">
+        <v>4</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>47</v>
+      </c>
+      <c r="K178">
+        <v>1.8</v>
+      </c>
+      <c r="L178">
+        <v>3.6</v>
+      </c>
+      <c r="M178">
+        <v>3.6</v>
+      </c>
+      <c r="N178">
+        <v>1.8</v>
+      </c>
+      <c r="O178">
+        <v>3.6</v>
+      </c>
+      <c r="P178">
+        <v>3.5</v>
+      </c>
+      <c r="Q178">
+        <v>-0.5</v>
+      </c>
+      <c r="R178">
+        <v>1.8</v>
+      </c>
+      <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>3</v>
+      </c>
+      <c r="U178">
+        <v>1.95</v>
+      </c>
+      <c r="V178">
+        <v>1.85</v>
+      </c>
+      <c r="W178">
+        <v>0.8</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>0.8</v>
+      </c>
+      <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>0.95</v>
+      </c>
+      <c r="AC178">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>6992695</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45385.375</v>
+      </c>
+      <c r="F179" t="s">
+        <v>34</v>
+      </c>
+      <c r="G179" t="s">
+        <v>32</v>
+      </c>
+      <c r="H179">
+        <v>5</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179" t="s">
+        <v>47</v>
+      </c>
+      <c r="K179">
+        <v>2.1</v>
+      </c>
+      <c r="L179">
+        <v>3.75</v>
+      </c>
+      <c r="M179">
+        <v>2.7</v>
+      </c>
+      <c r="N179">
+        <v>1.95</v>
+      </c>
+      <c r="O179">
+        <v>3.8</v>
+      </c>
+      <c r="P179">
+        <v>2.9</v>
+      </c>
+      <c r="Q179">
+        <v>-0.25</v>
+      </c>
+      <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
+        <v>3</v>
+      </c>
+      <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
+        <v>1.975</v>
+      </c>
+      <c r="W179">
+        <v>0.95</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.8</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>0.825</v>
+      </c>
+      <c r="AC179">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>8026714</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45385.375</v>
+      </c>
+      <c r="F180" t="s">
+        <v>37</v>
+      </c>
+      <c r="G180" t="s">
+        <v>42</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>45</v>
+      </c>
+      <c r="K180">
+        <v>3</v>
+      </c>
+      <c r="L180">
+        <v>3.6</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>3.1</v>
+      </c>
+      <c r="O180">
+        <v>3.75</v>
+      </c>
+      <c r="P180">
+        <v>1.95</v>
+      </c>
+      <c r="Q180">
+        <v>0.5</v>
+      </c>
+      <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
+        <v>1.975</v>
+      </c>
+      <c r="T180">
+        <v>2.75</v>
+      </c>
+      <c r="U180">
+        <v>1.85</v>
+      </c>
+      <c r="V180">
+        <v>1.95</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>2.75</v>
+      </c>
+      <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
+        <v>0.825</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>6992701</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45386.33333333334</v>
+      </c>
+      <c r="F181" t="s">
+        <v>40</v>
+      </c>
+      <c r="G181" t="s">
+        <v>39</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181" t="s">
+        <v>46</v>
+      </c>
+      <c r="K181">
+        <v>3.3</v>
+      </c>
+      <c r="L181">
+        <v>3.25</v>
+      </c>
+      <c r="M181">
+        <v>1.95</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181">
+        <v>3.5</v>
+      </c>
+      <c r="P181">
+        <v>1.727</v>
+      </c>
+      <c r="Q181">
+        <v>0.75</v>
+      </c>
+      <c r="R181">
+        <v>1.8</v>
+      </c>
+      <c r="S181">
+        <v>2</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>1.8</v>
+      </c>
+      <c r="V181">
+        <v>2</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z181">
+        <v>-0.5</v>
+      </c>
+      <c r="AA181">
+        <v>0.5</v>
+      </c>
+      <c r="AB181">
+        <v>0.8</v>
+      </c>
+      <c r="AC181">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>6992699</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45386.375</v>
+      </c>
+      <c r="F182" t="s">
+        <v>29</v>
+      </c>
+      <c r="G182" t="s">
+        <v>36</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182" t="s">
+        <v>47</v>
+      </c>
+      <c r="K182">
+        <v>2.7</v>
+      </c>
+      <c r="L182">
+        <v>3.4</v>
+      </c>
+      <c r="M182">
+        <v>2.25</v>
+      </c>
+      <c r="N182">
+        <v>2.6</v>
+      </c>
+      <c r="O182">
+        <v>3.4</v>
+      </c>
+      <c r="P182">
+        <v>2.3</v>
+      </c>
+      <c r="Q182">
+        <v>0.25</v>
+      </c>
+      <c r="R182">
+        <v>1.725</v>
+      </c>
+      <c r="S182">
+        <v>1.975</v>
+      </c>
+      <c r="T182">
+        <v>2.75</v>
+      </c>
+      <c r="U182">
+        <v>1.925</v>
+      </c>
+      <c r="V182">
+        <v>1.875</v>
+      </c>
+      <c r="W182">
+        <v>1.6</v>
+      </c>
+      <c r="X182">
+        <v>-1</v>
+      </c>
+      <c r="Y182">
+        <v>-1</v>
+      </c>
+      <c r="Z182">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA182">
+        <v>-1</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
+      </c>
+      <c r="AC182">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>6992703</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45388.33333333334</v>
+      </c>
+      <c r="F183" t="s">
+        <v>41</v>
+      </c>
+      <c r="G183" t="s">
+        <v>37</v>
+      </c>
+      <c r="K183">
+        <v>2.8</v>
+      </c>
+      <c r="L183">
+        <v>3.5</v>
+      </c>
+      <c r="M183">
+        <v>2.1</v>
+      </c>
+      <c r="N183">
+        <v>3.75</v>
+      </c>
+      <c r="O183">
+        <v>3.75</v>
+      </c>
+      <c r="P183">
+        <v>1.727</v>
+      </c>
+      <c r="Q183">
+        <v>0.75</v>
+      </c>
+      <c r="R183">
+        <v>1.85</v>
+      </c>
+      <c r="S183">
+        <v>1.95</v>
+      </c>
+      <c r="T183">
+        <v>2.75</v>
+      </c>
+      <c r="U183">
+        <v>1.85</v>
+      </c>
+      <c r="V183">
+        <v>1.95</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>6992608</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45388.35416666666</v>
+      </c>
+      <c r="F184" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" t="s">
+        <v>35</v>
+      </c>
+      <c r="K184">
+        <v>1.4</v>
+      </c>
+      <c r="L184">
+        <v>4.5</v>
+      </c>
+      <c r="M184">
+        <v>5.5</v>
+      </c>
+      <c r="N184">
+        <v>1.45</v>
+      </c>
+      <c r="O184">
+        <v>4.5</v>
+      </c>
+      <c r="P184">
+        <v>5.25</v>
+      </c>
+      <c r="Q184">
+        <v>-1.25</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>3.25</v>
+      </c>
+      <c r="U184">
+        <v>1.95</v>
+      </c>
+      <c r="V184">
+        <v>1.85</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>6992706</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45388.375</v>
+      </c>
+      <c r="F185" t="s">
+        <v>42</v>
+      </c>
+      <c r="G185" t="s">
+        <v>33</v>
+      </c>
+      <c r="K185">
+        <v>1.222</v>
+      </c>
+      <c r="L185">
+        <v>5.5</v>
+      </c>
+      <c r="M185">
+        <v>9</v>
+      </c>
+      <c r="N185">
+        <v>1.25</v>
+      </c>
+      <c r="O185">
+        <v>5.5</v>
+      </c>
+      <c r="P185">
+        <v>7.5</v>
+      </c>
+      <c r="Q185">
+        <v>-1.75</v>
+      </c>
+      <c r="R185">
+        <v>1.925</v>
+      </c>
+      <c r="S185">
+        <v>1.875</v>
+      </c>
+      <c r="T185">
+        <v>3</v>
+      </c>
+      <c r="U185">
+        <v>1.8</v>
+      </c>
+      <c r="V185">
+        <v>2</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>6992705</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F186" t="s">
+        <v>32</v>
+      </c>
+      <c r="G186" t="s">
+        <v>31</v>
+      </c>
+      <c r="K186">
+        <v>1.909</v>
+      </c>
+      <c r="L186">
+        <v>3.6</v>
+      </c>
+      <c r="M186">
+        <v>3.2</v>
+      </c>
+      <c r="N186">
+        <v>1.666</v>
+      </c>
+      <c r="O186">
+        <v>3.8</v>
+      </c>
+      <c r="P186">
+        <v>4</v>
+      </c>
+      <c r="Q186">
+        <v>-0.75</v>
+      </c>
+      <c r="R186">
+        <v>1.925</v>
+      </c>
+      <c r="S186">
+        <v>1.875</v>
+      </c>
+      <c r="T186">
+        <v>3</v>
+      </c>
+      <c r="U186">
+        <v>1.975</v>
+      </c>
+      <c r="V186">
+        <v>1.825</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N15">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O15">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8018,7 +8018,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>1.85</v>
+      </c>
+      <c r="N117">
+        <v>4.5</v>
+      </c>
+      <c r="O117">
         <v>4</v>
       </c>
-      <c r="M117">
-        <v>5.75</v>
-      </c>
-      <c r="N117">
-        <v>1.363</v>
-      </c>
-      <c r="O117">
-        <v>4.5</v>
-      </c>
       <c r="P117">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AB117">
-        <v>0.825</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M118">
+        <v>5.75</v>
+      </c>
+      <c r="N118">
+        <v>1.363</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>6.5</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
         <v>1.85</v>
       </c>
-      <c r="N118">
-        <v>4.5</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>1.615</v>
-      </c>
-      <c r="Q118">
-        <v>0.75</v>
-      </c>
-      <c r="R118">
-        <v>1.975</v>
-      </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" t="s">
         <v>42</v>
-      </c>
-      <c r="G130" t="s">
-        <v>43</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13978,7 +13978,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14334,7 +14334,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14782,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45381.375</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15669,7 +15669,7 @@
         <v>45382.3125</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
@@ -16117,7 +16117,7 @@
         <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6992703</v>
+        <v>6992337</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16734,49 +16734,49 @@
         <v>28</v>
       </c>
       <c r="E183" s="2">
-        <v>45388.33333333334</v>
+        <v>45389.3125</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K183">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L183">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M183">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N183">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P183">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="Q183">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16799,7 +16799,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6992608</v>
+        <v>6992704</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16808,49 +16808,49 @@
         <v>28</v>
       </c>
       <c r="E184" s="2">
-        <v>45388.35416666666</v>
+        <v>45389.33333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K184">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L184">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N184">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="O184">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q184">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
         <v>0</v>
@@ -16873,7 +16873,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6992706</v>
+        <v>6992702</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16882,49 +16882,49 @@
         <v>28</v>
       </c>
       <c r="E185" s="2">
-        <v>45388.375</v>
+        <v>45389.35416666666</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K185">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L185">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="N185">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="O185">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q185">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S185">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -16947,7 +16947,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6992705</v>
+        <v>6992708</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16956,49 +16956,49 @@
         <v>28</v>
       </c>
       <c r="E186" s="2">
-        <v>45388.41666666666</v>
+        <v>45389.375</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K186">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L186">
+        <v>3.4</v>
+      </c>
+      <c r="M186">
         <v>3.6</v>
       </c>
-      <c r="M186">
-        <v>3.2</v>
-      </c>
       <c r="N186">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="O186">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S186">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T186">
         <v>3</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
         <v>0</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC186"/>
+  <dimension ref="A1:AC190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N16">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O16">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
         <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8018,7 +8018,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M117">
+        <v>5.75</v>
+      </c>
+      <c r="N117">
+        <v>1.363</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>6.5</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
         <v>1.85</v>
       </c>
-      <c r="N117">
-        <v>4.5</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>1.615</v>
-      </c>
-      <c r="Q117">
-        <v>0.75</v>
-      </c>
-      <c r="R117">
-        <v>1.975</v>
-      </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>1.85</v>
+      </c>
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>5.75</v>
-      </c>
-      <c r="N118">
-        <v>1.363</v>
-      </c>
-      <c r="O118">
-        <v>4.5</v>
-      </c>
       <c r="P118">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.95</v>
-      </c>
-      <c r="AB118">
-        <v>0.825</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" t="s">
         <v>43</v>
-      </c>
-      <c r="G130" t="s">
-        <v>42</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13978,7 +13978,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14334,7 +14334,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14782,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45381.375</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15669,7 +15669,7 @@
         <v>45382.3125</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
@@ -16117,7 +16117,7 @@
         <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6992337</v>
+        <v>6992703</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16734,64 +16734,79 @@
         <v>28</v>
       </c>
       <c r="E183" s="2">
-        <v>45389.3125</v>
+        <v>45388.33333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183" t="s">
+        <v>46</v>
       </c>
       <c r="K183">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="L183">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O183">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P183">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q183">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R183">
+        <v>1.825</v>
+      </c>
+      <c r="S183">
         <v>1.975</v>
       </c>
-      <c r="S183">
-        <v>1.825</v>
-      </c>
       <c r="T183">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>0</v>
+        <v>0.4875</v>
+      </c>
+      <c r="AB183">
+        <v>0.95</v>
+      </c>
+      <c r="AC183">
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16799,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6992704</v>
+        <v>6992608</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16808,64 +16823,79 @@
         <v>28</v>
       </c>
       <c r="E184" s="2">
-        <v>45389.33333333334</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>47</v>
       </c>
       <c r="K184">
+        <v>1.4</v>
+      </c>
+      <c r="L184">
+        <v>4.5</v>
+      </c>
+      <c r="M184">
+        <v>5.5</v>
+      </c>
+      <c r="N184">
+        <v>1.55</v>
+      </c>
+      <c r="O184">
+        <v>4.333</v>
+      </c>
+      <c r="P184">
+        <v>4.5</v>
+      </c>
+      <c r="Q184">
+        <v>-1</v>
+      </c>
+      <c r="R184">
         <v>1.85</v>
       </c>
-      <c r="L184">
-        <v>3.6</v>
-      </c>
-      <c r="M184">
-        <v>3.4</v>
-      </c>
-      <c r="N184">
-        <v>1.727</v>
-      </c>
-      <c r="O184">
-        <v>3.75</v>
-      </c>
-      <c r="P184">
-        <v>3.8</v>
-      </c>
-      <c r="Q184">
-        <v>-0.75</v>
-      </c>
-      <c r="R184">
+      <c r="S184">
+        <v>1.95</v>
+      </c>
+      <c r="T184">
+        <v>3.25</v>
+      </c>
+      <c r="U184">
         <v>1.975</v>
       </c>
-      <c r="S184">
+      <c r="V184">
         <v>1.825</v>
       </c>
-      <c r="T184">
-        <v>2.75</v>
-      </c>
-      <c r="U184">
-        <v>1.825</v>
-      </c>
-      <c r="V184">
-        <v>1.975</v>
-      </c>
       <c r="W184">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="X184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
+        <v>0.825</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16873,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6992702</v>
+        <v>6992706</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16882,64 +16912,79 @@
         <v>28</v>
       </c>
       <c r="E185" s="2">
-        <v>45389.35416666666</v>
+        <v>45388.375</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185" t="s">
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M185">
+        <v>9</v>
+      </c>
+      <c r="N185">
+        <v>1.3</v>
+      </c>
+      <c r="O185">
+        <v>5.25</v>
+      </c>
+      <c r="P185">
+        <v>7</v>
+      </c>
+      <c r="Q185">
+        <v>-1.5</v>
+      </c>
+      <c r="R185">
+        <v>1.825</v>
+      </c>
+      <c r="S185">
+        <v>1.975</v>
+      </c>
+      <c r="T185">
         <v>3.25</v>
       </c>
-      <c r="N185">
-        <v>2.1</v>
-      </c>
-      <c r="O185">
-        <v>3.25</v>
-      </c>
-      <c r="P185">
-        <v>3</v>
-      </c>
-      <c r="Q185">
-        <v>-0.25</v>
-      </c>
-      <c r="R185">
-        <v>1.9</v>
-      </c>
-      <c r="S185">
-        <v>1.9</v>
-      </c>
-      <c r="T185">
-        <v>2.75</v>
-      </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W185">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB185">
+        <v>-1</v>
+      </c>
+      <c r="AC185">
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16947,73 +16992,444 @@
         <v>184</v>
       </c>
       <c r="B186">
+        <v>6992705</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F186" t="s">
+        <v>32</v>
+      </c>
+      <c r="G186" t="s">
+        <v>31</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186" t="s">
+        <v>47</v>
+      </c>
+      <c r="K186">
+        <v>1.909</v>
+      </c>
+      <c r="L186">
+        <v>3.6</v>
+      </c>
+      <c r="M186">
+        <v>3.2</v>
+      </c>
+      <c r="N186">
+        <v>1.666</v>
+      </c>
+      <c r="O186">
+        <v>3.75</v>
+      </c>
+      <c r="P186">
+        <v>4</v>
+      </c>
+      <c r="Q186">
+        <v>-0.75</v>
+      </c>
+      <c r="R186">
+        <v>1.85</v>
+      </c>
+      <c r="S186">
+        <v>1.95</v>
+      </c>
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
+        <v>1.75</v>
+      </c>
+      <c r="V186">
+        <v>1.95</v>
+      </c>
+      <c r="W186">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA186">
+        <v>-1</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>6992337</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45389.3125</v>
+      </c>
+      <c r="F187" t="s">
+        <v>36</v>
+      </c>
+      <c r="G187" t="s">
+        <v>30</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>45</v>
+      </c>
+      <c r="K187">
+        <v>1.444</v>
+      </c>
+      <c r="L187">
+        <v>4.2</v>
+      </c>
+      <c r="M187">
+        <v>5.5</v>
+      </c>
+      <c r="N187">
+        <v>1.444</v>
+      </c>
+      <c r="O187">
+        <v>4.5</v>
+      </c>
+      <c r="P187">
+        <v>5.75</v>
+      </c>
+      <c r="Q187">
+        <v>-1.25</v>
+      </c>
+      <c r="R187">
+        <v>1.95</v>
+      </c>
+      <c r="S187">
+        <v>1.85</v>
+      </c>
+      <c r="T187">
+        <v>3</v>
+      </c>
+      <c r="U187">
+        <v>1.875</v>
+      </c>
+      <c r="V187">
+        <v>1.925</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>3.5</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>-1</v>
+      </c>
+      <c r="AA187">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>6992704</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45389.33333333334</v>
+      </c>
+      <c r="F188" t="s">
+        <v>39</v>
+      </c>
+      <c r="G188" t="s">
+        <v>38</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>45</v>
+      </c>
+      <c r="K188">
+        <v>1.85</v>
+      </c>
+      <c r="L188">
+        <v>3.6</v>
+      </c>
+      <c r="M188">
+        <v>3.4</v>
+      </c>
+      <c r="N188">
+        <v>1.75</v>
+      </c>
+      <c r="O188">
+        <v>3.75</v>
+      </c>
+      <c r="P188">
+        <v>3.6</v>
+      </c>
+      <c r="Q188">
+        <v>-0.5</v>
+      </c>
+      <c r="R188">
+        <v>1.8</v>
+      </c>
+      <c r="S188">
+        <v>2</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
+        <v>1.975</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>2.75</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>1</v>
+      </c>
+      <c r="AB188">
+        <v>0.825</v>
+      </c>
+      <c r="AC188">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>6992702</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45389.35416666666</v>
+      </c>
+      <c r="F189" t="s">
+        <v>44</v>
+      </c>
+      <c r="G189" t="s">
+        <v>40</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>46</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>3.3</v>
+      </c>
+      <c r="M189">
+        <v>3.25</v>
+      </c>
+      <c r="N189">
+        <v>2.15</v>
+      </c>
+      <c r="O189">
+        <v>3.1</v>
+      </c>
+      <c r="P189">
+        <v>3</v>
+      </c>
+      <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.925</v>
+      </c>
+      <c r="S189">
+        <v>1.875</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
+        <v>1.95</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>2</v>
+      </c>
+      <c r="Z189">
+        <v>-1</v>
+      </c>
+      <c r="AA189">
+        <v>0.875</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
         <v>6992708</v>
       </c>
-      <c r="C186" t="s">
-        <v>28</v>
-      </c>
-      <c r="D186" t="s">
-        <v>28</v>
-      </c>
-      <c r="E186" s="2">
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
         <v>45389.375</v>
       </c>
-      <c r="F186" t="s">
-        <v>42</v>
-      </c>
-      <c r="G186" t="s">
+      <c r="F190" t="s">
+        <v>43</v>
+      </c>
+      <c r="G190" t="s">
         <v>29</v>
       </c>
-      <c r="K186">
+      <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" t="s">
+        <v>47</v>
+      </c>
+      <c r="K190">
         <v>1.85</v>
       </c>
-      <c r="L186">
+      <c r="L190">
         <v>3.4</v>
       </c>
-      <c r="M186">
+      <c r="M190">
         <v>3.6</v>
       </c>
-      <c r="N186">
-        <v>1.85</v>
-      </c>
-      <c r="O186">
+      <c r="N190">
+        <v>1.727</v>
+      </c>
+      <c r="O190">
         <v>3.4</v>
       </c>
-      <c r="P186">
-        <v>3.6</v>
-      </c>
-      <c r="Q186">
+      <c r="P190">
+        <v>4.2</v>
+      </c>
+      <c r="Q190">
         <v>-0.5</v>
       </c>
-      <c r="R186">
+      <c r="R190">
+        <v>1.75</v>
+      </c>
+      <c r="S190">
+        <v>1.95</v>
+      </c>
+      <c r="T190">
+        <v>2.75</v>
+      </c>
+      <c r="U190">
         <v>1.9</v>
       </c>
-      <c r="S186">
+      <c r="V190">
         <v>1.9</v>
       </c>
-      <c r="T186">
-        <v>3</v>
-      </c>
-      <c r="U186">
-        <v>1.95</v>
-      </c>
-      <c r="V186">
-        <v>1.85</v>
-      </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-      <c r="X186">
-        <v>0</v>
-      </c>
-      <c r="Y186">
-        <v>0</v>
-      </c>
-      <c r="Z186">
-        <v>0</v>
-      </c>
-      <c r="AA186">
-        <v>0</v>
+      <c r="W190">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
+        <v>0.75</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC190">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6992695</v>
+        <v>8026714</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,76 +16381,76 @@
         <v>45385.375</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L179">
+        <v>3.6</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>3.1</v>
+      </c>
+      <c r="O179">
         <v>3.75</v>
       </c>
-      <c r="M179">
-        <v>2.7</v>
-      </c>
-      <c r="N179">
+      <c r="P179">
         <v>1.95</v>
       </c>
-      <c r="O179">
-        <v>3.8</v>
-      </c>
-      <c r="P179">
-        <v>2.9</v>
-      </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>2.75</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.825</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.95</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
-      <c r="Z179">
-        <v>0.8</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.825</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>8026714</v>
+        <v>6992695</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,76 +16470,76 @@
         <v>45385.375</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K180">
+        <v>2.1</v>
+      </c>
+      <c r="L180">
+        <v>3.75</v>
+      </c>
+      <c r="M180">
+        <v>2.7</v>
+      </c>
+      <c r="N180">
+        <v>1.95</v>
+      </c>
+      <c r="O180">
+        <v>3.8</v>
+      </c>
+      <c r="P180">
+        <v>2.9</v>
+      </c>
+      <c r="Q180">
+        <v>-0.25</v>
+      </c>
+      <c r="R180">
+        <v>1.8</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
         <v>3</v>
       </c>
-      <c r="L180">
-        <v>3.6</v>
-      </c>
-      <c r="M180">
-        <v>2</v>
-      </c>
-      <c r="N180">
-        <v>3.1</v>
-      </c>
-      <c r="O180">
-        <v>3.75</v>
-      </c>
-      <c r="P180">
-        <v>1.95</v>
-      </c>
-      <c r="Q180">
-        <v>0.5</v>
-      </c>
-      <c r="R180">
+      <c r="U180">
         <v>1.825</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.975</v>
       </c>
-      <c r="T180">
-        <v>2.75</v>
-      </c>
-      <c r="U180">
-        <v>1.85</v>
-      </c>
-      <c r="V180">
-        <v>1.95</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X180">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>0.8</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
         <v>0.825</v>
       </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
-      </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N15">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O15">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K85">
+        <v>1.7</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.2</v>
+      </c>
+      <c r="N85">
+        <v>1.7</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>4.333</v>
+      </c>
+      <c r="Q85">
+        <v>-0.75</v>
+      </c>
+      <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
+        <v>1.875</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="L85">
-        <v>3.5</v>
-      </c>
-      <c r="M85">
-        <v>3.4</v>
-      </c>
-      <c r="N85">
-        <v>2.1</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>3</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>1.8</v>
-      </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N86">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
         <v>1.925</v>
       </c>
-      <c r="S86">
-        <v>1.875</v>
-      </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>1.85</v>
+      </c>
+      <c r="N117">
+        <v>4.5</v>
+      </c>
+      <c r="O117">
         <v>4</v>
       </c>
-      <c r="M117">
-        <v>5.75</v>
-      </c>
-      <c r="N117">
-        <v>1.363</v>
-      </c>
-      <c r="O117">
-        <v>4.5</v>
-      </c>
       <c r="P117">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AB117">
-        <v>0.825</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M118">
+        <v>5.75</v>
+      </c>
+      <c r="N118">
+        <v>1.363</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>6.5</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
         <v>1.85</v>
       </c>
-      <c r="N118">
-        <v>4.5</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>1.615</v>
-      </c>
-      <c r="Q118">
-        <v>0.75</v>
-      </c>
-      <c r="R118">
-        <v>1.975</v>
-      </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" t="s">
         <v>42</v>
-      </c>
-      <c r="G130" t="s">
-        <v>43</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13978,7 +13978,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14334,7 +14334,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14782,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45381.375</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15669,7 +15669,7 @@
         <v>45382.3125</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
@@ -16117,7 +16117,7 @@
         <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16384,7 +16384,7 @@
         <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16915,7 +16915,7 @@
         <v>45388.375</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
         <v>33</v>
@@ -17360,7 +17360,7 @@
         <v>45389.375</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
         <v>29</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
       </c>
-      <c r="S85">
-        <v>1.875</v>
-      </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
+        <v>1.7</v>
+      </c>
+      <c r="L86">
+        <v>3.75</v>
+      </c>
+      <c r="M86">
+        <v>4.2</v>
+      </c>
+      <c r="N86">
+        <v>1.7</v>
+      </c>
+      <c r="O86">
+        <v>3.75</v>
+      </c>
+      <c r="P86">
+        <v>4.333</v>
+      </c>
+      <c r="Q86">
+        <v>-0.75</v>
+      </c>
+      <c r="R86">
+        <v>1.925</v>
+      </c>
+      <c r="S86">
+        <v>1.875</v>
+      </c>
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="L86">
-        <v>3.5</v>
-      </c>
-      <c r="M86">
-        <v>3.4</v>
-      </c>
-      <c r="N86">
-        <v>2.1</v>
-      </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>-0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.8</v>
-      </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K85">
+        <v>1.7</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.2</v>
+      </c>
+      <c r="N85">
+        <v>1.7</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>4.333</v>
+      </c>
+      <c r="Q85">
+        <v>-0.75</v>
+      </c>
+      <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
+        <v>1.875</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="L85">
-        <v>3.5</v>
-      </c>
-      <c r="M85">
-        <v>3.4</v>
-      </c>
-      <c r="N85">
-        <v>2.1</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>3</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>1.8</v>
-      </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N86">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
         <v>1.925</v>
       </c>
-      <c r="S86">
-        <v>1.875</v>
-      </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M117">
+        <v>5.75</v>
+      </c>
+      <c r="N117">
+        <v>1.363</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>6.5</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
         <v>1.85</v>
       </c>
-      <c r="N117">
-        <v>4.5</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>1.615</v>
-      </c>
-      <c r="Q117">
-        <v>0.75</v>
-      </c>
-      <c r="R117">
-        <v>1.975</v>
-      </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>1.85</v>
+      </c>
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>5.75</v>
-      </c>
-      <c r="N118">
-        <v>1.363</v>
-      </c>
-      <c r="O118">
-        <v>4.5</v>
-      </c>
       <c r="P118">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.95</v>
-      </c>
-      <c r="AB118">
-        <v>0.825</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>8026714</v>
+        <v>6992695</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,76 +16381,76 @@
         <v>45385.375</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K179">
+        <v>2.1</v>
+      </c>
+      <c r="L179">
+        <v>3.75</v>
+      </c>
+      <c r="M179">
+        <v>2.7</v>
+      </c>
+      <c r="N179">
+        <v>1.95</v>
+      </c>
+      <c r="O179">
+        <v>3.8</v>
+      </c>
+      <c r="P179">
+        <v>2.9</v>
+      </c>
+      <c r="Q179">
+        <v>-0.25</v>
+      </c>
+      <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
         <v>3</v>
       </c>
-      <c r="L179">
-        <v>3.6</v>
-      </c>
-      <c r="M179">
-        <v>2</v>
-      </c>
-      <c r="N179">
-        <v>3.1</v>
-      </c>
-      <c r="O179">
-        <v>3.75</v>
-      </c>
-      <c r="P179">
-        <v>1.95</v>
-      </c>
-      <c r="Q179">
-        <v>0.5</v>
-      </c>
-      <c r="R179">
+      <c r="U179">
         <v>1.825</v>
       </c>
-      <c r="S179">
+      <c r="V179">
         <v>1.975</v>
       </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
-      <c r="U179">
-        <v>1.85</v>
-      </c>
-      <c r="V179">
-        <v>1.95</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X179">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>0.8</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
         <v>0.825</v>
       </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6992695</v>
+        <v>8026714</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,76 +16470,76 @@
         <v>45385.375</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L180">
+        <v>3.6</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>3.1</v>
+      </c>
+      <c r="O180">
         <v>3.75</v>
       </c>
-      <c r="M180">
-        <v>2.7</v>
-      </c>
-      <c r="N180">
+      <c r="P180">
         <v>1.95</v>
       </c>
-      <c r="O180">
-        <v>3.8</v>
-      </c>
-      <c r="P180">
-        <v>2.9</v>
-      </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>2.75</v>
+      </c>
+      <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
+        <v>0.825</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
         <v>0.95</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>0.8</v>
-      </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>0.825</v>
-      </c>
-      <c r="AC180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N16">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O16">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
         <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
       </c>
-      <c r="S85">
-        <v>1.875</v>
-      </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
+        <v>1.7</v>
+      </c>
+      <c r="L86">
+        <v>3.75</v>
+      </c>
+      <c r="M86">
+        <v>4.2</v>
+      </c>
+      <c r="N86">
+        <v>1.7</v>
+      </c>
+      <c r="O86">
+        <v>3.75</v>
+      </c>
+      <c r="P86">
+        <v>4.333</v>
+      </c>
+      <c r="Q86">
+        <v>-0.75</v>
+      </c>
+      <c r="R86">
+        <v>1.925</v>
+      </c>
+      <c r="S86">
+        <v>1.875</v>
+      </c>
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="L86">
-        <v>3.5</v>
-      </c>
-      <c r="M86">
-        <v>3.4</v>
-      </c>
-      <c r="N86">
-        <v>2.1</v>
-      </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>-0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.8</v>
-      </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" t="s">
         <v>43</v>
-      </c>
-      <c r="G130" t="s">
-        <v>42</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13978,7 +13978,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14334,7 +14334,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14782,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45381.375</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15669,7 +15669,7 @@
         <v>45382.3125</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
@@ -16117,7 +16117,7 @@
         <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16915,7 +16915,7 @@
         <v>45388.375</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
         <v>33</v>
@@ -17360,7 +17360,7 @@
         <v>45389.375</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
         <v>29</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>1.85</v>
+      </c>
+      <c r="N117">
+        <v>4.5</v>
+      </c>
+      <c r="O117">
         <v>4</v>
       </c>
-      <c r="M117">
-        <v>5.75</v>
-      </c>
-      <c r="N117">
-        <v>1.363</v>
-      </c>
-      <c r="O117">
-        <v>4.5</v>
-      </c>
       <c r="P117">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
         <v>0.95</v>
-      </c>
-      <c r="AB117">
-        <v>0.825</v>
-      </c>
-      <c r="AC117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M118">
+        <v>5.75</v>
+      </c>
+      <c r="N118">
+        <v>1.363</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>6.5</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
         <v>1.85</v>
       </c>
-      <c r="N118">
-        <v>4.5</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>1.615</v>
-      </c>
-      <c r="Q118">
-        <v>0.75</v>
-      </c>
-      <c r="R118">
-        <v>1.975</v>
-      </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6992695</v>
+        <v>8026714</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,76 +16381,76 @@
         <v>45385.375</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L179">
+        <v>3.6</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>3.1</v>
+      </c>
+      <c r="O179">
         <v>3.75</v>
       </c>
-      <c r="M179">
-        <v>2.7</v>
-      </c>
-      <c r="N179">
+      <c r="P179">
         <v>1.95</v>
       </c>
-      <c r="O179">
-        <v>3.8</v>
-      </c>
-      <c r="P179">
-        <v>2.9</v>
-      </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>2.75</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.825</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.95</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
-      <c r="Z179">
-        <v>0.8</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.825</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>8026714</v>
+        <v>6992695</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,76 +16470,76 @@
         <v>45385.375</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K180">
+        <v>2.1</v>
+      </c>
+      <c r="L180">
+        <v>3.75</v>
+      </c>
+      <c r="M180">
+        <v>2.7</v>
+      </c>
+      <c r="N180">
+        <v>1.95</v>
+      </c>
+      <c r="O180">
+        <v>3.8</v>
+      </c>
+      <c r="P180">
+        <v>2.9</v>
+      </c>
+      <c r="Q180">
+        <v>-0.25</v>
+      </c>
+      <c r="R180">
+        <v>1.8</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
         <v>3</v>
       </c>
-      <c r="L180">
-        <v>3.6</v>
-      </c>
-      <c r="M180">
-        <v>2</v>
-      </c>
-      <c r="N180">
-        <v>3.1</v>
-      </c>
-      <c r="O180">
-        <v>3.75</v>
-      </c>
-      <c r="P180">
-        <v>1.95</v>
-      </c>
-      <c r="Q180">
-        <v>0.5</v>
-      </c>
-      <c r="R180">
+      <c r="U180">
         <v>1.825</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.975</v>
       </c>
-      <c r="T180">
-        <v>2.75</v>
-      </c>
-      <c r="U180">
-        <v>1.85</v>
-      </c>
-      <c r="V180">
-        <v>1.95</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X180">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>0.8</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
         <v>0.825</v>
       </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
-      </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17430,6 +17430,228 @@
       </c>
       <c r="AC190">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>8075058</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45400.375</v>
+      </c>
+      <c r="F191" t="s">
+        <v>39</v>
+      </c>
+      <c r="G191" t="s">
+        <v>36</v>
+      </c>
+      <c r="K191">
+        <v>1.363</v>
+      </c>
+      <c r="L191">
+        <v>4.333</v>
+      </c>
+      <c r="M191">
+        <v>6.5</v>
+      </c>
+      <c r="N191">
+        <v>1.4</v>
+      </c>
+      <c r="O191">
+        <v>4.2</v>
+      </c>
+      <c r="P191">
+        <v>6</v>
+      </c>
+      <c r="Q191">
+        <v>-1.25</v>
+      </c>
+      <c r="R191">
+        <v>1.875</v>
+      </c>
+      <c r="S191">
+        <v>1.925</v>
+      </c>
+      <c r="T191">
+        <v>2.75</v>
+      </c>
+      <c r="U191">
+        <v>1.8</v>
+      </c>
+      <c r="V191">
+        <v>2</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>6992709</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45401.375</v>
+      </c>
+      <c r="F192" t="s">
+        <v>38</v>
+      </c>
+      <c r="G192" t="s">
+        <v>41</v>
+      </c>
+      <c r="K192">
+        <v>1.363</v>
+      </c>
+      <c r="L192">
+        <v>4.5</v>
+      </c>
+      <c r="M192">
+        <v>7.5</v>
+      </c>
+      <c r="N192">
+        <v>1.285</v>
+      </c>
+      <c r="O192">
+        <v>5</v>
+      </c>
+      <c r="P192">
+        <v>8.5</v>
+      </c>
+      <c r="Q192">
+        <v>-1.5</v>
+      </c>
+      <c r="R192">
+        <v>1.85</v>
+      </c>
+      <c r="S192">
+        <v>1.95</v>
+      </c>
+      <c r="T192">
+        <v>2.75</v>
+      </c>
+      <c r="U192">
+        <v>1.8</v>
+      </c>
+      <c r="V192">
+        <v>2</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>6995900</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45402.35416666666</v>
+      </c>
+      <c r="F193" t="s">
+        <v>30</v>
+      </c>
+      <c r="G193" t="s">
+        <v>32</v>
+      </c>
+      <c r="K193">
+        <v>3.3</v>
+      </c>
+      <c r="L193">
+        <v>3.6</v>
+      </c>
+      <c r="M193">
+        <v>1.95</v>
+      </c>
+      <c r="N193">
+        <v>3.3</v>
+      </c>
+      <c r="O193">
+        <v>3.6</v>
+      </c>
+      <c r="P193">
+        <v>1.95</v>
+      </c>
+      <c r="Q193">
+        <v>0.5</v>
+      </c>
+      <c r="R193">
+        <v>1.8</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>3</v>
+      </c>
+      <c r="U193">
+        <v>1.975</v>
+      </c>
+      <c r="V193">
+        <v>1.825</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K85">
+        <v>1.7</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.2</v>
+      </c>
+      <c r="N85">
+        <v>1.7</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>4.333</v>
+      </c>
+      <c r="Q85">
+        <v>-0.75</v>
+      </c>
+      <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
+        <v>1.875</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="L85">
-        <v>3.5</v>
-      </c>
-      <c r="M85">
-        <v>3.4</v>
-      </c>
-      <c r="N85">
-        <v>2.1</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>3</v>
-      </c>
-      <c r="Q85">
-        <v>-0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
-      <c r="S85">
-        <v>1.925</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>1.8</v>
-      </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N86">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
         <v>1.925</v>
       </c>
-      <c r="S86">
-        <v>1.875</v>
-      </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>8075058</v>
+        <v>6992709</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17446,49 +17446,49 @@
         <v>28</v>
       </c>
       <c r="E191" s="2">
-        <v>45400.375</v>
+        <v>45401.375</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K191">
         <v>1.363</v>
       </c>
       <c r="L191">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M191">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N191">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O191">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P191">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q191">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -17511,7 +17511,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6992709</v>
+        <v>6995900</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17520,49 +17520,49 @@
         <v>28</v>
       </c>
       <c r="E192" s="2">
-        <v>45401.375</v>
+        <v>45402.35416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K192">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="L192">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="N192">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="O192">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>8.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q192">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R192">
+        <v>1.8</v>
+      </c>
+      <c r="S192">
+        <v>2</v>
+      </c>
+      <c r="T192">
+        <v>3</v>
+      </c>
+      <c r="U192">
+        <v>1.95</v>
+      </c>
+      <c r="V192">
         <v>1.85</v>
-      </c>
-      <c r="S192">
-        <v>1.95</v>
-      </c>
-      <c r="T192">
-        <v>2.75</v>
-      </c>
-      <c r="U192">
-        <v>1.8</v>
-      </c>
-      <c r="V192">
-        <v>2</v>
       </c>
       <c r="W192">
         <v>0</v>
@@ -17585,7 +17585,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6995900</v>
+        <v>6992715</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17594,49 +17594,49 @@
         <v>28</v>
       </c>
       <c r="E193" s="2">
-        <v>45402.35416666666</v>
+        <v>45403.375</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K193">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="N193">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P193">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="Q193">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
         <v>0</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -142,10 +142,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC193"/>
+  <dimension ref="A1:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,46 +1788,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="N15">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O15">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1836,25 +1836,25 @@
         <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,46 +1877,46 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
         <v>1.975</v>
@@ -1925,25 +1925,25 @@
         <v>1.825</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,10 +2141,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>45184.375</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5256,7 +5256,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -6057,7 +6057,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7303,7 +7303,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>45255.375</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -8107,7 +8107,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>45269.375</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9350,7 +9350,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9887,7 +9887,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45283.375</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11667,7 +11667,7 @@
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12020,10 +12020,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="F130" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" t="s">
         <v>42</v>
-      </c>
-      <c r="G130" t="s">
-        <v>43</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12465,7 +12465,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>39</v>
@@ -12824,7 +12824,7 @@
         <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13803,7 +13803,7 @@
         <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13978,7 +13978,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14334,7 +14334,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14782,7 +14782,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H161">
         <v>7</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45381.375</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
         <v>40</v>
@@ -15669,7 +15669,7 @@
         <v>45382.3125</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
@@ -16117,7 +16117,7 @@
         <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>8026714</v>
+        <v>6992695</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,76 +16381,76 @@
         <v>45385.375</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K179">
+        <v>2.1</v>
+      </c>
+      <c r="L179">
+        <v>3.75</v>
+      </c>
+      <c r="M179">
+        <v>2.7</v>
+      </c>
+      <c r="N179">
+        <v>1.95</v>
+      </c>
+      <c r="O179">
+        <v>3.8</v>
+      </c>
+      <c r="P179">
+        <v>2.9</v>
+      </c>
+      <c r="Q179">
+        <v>-0.25</v>
+      </c>
+      <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
         <v>3</v>
       </c>
-      <c r="L179">
-        <v>3.6</v>
-      </c>
-      <c r="M179">
-        <v>2</v>
-      </c>
-      <c r="N179">
-        <v>3.1</v>
-      </c>
-      <c r="O179">
-        <v>3.75</v>
-      </c>
-      <c r="P179">
-        <v>1.95</v>
-      </c>
-      <c r="Q179">
-        <v>0.5</v>
-      </c>
-      <c r="R179">
+      <c r="U179">
         <v>1.825</v>
       </c>
-      <c r="S179">
+      <c r="V179">
         <v>1.975</v>
       </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
-      <c r="U179">
-        <v>1.85</v>
-      </c>
-      <c r="V179">
-        <v>1.95</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X179">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>0.8</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
         <v>0.825</v>
       </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6992695</v>
+        <v>8026714</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,76 +16470,76 @@
         <v>45385.375</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L180">
+        <v>3.6</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>3.1</v>
+      </c>
+      <c r="O180">
         <v>3.75</v>
       </c>
-      <c r="M180">
-        <v>2.7</v>
-      </c>
-      <c r="N180">
+      <c r="P180">
         <v>1.95</v>
       </c>
-      <c r="O180">
-        <v>3.8</v>
-      </c>
-      <c r="P180">
-        <v>2.9</v>
-      </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>2.75</v>
+      </c>
+      <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
+        <v>0.825</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
         <v>0.95</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>0.8</v>
-      </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>0.825</v>
-      </c>
-      <c r="AC180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>45388.375</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
         <v>33</v>
@@ -17360,7 +17360,7 @@
         <v>45389.375</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
         <v>29</v>
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6992709</v>
+        <v>8075058</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17446,64 +17446,79 @@
         <v>28</v>
       </c>
       <c r="E191" s="2">
-        <v>45401.375</v>
+        <v>45400.375</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191" t="s">
+        <v>45</v>
       </c>
       <c r="K191">
         <v>1.363</v>
       </c>
       <c r="L191">
+        <v>4.333</v>
+      </c>
+      <c r="M191">
+        <v>6.5</v>
+      </c>
+      <c r="N191">
+        <v>1.363</v>
+      </c>
+      <c r="O191">
         <v>4.5</v>
       </c>
-      <c r="M191">
-        <v>7.5</v>
-      </c>
-      <c r="N191">
-        <v>1.285</v>
-      </c>
-      <c r="O191">
-        <v>5</v>
-      </c>
       <c r="P191">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q191">
         <v>-1.5</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB191">
+        <v>0.8</v>
+      </c>
+      <c r="AC191">
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17511,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6995900</v>
+        <v>6992714</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17520,40 +17535,40 @@
         <v>28</v>
       </c>
       <c r="E192" s="2">
-        <v>45402.35416666666</v>
+        <v>45402.33333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K192">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M192">
+        <v>6</v>
+      </c>
+      <c r="N192">
+        <v>1.45</v>
+      </c>
+      <c r="O192">
+        <v>4.5</v>
+      </c>
+      <c r="P192">
+        <v>5.5</v>
+      </c>
+      <c r="Q192">
+        <v>-1.25</v>
+      </c>
+      <c r="R192">
         <v>1.95</v>
       </c>
-      <c r="N192">
-        <v>3.3</v>
-      </c>
-      <c r="O192">
-        <v>3.6</v>
-      </c>
-      <c r="P192">
-        <v>1.95</v>
-      </c>
-      <c r="Q192">
-        <v>0.5</v>
-      </c>
-      <c r="R192">
-        <v>1.8</v>
-      </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
         <v>3</v>
@@ -17585,7 +17600,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6992715</v>
+        <v>6995900</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17594,49 +17609,49 @@
         <v>28</v>
       </c>
       <c r="E193" s="2">
-        <v>45403.375</v>
+        <v>45402.35416666666</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G193" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K193">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="N193">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="O193">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q193">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R193">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S193">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17651,6 +17666,228 @@
         <v>0</v>
       </c>
       <c r="AA193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>6992713</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45402.375</v>
+      </c>
+      <c r="F194" t="s">
+        <v>31</v>
+      </c>
+      <c r="G194" t="s">
+        <v>35</v>
+      </c>
+      <c r="K194">
+        <v>2.1</v>
+      </c>
+      <c r="L194">
+        <v>3.75</v>
+      </c>
+      <c r="M194">
+        <v>2.875</v>
+      </c>
+      <c r="N194">
+        <v>2.05</v>
+      </c>
+      <c r="O194">
+        <v>3.8</v>
+      </c>
+      <c r="P194">
+        <v>2.9</v>
+      </c>
+      <c r="Q194">
+        <v>-0.25</v>
+      </c>
+      <c r="R194">
+        <v>1.85</v>
+      </c>
+      <c r="S194">
+        <v>1.95</v>
+      </c>
+      <c r="T194">
+        <v>3</v>
+      </c>
+      <c r="U194">
+        <v>2</v>
+      </c>
+      <c r="V194">
+        <v>1.8</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>6992710</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45402.41666666666</v>
+      </c>
+      <c r="F195" t="s">
+        <v>40</v>
+      </c>
+      <c r="G195" t="s">
+        <v>43</v>
+      </c>
+      <c r="K195">
+        <v>5.25</v>
+      </c>
+      <c r="L195">
+        <v>3.75</v>
+      </c>
+      <c r="M195">
+        <v>1.571</v>
+      </c>
+      <c r="N195">
+        <v>5</v>
+      </c>
+      <c r="O195">
+        <v>3.75</v>
+      </c>
+      <c r="P195">
+        <v>1.6</v>
+      </c>
+      <c r="Q195">
+        <v>1</v>
+      </c>
+      <c r="R195">
+        <v>1.8</v>
+      </c>
+      <c r="S195">
+        <v>2</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>1.95</v>
+      </c>
+      <c r="V195">
+        <v>1.85</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>6992715</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45403.375</v>
+      </c>
+      <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
+        <v>39</v>
+      </c>
+      <c r="K196">
+        <v>4.75</v>
+      </c>
+      <c r="L196">
+        <v>3.75</v>
+      </c>
+      <c r="M196">
+        <v>1.615</v>
+      </c>
+      <c r="N196">
+        <v>6.5</v>
+      </c>
+      <c r="O196">
+        <v>4</v>
+      </c>
+      <c r="P196">
+        <v>1.45</v>
+      </c>
+      <c r="Q196">
+        <v>1</v>
+      </c>
+      <c r="R196">
+        <v>2.025</v>
+      </c>
+      <c r="S196">
+        <v>1.775</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>1.9</v>
+      </c>
+      <c r="V196">
+        <v>1.9</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC196"/>
+  <dimension ref="A1:AC197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6992714</v>
+        <v>6992709</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17535,64 +17535,79 @@
         <v>28</v>
       </c>
       <c r="E192" s="2">
-        <v>45402.33333333334</v>
+        <v>45401.375</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>46</v>
       </c>
       <c r="K192">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L192">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M192">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N192">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O192">
         <v>4.5</v>
       </c>
       <c r="P192">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q192">
         <v>-1.25</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T192">
         <v>3</v>
       </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
+        <v>5.5</v>
+      </c>
+      <c r="Z192">
+        <v>-1</v>
+      </c>
+      <c r="AA192">
+        <v>1</v>
+      </c>
+      <c r="AB192">
         <v>0</v>
       </c>
-      <c r="X192">
-        <v>0</v>
-      </c>
-      <c r="Y192">
-        <v>0</v>
-      </c>
-      <c r="Z192">
-        <v>0</v>
-      </c>
-      <c r="AA192">
-        <v>0</v>
+      <c r="AC192">
+        <v>-0</v>
       </c>
     </row>
     <row r="193" spans="1:27">
@@ -17600,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6995900</v>
+        <v>6992714</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17609,40 +17624,40 @@
         <v>28</v>
       </c>
       <c r="E193" s="2">
-        <v>45402.35416666666</v>
+        <v>45402.33333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K193">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M193">
+        <v>6</v>
+      </c>
+      <c r="N193">
+        <v>1.45</v>
+      </c>
+      <c r="O193">
+        <v>4.5</v>
+      </c>
+      <c r="P193">
+        <v>5.5</v>
+      </c>
+      <c r="Q193">
+        <v>-1.25</v>
+      </c>
+      <c r="R193">
         <v>1.95</v>
       </c>
-      <c r="N193">
-        <v>3.1</v>
-      </c>
-      <c r="O193">
-        <v>3.6</v>
-      </c>
-      <c r="P193">
-        <v>2.05</v>
-      </c>
-      <c r="Q193">
-        <v>0.25</v>
-      </c>
-      <c r="R193">
-        <v>1.975</v>
-      </c>
       <c r="S193">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
         <v>3</v>
@@ -17674,7 +17689,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6992713</v>
+        <v>6995900</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17683,49 +17698,49 @@
         <v>28</v>
       </c>
       <c r="E194" s="2">
-        <v>45402.375</v>
+        <v>45402.35416666666</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K194">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="L194">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M194">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N194">
+        <v>3.1</v>
+      </c>
+      <c r="O194">
+        <v>3.6</v>
+      </c>
+      <c r="P194">
         <v>2.05</v>
       </c>
-      <c r="O194">
-        <v>3.8</v>
-      </c>
-      <c r="P194">
-        <v>2.9</v>
-      </c>
       <c r="Q194">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
         <v>3</v>
       </c>
       <c r="U194">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
         <v>0</v>
@@ -17748,7 +17763,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6992710</v>
+        <v>6992713</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17757,49 +17772,49 @@
         <v>28</v>
       </c>
       <c r="E195" s="2">
-        <v>45402.41666666666</v>
+        <v>45402.375</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K195">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="L195">
         <v>3.75</v>
       </c>
       <c r="M195">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="N195">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="O195">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P195">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q195">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
+        <v>1.85</v>
+      </c>
+      <c r="S195">
+        <v>1.95</v>
+      </c>
+      <c r="T195">
+        <v>3</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
         <v>1.8</v>
-      </c>
-      <c r="S195">
-        <v>2</v>
-      </c>
-      <c r="T195">
-        <v>2.75</v>
-      </c>
-      <c r="U195">
-        <v>1.95</v>
-      </c>
-      <c r="V195">
-        <v>1.85</v>
       </c>
       <c r="W195">
         <v>0</v>
@@ -17822,7 +17837,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6992715</v>
+        <v>6992710</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17831,49 +17846,49 @@
         <v>28</v>
       </c>
       <c r="E196" s="2">
-        <v>45403.375</v>
+        <v>45402.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K196">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="L196">
         <v>3.75</v>
       </c>
       <c r="M196">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="N196">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P196">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="Q196">
         <v>1</v>
       </c>
       <c r="R196">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S196">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T196">
         <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -17888,6 +17903,80 @@
         <v>0</v>
       </c>
       <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>6992715</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45403.375</v>
+      </c>
+      <c r="F197" t="s">
+        <v>29</v>
+      </c>
+      <c r="G197" t="s">
+        <v>39</v>
+      </c>
+      <c r="K197">
+        <v>4.75</v>
+      </c>
+      <c r="L197">
+        <v>3.75</v>
+      </c>
+      <c r="M197">
+        <v>1.615</v>
+      </c>
+      <c r="N197">
+        <v>6.5</v>
+      </c>
+      <c r="O197">
+        <v>4</v>
+      </c>
+      <c r="P197">
+        <v>1.45</v>
+      </c>
+      <c r="Q197">
+        <v>1</v>
+      </c>
+      <c r="R197">
+        <v>2.025</v>
+      </c>
+      <c r="S197">
+        <v>1.775</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.9</v>
+      </c>
+      <c r="V197">
+        <v>1.9</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC197"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17610,376 +17610,6 @@
         <v>-0</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>6992714</v>
-      </c>
-      <c r="C193" t="s">
-        <v>28</v>
-      </c>
-      <c r="D193" t="s">
-        <v>28</v>
-      </c>
-      <c r="E193" s="2">
-        <v>45402.33333333334</v>
-      </c>
-      <c r="F193" t="s">
-        <v>37</v>
-      </c>
-      <c r="G193" t="s">
-        <v>44</v>
-      </c>
-      <c r="K193">
-        <v>1.444</v>
-      </c>
-      <c r="L193">
-        <v>4.333</v>
-      </c>
-      <c r="M193">
-        <v>6</v>
-      </c>
-      <c r="N193">
-        <v>1.45</v>
-      </c>
-      <c r="O193">
-        <v>4.5</v>
-      </c>
-      <c r="P193">
-        <v>5.5</v>
-      </c>
-      <c r="Q193">
-        <v>-1.25</v>
-      </c>
-      <c r="R193">
-        <v>1.95</v>
-      </c>
-      <c r="S193">
-        <v>1.85</v>
-      </c>
-      <c r="T193">
-        <v>3</v>
-      </c>
-      <c r="U193">
-        <v>1.95</v>
-      </c>
-      <c r="V193">
-        <v>1.85</v>
-      </c>
-      <c r="W193">
-        <v>0</v>
-      </c>
-      <c r="X193">
-        <v>0</v>
-      </c>
-      <c r="Y193">
-        <v>0</v>
-      </c>
-      <c r="Z193">
-        <v>0</v>
-      </c>
-      <c r="AA193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194">
-        <v>6995900</v>
-      </c>
-      <c r="C194" t="s">
-        <v>28</v>
-      </c>
-      <c r="D194" t="s">
-        <v>28</v>
-      </c>
-      <c r="E194" s="2">
-        <v>45402.35416666666</v>
-      </c>
-      <c r="F194" t="s">
-        <v>30</v>
-      </c>
-      <c r="G194" t="s">
-        <v>32</v>
-      </c>
-      <c r="K194">
-        <v>3.3</v>
-      </c>
-      <c r="L194">
-        <v>3.6</v>
-      </c>
-      <c r="M194">
-        <v>1.95</v>
-      </c>
-      <c r="N194">
-        <v>3.1</v>
-      </c>
-      <c r="O194">
-        <v>3.6</v>
-      </c>
-      <c r="P194">
-        <v>2.05</v>
-      </c>
-      <c r="Q194">
-        <v>0.25</v>
-      </c>
-      <c r="R194">
-        <v>1.975</v>
-      </c>
-      <c r="S194">
-        <v>1.825</v>
-      </c>
-      <c r="T194">
-        <v>3</v>
-      </c>
-      <c r="U194">
-        <v>1.95</v>
-      </c>
-      <c r="V194">
-        <v>1.85</v>
-      </c>
-      <c r="W194">
-        <v>0</v>
-      </c>
-      <c r="X194">
-        <v>0</v>
-      </c>
-      <c r="Y194">
-        <v>0</v>
-      </c>
-      <c r="Z194">
-        <v>0</v>
-      </c>
-      <c r="AA194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195">
-        <v>6992713</v>
-      </c>
-      <c r="C195" t="s">
-        <v>28</v>
-      </c>
-      <c r="D195" t="s">
-        <v>28</v>
-      </c>
-      <c r="E195" s="2">
-        <v>45402.375</v>
-      </c>
-      <c r="F195" t="s">
-        <v>31</v>
-      </c>
-      <c r="G195" t="s">
-        <v>35</v>
-      </c>
-      <c r="K195">
-        <v>2.1</v>
-      </c>
-      <c r="L195">
-        <v>3.75</v>
-      </c>
-      <c r="M195">
-        <v>2.875</v>
-      </c>
-      <c r="N195">
-        <v>2.05</v>
-      </c>
-      <c r="O195">
-        <v>3.8</v>
-      </c>
-      <c r="P195">
-        <v>2.9</v>
-      </c>
-      <c r="Q195">
-        <v>-0.25</v>
-      </c>
-      <c r="R195">
-        <v>1.85</v>
-      </c>
-      <c r="S195">
-        <v>1.95</v>
-      </c>
-      <c r="T195">
-        <v>3</v>
-      </c>
-      <c r="U195">
-        <v>2</v>
-      </c>
-      <c r="V195">
-        <v>1.8</v>
-      </c>
-      <c r="W195">
-        <v>0</v>
-      </c>
-      <c r="X195">
-        <v>0</v>
-      </c>
-      <c r="Y195">
-        <v>0</v>
-      </c>
-      <c r="Z195">
-        <v>0</v>
-      </c>
-      <c r="AA195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>6992710</v>
-      </c>
-      <c r="C196" t="s">
-        <v>28</v>
-      </c>
-      <c r="D196" t="s">
-        <v>28</v>
-      </c>
-      <c r="E196" s="2">
-        <v>45402.41666666666</v>
-      </c>
-      <c r="F196" t="s">
-        <v>40</v>
-      </c>
-      <c r="G196" t="s">
-        <v>43</v>
-      </c>
-      <c r="K196">
-        <v>5.25</v>
-      </c>
-      <c r="L196">
-        <v>3.75</v>
-      </c>
-      <c r="M196">
-        <v>1.571</v>
-      </c>
-      <c r="N196">
-        <v>5</v>
-      </c>
-      <c r="O196">
-        <v>3.75</v>
-      </c>
-      <c r="P196">
-        <v>1.6</v>
-      </c>
-      <c r="Q196">
-        <v>1</v>
-      </c>
-      <c r="R196">
-        <v>1.8</v>
-      </c>
-      <c r="S196">
-        <v>2</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
-      <c r="U196">
-        <v>1.95</v>
-      </c>
-      <c r="V196">
-        <v>1.85</v>
-      </c>
-      <c r="W196">
-        <v>0</v>
-      </c>
-      <c r="X196">
-        <v>0</v>
-      </c>
-      <c r="Y196">
-        <v>0</v>
-      </c>
-      <c r="Z196">
-        <v>0</v>
-      </c>
-      <c r="AA196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>6992715</v>
-      </c>
-      <c r="C197" t="s">
-        <v>28</v>
-      </c>
-      <c r="D197" t="s">
-        <v>28</v>
-      </c>
-      <c r="E197" s="2">
-        <v>45403.375</v>
-      </c>
-      <c r="F197" t="s">
-        <v>29</v>
-      </c>
-      <c r="G197" t="s">
-        <v>39</v>
-      </c>
-      <c r="K197">
-        <v>4.75</v>
-      </c>
-      <c r="L197">
-        <v>3.75</v>
-      </c>
-      <c r="M197">
-        <v>1.615</v>
-      </c>
-      <c r="N197">
-        <v>6.5</v>
-      </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
-      <c r="P197">
-        <v>1.45</v>
-      </c>
-      <c r="Q197">
-        <v>1</v>
-      </c>
-      <c r="R197">
-        <v>2.025</v>
-      </c>
-      <c r="S197">
-        <v>1.775</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
-      </c>
-      <c r="U197">
-        <v>1.9</v>
-      </c>
-      <c r="V197">
-        <v>1.9</v>
-      </c>
-      <c r="W197">
-        <v>0</v>
-      </c>
-      <c r="X197">
-        <v>0</v>
-      </c>
-      <c r="Y197">
-        <v>0</v>
-      </c>
-      <c r="Z197">
-        <v>0</v>
-      </c>
-      <c r="AA197">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC192"/>
+  <dimension ref="A1:AC199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45261.375</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K85">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
         <v>1.925</v>
       </c>
-      <c r="S85">
-        <v>1.875</v>
-      </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45261.375</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
+        <v>1.7</v>
+      </c>
+      <c r="L86">
+        <v>3.75</v>
+      </c>
+      <c r="M86">
+        <v>4.2</v>
+      </c>
+      <c r="N86">
+        <v>1.7</v>
+      </c>
+      <c r="O86">
+        <v>3.75</v>
+      </c>
+      <c r="P86">
+        <v>4.333</v>
+      </c>
+      <c r="Q86">
+        <v>-0.75</v>
+      </c>
+      <c r="R86">
+        <v>1.925</v>
+      </c>
+      <c r="S86">
+        <v>1.875</v>
+      </c>
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="L86">
-        <v>3.5</v>
-      </c>
-      <c r="M86">
-        <v>3.4</v>
-      </c>
-      <c r="N86">
-        <v>2.1</v>
-      </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>-0.25</v>
-      </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>2.75</v>
-      </c>
-      <c r="U86">
-        <v>1.8</v>
-      </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45288.375</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M117">
+        <v>5.75</v>
+      </c>
+      <c r="N117">
+        <v>1.363</v>
+      </c>
+      <c r="O117">
+        <v>4.5</v>
+      </c>
+      <c r="P117">
+        <v>6.5</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
         <v>1.85</v>
       </c>
-      <c r="N117">
-        <v>4.5</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>1.615</v>
-      </c>
-      <c r="Q117">
-        <v>0.75</v>
-      </c>
-      <c r="R117">
-        <v>1.975</v>
-      </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45288.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>1.85</v>
+      </c>
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>5.75</v>
-      </c>
-      <c r="N118">
-        <v>1.363</v>
-      </c>
-      <c r="O118">
-        <v>4.5</v>
-      </c>
       <c r="P118">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.95</v>
-      </c>
-      <c r="AB118">
-        <v>0.825</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6992695</v>
+        <v>8026714</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,76 +16381,76 @@
         <v>45385.375</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H179">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L179">
+        <v>3.6</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>3.1</v>
+      </c>
+      <c r="O179">
         <v>3.75</v>
       </c>
-      <c r="M179">
-        <v>2.7</v>
-      </c>
-      <c r="N179">
+      <c r="P179">
         <v>1.95</v>
       </c>
-      <c r="O179">
-        <v>3.8</v>
-      </c>
-      <c r="P179">
-        <v>2.9</v>
-      </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>2.75</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.825</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.95</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
-      <c r="Z179">
-        <v>0.8</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.825</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>8026714</v>
+        <v>6992695</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,76 +16470,76 @@
         <v>45385.375</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K180">
+        <v>2.1</v>
+      </c>
+      <c r="L180">
+        <v>3.75</v>
+      </c>
+      <c r="M180">
+        <v>2.7</v>
+      </c>
+      <c r="N180">
+        <v>1.95</v>
+      </c>
+      <c r="O180">
+        <v>3.8</v>
+      </c>
+      <c r="P180">
+        <v>2.9</v>
+      </c>
+      <c r="Q180">
+        <v>-0.25</v>
+      </c>
+      <c r="R180">
+        <v>1.8</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
         <v>3</v>
       </c>
-      <c r="L180">
-        <v>3.6</v>
-      </c>
-      <c r="M180">
-        <v>2</v>
-      </c>
-      <c r="N180">
-        <v>3.1</v>
-      </c>
-      <c r="O180">
-        <v>3.75</v>
-      </c>
-      <c r="P180">
-        <v>1.95</v>
-      </c>
-      <c r="Q180">
-        <v>0.5</v>
-      </c>
-      <c r="R180">
+      <c r="U180">
         <v>1.825</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.975</v>
       </c>
-      <c r="T180">
-        <v>2.75</v>
-      </c>
-      <c r="U180">
-        <v>1.85</v>
-      </c>
-      <c r="V180">
-        <v>1.95</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X180">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>0.8</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
         <v>0.825</v>
       </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
-      </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17608,6 +17608,629 @@
       </c>
       <c r="AC192">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>6992714</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45402.33333333334</v>
+      </c>
+      <c r="F193" t="s">
+        <v>37</v>
+      </c>
+      <c r="G193" t="s">
+        <v>44</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" t="s">
+        <v>45</v>
+      </c>
+      <c r="K193">
+        <v>1.444</v>
+      </c>
+      <c r="L193">
+        <v>4.333</v>
+      </c>
+      <c r="M193">
+        <v>6</v>
+      </c>
+      <c r="N193">
+        <v>1.45</v>
+      </c>
+      <c r="O193">
+        <v>4.5</v>
+      </c>
+      <c r="P193">
+        <v>5.25</v>
+      </c>
+      <c r="Q193">
+        <v>-1.25</v>
+      </c>
+      <c r="R193">
+        <v>1.95</v>
+      </c>
+      <c r="S193">
+        <v>1.85</v>
+      </c>
+      <c r="T193">
+        <v>3</v>
+      </c>
+      <c r="U193">
+        <v>1.95</v>
+      </c>
+      <c r="V193">
+        <v>1.85</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>3.5</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB193">
+        <v>-1</v>
+      </c>
+      <c r="AC193">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>6995900</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45402.35416666666</v>
+      </c>
+      <c r="F194" t="s">
+        <v>30</v>
+      </c>
+      <c r="G194" t="s">
+        <v>32</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" t="s">
+        <v>47</v>
+      </c>
+      <c r="K194">
+        <v>3.3</v>
+      </c>
+      <c r="L194">
+        <v>3.6</v>
+      </c>
+      <c r="M194">
+        <v>1.95</v>
+      </c>
+      <c r="N194">
+        <v>2.7</v>
+      </c>
+      <c r="O194">
+        <v>3.5</v>
+      </c>
+      <c r="P194">
+        <v>2.3</v>
+      </c>
+      <c r="Q194">
+        <v>0.25</v>
+      </c>
+      <c r="R194">
+        <v>1.775</v>
+      </c>
+      <c r="S194">
+        <v>2.025</v>
+      </c>
+      <c r="T194">
+        <v>3</v>
+      </c>
+      <c r="U194">
+        <v>1.925</v>
+      </c>
+      <c r="V194">
+        <v>1.875</v>
+      </c>
+      <c r="W194">
+        <v>1.7</v>
+      </c>
+      <c r="X194">
+        <v>-1</v>
+      </c>
+      <c r="Y194">
+        <v>-1</v>
+      </c>
+      <c r="Z194">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA194">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>6992713</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45402.375</v>
+      </c>
+      <c r="F195" t="s">
+        <v>31</v>
+      </c>
+      <c r="G195" t="s">
+        <v>35</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="s">
+        <v>45</v>
+      </c>
+      <c r="K195">
+        <v>2.1</v>
+      </c>
+      <c r="L195">
+        <v>3.75</v>
+      </c>
+      <c r="M195">
+        <v>2.875</v>
+      </c>
+      <c r="N195">
+        <v>1.95</v>
+      </c>
+      <c r="O195">
+        <v>3.8</v>
+      </c>
+      <c r="P195">
+        <v>3.1</v>
+      </c>
+      <c r="Q195">
+        <v>-0.25</v>
+      </c>
+      <c r="R195">
+        <v>1.75</v>
+      </c>
+      <c r="S195">
+        <v>1.95</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>1.825</v>
+      </c>
+      <c r="V195">
+        <v>1.975</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
+        <v>2.8</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>-0.5</v>
+      </c>
+      <c r="AA195">
+        <v>0.475</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>6992710</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45402.41666666666</v>
+      </c>
+      <c r="F196" t="s">
+        <v>40</v>
+      </c>
+      <c r="G196" t="s">
+        <v>43</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+      <c r="J196" t="s">
+        <v>46</v>
+      </c>
+      <c r="K196">
+        <v>5.25</v>
+      </c>
+      <c r="L196">
+        <v>3.75</v>
+      </c>
+      <c r="M196">
+        <v>1.571</v>
+      </c>
+      <c r="N196">
+        <v>5.5</v>
+      </c>
+      <c r="O196">
+        <v>3.8</v>
+      </c>
+      <c r="P196">
+        <v>1.533</v>
+      </c>
+      <c r="Q196">
+        <v>1</v>
+      </c>
+      <c r="R196">
+        <v>1.95</v>
+      </c>
+      <c r="S196">
+        <v>1.85</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>1.95</v>
+      </c>
+      <c r="V196">
+        <v>1.85</v>
+      </c>
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z196">
+        <v>-1</v>
+      </c>
+      <c r="AA196">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB196">
+        <v>0.95</v>
+      </c>
+      <c r="AC196">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>6992712</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45403.3125</v>
+      </c>
+      <c r="F197" t="s">
+        <v>34</v>
+      </c>
+      <c r="G197" t="s">
+        <v>36</v>
+      </c>
+      <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>47</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>3.8</v>
+      </c>
+      <c r="M197">
+        <v>3</v>
+      </c>
+      <c r="N197">
+        <v>1.95</v>
+      </c>
+      <c r="O197">
+        <v>3.8</v>
+      </c>
+      <c r="P197">
+        <v>3</v>
+      </c>
+      <c r="Q197">
+        <v>-0.5</v>
+      </c>
+      <c r="R197">
+        <v>1.975</v>
+      </c>
+      <c r="S197">
+        <v>1.825</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.825</v>
+      </c>
+      <c r="V197">
+        <v>1.975</v>
+      </c>
+      <c r="W197">
+        <v>0.95</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>0.4125</v>
+      </c>
+      <c r="AC197">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>6992711</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45403.33333333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>33</v>
+      </c>
+      <c r="G198" t="s">
+        <v>42</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>47</v>
+      </c>
+      <c r="K198">
+        <v>2.2</v>
+      </c>
+      <c r="L198">
+        <v>3.5</v>
+      </c>
+      <c r="M198">
+        <v>2.875</v>
+      </c>
+      <c r="N198">
+        <v>1.666</v>
+      </c>
+      <c r="O198">
+        <v>3.6</v>
+      </c>
+      <c r="P198">
+        <v>4</v>
+      </c>
+      <c r="Q198">
+        <v>-0.75</v>
+      </c>
+      <c r="R198">
+        <v>1.925</v>
+      </c>
+      <c r="S198">
+        <v>1.875</v>
+      </c>
+      <c r="T198">
+        <v>2.75</v>
+      </c>
+      <c r="U198">
+        <v>1.925</v>
+      </c>
+      <c r="V198">
+        <v>1.875</v>
+      </c>
+      <c r="W198">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
+        <v>0.4625</v>
+      </c>
+      <c r="AA198">
+        <v>-0.5</v>
+      </c>
+      <c r="AB198">
+        <v>0.4625</v>
+      </c>
+      <c r="AC198">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>6992715</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45403.375</v>
+      </c>
+      <c r="F199" t="s">
+        <v>29</v>
+      </c>
+      <c r="G199" t="s">
+        <v>39</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>46</v>
+      </c>
+      <c r="K199">
+        <v>4.75</v>
+      </c>
+      <c r="L199">
+        <v>3.75</v>
+      </c>
+      <c r="M199">
+        <v>1.615</v>
+      </c>
+      <c r="N199">
+        <v>4.75</v>
+      </c>
+      <c r="O199">
+        <v>3.75</v>
+      </c>
+      <c r="P199">
+        <v>1.615</v>
+      </c>
+      <c r="Q199">
+        <v>1</v>
+      </c>
+      <c r="R199">
+        <v>1.75</v>
+      </c>
+      <c r="S199">
+        <v>1.95</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
+        <v>1.925</v>
+      </c>
+      <c r="V199">
+        <v>1.875</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
+        <v>0.615</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>-0</v>
+      </c>
+      <c r="AB199">
+        <v>0.4625</v>
+      </c>
+      <c r="AC199">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -139,10 +139,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -794,7 +794,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -937,10 +937,10 @@
         <v>0.615</v>
       </c>
       <c r="Y5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
         <v>0.825</v>
@@ -1023,10 +1023,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1109,10 +1109,10 @@
         <v>3.75</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1224,7 +1224,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1281,10 +1281,10 @@
         <v>2.5</v>
       </c>
       <c r="Y9">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA9">
         <v>0.8999999999999999</v>
@@ -1453,10 +1453,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>0.8999999999999999</v>
@@ -1625,10 +1625,10 @@
         <v>4.25</v>
       </c>
       <c r="Y13">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1711,10 +1711,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <v>0.4875</v>
@@ -1728,7 +1728,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -1740,46 +1740,46 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J15">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="L15">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="N15">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="P15">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T15">
         <v>1.975</v>
@@ -1788,25 +1788,25 @@
         <v>1.825</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1814,7 +1814,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -1826,46 +1826,46 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J16">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="M16">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="N16">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="O16">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T16">
         <v>1.975</v>
@@ -1874,10 +1874,10 @@
         <v>1.825</v>
       </c>
       <c r="V16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1886,13 +1886,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2055,10 +2055,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z18">
-        <v>-1</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2081,10 +2081,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
         <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0.45</v>
       </c>
       <c r="Y19">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2313,10 +2313,10 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>0.95</v>
@@ -2571,10 +2571,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2657,10 +2657,10 @@
         <v>1.55</v>
       </c>
       <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z25">
-        <v>-1</v>
       </c>
       <c r="AA25">
         <v>0.8</v>
@@ -2683,7 +2683,7 @@
         <v>45184.375</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
@@ -2743,10 +2743,10 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
         <v>0.8999999999999999</v>
@@ -2772,7 +2772,7 @@
         <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2829,10 +2829,10 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
         <v>0.4</v>
@@ -2915,10 +2915,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>0.8999999999999999</v>
@@ -3001,10 +3001,10 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
         <v>0.825</v>
@@ -3087,10 +3087,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3173,10 +3173,10 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>-1</v>
@@ -3259,10 +3259,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>0.75</v>
@@ -3345,10 +3345,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>0.95</v>
@@ -3431,10 +3431,10 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
         <v>0.8</v>
@@ -3603,10 +3603,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>0.875</v>
@@ -3689,10 +3689,10 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3775,10 +3775,10 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
         <v>0.875</v>
@@ -3804,7 +3804,7 @@
         <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3861,10 +3861,10 @@
         <v>0.444</v>
       </c>
       <c r="Y39">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -3947,10 +3947,10 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4033,10 +4033,10 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
         <v>0.475</v>
@@ -4119,10 +4119,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>0.925</v>
@@ -4205,10 +4205,10 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
         <v>0.925</v>
@@ -4291,10 +4291,10 @@
         <v>1.5</v>
       </c>
       <c r="Y44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA44">
         <v>0.75</v>
@@ -4377,10 +4377,10 @@
         <v>1.45</v>
       </c>
       <c r="Y45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
         <v>0.825</v>
@@ -4463,10 +4463,10 @@
         <v>3.5</v>
       </c>
       <c r="Y46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA46">
         <v>-1</v>
@@ -4492,7 +4492,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4549,10 +4549,10 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
         <v>0.875</v>
@@ -4721,10 +4721,10 @@
         <v>0.615</v>
       </c>
       <c r="Y49">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA49">
         <v>0.875</v>
@@ -4747,7 +4747,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
         <v>36</v>
@@ -4807,10 +4807,10 @@
         <v>0.8</v>
       </c>
       <c r="Y50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA50">
         <v>0.825</v>
@@ -4979,10 +4979,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.875</v>
@@ -5065,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="Y53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA53">
         <v>-1</v>
@@ -5091,7 +5091,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
         <v>43</v>
@@ -5266,7 +5266,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5409,10 +5409,10 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
         <v>0</v>
@@ -5495,10 +5495,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>0.925</v>
@@ -5524,7 +5524,7 @@
         <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5581,10 +5581,10 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>0.875</v>
@@ -5667,10 +5667,10 @@
         <v>2.4</v>
       </c>
       <c r="Y60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
         <v>0.375</v>
@@ -5839,10 +5839,10 @@
         <v>3</v>
       </c>
       <c r="Y62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
         <v>0.875</v>
@@ -5865,7 +5865,7 @@
         <v>45226.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
         <v>37</v>
@@ -5925,10 +5925,10 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
         <v>-0.5</v>
@@ -6097,10 +6097,10 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6183,10 +6183,10 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z66">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
         <v>0.8999999999999999</v>
@@ -6269,10 +6269,10 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
         <v>-1</v>
@@ -6295,7 +6295,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
         <v>36</v>
@@ -6441,10 +6441,10 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
         <v>0.925</v>
@@ -6527,10 +6527,10 @@
         <v>1.6</v>
       </c>
       <c r="Y70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA70">
         <v>-1</v>
@@ -6642,7 +6642,7 @@
         <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6785,10 +6785,10 @@
         <v>2.1</v>
       </c>
       <c r="Y73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA73">
         <v>0.425</v>
@@ -6871,10 +6871,10 @@
         <v>1.05</v>
       </c>
       <c r="Y74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
         <v>-1</v>
@@ -6983,7 +6983,7 @@
         <v>45240.33333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
         <v>43</v>
@@ -7043,10 +7043,10 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
         <v>0.875</v>
@@ -7069,7 +7069,7 @@
         <v>45254.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -7301,10 +7301,10 @@
         <v>1.4</v>
       </c>
       <c r="Y79">
+        <v>-1</v>
+      </c>
+      <c r="Z79">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z79">
-        <v>-1</v>
       </c>
       <c r="AA79">
         <v>0.875</v>
@@ -7327,7 +7327,7 @@
         <v>45255.375</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
         <v>32</v>
@@ -7387,10 +7387,10 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z80">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7473,10 +7473,10 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
         <v>0.8500000000000001</v>
@@ -7559,10 +7559,10 @@
         <v>2.25</v>
       </c>
       <c r="Y82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA82">
         <v>-1</v>
@@ -7760,7 +7760,7 @@
         <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7903,10 +7903,10 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
         <v>0.8500000000000001</v>
@@ -7989,10 +7989,10 @@
         <v>2.4</v>
       </c>
       <c r="Y87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
         <v>0.8500000000000001</v>
@@ -8075,10 +8075,10 @@
         <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
         <v>0.875</v>
@@ -8161,10 +8161,10 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8276,7 +8276,7 @@
         <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8419,10 +8419,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y92">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8505,10 +8505,10 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
         <v>0.8999999999999999</v>
@@ -8531,7 +8531,7 @@
         <v>45269.375</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
         <v>28</v>
@@ -8591,10 +8591,10 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
         <v>0.8500000000000001</v>
@@ -8677,10 +8677,10 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
         <v>0.4375</v>
@@ -8763,10 +8763,10 @@
         <v>1.75</v>
       </c>
       <c r="Y96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA96">
         <v>0.925</v>
@@ -8849,10 +8849,10 @@
         <v>1</v>
       </c>
       <c r="Y97">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA97">
         <v>-1</v>
@@ -8935,10 +8935,10 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
         <v>0.95</v>
@@ -9021,10 +9021,10 @@
         <v>2.6</v>
       </c>
       <c r="Y99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
         <v>0.875</v>
@@ -9047,7 +9047,7 @@
         <v>45272.35416666666</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
         <v>33</v>
@@ -9107,10 +9107,10 @@
         <v>1.5</v>
       </c>
       <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
       </c>
       <c r="AA100">
         <v>0</v>
@@ -9193,10 +9193,10 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
         <v>0.9750000000000001</v>
@@ -9537,10 +9537,10 @@
         <v>2</v>
       </c>
       <c r="Y105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>0.925</v>
@@ -9566,7 +9566,7 @@
         <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9623,10 +9623,10 @@
         <v>1.5</v>
       </c>
       <c r="Y106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>0.8500000000000001</v>
@@ -9652,7 +9652,7 @@
         <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9709,10 +9709,10 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
         <v>0.925</v>
@@ -9795,10 +9795,10 @@
         <v>0.571</v>
       </c>
       <c r="Y108">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
         <v>0.45</v>
@@ -9881,10 +9881,10 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>0</v>
@@ -9907,7 +9907,7 @@
         <v>45283.375</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
         <v>30</v>
@@ -9967,10 +9967,10 @@
         <v>2.75</v>
       </c>
       <c r="Y110">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA110">
         <v>1</v>
@@ -9993,7 +9993,7 @@
         <v>45283.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
         <v>31</v>
@@ -10053,10 +10053,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z111">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>0.925</v>
@@ -10139,10 +10139,10 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z112">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
         <v>0.9750000000000001</v>
@@ -10426,7 +10426,7 @@
         <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10483,10 +10483,10 @@
         <v>0.7</v>
       </c>
       <c r="Y116">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA116">
         <v>0</v>
@@ -10684,7 +10684,7 @@
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10741,10 +10741,10 @@
         <v>2.5</v>
       </c>
       <c r="Y119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
         <v>-1</v>
@@ -10827,10 +10827,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y120">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA120">
         <v>0.4875</v>
@@ -10913,10 +10913,10 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z121">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11085,10 +11085,10 @@
         <v>0.95</v>
       </c>
       <c r="Y123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11171,10 +11171,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA124">
         <v>0.825</v>
@@ -11200,7 +11200,7 @@
         <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11257,10 +11257,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y125">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
         <v>0.375</v>
@@ -11286,7 +11286,7 @@
         <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11601,10 +11601,10 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z129">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA129">
         <v>-1</v>
@@ -11627,10 +11627,10 @@
         <v>45336.33333333334</v>
       </c>
       <c r="E130" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" t="s">
         <v>42</v>
-      </c>
-      <c r="F130" t="s">
-        <v>41</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11687,10 +11687,10 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
         <v>0.875</v>
@@ -11773,10 +11773,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>0.8999999999999999</v>
@@ -11945,10 +11945,10 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
         <v>0.8999999999999999</v>
@@ -12031,10 +12031,10 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
         <v>-1</v>
@@ -12057,7 +12057,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
         <v>38</v>
@@ -12203,10 +12203,10 @@
         <v>0.7</v>
       </c>
       <c r="Y136">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA136">
         <v>-1</v>
@@ -12375,10 +12375,10 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>0.4625</v>
@@ -12404,7 +12404,7 @@
         <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12547,10 +12547,10 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z140">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
         <v>-1</v>
@@ -12831,7 +12831,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
         <v>29</v>
@@ -12891,10 +12891,10 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
         <v>0.8500000000000001</v>
@@ -12977,10 +12977,10 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA145">
         <v>-1</v>
@@ -13149,10 +13149,10 @@
         <v>1.375</v>
       </c>
       <c r="Y147">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA147">
         <v>-1</v>
@@ -13235,10 +13235,10 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13350,7 +13350,7 @@
         <v>43</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13407,10 +13407,10 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
         <v>0.8500000000000001</v>
@@ -13519,7 +13519,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F152" t="s">
         <v>40</v>
@@ -13579,10 +13579,10 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
         <v>0.825</v>
@@ -13665,10 +13665,10 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
         <v>-1</v>
@@ -13837,10 +13837,10 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z155">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA155">
         <v>0</v>
@@ -13863,7 +13863,7 @@
         <v>45354.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
         <v>38</v>
@@ -13923,10 +13923,10 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
         <v>0.8</v>
@@ -14181,10 +14181,10 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
         <v>-1</v>
@@ -14267,10 +14267,10 @@
         <v>0.5</v>
       </c>
       <c r="Y160">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
         <v>-1</v>
@@ -14296,7 +14296,7 @@
         <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G161">
         <v>7</v>
@@ -14353,10 +14353,10 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
         <v>0.8500000000000001</v>
@@ -14439,10 +14439,10 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z162">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
         <v>-1</v>
@@ -14611,10 +14611,10 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
         <v>0.4625</v>
@@ -14640,7 +14640,7 @@
         <v>43</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14783,10 +14783,10 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z166">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
         <v>0.825</v>
@@ -14981,7 +14981,7 @@
         <v>45381.375</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
         <v>39</v>
@@ -15041,10 +15041,10 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z169">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
         <v>-1</v>
@@ -15127,10 +15127,10 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
         <v>-0.5</v>
@@ -15153,7 +15153,7 @@
         <v>45382.3125</v>
       </c>
       <c r="E171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
         <v>40</v>
@@ -15299,10 +15299,10 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
         <v>0.875</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
         <v>0.75</v>
@@ -15471,10 +15471,10 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z174">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
         <v>0.4125</v>
@@ -15557,10 +15557,10 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z175">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
         <v>0.4875</v>
@@ -15586,7 +15586,7 @@
         <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15729,10 +15729,10 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -15815,10 +15815,10 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
         <v>0.95</v>
@@ -15832,7 +15832,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>8026714</v>
+        <v>6992695</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15841,76 +15841,76 @@
         <v>45385.375</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J179">
+        <v>2.1</v>
+      </c>
+      <c r="K179">
+        <v>3.75</v>
+      </c>
+      <c r="L179">
+        <v>2.7</v>
+      </c>
+      <c r="M179">
+        <v>1.95</v>
+      </c>
+      <c r="N179">
+        <v>3.8</v>
+      </c>
+      <c r="O179">
+        <v>2.9</v>
+      </c>
+      <c r="P179">
+        <v>-0.25</v>
+      </c>
+      <c r="Q179">
+        <v>1.8</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
         <v>3</v>
       </c>
-      <c r="K179">
-        <v>3.6</v>
-      </c>
-      <c r="L179">
-        <v>2</v>
-      </c>
-      <c r="M179">
-        <v>3.1</v>
-      </c>
-      <c r="N179">
-        <v>3.75</v>
-      </c>
-      <c r="O179">
-        <v>1.95</v>
-      </c>
-      <c r="P179">
-        <v>0.5</v>
-      </c>
-      <c r="Q179">
+      <c r="T179">
         <v>1.825</v>
       </c>
-      <c r="R179">
+      <c r="U179">
         <v>1.975</v>
       </c>
-      <c r="S179">
-        <v>2.75</v>
-      </c>
-      <c r="T179">
-        <v>1.85</v>
-      </c>
-      <c r="U179">
-        <v>1.95</v>
-      </c>
       <c r="V179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W179">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
+        <v>0.8</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
         <v>0.825</v>
       </c>
-      <c r="Z179">
-        <v>-1</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15918,7 +15918,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6992695</v>
+        <v>8026714</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -15927,76 +15927,76 @@
         <v>45385.375</v>
       </c>
       <c r="E180" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G180">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J180">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="K180">
+        <v>3.6</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>3.1</v>
+      </c>
+      <c r="N180">
         <v>3.75</v>
       </c>
-      <c r="L180">
-        <v>2.7</v>
-      </c>
-      <c r="M180">
+      <c r="O180">
         <v>1.95</v>
       </c>
-      <c r="N180">
-        <v>3.8</v>
-      </c>
-      <c r="O180">
-        <v>2.9</v>
-      </c>
       <c r="P180">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q180">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T180">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
+        <v>-1</v>
+      </c>
+      <c r="W180">
+        <v>2.75</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>0.825</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
         <v>0.95</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>1</v>
-      </c>
-      <c r="AA180">
-        <v>0.825</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16073,10 +16073,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y181">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA181">
         <v>0.8</v>
@@ -16159,10 +16159,10 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z182">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
         <v>-1</v>
@@ -16245,10 +16245,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y183">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA183">
         <v>0.95</v>
@@ -16331,10 +16331,10 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z184">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
         <v>-1</v>
@@ -16357,7 +16357,7 @@
         <v>45388.375</v>
       </c>
       <c r="E185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F185" t="s">
         <v>32</v>
@@ -16503,10 +16503,10 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
         <v>-1</v>
@@ -16761,10 +16761,10 @@
         <v>2</v>
       </c>
       <c r="Y189">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
         <v>-1</v>
@@ -16787,7 +16787,7 @@
         <v>45389.375</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F190" t="s">
         <v>28</v>
@@ -16847,10 +16847,10 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
         <v>0.8999999999999999</v>
@@ -17019,10 +17019,10 @@
         <v>5.5</v>
       </c>
       <c r="Y192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA192">
         <v>0</v>
@@ -17191,10 +17191,10 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z194">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
         <v>-1</v>
@@ -17306,7 +17306,7 @@
         <v>39</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17363,10 +17363,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA196">
         <v>0.95</v>
@@ -17449,10 +17449,10 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
         <v>0.4125</v>
@@ -17478,7 +17478,7 @@
         <v>32</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17535,10 +17535,10 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z198">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
         <v>0.4625</v>
@@ -17621,10 +17621,10 @@
         <v>0.615</v>
       </c>
       <c r="Y199">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA199">
         <v>0.4625</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -97,6 +97,24 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>6992721</t>
+  </si>
+  <si>
+    <t>6992719</t>
+  </si>
+  <si>
+    <t>6992718</t>
+  </si>
+  <si>
+    <t>6992338</t>
+  </si>
+  <si>
+    <t>6992720</t>
+  </si>
+  <si>
+    <t>6992722</t>
+  </si>
+  <si>
     <t>Thailand Premier League</t>
   </si>
   <si>
@@ -139,10 +157,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -516,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB199"/>
+  <dimension ref="A1:AB205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +631,16 @@
         <v>6992541</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45149.375</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -631,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J2">
         <v>4.333</v>
@@ -699,16 +717,16 @@
         <v>6992317</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45149.39583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -717,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>3.6</v>
@@ -785,16 +803,16 @@
         <v>6992544</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45150.33333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -803,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -871,16 +889,16 @@
         <v>6992543</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45150.375</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -889,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -957,16 +975,16 @@
         <v>6992542</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45151.3125</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -975,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1043,16 +1061,16 @@
         <v>6992545</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45151.33333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1061,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1129,16 +1147,16 @@
         <v>6992546</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45151.375</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1147,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -1215,16 +1233,16 @@
         <v>6992547</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45152.375</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1233,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1301,16 +1319,16 @@
         <v>6992552</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45156.375</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1319,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>1.75</v>
@@ -1387,16 +1405,16 @@
         <v>6992318</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1405,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J11">
         <v>1.533</v>
@@ -1473,16 +1491,16 @@
         <v>6992548</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1491,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1559,16 +1577,16 @@
         <v>6992549</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45157.375</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1577,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1645,16 +1663,16 @@
         <v>6992551</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1663,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1728,58 +1746,58 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="K15">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="M15">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="N15">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="O15">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T15">
         <v>1.975</v>
@@ -1788,25 +1806,25 @@
         <v>1.825</v>
       </c>
       <c r="V15">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1814,58 +1832,58 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J16">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="N16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="P16">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T16">
         <v>1.975</v>
@@ -1874,25 +1892,25 @@
         <v>1.825</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1903,16 +1921,16 @@
         <v>6992553</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45159.35416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1921,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -1989,16 +2007,16 @@
         <v>6992558</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45163.375</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2007,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J18">
         <v>3.75</v>
@@ -2075,16 +2093,16 @@
         <v>6992561</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2093,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J19">
         <v>5.5</v>
@@ -2161,16 +2179,16 @@
         <v>6992555</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45164.375</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2179,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>4.75</v>
@@ -2247,16 +2265,16 @@
         <v>6992319</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2265,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J21">
         <v>2.3</v>
@@ -2333,16 +2351,16 @@
         <v>6992557</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45165.33333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2351,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2419,16 +2437,16 @@
         <v>6992560</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45165.375</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2437,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2505,16 +2523,16 @@
         <v>6992559</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45166.35416666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2523,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2591,16 +2609,16 @@
         <v>6992556</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45166.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2609,7 +2627,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J25">
         <v>2.2</v>
@@ -2677,16 +2695,16 @@
         <v>6992568</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45184.375</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2695,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2763,16 +2781,16 @@
         <v>6992567</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2781,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2849,16 +2867,16 @@
         <v>6992565</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45185.33333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -2867,7 +2885,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2935,16 +2953,16 @@
         <v>6992320</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45185.375</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -2953,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3021,16 +3039,16 @@
         <v>6992564</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3039,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J30">
         <v>1.727</v>
@@ -3107,16 +3125,16 @@
         <v>6992566</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45186.33333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3125,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J31">
         <v>1.615</v>
@@ -3193,16 +3211,16 @@
         <v>6992563</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45186.375</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3211,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3279,16 +3297,16 @@
         <v>6992562</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45187.35416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3297,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J33">
         <v>2.375</v>
@@ -3365,16 +3383,16 @@
         <v>6992571</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45191.375</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3383,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3451,16 +3469,16 @@
         <v>6992573</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3469,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3537,16 +3555,16 @@
         <v>6992569</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3555,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J36">
         <v>2.75</v>
@@ -3623,16 +3641,16 @@
         <v>6992570</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45193.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3641,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J37">
         <v>3.1</v>
@@ -3709,16 +3727,16 @@
         <v>6992572</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45193.375</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3727,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J38">
         <v>2.625</v>
@@ -3795,16 +3813,16 @@
         <v>6992321</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45194.35416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3813,7 +3831,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J39">
         <v>5.75</v>
@@ -3881,16 +3899,16 @@
         <v>6992574</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45194.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3899,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3967,16 +3985,16 @@
         <v>6992579</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45198.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3985,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J41">
         <v>1.533</v>
@@ -4053,16 +4071,16 @@
         <v>6992576</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -4071,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J42">
         <v>1.533</v>
@@ -4139,16 +4157,16 @@
         <v>6992582</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45199.375</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4157,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4225,16 +4243,16 @@
         <v>6992581</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4243,7 +4261,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4311,16 +4329,16 @@
         <v>6995903</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45200.3125</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4329,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J45">
         <v>2.45</v>
@@ -4397,16 +4415,16 @@
         <v>6992577</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45200.375</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4415,7 +4433,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J46">
         <v>1.533</v>
@@ -4483,16 +4501,16 @@
         <v>6992580</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45201.35416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4501,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4569,16 +4587,16 @@
         <v>6992587</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45205.375</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4587,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4655,16 +4673,16 @@
         <v>6992583</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45205.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4673,7 +4691,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J49">
         <v>4.5</v>
@@ -4741,16 +4759,16 @@
         <v>6992586</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
         <v>42</v>
-      </c>
-      <c r="F50" t="s">
-        <v>36</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4759,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J50">
         <v>2.6</v>
@@ -4827,16 +4845,16 @@
         <v>6992322</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45206.375</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4845,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <v>2.2</v>
@@ -4913,16 +4931,16 @@
         <v>6992588</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s">
         <v>34</v>
-      </c>
-      <c r="F52" t="s">
-        <v>28</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4931,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J52">
         <v>2.2</v>
@@ -4999,16 +5017,16 @@
         <v>6992585</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5017,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5085,16 +5103,16 @@
         <v>6992584</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5103,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <v>1.4</v>
@@ -5171,16 +5189,16 @@
         <v>6992589</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45207.375</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5189,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5257,16 +5275,16 @@
         <v>6992591</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45219.33333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5275,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J56">
         <v>4.75</v>
@@ -5343,16 +5361,16 @@
         <v>6992596</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45219.375</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5361,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J57">
         <v>1.571</v>
@@ -5429,16 +5447,16 @@
         <v>6992593</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -5447,7 +5465,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5515,16 +5533,16 @@
         <v>6992592</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45220.375</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5533,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J59">
         <v>1.615</v>
@@ -5601,16 +5619,16 @@
         <v>6992595</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5619,7 +5637,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5687,16 +5705,16 @@
         <v>6992594</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45221.375</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5705,7 +5723,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <v>1.285</v>
@@ -5773,16 +5791,16 @@
         <v>6992324</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45226.375</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5791,7 +5809,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -5859,16 +5877,16 @@
         <v>6992603</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45226.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5877,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J63">
         <v>5.5</v>
@@ -5945,16 +5963,16 @@
         <v>6992602</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5963,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6031,16 +6049,16 @@
         <v>6992599</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45227.375</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6049,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6117,16 +6135,16 @@
         <v>6992597</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6135,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J66">
         <v>3.75</v>
@@ -6203,16 +6221,16 @@
         <v>6992600</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45228.3125</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6221,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J67">
         <v>1.95</v>
@@ -6289,16 +6307,16 @@
         <v>6992601</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6307,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>1.666</v>
@@ -6375,16 +6393,16 @@
         <v>6992598</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45228.375</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6393,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J69">
         <v>1.5</v>
@@ -6461,16 +6479,16 @@
         <v>6992606</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6479,7 +6497,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>2.55</v>
@@ -6547,16 +6565,16 @@
         <v>6992604</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45234.375</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6565,7 +6583,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J71">
         <v>2.4</v>
@@ -6633,16 +6651,16 @@
         <v>6992610</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6651,7 +6669,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>1.727</v>
@@ -6719,16 +6737,16 @@
         <v>6992605</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45235.375</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6737,7 +6755,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J73">
         <v>1.666</v>
@@ -6805,16 +6823,16 @@
         <v>6992707</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45236.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6823,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J74">
         <v>3.1</v>
@@ -6891,16 +6909,16 @@
         <v>6992325</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45236.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6909,7 +6927,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J75">
         <v>1.833</v>
@@ -6977,16 +6995,16 @@
         <v>7295626</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45240.33333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -6995,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J76">
         <v>2.875</v>
@@ -7063,16 +7081,16 @@
         <v>6992611</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45254.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7081,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7149,16 +7167,16 @@
         <v>6992617</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45254.375</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7167,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <v>1.25</v>
@@ -7235,16 +7253,16 @@
         <v>6992615</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45255.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7253,7 +7271,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -7321,16 +7339,16 @@
         <v>6992614</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45255.375</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7339,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J80">
         <v>2.25</v>
@@ -7407,16 +7425,16 @@
         <v>6992613</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7425,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7493,16 +7511,16 @@
         <v>6995902</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45256.3125</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7511,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J82">
         <v>1.909</v>
@@ -7579,16 +7597,16 @@
         <v>6992612</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45256.375</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7597,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J83">
         <v>4.2</v>
@@ -7665,16 +7683,16 @@
         <v>6992616</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45257.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7683,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -7748,85 +7766,85 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45261.375</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J85">
+        <v>1.7</v>
+      </c>
+      <c r="K85">
+        <v>3.75</v>
+      </c>
+      <c r="L85">
+        <v>4.2</v>
+      </c>
+      <c r="M85">
+        <v>1.7</v>
+      </c>
+      <c r="N85">
+        <v>3.75</v>
+      </c>
+      <c r="O85">
+        <v>4.333</v>
+      </c>
+      <c r="P85">
+        <v>-0.75</v>
+      </c>
+      <c r="Q85">
+        <v>1.925</v>
+      </c>
+      <c r="R85">
+        <v>1.875</v>
+      </c>
+      <c r="S85">
+        <v>2.5</v>
+      </c>
+      <c r="T85">
+        <v>1.85</v>
+      </c>
+      <c r="U85">
         <v>1.95</v>
       </c>
-      <c r="K85">
-        <v>3.5</v>
-      </c>
-      <c r="L85">
-        <v>3.4</v>
-      </c>
-      <c r="M85">
-        <v>2.1</v>
-      </c>
-      <c r="N85">
-        <v>3.4</v>
-      </c>
-      <c r="O85">
-        <v>3</v>
-      </c>
-      <c r="P85">
-        <v>-0.25</v>
-      </c>
-      <c r="Q85">
-        <v>1.875</v>
-      </c>
-      <c r="R85">
-        <v>1.925</v>
-      </c>
-      <c r="S85">
-        <v>2.75</v>
-      </c>
-      <c r="T85">
-        <v>1.8</v>
-      </c>
-      <c r="U85">
-        <v>2</v>
-      </c>
       <c r="V85">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W85">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z85">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7834,85 +7852,85 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45261.375</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J86">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="K86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L86">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O86">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q86">
+        <v>1.875</v>
+      </c>
+      <c r="R86">
         <v>1.925</v>
       </c>
-      <c r="R86">
-        <v>1.875</v>
-      </c>
       <c r="S86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T86">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7923,16 +7941,16 @@
         <v>6992622</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45262.33333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7941,7 +7959,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J87">
         <v>1.75</v>
@@ -8009,16 +8027,16 @@
         <v>6992326</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45262.375</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8027,7 +8045,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J88">
         <v>1.666</v>
@@ -8095,16 +8113,16 @@
         <v>6992624</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8113,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -8181,16 +8199,16 @@
         <v>6992618</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45263.3125</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8199,7 +8217,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8267,16 +8285,16 @@
         <v>6992621</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8285,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8353,16 +8371,16 @@
         <v>6992619</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45263.375</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8371,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8439,16 +8457,16 @@
         <v>6992625</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8457,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J93">
         <v>1.25</v>
@@ -8525,16 +8543,16 @@
         <v>6992630</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45269.375</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8543,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J94">
         <v>1.25</v>
@@ -8611,16 +8629,16 @@
         <v>6992628</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8629,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>1.85</v>
@@ -8697,16 +8715,16 @@
         <v>6992627</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45270.3125</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8715,7 +8733,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8783,16 +8801,16 @@
         <v>6992629</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E97" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" t="s">
         <v>43</v>
-      </c>
-      <c r="F97" t="s">
-        <v>37</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8801,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J97">
         <v>3.25</v>
@@ -8869,16 +8887,16 @@
         <v>6992631</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45270.375</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8887,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8955,16 +8973,16 @@
         <v>6992327</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8973,7 +8991,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9041,16 +9059,16 @@
         <v>6992626</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45272.35416666666</v>
       </c>
       <c r="E100" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9059,7 +9077,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J100">
         <v>2.5</v>
@@ -9127,16 +9145,16 @@
         <v>6992637</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45275.375</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9145,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J101">
         <v>2.375</v>
@@ -9213,16 +9231,16 @@
         <v>6992633</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45276.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9231,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>4.75</v>
@@ -9299,16 +9317,16 @@
         <v>6992634</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9317,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>2.25</v>
@@ -9385,16 +9403,16 @@
         <v>6992636</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45276.375</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9403,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9471,16 +9489,16 @@
         <v>6992632</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45276.41666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9489,7 +9507,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J105">
         <v>2.4</v>
@@ -9557,16 +9575,16 @@
         <v>6992328</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45277.3125</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9575,7 +9593,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J106">
         <v>2.15</v>
@@ -9643,16 +9661,16 @@
         <v>6992638</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45277.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9661,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J107">
         <v>2.7</v>
@@ -9729,16 +9747,16 @@
         <v>6992635</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45277.375</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9747,7 +9765,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J108">
         <v>6</v>
@@ -9815,16 +9833,16 @@
         <v>6992642</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45283.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9833,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J109">
         <v>2.15</v>
@@ -9901,16 +9919,16 @@
         <v>6992641</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45283.375</v>
       </c>
       <c r="E110" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9919,7 +9937,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J110">
         <v>1.75</v>
@@ -9987,16 +10005,16 @@
         <v>6992645</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45283.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -10005,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J111">
         <v>1.3</v>
@@ -10073,16 +10091,16 @@
         <v>6992639</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45284.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G112">
         <v>5</v>
@@ -10091,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J112">
         <v>1.75</v>
@@ -10159,16 +10177,16 @@
         <v>6992644</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45284.33333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10177,7 +10195,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J113">
         <v>2.05</v>
@@ -10245,16 +10263,16 @@
         <v>6992329</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45284.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10263,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10331,16 +10349,16 @@
         <v>6992640</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45284.375</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10349,7 +10367,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10417,16 +10435,16 @@
         <v>7485126</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45288.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10435,7 +10453,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J116">
         <v>3.6</v>
@@ -10500,85 +10518,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45288.375</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J117">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="K117">
+        <v>3.5</v>
+      </c>
+      <c r="L117">
+        <v>1.85</v>
+      </c>
+      <c r="M117">
+        <v>4.5</v>
+      </c>
+      <c r="N117">
         <v>4</v>
       </c>
-      <c r="L117">
-        <v>5.75</v>
-      </c>
-      <c r="M117">
-        <v>1.363</v>
-      </c>
-      <c r="N117">
-        <v>4.5</v>
-      </c>
       <c r="O117">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="P117">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
         <v>3</v>
       </c>
       <c r="T117">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
         <v>0.95</v>
-      </c>
-      <c r="AA117">
-        <v>0.825</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10586,85 +10604,85 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45288.375</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J118">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="K118">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L118">
+        <v>5.75</v>
+      </c>
+      <c r="M118">
+        <v>1.363</v>
+      </c>
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
+        <v>6.5</v>
+      </c>
+      <c r="P118">
+        <v>-1.25</v>
+      </c>
+      <c r="Q118">
         <v>1.85</v>
       </c>
-      <c r="M118">
-        <v>4.5</v>
-      </c>
-      <c r="N118">
-        <v>4</v>
-      </c>
-      <c r="O118">
-        <v>1.615</v>
-      </c>
-      <c r="P118">
-        <v>0.75</v>
-      </c>
-      <c r="Q118">
-        <v>1.975</v>
-      </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
         <v>3</v>
       </c>
       <c r="T118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10675,16 +10693,16 @@
         <v>7485128</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45297.375</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10693,7 +10711,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10761,16 +10779,16 @@
         <v>6992652</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45331.375</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10779,7 +10797,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J120">
         <v>3.1</v>
@@ -10847,16 +10865,16 @@
         <v>6992650</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10865,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10933,16 +10951,16 @@
         <v>6992646</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45332.375</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10951,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J122">
         <v>3.6</v>
@@ -11019,16 +11037,16 @@
         <v>6992647</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11037,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J123">
         <v>2.2</v>
@@ -11105,16 +11123,16 @@
         <v>6992330</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45333.3125</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11123,7 +11141,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J124">
         <v>3.1</v>
@@ -11191,16 +11209,16 @@
         <v>6992651</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11209,7 +11227,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11277,16 +11295,16 @@
         <v>6992649</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11295,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11363,16 +11381,16 @@
         <v>6992648</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45333.375</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11381,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11449,16 +11467,16 @@
         <v>6992653</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11467,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11535,16 +11553,16 @@
         <v>6992656</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45335.375</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11553,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J129">
         <v>1.7</v>
@@ -11621,16 +11639,16 @@
         <v>6992659</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45336.33333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11639,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J130">
         <v>1.285</v>
@@ -11707,16 +11725,16 @@
         <v>6992331</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45336.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G131">
         <v>4</v>
@@ -11725,7 +11743,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -11793,16 +11811,16 @@
         <v>6992657</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45336.375</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11811,7 +11829,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J132">
         <v>1.444</v>
@@ -11879,16 +11897,16 @@
         <v>6992655</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45337.33333333334</v>
       </c>
       <c r="E133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133" t="s">
         <v>40</v>
-      </c>
-      <c r="F133" t="s">
-        <v>34</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11897,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J133">
         <v>1.833</v>
@@ -11965,16 +11983,16 @@
         <v>6992654</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45337.375</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11983,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J134">
         <v>1.333</v>
@@ -12051,16 +12069,16 @@
         <v>6992662</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45339.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12069,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J135">
         <v>5.5</v>
@@ -12137,16 +12155,16 @@
         <v>6992332</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12155,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J136">
         <v>2.6</v>
@@ -12223,16 +12241,16 @@
         <v>6992666</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45339.375</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12241,7 +12259,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J137">
         <v>4</v>
@@ -12309,16 +12327,16 @@
         <v>6992665</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12327,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12395,16 +12413,16 @@
         <v>6992660</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45340.3125</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12413,7 +12431,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J139">
         <v>4.75</v>
@@ -12481,16 +12499,16 @@
         <v>6992663</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45340.33333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12499,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J140">
         <v>2.75</v>
@@ -12567,16 +12585,16 @@
         <v>6992664</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45340.375</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12585,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J141">
         <v>2</v>
@@ -12653,16 +12671,16 @@
         <v>6992661</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45341.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12671,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J142">
         <v>2.1</v>
@@ -12739,16 +12757,16 @@
         <v>6992671</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45345.375</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12757,7 +12775,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J143">
         <v>3.2</v>
@@ -12825,16 +12843,16 @@
         <v>6992333</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>6</v>
@@ -12843,7 +12861,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J144">
         <v>1.166</v>
@@ -12911,16 +12929,16 @@
         <v>6992672</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12929,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12997,16 +13015,16 @@
         <v>6992668</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45346.375</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13015,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J146">
         <v>1.2</v>
@@ -13083,16 +13101,16 @@
         <v>6992667</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13101,7 +13119,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13169,16 +13187,16 @@
         <v>6992669</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45347.3125</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13187,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J148">
         <v>1.75</v>
@@ -13255,16 +13273,16 @@
         <v>6992673</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45347.33333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13273,7 +13291,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13341,16 +13359,16 @@
         <v>6992670</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45347.375</v>
       </c>
       <c r="E150" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13359,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J150">
         <v>1.95</v>
@@ -13427,16 +13445,16 @@
         <v>6992676</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13445,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J151">
         <v>4.5</v>
@@ -13513,16 +13531,16 @@
         <v>6992674</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E152" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13531,7 +13549,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J152">
         <v>2.15</v>
@@ -13599,16 +13617,16 @@
         <v>6992680</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45353.375</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13617,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13685,16 +13703,16 @@
         <v>6995901</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13703,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J154">
         <v>2.15</v>
@@ -13771,16 +13789,16 @@
         <v>6992678</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13789,7 +13807,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J155">
         <v>1.95</v>
@@ -13857,16 +13875,16 @@
         <v>6992675</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13875,7 +13893,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J156">
         <v>1.833</v>
@@ -13943,16 +13961,16 @@
         <v>6992679</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45354.375</v>
       </c>
       <c r="E157" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13961,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J157">
         <v>1.95</v>
@@ -14029,16 +14047,16 @@
         <v>6992677</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45355.35416666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14047,7 +14065,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J158">
         <v>2.875</v>
@@ -14115,16 +14133,16 @@
         <v>6992334</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45359.375</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14133,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J159">
         <v>1.533</v>
@@ -14201,16 +14219,16 @@
         <v>6992683</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14219,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J160">
         <v>5.5</v>
@@ -14287,16 +14305,16 @@
         <v>6992682</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45360.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G161">
         <v>7</v>
@@ -14305,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J161">
         <v>1.3</v>
@@ -14373,16 +14391,16 @@
         <v>6992686</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45360.375</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14391,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14459,16 +14477,16 @@
         <v>6992684</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E163" t="s">
+        <v>43</v>
+      </c>
+      <c r="F163" t="s">
         <v>37</v>
-      </c>
-      <c r="F163" t="s">
-        <v>31</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14477,7 +14495,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J163">
         <v>1.4</v>
@@ -14545,16 +14563,16 @@
         <v>6992685</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D164" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E164" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14563,7 +14581,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J164">
         <v>2.05</v>
@@ -14631,16 +14649,16 @@
         <v>6992681</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14649,7 +14667,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14717,16 +14735,16 @@
         <v>6992687</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>45361.375</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -14735,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14803,16 +14821,16 @@
         <v>6992690</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D167" s="2">
         <v>45381.33333333334</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14821,7 +14839,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J167">
         <v>2.3</v>
@@ -14889,16 +14907,16 @@
         <v>6992689</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D168" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14907,7 +14925,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J168">
         <v>3.25</v>
@@ -14975,16 +14993,16 @@
         <v>6992691</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D169" s="2">
         <v>45381.375</v>
       </c>
       <c r="E169" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -14993,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J169">
         <v>2.75</v>
@@ -15061,16 +15079,16 @@
         <v>6992694</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D170" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15079,7 +15097,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J170">
         <v>4</v>
@@ -15147,16 +15165,16 @@
         <v>6992693</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
         <v>45382.3125</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15165,7 +15183,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J171">
         <v>1.4</v>
@@ -15233,16 +15251,16 @@
         <v>6992335</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -15251,7 +15269,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J172">
         <v>1.444</v>
@@ -15319,16 +15337,16 @@
         <v>6992692</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E173" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G173">
         <v>6</v>
@@ -15337,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J173">
         <v>1.444</v>
@@ -15405,16 +15423,16 @@
         <v>6992688</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
         <v>45382.375</v>
       </c>
       <c r="E174" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15423,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J174">
         <v>2.7</v>
@@ -15491,16 +15509,16 @@
         <v>6992698</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
         <v>45384.33333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15509,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15577,16 +15595,16 @@
         <v>6992700</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
         <v>45384.375</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15595,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J176">
         <v>1.222</v>
@@ -15663,16 +15681,16 @@
         <v>6992696</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
         <v>45385.33333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15681,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J177">
         <v>1.833</v>
@@ -15749,16 +15767,16 @@
         <v>6992336</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D178" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E178" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15767,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J178">
         <v>1.8</v>
@@ -15835,16 +15853,16 @@
         <v>6992695</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D179" s="2">
         <v>45385.375</v>
       </c>
       <c r="E179" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G179">
         <v>5</v>
@@ -15853,7 +15871,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J179">
         <v>2.1</v>
@@ -15921,16 +15939,16 @@
         <v>8026714</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D180" s="2">
         <v>45385.375</v>
       </c>
       <c r="E180" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15939,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -16007,16 +16025,16 @@
         <v>6992701</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D181" s="2">
         <v>45386.33333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16025,7 +16043,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J181">
         <v>3.3</v>
@@ -16093,16 +16111,16 @@
         <v>6992699</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D182" s="2">
         <v>45386.375</v>
       </c>
       <c r="E182" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16111,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J182">
         <v>2.7</v>
@@ -16179,16 +16197,16 @@
         <v>6992703</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D183" s="2">
         <v>45388.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16197,7 +16215,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J183">
         <v>2.8</v>
@@ -16265,16 +16283,16 @@
         <v>6992608</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D184" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16283,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J184">
         <v>1.4</v>
@@ -16351,16 +16369,16 @@
         <v>6992706</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D185" s="2">
         <v>45388.375</v>
       </c>
       <c r="E185" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16369,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J185">
         <v>1.222</v>
@@ -16437,16 +16455,16 @@
         <v>6992705</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D186" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16455,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J186">
         <v>1.909</v>
@@ -16523,16 +16541,16 @@
         <v>6992337</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D187" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E187" t="s">
+        <v>41</v>
+      </c>
+      <c r="F187" t="s">
         <v>35</v>
-      </c>
-      <c r="F187" t="s">
-        <v>29</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16541,7 +16559,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J187">
         <v>1.444</v>
@@ -16609,16 +16627,16 @@
         <v>6992704</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D188" s="2">
         <v>45389.33333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16627,7 +16645,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J188">
         <v>1.85</v>
@@ -16695,16 +16713,16 @@
         <v>6992702</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D189" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16713,7 +16731,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J189">
         <v>2</v>
@@ -16781,16 +16799,16 @@
         <v>6992708</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D190" s="2">
         <v>45389.375</v>
       </c>
       <c r="E190" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -16799,7 +16817,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J190">
         <v>1.85</v>
@@ -16867,16 +16885,16 @@
         <v>8075058</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D191" s="2">
         <v>45400.375</v>
       </c>
       <c r="E191" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16885,7 +16903,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J191">
         <v>1.363</v>
@@ -16953,16 +16971,16 @@
         <v>6992709</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D192" s="2">
         <v>45401.375</v>
       </c>
       <c r="E192" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16971,7 +16989,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J192">
         <v>1.363</v>
@@ -17039,16 +17057,16 @@
         <v>6992714</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D193" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17057,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J193">
         <v>1.444</v>
@@ -17125,16 +17143,16 @@
         <v>6995900</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D194" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E194" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17143,7 +17161,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J194">
         <v>3.3</v>
@@ -17211,16 +17229,16 @@
         <v>6992713</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D195" s="2">
         <v>45402.375</v>
       </c>
       <c r="E195" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17229,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J195">
         <v>2.1</v>
@@ -17297,16 +17315,16 @@
         <v>6992710</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D196" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17315,7 +17333,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J196">
         <v>5.25</v>
@@ -17383,16 +17401,16 @@
         <v>6992712</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D197" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E197" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17401,7 +17419,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J197">
         <v>2</v>
@@ -17469,16 +17487,16 @@
         <v>6992711</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D198" s="2">
         <v>45403.33333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17487,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J198">
         <v>2.2</v>
@@ -17555,16 +17573,16 @@
         <v>6992715</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D199" s="2">
         <v>45403.375</v>
       </c>
       <c r="E199" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17573,7 +17591,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J199">
         <v>4.75</v>
@@ -17631,6 +17649,396 @@
       </c>
       <c r="AB199">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" t="s">
+        <v>33</v>
+      </c>
+      <c r="D200" s="2">
+        <v>45409.35416666666</v>
+      </c>
+      <c r="E200" t="s">
+        <v>49</v>
+      </c>
+      <c r="F200" t="s">
+        <v>34</v>
+      </c>
+      <c r="J200">
+        <v>1.65</v>
+      </c>
+      <c r="K200">
+        <v>4</v>
+      </c>
+      <c r="L200">
+        <v>4.333</v>
+      </c>
+      <c r="M200">
+        <v>1.65</v>
+      </c>
+      <c r="N200">
+        <v>4</v>
+      </c>
+      <c r="O200">
+        <v>4.333</v>
+      </c>
+      <c r="P200">
+        <v>-0.75</v>
+      </c>
+      <c r="Q200">
+        <v>1.85</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>2.75</v>
+      </c>
+      <c r="T200">
+        <v>1.9</v>
+      </c>
+      <c r="U200">
+        <v>1.9</v>
+      </c>
+      <c r="V200">
+        <v>0</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201" t="s">
+        <v>33</v>
+      </c>
+      <c r="D201" s="2">
+        <v>45409.41666666666</v>
+      </c>
+      <c r="E201" t="s">
+        <v>42</v>
+      </c>
+      <c r="F201" t="s">
+        <v>43</v>
+      </c>
+      <c r="J201">
+        <v>2.15</v>
+      </c>
+      <c r="K201">
+        <v>3.4</v>
+      </c>
+      <c r="L201">
+        <v>2.9</v>
+      </c>
+      <c r="M201">
+        <v>2.05</v>
+      </c>
+      <c r="N201">
+        <v>3.5</v>
+      </c>
+      <c r="O201">
+        <v>3</v>
+      </c>
+      <c r="P201">
+        <v>-0.25</v>
+      </c>
+      <c r="Q201">
+        <v>1.85</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>2.75</v>
+      </c>
+      <c r="T201">
+        <v>1.825</v>
+      </c>
+      <c r="U201">
+        <v>1.975</v>
+      </c>
+      <c r="V201">
+        <v>0</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" t="s">
+        <v>33</v>
+      </c>
+      <c r="D202" s="2">
+        <v>45410.3125</v>
+      </c>
+      <c r="E202" t="s">
+        <v>46</v>
+      </c>
+      <c r="F202" t="s">
+        <v>45</v>
+      </c>
+      <c r="J202">
+        <v>2.875</v>
+      </c>
+      <c r="K202">
+        <v>3.3</v>
+      </c>
+      <c r="L202">
+        <v>2.25</v>
+      </c>
+      <c r="M202">
+        <v>2.875</v>
+      </c>
+      <c r="N202">
+        <v>3.3</v>
+      </c>
+      <c r="O202">
+        <v>2.25</v>
+      </c>
+      <c r="P202">
+        <v>0.25</v>
+      </c>
+      <c r="Q202">
+        <v>1.775</v>
+      </c>
+      <c r="R202">
+        <v>2.025</v>
+      </c>
+      <c r="S202">
+        <v>2.5</v>
+      </c>
+      <c r="T202">
+        <v>1.9</v>
+      </c>
+      <c r="U202">
+        <v>1.9</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203" t="s">
+        <v>33</v>
+      </c>
+      <c r="D203" s="2">
+        <v>45410.33333333334</v>
+      </c>
+      <c r="E203" t="s">
+        <v>40</v>
+      </c>
+      <c r="F203" t="s">
+        <v>35</v>
+      </c>
+      <c r="J203">
+        <v>1.75</v>
+      </c>
+      <c r="K203">
+        <v>3.6</v>
+      </c>
+      <c r="L203">
+        <v>4</v>
+      </c>
+      <c r="M203">
+        <v>1.7</v>
+      </c>
+      <c r="N203">
+        <v>4</v>
+      </c>
+      <c r="O203">
+        <v>3.8</v>
+      </c>
+      <c r="P203">
+        <v>-0.75</v>
+      </c>
+      <c r="Q203">
+        <v>1.9</v>
+      </c>
+      <c r="R203">
+        <v>1.9</v>
+      </c>
+      <c r="S203">
+        <v>3.25</v>
+      </c>
+      <c r="T203">
+        <v>1.8</v>
+      </c>
+      <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
+        <v>0</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>31</v>
+      </c>
+      <c r="C204" t="s">
+        <v>33</v>
+      </c>
+      <c r="D204" s="2">
+        <v>45410.375</v>
+      </c>
+      <c r="E204" t="s">
+        <v>41</v>
+      </c>
+      <c r="F204" t="s">
+        <v>36</v>
+      </c>
+      <c r="J204">
+        <v>1.571</v>
+      </c>
+      <c r="K204">
+        <v>4</v>
+      </c>
+      <c r="L204">
+        <v>4.75</v>
+      </c>
+      <c r="M204">
+        <v>1.6</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="O204">
+        <v>4.5</v>
+      </c>
+      <c r="P204">
+        <v>-1</v>
+      </c>
+      <c r="Q204">
+        <v>2</v>
+      </c>
+      <c r="R204">
+        <v>1.8</v>
+      </c>
+      <c r="S204">
+        <v>3</v>
+      </c>
+      <c r="T204">
+        <v>2.025</v>
+      </c>
+      <c r="U204">
+        <v>1.775</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>32</v>
+      </c>
+      <c r="C205" t="s">
+        <v>33</v>
+      </c>
+      <c r="D205" s="2">
+        <v>45411.35416666666</v>
+      </c>
+      <c r="E205" t="s">
+        <v>44</v>
+      </c>
+      <c r="F205" t="s">
+        <v>38</v>
+      </c>
+      <c r="J205">
+        <v>1.4</v>
+      </c>
+      <c r="K205">
+        <v>4.333</v>
+      </c>
+      <c r="L205">
+        <v>6</v>
+      </c>
+      <c r="M205">
+        <v>1.4</v>
+      </c>
+      <c r="N205">
+        <v>4.333</v>
+      </c>
+      <c r="O205">
+        <v>6</v>
+      </c>
+      <c r="P205">
+        <v>-1.25</v>
+      </c>
+      <c r="Q205">
+        <v>1.875</v>
+      </c>
+      <c r="R205">
+        <v>1.925</v>
+      </c>
+      <c r="S205">
+        <v>2.75</v>
+      </c>
+      <c r="T205">
+        <v>1.8</v>
+      </c>
+      <c r="U205">
+        <v>2</v>
+      </c>
+      <c r="V205">
+        <v>0</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>6992716</t>
+  </si>
+  <si>
     <t>6992721</t>
+  </si>
+  <si>
+    <t>6992717</t>
   </si>
   <si>
     <t>6992719</t>
@@ -157,10 +163,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -534,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB205"/>
+  <dimension ref="A1:AB207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,16 +637,16 @@
         <v>6992541</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>45149.375</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -649,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>4.333</v>
@@ -717,16 +723,16 @@
         <v>6992317</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45149.39583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -735,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>3.6</v>
@@ -803,16 +809,16 @@
         <v>6992544</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>45150.33333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -889,16 +895,16 @@
         <v>6992543</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>45150.375</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -907,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -975,16 +981,16 @@
         <v>6992542</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>45151.3125</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1061,16 +1067,16 @@
         <v>6992545</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>45151.33333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1079,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1147,16 +1153,16 @@
         <v>6992546</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>45151.375</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1165,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -1233,16 +1239,16 @@
         <v>6992547</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>45152.375</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1251,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1319,16 +1325,16 @@
         <v>6992552</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>45156.375</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1337,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <v>1.75</v>
@@ -1405,16 +1411,16 @@
         <v>6992318</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1423,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J11">
         <v>1.533</v>
@@ -1491,16 +1497,16 @@
         <v>6992548</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1509,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1577,16 +1583,16 @@
         <v>6992549</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>45157.375</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1595,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1663,16 +1669,16 @@
         <v>6992551</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1681,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1746,58 +1752,58 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J15">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="L15">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="N15">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="P15">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q15">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T15">
         <v>1.975</v>
@@ -1806,25 +1812,25 @@
         <v>1.825</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W15">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1832,22 +1838,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1856,34 +1862,34 @@
         <v>52</v>
       </c>
       <c r="J16">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="M16">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="N16">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="O16">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q16">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T16">
         <v>1.975</v>
@@ -1892,25 +1898,25 @@
         <v>1.825</v>
       </c>
       <c r="V16">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1921,16 +1927,16 @@
         <v>6992553</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>45159.35416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1939,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2007,16 +2013,16 @@
         <v>6992558</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>45163.375</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2025,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>3.75</v>
@@ -2093,16 +2099,16 @@
         <v>6992561</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2111,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>5.5</v>
@@ -2179,16 +2185,16 @@
         <v>6992555</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>45164.375</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2197,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>4.75</v>
@@ -2265,16 +2271,16 @@
         <v>6992319</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2283,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <v>2.3</v>
@@ -2351,16 +2357,16 @@
         <v>6992557</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>45165.33333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2369,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2437,16 +2443,16 @@
         <v>6992560</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>45165.375</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2455,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2523,16 +2529,16 @@
         <v>6992559</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>45166.35416666666</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2541,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2609,16 +2615,16 @@
         <v>6992556</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>45166.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2627,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>2.2</v>
@@ -2695,16 +2701,16 @@
         <v>6992568</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>45184.375</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2713,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2781,16 +2787,16 @@
         <v>6992567</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2799,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2867,16 +2873,16 @@
         <v>6992565</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>45185.33333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -2885,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2953,16 +2959,16 @@
         <v>6992320</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>45185.375</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -2971,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3039,16 +3045,16 @@
         <v>6992564</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3057,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J30">
         <v>1.727</v>
@@ -3125,16 +3131,16 @@
         <v>6992566</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>45186.33333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J31">
         <v>1.615</v>
@@ -3211,16 +3217,16 @@
         <v>6992563</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>45186.375</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3229,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3297,16 +3303,16 @@
         <v>6992562</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
         <v>45187.35416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3315,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J33">
         <v>2.375</v>
@@ -3383,16 +3389,16 @@
         <v>6992571</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>45191.375</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3401,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3469,16 +3475,16 @@
         <v>6992573</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3487,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3555,16 +3561,16 @@
         <v>6992569</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3573,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J36">
         <v>2.75</v>
@@ -3641,16 +3647,16 @@
         <v>6992570</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>45193.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3659,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J37">
         <v>3.1</v>
@@ -3727,16 +3733,16 @@
         <v>6992572</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>45193.375</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3745,7 +3751,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J38">
         <v>2.625</v>
@@ -3813,16 +3819,16 @@
         <v>6992321</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2">
         <v>45194.35416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3831,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J39">
         <v>5.75</v>
@@ -3899,16 +3905,16 @@
         <v>6992574</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
         <v>45194.41666666666</v>
       </c>
       <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
         <v>44</v>
-      </c>
-      <c r="F40" t="s">
-        <v>42</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3917,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3985,16 +3991,16 @@
         <v>6992579</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>45198.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4003,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J41">
         <v>1.533</v>
@@ -4071,16 +4077,16 @@
         <v>6992576</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -4089,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J42">
         <v>1.533</v>
@@ -4157,16 +4163,16 @@
         <v>6992582</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>45199.375</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4175,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4243,16 +4249,16 @@
         <v>6992581</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4261,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4329,16 +4335,16 @@
         <v>6995903</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
         <v>45200.3125</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4347,7 +4353,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J45">
         <v>2.45</v>
@@ -4415,16 +4421,16 @@
         <v>6992577</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>45200.375</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4433,7 +4439,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J46">
         <v>1.533</v>
@@ -4501,16 +4507,16 @@
         <v>6992580</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2">
         <v>45201.35416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4519,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4587,16 +4593,16 @@
         <v>6992587</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>45205.375</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4605,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4673,16 +4679,16 @@
         <v>6992583</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>45205.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4691,7 +4697,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>4.5</v>
@@ -4759,16 +4765,16 @@
         <v>6992586</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4777,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J50">
         <v>2.6</v>
@@ -4845,16 +4851,16 @@
         <v>6992322</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>45206.375</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4863,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J51">
         <v>2.2</v>
@@ -4931,16 +4937,16 @@
         <v>6992588</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4949,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J52">
         <v>2.2</v>
@@ -5017,16 +5023,16 @@
         <v>6992585</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5035,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5103,16 +5109,16 @@
         <v>6992584</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5121,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J54">
         <v>1.4</v>
@@ -5189,16 +5195,16 @@
         <v>6992589</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2">
         <v>45207.375</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5207,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5275,16 +5281,16 @@
         <v>6992591</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2">
         <v>45219.33333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5293,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J56">
         <v>4.75</v>
@@ -5361,16 +5367,16 @@
         <v>6992596</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2">
         <v>45219.375</v>
       </c>
       <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
         <v>42</v>
-      </c>
-      <c r="F57" t="s">
-        <v>40</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5379,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J57">
         <v>1.571</v>
@@ -5447,16 +5453,16 @@
         <v>6992593</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -5465,7 +5471,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5533,16 +5539,16 @@
         <v>6992592</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2">
         <v>45220.375</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5551,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <v>1.615</v>
@@ -5619,16 +5625,16 @@
         <v>6992595</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5637,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5705,16 +5711,16 @@
         <v>6992594</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>45221.375</v>
       </c>
       <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" t="s">
         <v>43</v>
-      </c>
-      <c r="F61" t="s">
-        <v>41</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5723,7 +5729,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <v>1.285</v>
@@ -5791,16 +5797,16 @@
         <v>6992324</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
         <v>45226.375</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5809,7 +5815,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -5877,16 +5883,16 @@
         <v>6992603</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2">
         <v>45226.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5895,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J63">
         <v>5.5</v>
@@ -5963,16 +5969,16 @@
         <v>6992602</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5981,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6049,16 +6055,16 @@
         <v>6992599</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2">
         <v>45227.375</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6067,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6135,16 +6141,16 @@
         <v>6992597</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6153,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J66">
         <v>3.75</v>
@@ -6221,16 +6227,16 @@
         <v>6992600</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <v>45228.3125</v>
       </c>
       <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s">
         <v>40</v>
-      </c>
-      <c r="F67" t="s">
-        <v>38</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6239,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J67">
         <v>1.95</v>
@@ -6307,16 +6313,16 @@
         <v>6992601</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6325,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J68">
         <v>1.666</v>
@@ -6393,16 +6399,16 @@
         <v>6992598</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2">
         <v>45228.375</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6411,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J69">
         <v>1.5</v>
@@ -6479,16 +6485,16 @@
         <v>6992606</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6497,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J70">
         <v>2.55</v>
@@ -6565,16 +6571,16 @@
         <v>6992604</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2">
         <v>45234.375</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6583,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J71">
         <v>2.4</v>
@@ -6651,16 +6657,16 @@
         <v>6992610</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6669,7 +6675,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J72">
         <v>1.727</v>
@@ -6737,16 +6743,16 @@
         <v>6992605</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2">
         <v>45235.375</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6755,7 +6761,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>1.666</v>
@@ -6823,16 +6829,16 @@
         <v>6992707</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>45236.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6841,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J74">
         <v>3.1</v>
@@ -6909,16 +6915,16 @@
         <v>6992325</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2">
         <v>45236.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6927,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>1.833</v>
@@ -6995,16 +7001,16 @@
         <v>7295626</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2">
         <v>45240.33333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7013,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J76">
         <v>2.875</v>
@@ -7081,16 +7087,16 @@
         <v>6992611</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>45254.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7099,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7167,16 +7173,16 @@
         <v>6992617</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
         <v>45254.375</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7185,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J78">
         <v>1.25</v>
@@ -7253,16 +7259,16 @@
         <v>6992615</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>45255.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7271,7 +7277,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -7339,16 +7345,16 @@
         <v>6992614</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2">
         <v>45255.375</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7357,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>2.25</v>
@@ -7425,16 +7431,16 @@
         <v>6992613</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
         <v>41</v>
-      </c>
-      <c r="F81" t="s">
-        <v>39</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7443,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7511,16 +7517,16 @@
         <v>6995902</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2">
         <v>45256.3125</v>
       </c>
       <c r="E82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" t="s">
         <v>37</v>
-      </c>
-      <c r="F82" t="s">
-        <v>35</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7529,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J82">
         <v>1.909</v>
@@ -7597,16 +7603,16 @@
         <v>6992612</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2">
         <v>45256.375</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7615,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J83">
         <v>4.2</v>
@@ -7683,16 +7689,16 @@
         <v>6992616</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2">
         <v>45257.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7701,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -7766,22 +7772,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2">
         <v>45261.375</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -7790,61 +7796,61 @@
         <v>52</v>
       </c>
       <c r="J85">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="K85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N85">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O85">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q85">
+        <v>1.875</v>
+      </c>
+      <c r="R85">
         <v>1.925</v>
       </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
       <c r="S85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7852,85 +7858,85 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2">
         <v>45261.375</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J86">
+        <v>1.7</v>
+      </c>
+      <c r="K86">
+        <v>3.75</v>
+      </c>
+      <c r="L86">
+        <v>4.2</v>
+      </c>
+      <c r="M86">
+        <v>1.7</v>
+      </c>
+      <c r="N86">
+        <v>3.75</v>
+      </c>
+      <c r="O86">
+        <v>4.333</v>
+      </c>
+      <c r="P86">
+        <v>-0.75</v>
+      </c>
+      <c r="Q86">
+        <v>1.925</v>
+      </c>
+      <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
+        <v>2.5</v>
+      </c>
+      <c r="T86">
+        <v>1.85</v>
+      </c>
+      <c r="U86">
         <v>1.95</v>
       </c>
-      <c r="K86">
-        <v>3.5</v>
-      </c>
-      <c r="L86">
-        <v>3.4</v>
-      </c>
-      <c r="M86">
-        <v>2.1</v>
-      </c>
-      <c r="N86">
-        <v>3.4</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>-0.25</v>
-      </c>
-      <c r="Q86">
-        <v>1.875</v>
-      </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
-      <c r="S86">
-        <v>2.75</v>
-      </c>
-      <c r="T86">
-        <v>1.8</v>
-      </c>
-      <c r="U86">
-        <v>2</v>
-      </c>
       <c r="V86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7941,16 +7947,16 @@
         <v>6992622</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2">
         <v>45262.33333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7959,7 +7965,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>1.75</v>
@@ -8027,16 +8033,16 @@
         <v>6992326</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2">
         <v>45262.375</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8045,7 +8051,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J88">
         <v>1.666</v>
@@ -8113,16 +8119,16 @@
         <v>6992624</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8131,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -8199,16 +8205,16 @@
         <v>6992618</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2">
         <v>45263.3125</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8217,7 +8223,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8285,16 +8291,16 @@
         <v>6992621</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8303,7 +8309,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8371,16 +8377,16 @@
         <v>6992619</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2">
         <v>45263.375</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8389,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8457,16 +8463,16 @@
         <v>6992625</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8475,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J93">
         <v>1.25</v>
@@ -8543,16 +8549,16 @@
         <v>6992630</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2">
         <v>45269.375</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8561,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>1.25</v>
@@ -8629,16 +8635,16 @@
         <v>6992628</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8647,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J95">
         <v>1.85</v>
@@ -8715,16 +8721,16 @@
         <v>6992627</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2">
         <v>45270.3125</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8733,7 +8739,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8801,16 +8807,16 @@
         <v>6992629</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8819,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J97">
         <v>3.25</v>
@@ -8887,16 +8893,16 @@
         <v>6992631</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2">
         <v>45270.375</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8905,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8973,16 +8979,16 @@
         <v>6992327</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8991,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9059,16 +9065,16 @@
         <v>6992626</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2">
         <v>45272.35416666666</v>
       </c>
       <c r="E100" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9077,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <v>2.5</v>
@@ -9145,16 +9151,16 @@
         <v>6992637</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2">
         <v>45275.375</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9163,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J101">
         <v>2.375</v>
@@ -9231,16 +9237,16 @@
         <v>6992633</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2">
         <v>45276.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9249,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J102">
         <v>4.75</v>
@@ -9317,16 +9323,16 @@
         <v>6992634</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9335,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J103">
         <v>2.25</v>
@@ -9403,16 +9409,16 @@
         <v>6992636</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2">
         <v>45276.375</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9421,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9489,16 +9495,16 @@
         <v>6992632</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D105" s="2">
         <v>45276.41666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9507,7 +9513,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>2.4</v>
@@ -9575,16 +9581,16 @@
         <v>6992328</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2">
         <v>45277.3125</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9593,7 +9599,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>2.15</v>
@@ -9661,16 +9667,16 @@
         <v>6992638</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2">
         <v>45277.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9679,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J107">
         <v>2.7</v>
@@ -9747,16 +9753,16 @@
         <v>6992635</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2">
         <v>45277.375</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9765,7 +9771,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>6</v>
@@ -9833,16 +9839,16 @@
         <v>6992642</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D109" s="2">
         <v>45283.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9851,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J109">
         <v>2.15</v>
@@ -9919,16 +9925,16 @@
         <v>6992641</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D110" s="2">
         <v>45283.375</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9937,7 +9943,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>1.75</v>
@@ -10005,16 +10011,16 @@
         <v>6992645</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2">
         <v>45283.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -10023,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J111">
         <v>1.3</v>
@@ -10091,16 +10097,16 @@
         <v>6992639</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2">
         <v>45284.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G112">
         <v>5</v>
@@ -10109,7 +10115,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J112">
         <v>1.75</v>
@@ -10177,16 +10183,16 @@
         <v>6992644</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2">
         <v>45284.33333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10195,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J113">
         <v>2.05</v>
@@ -10263,16 +10269,16 @@
         <v>6992329</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D114" s="2">
         <v>45284.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10281,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10349,16 +10355,16 @@
         <v>6992640</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D115" s="2">
         <v>45284.375</v>
       </c>
       <c r="E115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10367,7 +10373,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10435,16 +10441,16 @@
         <v>7485126</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D116" s="2">
         <v>45288.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10453,7 +10459,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>3.6</v>
@@ -10518,85 +10524,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2">
         <v>45288.375</v>
       </c>
       <c r="E117" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J117">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="K117">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L117">
+        <v>5.75</v>
+      </c>
+      <c r="M117">
+        <v>1.363</v>
+      </c>
+      <c r="N117">
+        <v>4.5</v>
+      </c>
+      <c r="O117">
+        <v>6.5</v>
+      </c>
+      <c r="P117">
+        <v>-1.25</v>
+      </c>
+      <c r="Q117">
         <v>1.85</v>
       </c>
-      <c r="M117">
-        <v>4.5</v>
-      </c>
-      <c r="N117">
-        <v>4</v>
-      </c>
-      <c r="O117">
-        <v>1.615</v>
-      </c>
-      <c r="P117">
-        <v>0.75</v>
-      </c>
-      <c r="Q117">
-        <v>1.975</v>
-      </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
         <v>3</v>
       </c>
       <c r="T117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10604,85 +10610,85 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D118" s="2">
         <v>45288.375</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F118" t="s">
         <v>46</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J118">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="K118">
+        <v>3.5</v>
+      </c>
+      <c r="L118">
+        <v>1.85</v>
+      </c>
+      <c r="M118">
+        <v>4.5</v>
+      </c>
+      <c r="N118">
         <v>4</v>
       </c>
-      <c r="L118">
-        <v>5.75</v>
-      </c>
-      <c r="M118">
-        <v>1.363</v>
-      </c>
-      <c r="N118">
-        <v>4.5</v>
-      </c>
       <c r="O118">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="P118">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
         <v>3</v>
       </c>
       <c r="T118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
         <v>0.95</v>
-      </c>
-      <c r="AA118">
-        <v>0.825</v>
-      </c>
-      <c r="AB118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10693,16 +10699,16 @@
         <v>7485128</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>45297.375</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10711,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10779,16 +10785,16 @@
         <v>6992652</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2">
         <v>45331.375</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10797,7 +10803,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J120">
         <v>3.1</v>
@@ -10865,16 +10871,16 @@
         <v>6992650</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10883,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10951,16 +10957,16 @@
         <v>6992646</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>45332.375</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10969,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J122">
         <v>3.6</v>
@@ -11037,16 +11043,16 @@
         <v>6992647</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11055,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>2.2</v>
@@ -11123,16 +11129,16 @@
         <v>6992330</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>45333.3125</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11141,7 +11147,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J124">
         <v>3.1</v>
@@ -11209,16 +11215,16 @@
         <v>6992651</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11227,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11295,16 +11301,16 @@
         <v>6992649</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D126" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11313,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11381,16 +11387,16 @@
         <v>6992648</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D127" s="2">
         <v>45333.375</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11399,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11467,16 +11473,16 @@
         <v>6992653</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D128" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11485,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11553,16 +11559,16 @@
         <v>6992656</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2">
         <v>45335.375</v>
       </c>
       <c r="E129" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11571,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J129">
         <v>1.7</v>
@@ -11639,16 +11645,16 @@
         <v>6992659</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
         <v>45336.33333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11657,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J130">
         <v>1.285</v>
@@ -11725,16 +11731,16 @@
         <v>6992331</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
         <v>45336.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G131">
         <v>4</v>
@@ -11743,7 +11749,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -11811,16 +11817,16 @@
         <v>6992657</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
         <v>45336.375</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11829,7 +11835,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J132">
         <v>1.444</v>
@@ -11897,16 +11903,16 @@
         <v>6992655</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
         <v>45337.33333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11915,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J133">
         <v>1.833</v>
@@ -11983,16 +11989,16 @@
         <v>6992654</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>45337.375</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12001,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J134">
         <v>1.333</v>
@@ -12069,16 +12075,16 @@
         <v>6992662</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>45339.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12087,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J135">
         <v>5.5</v>
@@ -12155,16 +12161,16 @@
         <v>6992332</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12173,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J136">
         <v>2.6</v>
@@ -12241,16 +12247,16 @@
         <v>6992666</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
         <v>45339.375</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12259,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J137">
         <v>4</v>
@@ -12327,16 +12333,16 @@
         <v>6992665</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12345,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12413,16 +12419,16 @@
         <v>6992660</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>45340.3125</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12431,7 +12437,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J139">
         <v>4.75</v>
@@ -12499,16 +12505,16 @@
         <v>6992663</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>45340.33333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12517,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>2.75</v>
@@ -12585,16 +12591,16 @@
         <v>6992664</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2">
         <v>45340.375</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12603,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J141">
         <v>2</v>
@@ -12671,16 +12677,16 @@
         <v>6992661</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2">
         <v>45341.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12689,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J142">
         <v>2.1</v>
@@ -12757,16 +12763,16 @@
         <v>6992671</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2">
         <v>45345.375</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12775,7 +12781,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J143">
         <v>3.2</v>
@@ -12843,16 +12849,16 @@
         <v>6992333</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>6</v>
@@ -12861,7 +12867,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J144">
         <v>1.166</v>
@@ -12929,16 +12935,16 @@
         <v>6992672</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D145" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E145" t="s">
+        <v>40</v>
+      </c>
+      <c r="F145" t="s">
         <v>38</v>
-      </c>
-      <c r="F145" t="s">
-        <v>36</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12947,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -13015,16 +13021,16 @@
         <v>6992668</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2">
         <v>45346.375</v>
       </c>
       <c r="E146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13033,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>1.2</v>
@@ -13101,16 +13107,16 @@
         <v>6992667</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D147" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13119,7 +13125,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13187,16 +13193,16 @@
         <v>6992669</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D148" s="2">
         <v>45347.3125</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13205,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>1.75</v>
@@ -13273,16 +13279,16 @@
         <v>6992673</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D149" s="2">
         <v>45347.33333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13291,7 +13297,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13359,16 +13365,16 @@
         <v>6992670</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D150" s="2">
         <v>45347.375</v>
       </c>
       <c r="E150" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F150" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13377,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J150">
         <v>1.95</v>
@@ -13445,16 +13451,16 @@
         <v>6992676</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D151" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13463,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J151">
         <v>4.5</v>
@@ -13531,16 +13537,16 @@
         <v>6992674</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D152" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E152" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13549,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J152">
         <v>2.15</v>
@@ -13617,16 +13623,16 @@
         <v>6992680</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D153" s="2">
         <v>45353.375</v>
       </c>
       <c r="E153" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13635,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13703,16 +13709,16 @@
         <v>6995901</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D154" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13721,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J154">
         <v>2.15</v>
@@ -13789,16 +13795,16 @@
         <v>6992678</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D155" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E155" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13807,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J155">
         <v>1.95</v>
@@ -13875,16 +13881,16 @@
         <v>6992675</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13893,7 +13899,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J156">
         <v>1.833</v>
@@ -13961,16 +13967,16 @@
         <v>6992679</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D157" s="2">
         <v>45354.375</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13979,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J157">
         <v>1.95</v>
@@ -14047,16 +14053,16 @@
         <v>6992677</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2">
         <v>45355.35416666666</v>
       </c>
       <c r="E158" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14065,7 +14071,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J158">
         <v>2.875</v>
@@ -14133,16 +14139,16 @@
         <v>6992334</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D159" s="2">
         <v>45359.375</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14151,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J159">
         <v>1.533</v>
@@ -14219,16 +14225,16 @@
         <v>6992683</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D160" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E160" t="s">
+        <v>48</v>
+      </c>
+      <c r="F160" t="s">
         <v>46</v>
-      </c>
-      <c r="F160" t="s">
-        <v>44</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14237,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J160">
         <v>5.5</v>
@@ -14305,16 +14311,16 @@
         <v>6992682</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D161" s="2">
         <v>45360.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G161">
         <v>7</v>
@@ -14323,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J161">
         <v>1.3</v>
@@ -14391,16 +14397,16 @@
         <v>6992686</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
         <v>45360.375</v>
       </c>
       <c r="E162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14409,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14477,16 +14483,16 @@
         <v>6992684</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D163" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14495,7 +14501,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J163">
         <v>1.4</v>
@@ -14563,16 +14569,16 @@
         <v>6992685</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D164" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14581,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J164">
         <v>2.05</v>
@@ -14649,16 +14655,16 @@
         <v>6992681</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D165" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E165" t="s">
+        <v>51</v>
+      </c>
+      <c r="F165" t="s">
         <v>49</v>
-      </c>
-      <c r="F165" t="s">
-        <v>48</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14667,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14735,16 +14741,16 @@
         <v>6992687</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D166" s="2">
         <v>45361.375</v>
       </c>
       <c r="E166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -14753,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14821,16 +14827,16 @@
         <v>6992690</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2">
         <v>45381.33333333334</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14839,7 +14845,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J167">
         <v>2.3</v>
@@ -14907,16 +14913,16 @@
         <v>6992689</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D168" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14925,7 +14931,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J168">
         <v>3.25</v>
@@ -14993,16 +14999,16 @@
         <v>6992691</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D169" s="2">
         <v>45381.375</v>
       </c>
       <c r="E169" t="s">
+        <v>50</v>
+      </c>
+      <c r="F169" t="s">
         <v>47</v>
-      </c>
-      <c r="F169" t="s">
-        <v>45</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15011,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J169">
         <v>2.75</v>
@@ -15079,16 +15085,16 @@
         <v>6992694</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D170" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15097,7 +15103,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J170">
         <v>4</v>
@@ -15165,16 +15171,16 @@
         <v>6992693</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D171" s="2">
         <v>45382.3125</v>
       </c>
       <c r="E171" t="s">
+        <v>49</v>
+      </c>
+      <c r="F171" t="s">
         <v>48</v>
-      </c>
-      <c r="F171" t="s">
-        <v>46</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15183,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>1.4</v>
@@ -15251,16 +15257,16 @@
         <v>6992335</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D172" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -15269,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J172">
         <v>1.444</v>
@@ -15337,16 +15343,16 @@
         <v>6992692</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D173" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E173" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F173" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G173">
         <v>6</v>
@@ -15355,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J173">
         <v>1.444</v>
@@ -15423,16 +15429,16 @@
         <v>6992688</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D174" s="2">
         <v>45382.375</v>
       </c>
       <c r="E174" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" t="s">
         <v>36</v>
-      </c>
-      <c r="F174" t="s">
-        <v>34</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15441,7 +15447,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J174">
         <v>2.7</v>
@@ -15509,16 +15515,16 @@
         <v>6992698</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D175" s="2">
         <v>45384.33333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15527,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15595,16 +15601,16 @@
         <v>6992700</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D176" s="2">
         <v>45384.375</v>
       </c>
       <c r="E176" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F176" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15613,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>1.222</v>
@@ -15681,16 +15687,16 @@
         <v>6992696</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D177" s="2">
         <v>45385.33333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15699,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J177">
         <v>1.833</v>
@@ -15767,16 +15773,16 @@
         <v>6992336</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D178" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15785,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J178">
         <v>1.8</v>
@@ -15850,85 +15856,85 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6992695</v>
+        <v>8026714</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D179" s="2">
         <v>45385.375</v>
       </c>
       <c r="E179" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G179">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="s">
         <v>52</v>
       </c>
       <c r="J179">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="K179">
+        <v>3.6</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>3.1</v>
+      </c>
+      <c r="N179">
         <v>3.75</v>
       </c>
-      <c r="L179">
-        <v>2.7</v>
-      </c>
-      <c r="M179">
+      <c r="O179">
         <v>1.95</v>
       </c>
-      <c r="N179">
-        <v>3.8</v>
-      </c>
-      <c r="O179">
-        <v>2.9</v>
-      </c>
       <c r="P179">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q179">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
+        <v>-1</v>
+      </c>
+      <c r="W179">
+        <v>2.75</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>0.825</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
         <v>0.95</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>0.8</v>
-      </c>
-      <c r="Z179">
-        <v>-1</v>
-      </c>
-      <c r="AA179">
-        <v>0.825</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15936,85 +15942,85 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>8026714</v>
+        <v>6992695</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2">
         <v>45385.375</v>
       </c>
       <c r="E180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J180">
+        <v>2.1</v>
+      </c>
+      <c r="K180">
+        <v>3.75</v>
+      </c>
+      <c r="L180">
+        <v>2.7</v>
+      </c>
+      <c r="M180">
+        <v>1.95</v>
+      </c>
+      <c r="N180">
+        <v>3.8</v>
+      </c>
+      <c r="O180">
+        <v>2.9</v>
+      </c>
+      <c r="P180">
+        <v>-0.25</v>
+      </c>
+      <c r="Q180">
+        <v>1.8</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
         <v>3</v>
       </c>
-      <c r="K180">
-        <v>3.6</v>
-      </c>
-      <c r="L180">
-        <v>2</v>
-      </c>
-      <c r="M180">
-        <v>3.1</v>
-      </c>
-      <c r="N180">
-        <v>3.75</v>
-      </c>
-      <c r="O180">
-        <v>1.95</v>
-      </c>
-      <c r="P180">
-        <v>0.5</v>
-      </c>
-      <c r="Q180">
+      <c r="T180">
         <v>1.825</v>
       </c>
-      <c r="R180">
+      <c r="U180">
         <v>1.975</v>
       </c>
-      <c r="S180">
-        <v>2.75</v>
-      </c>
-      <c r="T180">
-        <v>1.85</v>
-      </c>
-      <c r="U180">
-        <v>1.95</v>
-      </c>
       <c r="V180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W180">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
+        <v>0.8</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
         <v>0.825</v>
       </c>
-      <c r="Z180">
-        <v>-1</v>
-      </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16025,16 +16031,16 @@
         <v>6992701</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D181" s="2">
         <v>45386.33333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16043,7 +16049,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J181">
         <v>3.3</v>
@@ -16111,16 +16117,16 @@
         <v>6992699</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D182" s="2">
         <v>45386.375</v>
       </c>
       <c r="E182" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16129,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J182">
         <v>2.7</v>
@@ -16197,16 +16203,16 @@
         <v>6992703</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D183" s="2">
         <v>45388.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16215,7 +16221,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J183">
         <v>2.8</v>
@@ -16283,16 +16289,16 @@
         <v>6992608</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D184" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16301,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J184">
         <v>1.4</v>
@@ -16369,16 +16375,16 @@
         <v>6992706</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D185" s="2">
         <v>45388.375</v>
       </c>
       <c r="E185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16387,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J185">
         <v>1.222</v>
@@ -16455,16 +16461,16 @@
         <v>6992705</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D186" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16473,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J186">
         <v>1.909</v>
@@ -16541,16 +16547,16 @@
         <v>6992337</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D187" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16559,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J187">
         <v>1.444</v>
@@ -16627,16 +16633,16 @@
         <v>6992704</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D188" s="2">
         <v>45389.33333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16645,7 +16651,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J188">
         <v>1.85</v>
@@ -16713,16 +16719,16 @@
         <v>6992702</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D189" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16731,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J189">
         <v>2</v>
@@ -16799,16 +16805,16 @@
         <v>6992708</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D190" s="2">
         <v>45389.375</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -16817,7 +16823,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J190">
         <v>1.85</v>
@@ -16885,16 +16891,16 @@
         <v>8075058</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D191" s="2">
         <v>45400.375</v>
       </c>
       <c r="E191" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16903,7 +16909,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J191">
         <v>1.363</v>
@@ -16971,16 +16977,16 @@
         <v>6992709</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D192" s="2">
         <v>45401.375</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16989,7 +16995,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J192">
         <v>1.363</v>
@@ -17057,16 +17063,16 @@
         <v>6992714</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F193" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17075,7 +17081,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J193">
         <v>1.444</v>
@@ -17143,16 +17149,16 @@
         <v>6995900</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D194" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E194" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17161,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J194">
         <v>3.3</v>
@@ -17229,16 +17235,16 @@
         <v>6992713</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2">
         <v>45402.375</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17247,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J195">
         <v>2.1</v>
@@ -17315,16 +17321,16 @@
         <v>6992710</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17333,7 +17339,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J196">
         <v>5.25</v>
@@ -17401,16 +17407,16 @@
         <v>6992712</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E197" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17419,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J197">
         <v>2</v>
@@ -17487,16 +17493,16 @@
         <v>6992711</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2">
         <v>45403.33333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17505,7 +17511,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J198">
         <v>2.2</v>
@@ -17573,16 +17579,16 @@
         <v>6992715</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2">
         <v>45403.375</v>
       </c>
       <c r="E199" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F199" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17591,7 +17597,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J199">
         <v>4.75</v>
@@ -17659,46 +17665,46 @@
         <v>27</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2">
-        <v>45409.35416666666</v>
+        <v>45409.33333333334</v>
       </c>
       <c r="E200" t="s">
         <v>49</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J200">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="K200">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L200">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="M200">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="N200">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="O200">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P200">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q200">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T200">
         <v>1.9</v>
@@ -17724,52 +17730,52 @@
         <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D201" s="2">
-        <v>45409.41666666666</v>
+        <v>45409.35416666666</v>
       </c>
       <c r="E201" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J201">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="K201">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L201">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="M201">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="N201">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O201">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P201">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q201">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S201">
         <v>2.75</v>
       </c>
       <c r="T201">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
         <v>0</v>
@@ -17789,52 +17795,52 @@
         <v>29</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D202" s="2">
-        <v>45410.3125</v>
+        <v>45409.375</v>
       </c>
       <c r="E202" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F202" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J202">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="K202">
         <v>3.3</v>
       </c>
       <c r="L202">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="M202">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="N202">
         <v>3.3</v>
       </c>
       <c r="O202">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="P202">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q202">
+        <v>2.025</v>
+      </c>
+      <c r="R202">
         <v>1.775</v>
       </c>
-      <c r="R202">
-        <v>2.025</v>
-      </c>
       <c r="S202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T202">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
         <v>0</v>
@@ -17854,52 +17860,52 @@
         <v>30</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D203" s="2">
-        <v>45410.33333333334</v>
+        <v>45409.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J203">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="K203">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M203">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N203">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O203">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="P203">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q203">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S203">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T203">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
         <v>0</v>
@@ -17919,37 +17925,37 @@
         <v>31</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D204" s="2">
-        <v>45410.375</v>
+        <v>45410.3125</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J204">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="K204">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L204">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="M204">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="N204">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O204">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="P204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q204">
         <v>2</v>
@@ -17958,13 +17964,13 @@
         <v>1.8</v>
       </c>
       <c r="S204">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T204">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U204">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
         <v>0</v>
@@ -17984,52 +17990,52 @@
         <v>32</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D205" s="2">
-        <v>45411.35416666666</v>
+        <v>45410.33333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J205">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="K205">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L205">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="N205">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O205">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P205">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q205">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R205">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S205">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T205">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
         <v>0</v>
@@ -18038,6 +18044,136 @@
         <v>0</v>
       </c>
       <c r="X205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" s="2">
+        <v>45410.375</v>
+      </c>
+      <c r="E206" t="s">
+        <v>43</v>
+      </c>
+      <c r="F206" t="s">
+        <v>38</v>
+      </c>
+      <c r="J206">
+        <v>1.571</v>
+      </c>
+      <c r="K206">
+        <v>4</v>
+      </c>
+      <c r="L206">
+        <v>4.75</v>
+      </c>
+      <c r="M206">
+        <v>1.6</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206">
+        <v>4.5</v>
+      </c>
+      <c r="P206">
+        <v>-1</v>
+      </c>
+      <c r="Q206">
+        <v>2</v>
+      </c>
+      <c r="R206">
+        <v>1.8</v>
+      </c>
+      <c r="S206">
+        <v>3</v>
+      </c>
+      <c r="T206">
+        <v>2.025</v>
+      </c>
+      <c r="U206">
+        <v>1.775</v>
+      </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>34</v>
+      </c>
+      <c r="C207" t="s">
+        <v>35</v>
+      </c>
+      <c r="D207" s="2">
+        <v>45411.35416666666</v>
+      </c>
+      <c r="E207" t="s">
+        <v>46</v>
+      </c>
+      <c r="F207" t="s">
+        <v>40</v>
+      </c>
+      <c r="J207">
+        <v>1.4</v>
+      </c>
+      <c r="K207">
+        <v>4.333</v>
+      </c>
+      <c r="L207">
+        <v>6</v>
+      </c>
+      <c r="M207">
+        <v>1.4</v>
+      </c>
+      <c r="N207">
+        <v>4.333</v>
+      </c>
+      <c r="O207">
+        <v>6</v>
+      </c>
+      <c r="P207">
+        <v>-1.25</v>
+      </c>
+      <c r="Q207">
+        <v>1.875</v>
+      </c>
+      <c r="R207">
+        <v>1.925</v>
+      </c>
+      <c r="S207">
+        <v>2.75</v>
+      </c>
+      <c r="T207">
+        <v>1.8</v>
+      </c>
+      <c r="U207">
+        <v>2</v>
+      </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6992716</t>
   </si>
   <si>
     <t>6992721</t>
@@ -540,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB207"/>
+  <dimension ref="A1:AB206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +634,16 @@
         <v>6992541</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45149.375</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -655,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2">
         <v>4.333</v>
@@ -723,16 +720,16 @@
         <v>6992317</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45149.39583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -741,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3">
         <v>3.6</v>
@@ -809,16 +806,16 @@
         <v>6992544</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45150.33333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -827,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -895,16 +892,16 @@
         <v>6992543</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45150.375</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -913,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -981,16 +978,16 @@
         <v>6992542</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45151.3125</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -999,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1067,16 +1064,16 @@
         <v>6992545</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45151.33333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1085,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1153,25 +1150,25 @@
         <v>6992546</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45151.375</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
         <v>51</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -1239,16 +1236,16 @@
         <v>6992547</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45152.375</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1257,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1325,16 +1322,16 @@
         <v>6992552</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45156.375</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1343,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10">
         <v>1.75</v>
@@ -1411,16 +1408,16 @@
         <v>6992318</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1429,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>1.533</v>
@@ -1497,16 +1494,16 @@
         <v>6992548</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1515,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1583,16 +1580,16 @@
         <v>6992549</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45157.375</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1601,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1669,16 +1666,16 @@
         <v>6992551</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1687,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1755,16 +1752,16 @@
         <v>6992550</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1773,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>1.166</v>
@@ -1841,16 +1838,16 @@
         <v>6992554</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1859,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16">
         <v>1.8</v>
@@ -1927,16 +1924,16 @@
         <v>6992553</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45159.35416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1945,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2013,16 +2010,16 @@
         <v>6992558</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45163.375</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2031,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18">
         <v>3.75</v>
@@ -2099,16 +2096,16 @@
         <v>6992561</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2117,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19">
         <v>5.5</v>
@@ -2185,16 +2182,16 @@
         <v>6992555</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45164.375</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2203,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20">
         <v>4.75</v>
@@ -2271,16 +2268,16 @@
         <v>6992319</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2289,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21">
         <v>2.3</v>
@@ -2357,16 +2354,16 @@
         <v>6992557</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45165.33333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2375,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2443,16 +2440,16 @@
         <v>6992560</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45165.375</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2461,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2529,16 +2526,16 @@
         <v>6992559</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45166.35416666666</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2547,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2615,16 +2612,16 @@
         <v>6992556</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45166.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2633,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25">
         <v>2.2</v>
@@ -2701,16 +2698,16 @@
         <v>6992568</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45184.375</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2719,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2787,16 +2784,16 @@
         <v>6992567</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2805,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2873,16 +2870,16 @@
         <v>6992565</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45185.33333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -2891,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2959,16 +2956,16 @@
         <v>6992320</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45185.375</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -2977,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3045,16 +3042,16 @@
         <v>6992564</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3063,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J30">
         <v>1.727</v>
@@ -3131,16 +3128,16 @@
         <v>6992566</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45186.33333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3149,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31">
         <v>1.615</v>
@@ -3217,16 +3214,16 @@
         <v>6992563</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45186.375</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3235,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3303,16 +3300,16 @@
         <v>6992562</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45187.35416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3321,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33">
         <v>2.375</v>
@@ -3389,16 +3386,16 @@
         <v>6992571</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45191.375</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3407,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3475,16 +3472,16 @@
         <v>6992573</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3493,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3561,16 +3558,16 @@
         <v>6992569</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3579,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36">
         <v>2.75</v>
@@ -3647,16 +3644,16 @@
         <v>6992570</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45193.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3665,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37">
         <v>3.1</v>
@@ -3733,16 +3730,16 @@
         <v>6992572</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45193.375</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3751,7 +3748,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>2.625</v>
@@ -3819,16 +3816,16 @@
         <v>6992321</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45194.35416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3837,7 +3834,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>5.75</v>
@@ -3905,16 +3902,16 @@
         <v>6992574</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45194.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3923,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3991,16 +3988,16 @@
         <v>6992579</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45198.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4009,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J41">
         <v>1.533</v>
@@ -4077,16 +4074,16 @@
         <v>6992576</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -4095,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42">
         <v>1.533</v>
@@ -4163,16 +4160,16 @@
         <v>6992582</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45199.375</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4181,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4249,16 +4246,16 @@
         <v>6992581</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
         <v>40</v>
-      </c>
-      <c r="F44" t="s">
-        <v>41</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4267,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4335,16 +4332,16 @@
         <v>6995903</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45200.3125</v>
       </c>
       <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s">
         <v>36</v>
-      </c>
-      <c r="F45" t="s">
-        <v>37</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4353,7 +4350,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J45">
         <v>2.45</v>
@@ -4421,16 +4418,16 @@
         <v>6992577</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45200.375</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4439,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J46">
         <v>1.533</v>
@@ -4507,16 +4504,16 @@
         <v>6992580</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45201.35416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4525,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4593,16 +4590,16 @@
         <v>6992587</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45205.375</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4611,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4679,16 +4676,16 @@
         <v>6992583</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45205.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4697,7 +4694,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J49">
         <v>4.5</v>
@@ -4765,16 +4762,16 @@
         <v>6992586</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4783,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <v>2.6</v>
@@ -4851,16 +4848,16 @@
         <v>6992322</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45206.375</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4869,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J51">
         <v>2.2</v>
@@ -4937,16 +4934,16 @@
         <v>6992588</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4955,7 +4952,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J52">
         <v>2.2</v>
@@ -5023,16 +5020,16 @@
         <v>6992585</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5041,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5109,25 +5106,25 @@
         <v>6992584</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
         <v>51</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>52</v>
       </c>
       <c r="J54">
         <v>1.4</v>
@@ -5195,16 +5192,16 @@
         <v>6992589</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45207.375</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5213,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5281,16 +5278,16 @@
         <v>6992591</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45219.33333333334</v>
       </c>
       <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s">
         <v>48</v>
-      </c>
-      <c r="F56" t="s">
-        <v>49</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5299,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J56">
         <v>4.75</v>
@@ -5367,16 +5364,16 @@
         <v>6992596</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45219.375</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5385,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J57">
         <v>1.571</v>
@@ -5453,16 +5450,16 @@
         <v>6992593</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -5471,7 +5468,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5539,16 +5536,16 @@
         <v>6992592</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45220.375</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5557,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J59">
         <v>1.615</v>
@@ -5625,16 +5622,16 @@
         <v>6992595</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5643,7 +5640,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5711,16 +5708,16 @@
         <v>6992594</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45221.375</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5729,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J61">
         <v>1.285</v>
@@ -5797,16 +5794,16 @@
         <v>6992324</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45226.375</v>
       </c>
       <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" t="s">
         <v>37</v>
-      </c>
-      <c r="F62" t="s">
-        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5815,7 +5812,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -5883,16 +5880,16 @@
         <v>6992603</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45226.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5901,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J63">
         <v>5.5</v>
@@ -5969,16 +5966,16 @@
         <v>6992602</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5987,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6055,16 +6052,16 @@
         <v>6992599</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45227.375</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6073,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6141,16 +6138,16 @@
         <v>6992597</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6159,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J66">
         <v>3.75</v>
@@ -6227,16 +6224,16 @@
         <v>6992600</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45228.3125</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6245,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>1.95</v>
@@ -6313,16 +6310,16 @@
         <v>6992601</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6331,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J68">
         <v>1.666</v>
@@ -6399,16 +6396,16 @@
         <v>6992598</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45228.375</v>
       </c>
       <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
         <v>46</v>
-      </c>
-      <c r="F69" t="s">
-        <v>47</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6417,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J69">
         <v>1.5</v>
@@ -6485,16 +6482,16 @@
         <v>6992606</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
         <v>45</v>
-      </c>
-      <c r="F70" t="s">
-        <v>46</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6503,7 +6500,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J70">
         <v>2.55</v>
@@ -6571,17 +6568,17 @@
         <v>6992604</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45234.375</v>
       </c>
       <c r="E71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s">
         <v>38</v>
       </c>
-      <c r="F71" t="s">
-        <v>39</v>
-      </c>
       <c r="G71">
         <v>2</v>
       </c>
@@ -6589,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J71">
         <v>2.4</v>
@@ -6657,16 +6654,16 @@
         <v>6992610</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6675,7 +6672,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J72">
         <v>1.727</v>
@@ -6743,16 +6740,16 @@
         <v>6992605</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45235.375</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6761,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J73">
         <v>1.666</v>
@@ -6829,16 +6826,16 @@
         <v>6992707</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45236.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6847,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J74">
         <v>3.1</v>
@@ -6915,16 +6912,16 @@
         <v>6992325</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45236.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6933,7 +6930,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J75">
         <v>1.833</v>
@@ -7001,16 +6998,16 @@
         <v>7295626</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45240.33333333334</v>
       </c>
       <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" t="s">
         <v>50</v>
-      </c>
-      <c r="F76" t="s">
-        <v>51</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7019,7 +7016,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>2.875</v>
@@ -7087,16 +7084,16 @@
         <v>6992611</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45254.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7105,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7173,16 +7170,16 @@
         <v>6992617</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45254.375</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7191,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J78">
         <v>1.25</v>
@@ -7259,16 +7256,16 @@
         <v>6992615</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45255.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7277,7 +7274,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -7345,16 +7342,16 @@
         <v>6992614</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45255.375</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7363,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J80">
         <v>2.25</v>
@@ -7431,16 +7428,16 @@
         <v>6992613</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7449,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7517,16 +7514,16 @@
         <v>6995902</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45256.3125</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7535,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J82">
         <v>1.909</v>
@@ -7603,16 +7600,16 @@
         <v>6992612</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45256.375</v>
       </c>
       <c r="E83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7621,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J83">
         <v>4.2</v>
@@ -7689,16 +7686,16 @@
         <v>6992616</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45257.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7707,7 +7704,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -7775,16 +7772,16 @@
         <v>6992620</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45261.375</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7793,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J85">
         <v>1.95</v>
@@ -7861,16 +7858,16 @@
         <v>6992623</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45261.375</v>
       </c>
       <c r="E86" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" t="s">
         <v>47</v>
-      </c>
-      <c r="F86" t="s">
-        <v>48</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7879,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J86">
         <v>1.7</v>
@@ -7947,16 +7944,16 @@
         <v>6992622</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45262.33333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7965,7 +7962,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>1.75</v>
@@ -8033,16 +8030,16 @@
         <v>6992326</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45262.375</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8051,7 +8048,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J88">
         <v>1.666</v>
@@ -8119,16 +8116,16 @@
         <v>6992624</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8137,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -8205,16 +8202,16 @@
         <v>6992618</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45263.3125</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8223,7 +8220,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8291,16 +8288,16 @@
         <v>6992621</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8309,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8377,16 +8374,16 @@
         <v>6992619</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45263.375</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8395,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8463,16 +8460,16 @@
         <v>6992625</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8481,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>1.25</v>
@@ -8549,16 +8546,16 @@
         <v>6992630</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45269.375</v>
       </c>
       <c r="E94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8567,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <v>1.25</v>
@@ -8635,16 +8632,16 @@
         <v>6992628</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8653,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J95">
         <v>1.85</v>
@@ -8721,16 +8718,16 @@
         <v>6992627</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45270.3125</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8739,7 +8736,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8807,16 +8804,16 @@
         <v>6992629</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8825,7 +8822,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J97">
         <v>3.25</v>
@@ -8893,16 +8890,16 @@
         <v>6992631</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45270.375</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8911,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8979,16 +8976,16 @@
         <v>6992327</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8997,7 +8994,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9065,16 +9062,16 @@
         <v>6992626</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45272.35416666666</v>
       </c>
       <c r="E100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9083,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J100">
         <v>2.5</v>
@@ -9151,16 +9148,16 @@
         <v>6992637</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45275.375</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9169,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J101">
         <v>2.375</v>
@@ -9237,16 +9234,16 @@
         <v>6992633</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45276.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9255,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J102">
         <v>4.75</v>
@@ -9323,16 +9320,16 @@
         <v>6992634</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9341,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J103">
         <v>2.25</v>
@@ -9409,16 +9406,16 @@
         <v>6992636</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45276.375</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9427,7 +9424,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9495,16 +9492,16 @@
         <v>6992632</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45276.41666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9513,7 +9510,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J105">
         <v>2.4</v>
@@ -9581,16 +9578,16 @@
         <v>6992328</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45277.3125</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9599,7 +9596,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J106">
         <v>2.15</v>
@@ -9667,16 +9664,16 @@
         <v>6992638</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45277.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9685,7 +9682,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>2.7</v>
@@ -9753,16 +9750,16 @@
         <v>6992635</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45277.375</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9771,7 +9768,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J108">
         <v>6</v>
@@ -9839,16 +9836,16 @@
         <v>6992642</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45283.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9857,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>2.15</v>
@@ -9925,16 +9922,16 @@
         <v>6992641</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45283.375</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9943,7 +9940,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J110">
         <v>1.75</v>
@@ -10011,16 +10008,16 @@
         <v>6992645</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45283.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -10029,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J111">
         <v>1.3</v>
@@ -10097,16 +10094,16 @@
         <v>6992639</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45284.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>5</v>
@@ -10115,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J112">
         <v>1.75</v>
@@ -10183,16 +10180,16 @@
         <v>6992644</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45284.33333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10201,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J113">
         <v>2.05</v>
@@ -10269,16 +10266,16 @@
         <v>6992329</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45284.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10287,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10355,16 +10352,16 @@
         <v>6992640</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45284.375</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10373,7 +10370,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10441,16 +10438,16 @@
         <v>7485126</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45288.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10459,7 +10456,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J116">
         <v>3.6</v>
@@ -10527,16 +10524,16 @@
         <v>7485127</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45288.375</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10545,7 +10542,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J117">
         <v>1.5</v>
@@ -10613,16 +10610,16 @@
         <v>7329293</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45288.375</v>
       </c>
       <c r="E118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10631,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J118">
         <v>3.6</v>
@@ -10699,16 +10696,16 @@
         <v>7485128</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45297.375</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10717,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10785,16 +10782,16 @@
         <v>6992652</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45331.375</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10803,7 +10800,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J120">
         <v>3.1</v>
@@ -10871,16 +10868,16 @@
         <v>6992650</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10889,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10957,16 +10954,16 @@
         <v>6992646</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45332.375</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10975,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J122">
         <v>3.6</v>
@@ -11043,16 +11040,16 @@
         <v>6992647</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11061,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J123">
         <v>2.2</v>
@@ -11129,16 +11126,16 @@
         <v>6992330</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45333.3125</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11147,7 +11144,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J124">
         <v>3.1</v>
@@ -11215,16 +11212,16 @@
         <v>6992651</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11233,7 +11230,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11301,16 +11298,16 @@
         <v>6992649</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11319,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11387,16 +11384,16 @@
         <v>6992648</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45333.375</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11405,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11473,16 +11470,16 @@
         <v>6992653</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11491,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11559,16 +11556,16 @@
         <v>6992656</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45335.375</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11577,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J129">
         <v>1.7</v>
@@ -11645,16 +11642,16 @@
         <v>6992659</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45336.33333333334</v>
       </c>
       <c r="E130" t="s">
+        <v>48</v>
+      </c>
+      <c r="F130" t="s">
         <v>49</v>
-      </c>
-      <c r="F130" t="s">
-        <v>50</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11663,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J130">
         <v>1.285</v>
@@ -11731,16 +11728,16 @@
         <v>6992331</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45336.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131">
         <v>4</v>
@@ -11749,7 +11746,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -11817,16 +11814,16 @@
         <v>6992657</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45336.375</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11835,7 +11832,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J132">
         <v>1.444</v>
@@ -11903,16 +11900,16 @@
         <v>6992655</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45337.33333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11921,7 +11918,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J133">
         <v>1.833</v>
@@ -11989,16 +11986,16 @@
         <v>6992654</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45337.375</v>
       </c>
       <c r="E134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12007,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J134">
         <v>1.333</v>
@@ -12075,16 +12072,16 @@
         <v>6992662</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45339.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12093,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J135">
         <v>5.5</v>
@@ -12161,16 +12158,16 @@
         <v>6992332</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12179,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J136">
         <v>2.6</v>
@@ -12247,16 +12244,16 @@
         <v>6992666</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45339.375</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12265,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J137">
         <v>4</v>
@@ -12333,16 +12330,16 @@
         <v>6992665</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12351,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12419,16 +12416,16 @@
         <v>6992660</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45340.3125</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12437,7 +12434,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J139">
         <v>4.75</v>
@@ -12505,16 +12502,16 @@
         <v>6992663</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45340.33333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12523,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J140">
         <v>2.75</v>
@@ -12591,16 +12588,16 @@
         <v>6992664</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45340.375</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12609,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J141">
         <v>2</v>
@@ -12677,16 +12674,16 @@
         <v>6992661</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45341.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12695,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J142">
         <v>2.1</v>
@@ -12763,16 +12760,16 @@
         <v>6992671</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45345.375</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12781,7 +12778,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J143">
         <v>3.2</v>
@@ -12849,16 +12846,16 @@
         <v>6992333</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144">
         <v>6</v>
@@ -12867,7 +12864,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J144">
         <v>1.166</v>
@@ -12935,16 +12932,16 @@
         <v>6992672</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12953,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -13021,16 +13018,16 @@
         <v>6992668</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45346.375</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13039,7 +13036,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J146">
         <v>1.2</v>
@@ -13107,16 +13104,16 @@
         <v>6992667</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13125,7 +13122,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13193,16 +13190,16 @@
         <v>6992669</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45347.3125</v>
       </c>
       <c r="E148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13211,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J148">
         <v>1.75</v>
@@ -13279,16 +13276,16 @@
         <v>6992673</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45347.33333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13297,7 +13294,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13365,16 +13362,16 @@
         <v>6992670</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45347.375</v>
       </c>
       <c r="E150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13383,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J150">
         <v>1.95</v>
@@ -13451,16 +13448,16 @@
         <v>6992676</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13469,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J151">
         <v>4.5</v>
@@ -13537,16 +13534,16 @@
         <v>6992674</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13555,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J152">
         <v>2.15</v>
@@ -13623,16 +13620,16 @@
         <v>6992680</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45353.375</v>
       </c>
       <c r="E153" t="s">
+        <v>42</v>
+      </c>
+      <c r="F153" t="s">
         <v>43</v>
-      </c>
-      <c r="F153" t="s">
-        <v>44</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13641,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13709,16 +13706,16 @@
         <v>6995901</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13727,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J154">
         <v>2.15</v>
@@ -13795,16 +13792,16 @@
         <v>6992678</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13813,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J155">
         <v>1.95</v>
@@ -13881,16 +13878,16 @@
         <v>6992675</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13899,7 +13896,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J156">
         <v>1.833</v>
@@ -13967,16 +13964,16 @@
         <v>6992679</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45354.375</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13985,7 +13982,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J157">
         <v>1.95</v>
@@ -14053,16 +14050,16 @@
         <v>6992677</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45355.35416666666</v>
       </c>
       <c r="E158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14071,7 +14068,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J158">
         <v>2.875</v>
@@ -14139,16 +14136,16 @@
         <v>6992334</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45359.375</v>
       </c>
       <c r="E159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14157,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J159">
         <v>1.533</v>
@@ -14225,16 +14222,16 @@
         <v>6992683</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14243,7 +14240,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J160">
         <v>5.5</v>
@@ -14311,16 +14308,16 @@
         <v>6992682</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45360.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G161">
         <v>7</v>
@@ -14329,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J161">
         <v>1.3</v>
@@ -14397,16 +14394,16 @@
         <v>6992686</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45360.375</v>
       </c>
       <c r="E162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14415,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14483,16 +14480,16 @@
         <v>6992684</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14501,7 +14498,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J163">
         <v>1.4</v>
@@ -14569,16 +14566,16 @@
         <v>6992685</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14587,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J164">
         <v>2.05</v>
@@ -14655,16 +14652,16 @@
         <v>6992681</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14673,7 +14670,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14741,16 +14738,16 @@
         <v>6992687</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45361.375</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -14759,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14827,17 +14824,17 @@
         <v>6992690</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45381.33333333334</v>
       </c>
       <c r="E167" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" t="s">
         <v>39</v>
       </c>
-      <c r="F167" t="s">
-        <v>40</v>
-      </c>
       <c r="G167">
         <v>2</v>
       </c>
@@ -14845,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J167">
         <v>2.3</v>
@@ -14913,16 +14910,16 @@
         <v>6992689</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14931,7 +14928,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J168">
         <v>3.25</v>
@@ -14999,16 +14996,16 @@
         <v>6992691</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45381.375</v>
       </c>
       <c r="E169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15017,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J169">
         <v>2.75</v>
@@ -15085,16 +15082,16 @@
         <v>6992694</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15103,7 +15100,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J170">
         <v>4</v>
@@ -15171,16 +15168,16 @@
         <v>6992693</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45382.3125</v>
       </c>
       <c r="E171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15189,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J171">
         <v>1.4</v>
@@ -15257,16 +15254,16 @@
         <v>6992335</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -15275,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J172">
         <v>1.444</v>
@@ -15343,16 +15340,16 @@
         <v>6992692</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G173">
         <v>6</v>
@@ -15361,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J173">
         <v>1.444</v>
@@ -15429,16 +15426,16 @@
         <v>6992688</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45382.375</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15447,7 +15444,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J174">
         <v>2.7</v>
@@ -15515,16 +15512,16 @@
         <v>6992698</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45384.33333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15533,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15601,16 +15598,16 @@
         <v>6992700</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45384.375</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15619,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J176">
         <v>1.222</v>
@@ -15687,16 +15684,16 @@
         <v>6992696</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45385.33333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15705,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J177">
         <v>1.833</v>
@@ -15773,16 +15770,16 @@
         <v>6992336</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15791,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J178">
         <v>1.8</v>
@@ -15856,85 +15853,85 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>8026714</v>
+        <v>6992695</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45385.375</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F179" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J179">
+        <v>2.1</v>
+      </c>
+      <c r="K179">
+        <v>3.75</v>
+      </c>
+      <c r="L179">
+        <v>2.7</v>
+      </c>
+      <c r="M179">
+        <v>1.95</v>
+      </c>
+      <c r="N179">
+        <v>3.8</v>
+      </c>
+      <c r="O179">
+        <v>2.9</v>
+      </c>
+      <c r="P179">
+        <v>-0.25</v>
+      </c>
+      <c r="Q179">
+        <v>1.8</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
         <v>3</v>
       </c>
-      <c r="K179">
-        <v>3.6</v>
-      </c>
-      <c r="L179">
-        <v>2</v>
-      </c>
-      <c r="M179">
-        <v>3.1</v>
-      </c>
-      <c r="N179">
-        <v>3.75</v>
-      </c>
-      <c r="O179">
-        <v>1.95</v>
-      </c>
-      <c r="P179">
-        <v>0.5</v>
-      </c>
-      <c r="Q179">
+      <c r="T179">
         <v>1.825</v>
       </c>
-      <c r="R179">
+      <c r="U179">
         <v>1.975</v>
       </c>
-      <c r="S179">
-        <v>2.75</v>
-      </c>
-      <c r="T179">
-        <v>1.85</v>
-      </c>
-      <c r="U179">
-        <v>1.95</v>
-      </c>
       <c r="V179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W179">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
+        <v>0.8</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
         <v>0.825</v>
       </c>
-      <c r="Z179">
-        <v>-1</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15942,85 +15939,85 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6992695</v>
+        <v>8026714</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45385.375</v>
       </c>
       <c r="E180" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G180">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J180">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="K180">
+        <v>3.6</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>3.1</v>
+      </c>
+      <c r="N180">
         <v>3.75</v>
       </c>
-      <c r="L180">
-        <v>2.7</v>
-      </c>
-      <c r="M180">
+      <c r="O180">
         <v>1.95</v>
       </c>
-      <c r="N180">
-        <v>3.8</v>
-      </c>
-      <c r="O180">
-        <v>2.9</v>
-      </c>
       <c r="P180">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q180">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T180">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
+        <v>-1</v>
+      </c>
+      <c r="W180">
+        <v>2.75</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>0.825</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
         <v>0.95</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>0.8</v>
-      </c>
-      <c r="Z180">
-        <v>-1</v>
-      </c>
-      <c r="AA180">
-        <v>0.825</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16031,16 +16028,16 @@
         <v>6992701</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45386.33333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16049,7 +16046,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J181">
         <v>3.3</v>
@@ -16117,16 +16114,16 @@
         <v>6992699</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45386.375</v>
       </c>
       <c r="E182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16135,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J182">
         <v>2.7</v>
@@ -16203,16 +16200,16 @@
         <v>6992703</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45388.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16221,7 +16218,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J183">
         <v>2.8</v>
@@ -16289,16 +16286,16 @@
         <v>6992608</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E184" t="s">
+        <v>40</v>
+      </c>
+      <c r="F184" t="s">
         <v>41</v>
-      </c>
-      <c r="F184" t="s">
-        <v>42</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16307,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J184">
         <v>1.4</v>
@@ -16375,16 +16372,16 @@
         <v>6992706</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45388.375</v>
       </c>
       <c r="E185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16393,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J185">
         <v>1.222</v>
@@ -16461,16 +16458,16 @@
         <v>6992705</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16479,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J186">
         <v>1.909</v>
@@ -16547,16 +16544,16 @@
         <v>6992337</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16565,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J187">
         <v>1.444</v>
@@ -16633,16 +16630,16 @@
         <v>6992704</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45389.33333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16651,7 +16648,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J188">
         <v>1.85</v>
@@ -16719,16 +16716,16 @@
         <v>6992702</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16737,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J189">
         <v>2</v>
@@ -16805,16 +16802,16 @@
         <v>6992708</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45389.375</v>
       </c>
       <c r="E190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -16823,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J190">
         <v>1.85</v>
@@ -16891,16 +16888,16 @@
         <v>8075058</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45400.375</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16909,7 +16906,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J191">
         <v>1.363</v>
@@ -16977,16 +16974,16 @@
         <v>6992709</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45401.375</v>
       </c>
       <c r="E192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16995,7 +16992,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J192">
         <v>1.363</v>
@@ -17063,16 +17060,16 @@
         <v>6992714</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17081,7 +17078,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J193">
         <v>1.444</v>
@@ -17149,16 +17146,16 @@
         <v>6995900</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17167,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J194">
         <v>3.3</v>
@@ -17235,16 +17232,16 @@
         <v>6992713</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45402.375</v>
       </c>
       <c r="E195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17253,7 +17250,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J195">
         <v>2.1</v>
@@ -17321,16 +17318,16 @@
         <v>6992710</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17339,7 +17336,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J196">
         <v>5.25</v>
@@ -17407,16 +17404,16 @@
         <v>6992712</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E197" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17425,7 +17422,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J197">
         <v>2</v>
@@ -17493,16 +17490,16 @@
         <v>6992711</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45403.33333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17511,7 +17508,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J198">
         <v>2.2</v>
@@ -17579,16 +17576,16 @@
         <v>6992715</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45403.375</v>
       </c>
       <c r="E199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17597,7 +17594,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J199">
         <v>4.75</v>
@@ -17665,37 +17662,37 @@
         <v>27</v>
       </c>
       <c r="C200" t="s">
+        <v>34</v>
+      </c>
+      <c r="D200" s="2">
+        <v>45409.35416666666</v>
+      </c>
+      <c r="E200" t="s">
+        <v>50</v>
+      </c>
+      <c r="F200" t="s">
         <v>35</v>
       </c>
-      <c r="D200" s="2">
-        <v>45409.33333333334</v>
-      </c>
-      <c r="E200" t="s">
-        <v>49</v>
-      </c>
-      <c r="F200" t="s">
-        <v>41</v>
-      </c>
       <c r="J200">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="K200">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L200">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="M200">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N200">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O200">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P200">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q200">
         <v>1.875</v>
@@ -17707,10 +17704,10 @@
         <v>3.25</v>
       </c>
       <c r="T200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V200">
         <v>0</v>
@@ -17730,52 +17727,52 @@
         <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
-        <v>45409.35416666666</v>
+        <v>45409.375</v>
       </c>
       <c r="E201" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J201">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="K201">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L201">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M201">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="N201">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O201">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="P201">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q201">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R201">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S201">
         <v>2.75</v>
       </c>
       <c r="T201">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U201">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V201">
         <v>0</v>
@@ -17795,52 +17792,52 @@
         <v>29</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
-        <v>45409.375</v>
+        <v>45409.41666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J202">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="K202">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L202">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M202">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N202">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O202">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P202">
         <v>-0.25</v>
       </c>
       <c r="Q202">
+        <v>1.975</v>
+      </c>
+      <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
+        <v>3.25</v>
+      </c>
+      <c r="T202">
         <v>2.025</v>
       </c>
-      <c r="R202">
+      <c r="U202">
         <v>1.775</v>
-      </c>
-      <c r="S202">
-        <v>2.75</v>
-      </c>
-      <c r="T202">
-        <v>1.825</v>
-      </c>
-      <c r="U202">
-        <v>1.975</v>
       </c>
       <c r="V202">
         <v>0</v>
@@ -17860,52 +17857,52 @@
         <v>30</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
-        <v>45409.41666666666</v>
+        <v>45410.3125</v>
       </c>
       <c r="E203" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J203">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="K203">
+        <v>3.3</v>
+      </c>
+      <c r="L203">
+        <v>2.25</v>
+      </c>
+      <c r="M203">
+        <v>3.25</v>
+      </c>
+      <c r="N203">
         <v>3.4</v>
       </c>
-      <c r="L203">
-        <v>2.9</v>
-      </c>
-      <c r="M203">
-        <v>2.25</v>
-      </c>
-      <c r="N203">
-        <v>3.5</v>
-      </c>
       <c r="O203">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="P203">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q203">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R203">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S203">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T203">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V203">
         <v>0</v>
@@ -17925,52 +17922,52 @@
         <v>31</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
-        <v>45410.3125</v>
+        <v>45410.33333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F204" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J204">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="K204">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L204">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M204">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N204">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O204">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="P204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q204">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R204">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T204">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V204">
         <v>0</v>
@@ -17990,10 +17987,10 @@
         <v>32</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
-        <v>45410.33333333334</v>
+        <v>45410.375</v>
       </c>
       <c r="E205" t="s">
         <v>42</v>
@@ -18002,22 +17999,22 @@
         <v>37</v>
       </c>
       <c r="J205">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="K205">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M205">
         <v>1.75</v>
       </c>
       <c r="N205">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O205">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P205">
         <v>-0.75</v>
@@ -18029,13 +18026,13 @@
         <v>1.8</v>
       </c>
       <c r="S205">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T205">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
         <v>0</v>
@@ -18055,52 +18052,52 @@
         <v>33</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
-        <v>45410.375</v>
+        <v>45411.35416666666</v>
       </c>
       <c r="E206" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J206">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="K206">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="L206">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M206">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="N206">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O206">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P206">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q206">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R206">
+        <v>1.925</v>
+      </c>
+      <c r="S206">
+        <v>2.75</v>
+      </c>
+      <c r="T206">
         <v>1.8</v>
       </c>
-      <c r="S206">
-        <v>3</v>
-      </c>
-      <c r="T206">
-        <v>2.025</v>
-      </c>
       <c r="U206">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V206">
         <v>0</v>
@@ -18109,71 +18106,6 @@
         <v>0</v>
       </c>
       <c r="X206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:28">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207" t="s">
-        <v>34</v>
-      </c>
-      <c r="C207" t="s">
-        <v>35</v>
-      </c>
-      <c r="D207" s="2">
-        <v>45411.35416666666</v>
-      </c>
-      <c r="E207" t="s">
-        <v>46</v>
-      </c>
-      <c r="F207" t="s">
-        <v>40</v>
-      </c>
-      <c r="J207">
-        <v>1.4</v>
-      </c>
-      <c r="K207">
-        <v>4.333</v>
-      </c>
-      <c r="L207">
-        <v>6</v>
-      </c>
-      <c r="M207">
-        <v>1.4</v>
-      </c>
-      <c r="N207">
-        <v>4.333</v>
-      </c>
-      <c r="O207">
-        <v>6</v>
-      </c>
-      <c r="P207">
-        <v>-1.25</v>
-      </c>
-      <c r="Q207">
-        <v>1.875</v>
-      </c>
-      <c r="R207">
-        <v>1.925</v>
-      </c>
-      <c r="S207">
-        <v>2.75</v>
-      </c>
-      <c r="T207">
-        <v>1.8</v>
-      </c>
-      <c r="U207">
-        <v>2</v>
-      </c>
-      <c r="V207">
-        <v>0</v>
-      </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-      <c r="X207">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -97,15 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>6992721</t>
-  </si>
-  <si>
-    <t>6992717</t>
-  </si>
-  <si>
-    <t>6992719</t>
-  </si>
-  <si>
     <t>6992718</t>
   </si>
   <si>
@@ -160,10 +151,10 @@
     <t>Chiangrai Utd</t>
   </si>
   <si>
-    <t>Buriram United</t>
+    <t>Sukhothai FC</t>
   </si>
   <si>
-    <t>Sukhothai FC</t>
+    <t>Buriram United</t>
   </si>
   <si>
     <t>Chonburi</t>
@@ -537,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB206"/>
+  <dimension ref="A1:AB203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +625,16 @@
         <v>6992541</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45149.375</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -652,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>4.333</v>
@@ -720,16 +711,16 @@
         <v>6992317</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45149.39583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -738,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>3.6</v>
@@ -806,16 +797,16 @@
         <v>6992544</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45150.33333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -824,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -892,16 +883,16 @@
         <v>6992543</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45150.375</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -910,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -978,16 +969,16 @@
         <v>6992542</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45151.3125</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -996,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1064,16 +1055,16 @@
         <v>6992545</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45151.33333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1082,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1150,16 +1141,16 @@
         <v>6992546</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45151.375</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1168,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -1236,16 +1227,16 @@
         <v>6992547</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45152.375</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1254,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1322,16 +1313,16 @@
         <v>6992552</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45156.375</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1340,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>1.75</v>
@@ -1408,16 +1399,16 @@
         <v>6992318</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1426,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>1.533</v>
@@ -1494,16 +1485,16 @@
         <v>6992548</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1512,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1580,16 +1571,16 @@
         <v>6992549</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45157.375</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1598,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1666,16 +1657,16 @@
         <v>6992551</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1684,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1749,58 +1740,58 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6992550</v>
+        <v>6992554</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="K15">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="M15">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="N15">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="O15">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q15">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T15">
         <v>1.975</v>
@@ -1809,25 +1800,25 @@
         <v>1.825</v>
       </c>
       <c r="V15">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1835,58 +1826,58 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6992554</v>
+        <v>6992550</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="N16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="P16">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q16">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T16">
         <v>1.975</v>
@@ -1895,25 +1886,25 @@
         <v>1.825</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1924,16 +1915,16 @@
         <v>6992553</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45159.35416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1942,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2010,16 +2001,16 @@
         <v>6992558</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45163.375</v>
       </c>
       <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
         <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2028,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <v>3.75</v>
@@ -2096,16 +2087,16 @@
         <v>6992561</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2114,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>5.5</v>
@@ -2182,16 +2173,16 @@
         <v>6992555</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45164.375</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2200,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>4.75</v>
@@ -2268,16 +2259,16 @@
         <v>6992319</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2286,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>2.3</v>
@@ -2354,16 +2345,16 @@
         <v>6992557</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45165.33333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2372,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2440,16 +2431,16 @@
         <v>6992560</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45165.375</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2458,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2526,16 +2517,16 @@
         <v>6992559</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45166.35416666666</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2544,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2612,16 +2603,16 @@
         <v>6992556</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45166.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2630,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J25">
         <v>2.2</v>
@@ -2698,16 +2689,16 @@
         <v>6992568</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45184.375</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2716,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2784,16 +2775,16 @@
         <v>6992567</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
         <v>45</v>
-      </c>
-      <c r="F27" t="s">
-        <v>49</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2802,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2870,16 +2861,16 @@
         <v>6992565</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45185.33333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -2888,7 +2879,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2956,16 +2947,16 @@
         <v>6992320</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45185.375</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -2974,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3042,16 +3033,16 @@
         <v>6992564</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3060,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <v>1.727</v>
@@ -3128,16 +3119,16 @@
         <v>6992566</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45186.33333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3146,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J31">
         <v>1.615</v>
@@ -3214,16 +3205,16 @@
         <v>6992563</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45186.375</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3232,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3300,16 +3291,16 @@
         <v>6992562</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45187.35416666666</v>
       </c>
       <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
         <v>35</v>
-      </c>
-      <c r="F33" t="s">
-        <v>38</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3318,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>2.375</v>
@@ -3386,16 +3377,16 @@
         <v>6992571</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45191.375</v>
       </c>
       <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
         <v>41</v>
-      </c>
-      <c r="F34" t="s">
-        <v>44</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3404,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3472,16 +3463,16 @@
         <v>6992573</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3490,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3558,16 +3549,16 @@
         <v>6992569</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3576,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>2.75</v>
@@ -3644,16 +3635,16 @@
         <v>6992570</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45193.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3662,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <v>3.1</v>
@@ -3730,16 +3721,16 @@
         <v>6992572</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45193.375</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3748,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J38">
         <v>2.625</v>
@@ -3816,16 +3807,16 @@
         <v>6992321</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45194.35416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3834,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J39">
         <v>5.75</v>
@@ -3902,16 +3893,16 @@
         <v>6992574</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45194.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3920,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3988,16 +3979,16 @@
         <v>6992579</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45198.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4006,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J41">
         <v>1.533</v>
@@ -4074,16 +4065,16 @@
         <v>6992576</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -4092,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J42">
         <v>1.533</v>
@@ -4160,16 +4151,16 @@
         <v>6992582</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45199.375</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4178,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4246,16 +4237,16 @@
         <v>6992581</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4264,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4332,16 +4323,16 @@
         <v>6995903</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45200.3125</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4350,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J45">
         <v>2.45</v>
@@ -4418,16 +4409,16 @@
         <v>6992577</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45200.375</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4436,7 +4427,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J46">
         <v>1.533</v>
@@ -4504,16 +4495,16 @@
         <v>6992580</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45201.35416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4522,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4590,16 +4581,16 @@
         <v>6992587</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45205.375</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4608,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4676,16 +4667,16 @@
         <v>6992583</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45205.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4694,7 +4685,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J49">
         <v>4.5</v>
@@ -4762,16 +4753,16 @@
         <v>6992586</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4780,7 +4771,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J50">
         <v>2.6</v>
@@ -4848,16 +4839,16 @@
         <v>6992322</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45206.375</v>
       </c>
       <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
         <v>36</v>
-      </c>
-      <c r="F51" t="s">
-        <v>39</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4866,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>2.2</v>
@@ -4934,16 +4925,16 @@
         <v>6992588</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4952,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <v>2.2</v>
@@ -5020,16 +5011,16 @@
         <v>6992585</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
         <v>37</v>
-      </c>
-      <c r="F53" t="s">
-        <v>40</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5038,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5106,25 +5097,25 @@
         <v>6992584</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
         <v>48</v>
-      </c>
-      <c r="F54" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>51</v>
       </c>
       <c r="J54">
         <v>1.4</v>
@@ -5192,16 +5183,16 @@
         <v>6992589</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45207.375</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5210,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5278,16 +5269,16 @@
         <v>6992591</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45219.33333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5296,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <v>4.75</v>
@@ -5364,16 +5355,16 @@
         <v>6992596</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45219.375</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5382,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <v>1.571</v>
@@ -5450,16 +5441,16 @@
         <v>6992593</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -5468,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5536,16 +5527,16 @@
         <v>6992592</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45220.375</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5554,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J59">
         <v>1.615</v>
@@ -5622,16 +5613,16 @@
         <v>6992595</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5640,7 +5631,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5708,16 +5699,16 @@
         <v>6992594</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45221.375</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5726,7 +5717,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <v>1.285</v>
@@ -5794,16 +5785,16 @@
         <v>6992324</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45226.375</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5812,7 +5803,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -5880,16 +5871,16 @@
         <v>6992603</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45226.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5898,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>5.5</v>
@@ -5966,16 +5957,16 @@
         <v>6992602</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
         <v>47</v>
-      </c>
-      <c r="F64" t="s">
-        <v>50</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5984,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6052,16 +6043,16 @@
         <v>6992599</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45227.375</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6070,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6138,16 +6129,16 @@
         <v>6992597</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6156,7 +6147,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>3.75</v>
@@ -6224,16 +6215,16 @@
         <v>6992600</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45228.3125</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6242,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J67">
         <v>1.95</v>
@@ -6310,16 +6301,16 @@
         <v>6992601</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6328,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>1.666</v>
@@ -6396,16 +6387,16 @@
         <v>6992598</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45228.375</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6414,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J69">
         <v>1.5</v>
@@ -6482,16 +6473,16 @@
         <v>6992606</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6500,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>2.55</v>
@@ -6568,16 +6559,16 @@
         <v>6992604</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45234.375</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6586,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>2.4</v>
@@ -6654,16 +6645,16 @@
         <v>6992610</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6672,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <v>1.727</v>
@@ -6740,16 +6731,16 @@
         <v>6992605</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45235.375</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6758,7 +6749,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>1.666</v>
@@ -6826,16 +6817,16 @@
         <v>6992707</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45236.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6844,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J74">
         <v>3.1</v>
@@ -6912,16 +6903,16 @@
         <v>6992325</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45236.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6930,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <v>1.833</v>
@@ -6998,16 +6989,16 @@
         <v>7295626</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45240.33333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7016,7 +7007,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J76">
         <v>2.875</v>
@@ -7084,16 +7075,16 @@
         <v>6992611</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45254.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7102,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7170,16 +7161,16 @@
         <v>6992617</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45254.375</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7188,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J78">
         <v>1.25</v>
@@ -7256,16 +7247,16 @@
         <v>6992615</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45255.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7274,7 +7265,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -7342,16 +7333,16 @@
         <v>6992614</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45255.375</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7360,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J80">
         <v>2.25</v>
@@ -7428,16 +7419,16 @@
         <v>6992613</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7446,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7514,16 +7505,16 @@
         <v>6995902</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45256.3125</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7532,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J82">
         <v>1.909</v>
@@ -7600,16 +7591,16 @@
         <v>6992612</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45256.375</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7618,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J83">
         <v>4.2</v>
@@ -7686,16 +7677,16 @@
         <v>6992616</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45257.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7704,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -7772,16 +7763,16 @@
         <v>6992620</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45261.375</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7790,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J85">
         <v>1.95</v>
@@ -7858,16 +7849,16 @@
         <v>6992623</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45261.375</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7876,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J86">
         <v>1.7</v>
@@ -7944,16 +7935,16 @@
         <v>6992622</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45262.33333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7962,7 +7953,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>1.75</v>
@@ -8030,16 +8021,16 @@
         <v>6992326</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45262.375</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8048,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J88">
         <v>1.666</v>
@@ -8116,16 +8107,16 @@
         <v>6992624</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8134,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -8202,16 +8193,16 @@
         <v>6992618</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45263.3125</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8220,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8288,25 +8279,25 @@
         <v>6992621</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91" t="s">
         <v>48</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91">
-        <v>2</v>
-      </c>
-      <c r="I91" t="s">
-        <v>51</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8374,16 +8365,16 @@
         <v>6992619</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45263.375</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8392,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8460,16 +8451,16 @@
         <v>6992625</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8478,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J93">
         <v>1.25</v>
@@ -8546,16 +8537,16 @@
         <v>6992630</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45269.375</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8564,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J94">
         <v>1.25</v>
@@ -8632,16 +8623,16 @@
         <v>6992628</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E95" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" t="s">
         <v>43</v>
-      </c>
-      <c r="F95" t="s">
-        <v>46</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8650,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J95">
         <v>1.85</v>
@@ -8718,16 +8709,16 @@
         <v>6992627</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45270.3125</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8736,7 +8727,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8804,16 +8795,16 @@
         <v>6992629</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8822,7 +8813,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J97">
         <v>3.25</v>
@@ -8890,16 +8881,16 @@
         <v>6992631</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45270.375</v>
       </c>
       <c r="E98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8908,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8976,16 +8967,16 @@
         <v>6992327</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8994,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9062,16 +9053,16 @@
         <v>6992626</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45272.35416666666</v>
       </c>
       <c r="E100" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9080,7 +9071,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J100">
         <v>2.5</v>
@@ -9148,16 +9139,16 @@
         <v>6992637</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45275.375</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9166,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J101">
         <v>2.375</v>
@@ -9234,16 +9225,16 @@
         <v>6992633</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45276.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9252,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J102">
         <v>4.75</v>
@@ -9320,16 +9311,16 @@
         <v>6992634</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9338,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J103">
         <v>2.25</v>
@@ -9406,16 +9397,16 @@
         <v>6992636</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45276.375</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9424,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9492,16 +9483,16 @@
         <v>6992632</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45276.41666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9510,7 +9501,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>2.4</v>
@@ -9578,16 +9569,16 @@
         <v>6992328</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45277.3125</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9596,7 +9587,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J106">
         <v>2.15</v>
@@ -9664,16 +9655,16 @@
         <v>6992638</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45277.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9682,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>2.7</v>
@@ -9750,16 +9741,16 @@
         <v>6992635</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45277.375</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9768,7 +9759,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J108">
         <v>6</v>
@@ -9836,16 +9827,16 @@
         <v>6992642</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45283.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9854,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J109">
         <v>2.15</v>
@@ -9922,16 +9913,16 @@
         <v>6992641</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45283.375</v>
       </c>
       <c r="E110" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9940,7 +9931,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J110">
         <v>1.75</v>
@@ -10008,16 +9999,16 @@
         <v>6992645</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45283.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -10026,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J111">
         <v>1.3</v>
@@ -10094,16 +10085,16 @@
         <v>6992639</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45284.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G112">
         <v>5</v>
@@ -10112,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J112">
         <v>1.75</v>
@@ -10180,16 +10171,16 @@
         <v>6992644</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45284.33333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10198,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J113">
         <v>2.05</v>
@@ -10266,16 +10257,16 @@
         <v>6992329</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45284.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10284,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10352,16 +10343,16 @@
         <v>6992640</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45284.375</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10370,7 +10361,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10438,16 +10429,16 @@
         <v>7485126</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45288.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10456,7 +10447,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>3.6</v>
@@ -10521,85 +10512,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45288.375</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J117">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="K117">
+        <v>3.5</v>
+      </c>
+      <c r="L117">
+        <v>1.85</v>
+      </c>
+      <c r="M117">
+        <v>4.5</v>
+      </c>
+      <c r="N117">
         <v>4</v>
       </c>
-      <c r="L117">
-        <v>5.75</v>
-      </c>
-      <c r="M117">
-        <v>1.363</v>
-      </c>
-      <c r="N117">
-        <v>4.5</v>
-      </c>
       <c r="O117">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="P117">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
         <v>3</v>
       </c>
       <c r="T117">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
         <v>0.95</v>
-      </c>
-      <c r="AA117">
-        <v>0.825</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10607,85 +10598,85 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45288.375</v>
       </c>
       <c r="E118" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J118">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="K118">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L118">
+        <v>5.75</v>
+      </c>
+      <c r="M118">
+        <v>1.363</v>
+      </c>
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
+        <v>6.5</v>
+      </c>
+      <c r="P118">
+        <v>-1.25</v>
+      </c>
+      <c r="Q118">
         <v>1.85</v>
       </c>
-      <c r="M118">
-        <v>4.5</v>
-      </c>
-      <c r="N118">
-        <v>4</v>
-      </c>
-      <c r="O118">
-        <v>1.615</v>
-      </c>
-      <c r="P118">
-        <v>0.75</v>
-      </c>
-      <c r="Q118">
-        <v>1.975</v>
-      </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
         <v>3</v>
       </c>
       <c r="T118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10696,16 +10687,16 @@
         <v>7485128</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45297.375</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10714,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10782,16 +10773,16 @@
         <v>6992652</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45331.375</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10800,7 +10791,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J120">
         <v>3.1</v>
@@ -10868,16 +10859,16 @@
         <v>6992650</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10886,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10954,16 +10945,16 @@
         <v>6992646</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45332.375</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10972,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J122">
         <v>3.6</v>
@@ -11040,16 +11031,16 @@
         <v>6992647</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11058,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>2.2</v>
@@ -11126,16 +11117,16 @@
         <v>6992330</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45333.3125</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11144,7 +11135,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J124">
         <v>3.1</v>
@@ -11212,16 +11203,16 @@
         <v>6992651</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11230,7 +11221,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11298,16 +11289,16 @@
         <v>6992649</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11316,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11384,16 +11375,16 @@
         <v>6992648</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45333.375</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11402,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11470,16 +11461,16 @@
         <v>6992653</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11488,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11556,16 +11547,16 @@
         <v>6992656</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45335.375</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11574,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J129">
         <v>1.7</v>
@@ -11642,16 +11633,16 @@
         <v>6992659</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45336.33333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F130" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11660,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J130">
         <v>1.285</v>
@@ -11728,16 +11719,16 @@
         <v>6992331</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45336.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>4</v>
@@ -11746,7 +11737,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -11814,16 +11805,16 @@
         <v>6992657</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45336.375</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11832,7 +11823,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J132">
         <v>1.444</v>
@@ -11900,16 +11891,16 @@
         <v>6992655</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45337.33333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11918,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J133">
         <v>1.833</v>
@@ -11986,16 +11977,16 @@
         <v>6992654</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45337.375</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12004,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J134">
         <v>1.333</v>
@@ -12072,16 +12063,16 @@
         <v>6992662</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45339.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12090,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J135">
         <v>5.5</v>
@@ -12158,16 +12149,16 @@
         <v>6992332</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12176,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J136">
         <v>2.6</v>
@@ -12244,16 +12235,16 @@
         <v>6992666</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45339.375</v>
       </c>
       <c r="E137" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12262,7 +12253,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J137">
         <v>4</v>
@@ -12330,16 +12321,16 @@
         <v>6992665</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12348,7 +12339,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12416,16 +12407,16 @@
         <v>6992660</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45340.3125</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12434,7 +12425,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>4.75</v>
@@ -12502,16 +12493,16 @@
         <v>6992663</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45340.33333333334</v>
       </c>
       <c r="E140" t="s">
+        <v>37</v>
+      </c>
+      <c r="F140" t="s">
         <v>40</v>
-      </c>
-      <c r="F140" t="s">
-        <v>43</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12520,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J140">
         <v>2.75</v>
@@ -12588,16 +12579,16 @@
         <v>6992664</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45340.375</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12606,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>2</v>
@@ -12674,16 +12665,16 @@
         <v>6992661</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45341.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12692,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J142">
         <v>2.1</v>
@@ -12760,16 +12751,16 @@
         <v>6992671</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45345.375</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12778,7 +12769,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J143">
         <v>3.2</v>
@@ -12846,16 +12837,16 @@
         <v>6992333</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>6</v>
@@ -12864,7 +12855,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J144">
         <v>1.166</v>
@@ -12932,16 +12923,16 @@
         <v>6992672</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12950,7 +12941,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -13018,16 +13009,16 @@
         <v>6992668</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45346.375</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13036,7 +13027,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J146">
         <v>1.2</v>
@@ -13104,16 +13095,16 @@
         <v>6992667</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13122,7 +13113,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13190,16 +13181,16 @@
         <v>6992669</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45347.3125</v>
       </c>
       <c r="E148" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13208,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J148">
         <v>1.75</v>
@@ -13276,16 +13267,16 @@
         <v>6992673</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45347.33333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13294,7 +13285,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13362,16 +13353,16 @@
         <v>6992670</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45347.375</v>
       </c>
       <c r="E150" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F150" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13380,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J150">
         <v>1.95</v>
@@ -13448,16 +13439,16 @@
         <v>6992676</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13466,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J151">
         <v>4.5</v>
@@ -13534,16 +13525,16 @@
         <v>6992674</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E152" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13552,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J152">
         <v>2.15</v>
@@ -13620,16 +13611,16 @@
         <v>6992680</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45353.375</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13638,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13706,16 +13697,16 @@
         <v>6995901</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13724,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J154">
         <v>2.15</v>
@@ -13792,16 +13783,16 @@
         <v>6992678</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13810,7 +13801,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J155">
         <v>1.95</v>
@@ -13878,16 +13869,16 @@
         <v>6992675</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13896,7 +13887,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J156">
         <v>1.833</v>
@@ -13964,16 +13955,16 @@
         <v>6992679</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D157" s="2">
         <v>45354.375</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13982,7 +13973,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J157">
         <v>1.95</v>
@@ -14050,16 +14041,16 @@
         <v>6992677</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>45355.35416666666</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14068,7 +14059,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J158">
         <v>2.875</v>
@@ -14136,16 +14127,16 @@
         <v>6992334</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>45359.375</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14154,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J159">
         <v>1.533</v>
@@ -14222,16 +14213,16 @@
         <v>6992683</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14240,7 +14231,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J160">
         <v>5.5</v>
@@ -14308,16 +14299,16 @@
         <v>6992682</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>45360.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G161">
         <v>7</v>
@@ -14326,7 +14317,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J161">
         <v>1.3</v>
@@ -14394,16 +14385,16 @@
         <v>6992686</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>45360.375</v>
       </c>
       <c r="E162" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14412,7 +14403,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14480,16 +14471,16 @@
         <v>6992684</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14498,7 +14489,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J163">
         <v>1.4</v>
@@ -14566,16 +14557,16 @@
         <v>6992685</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14584,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>2.05</v>
@@ -14652,16 +14643,16 @@
         <v>6992681</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F165" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14670,7 +14661,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14738,16 +14729,16 @@
         <v>6992687</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2">
         <v>45361.375</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -14756,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14824,16 +14815,16 @@
         <v>6992690</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2">
         <v>45381.33333333334</v>
       </c>
       <c r="E167" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14842,7 +14833,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>2.3</v>
@@ -14910,16 +14901,16 @@
         <v>6992689</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E168" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14928,7 +14919,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>3.25</v>
@@ -14996,16 +14987,16 @@
         <v>6992691</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
         <v>45381.375</v>
       </c>
       <c r="E169" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15014,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J169">
         <v>2.75</v>
@@ -15082,16 +15073,16 @@
         <v>6992694</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D170" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15100,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J170">
         <v>4</v>
@@ -15168,16 +15159,16 @@
         <v>6992693</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D171" s="2">
         <v>45382.3125</v>
       </c>
       <c r="E171" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15186,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J171">
         <v>1.4</v>
@@ -15254,16 +15245,16 @@
         <v>6992335</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D172" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -15272,7 +15263,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J172">
         <v>1.444</v>
@@ -15340,16 +15331,16 @@
         <v>6992692</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D173" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E173" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F173" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G173">
         <v>6</v>
@@ -15358,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J173">
         <v>1.444</v>
@@ -15426,16 +15417,16 @@
         <v>6992688</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D174" s="2">
         <v>45382.375</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15444,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J174">
         <v>2.7</v>
@@ -15512,16 +15503,16 @@
         <v>6992698</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2">
         <v>45384.33333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15530,7 +15521,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15598,16 +15589,16 @@
         <v>6992700</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D176" s="2">
         <v>45384.375</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F176" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15616,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J176">
         <v>1.222</v>
@@ -15684,16 +15675,16 @@
         <v>6992696</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D177" s="2">
         <v>45385.33333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15702,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J177">
         <v>1.833</v>
@@ -15770,16 +15761,16 @@
         <v>6992336</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15788,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J178">
         <v>1.8</v>
@@ -15853,10 +15844,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6992695</v>
+        <v>8026714</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D179" s="2">
         <v>45385.375</v>
@@ -15865,73 +15856,73 @@
         <v>40</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G179">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J179">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="K179">
+        <v>3.6</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>3.1</v>
+      </c>
+      <c r="N179">
         <v>3.75</v>
       </c>
-      <c r="L179">
-        <v>2.7</v>
-      </c>
-      <c r="M179">
+      <c r="O179">
         <v>1.95</v>
       </c>
-      <c r="N179">
-        <v>3.8</v>
-      </c>
-      <c r="O179">
-        <v>2.9</v>
-      </c>
       <c r="P179">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q179">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
+        <v>-1</v>
+      </c>
+      <c r="W179">
+        <v>2.75</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>0.825</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
         <v>0.95</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>0.8</v>
-      </c>
-      <c r="Z179">
-        <v>-1</v>
-      </c>
-      <c r="AA179">
-        <v>0.825</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15939,85 +15930,85 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>8026714</v>
+        <v>6992695</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D180" s="2">
         <v>45385.375</v>
       </c>
       <c r="E180" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J180">
+        <v>2.1</v>
+      </c>
+      <c r="K180">
+        <v>3.75</v>
+      </c>
+      <c r="L180">
+        <v>2.7</v>
+      </c>
+      <c r="M180">
+        <v>1.95</v>
+      </c>
+      <c r="N180">
+        <v>3.8</v>
+      </c>
+      <c r="O180">
+        <v>2.9</v>
+      </c>
+      <c r="P180">
+        <v>-0.25</v>
+      </c>
+      <c r="Q180">
+        <v>1.8</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
         <v>3</v>
       </c>
-      <c r="K180">
-        <v>3.6</v>
-      </c>
-      <c r="L180">
-        <v>2</v>
-      </c>
-      <c r="M180">
-        <v>3.1</v>
-      </c>
-      <c r="N180">
-        <v>3.75</v>
-      </c>
-      <c r="O180">
-        <v>1.95</v>
-      </c>
-      <c r="P180">
-        <v>0.5</v>
-      </c>
-      <c r="Q180">
+      <c r="T180">
         <v>1.825</v>
       </c>
-      <c r="R180">
+      <c r="U180">
         <v>1.975</v>
       </c>
-      <c r="S180">
-        <v>2.75</v>
-      </c>
-      <c r="T180">
-        <v>1.85</v>
-      </c>
-      <c r="U180">
-        <v>1.95</v>
-      </c>
       <c r="V180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W180">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
+        <v>0.8</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
         <v>0.825</v>
       </c>
-      <c r="Z180">
-        <v>-1</v>
-      </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16028,16 +16019,16 @@
         <v>6992701</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D181" s="2">
         <v>45386.33333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16046,7 +16037,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>3.3</v>
@@ -16114,16 +16105,16 @@
         <v>6992699</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D182" s="2">
         <v>45386.375</v>
       </c>
       <c r="E182" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F182" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16132,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J182">
         <v>2.7</v>
@@ -16200,16 +16191,16 @@
         <v>6992703</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D183" s="2">
         <v>45388.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16218,7 +16209,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J183">
         <v>2.8</v>
@@ -16286,16 +16277,16 @@
         <v>6992608</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D184" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16304,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J184">
         <v>1.4</v>
@@ -16372,16 +16363,16 @@
         <v>6992706</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D185" s="2">
         <v>45388.375</v>
       </c>
       <c r="E185" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16390,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J185">
         <v>1.222</v>
@@ -16458,16 +16449,16 @@
         <v>6992705</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D186" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16476,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J186">
         <v>1.909</v>
@@ -16544,16 +16535,16 @@
         <v>6992337</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D187" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16562,7 +16553,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J187">
         <v>1.444</v>
@@ -16630,16 +16621,16 @@
         <v>6992704</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D188" s="2">
         <v>45389.33333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16648,7 +16639,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J188">
         <v>1.85</v>
@@ -16716,16 +16707,16 @@
         <v>6992702</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D189" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E189" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16734,7 +16725,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J189">
         <v>2</v>
@@ -16802,16 +16793,16 @@
         <v>6992708</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D190" s="2">
         <v>45389.375</v>
       </c>
       <c r="E190" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -16820,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J190">
         <v>1.85</v>
@@ -16888,16 +16879,16 @@
         <v>8075058</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D191" s="2">
         <v>45400.375</v>
       </c>
       <c r="E191" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16906,7 +16897,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J191">
         <v>1.363</v>
@@ -16974,16 +16965,16 @@
         <v>6992709</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D192" s="2">
         <v>45401.375</v>
       </c>
       <c r="E192" t="s">
+        <v>41</v>
+      </c>
+      <c r="F192" t="s">
         <v>44</v>
-      </c>
-      <c r="F192" t="s">
-        <v>47</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16992,7 +16983,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J192">
         <v>1.363</v>
@@ -17060,16 +17051,16 @@
         <v>6992714</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D193" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F193" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17078,7 +17069,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J193">
         <v>1.444</v>
@@ -17146,16 +17137,16 @@
         <v>6995900</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D194" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E194" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17164,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J194">
         <v>3.3</v>
@@ -17232,16 +17223,16 @@
         <v>6992713</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D195" s="2">
         <v>45402.375</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17250,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J195">
         <v>2.1</v>
@@ -17318,16 +17309,16 @@
         <v>6992710</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D196" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E196" t="s">
+        <v>43</v>
+      </c>
+      <c r="F196" t="s">
         <v>46</v>
-      </c>
-      <c r="F196" t="s">
-        <v>48</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17336,7 +17327,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J196">
         <v>5.25</v>
@@ -17404,16 +17395,16 @@
         <v>6992712</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D197" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17422,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J197">
         <v>2</v>
@@ -17490,16 +17481,16 @@
         <v>6992711</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D198" s="2">
         <v>45403.33333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17508,7 +17499,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J198">
         <v>2.2</v>
@@ -17576,16 +17567,16 @@
         <v>6992715</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D199" s="2">
         <v>45403.375</v>
       </c>
       <c r="E199" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F199" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17594,7 +17585,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J199">
         <v>4.75</v>
@@ -17662,52 +17653,52 @@
         <v>27</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D200" s="2">
-        <v>45409.35416666666</v>
+        <v>45410.3125</v>
       </c>
       <c r="E200" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J200">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="K200">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L200">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="M200">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="N200">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O200">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="P200">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q200">
+        <v>2</v>
+      </c>
+      <c r="R200">
+        <v>1.8</v>
+      </c>
+      <c r="S200">
+        <v>2.5</v>
+      </c>
+      <c r="T200">
         <v>1.875</v>
       </c>
-      <c r="R200">
+      <c r="U200">
         <v>1.925</v>
-      </c>
-      <c r="S200">
-        <v>3.25</v>
-      </c>
-      <c r="T200">
-        <v>2</v>
-      </c>
-      <c r="U200">
-        <v>1.8</v>
       </c>
       <c r="V200">
         <v>0</v>
@@ -17727,52 +17718,52 @@
         <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D201" s="2">
-        <v>45409.375</v>
+        <v>45410.33333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J201">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="K201">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L201">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M201">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N201">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O201">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="P201">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q201">
+        <v>1.9</v>
+      </c>
+      <c r="R201">
+        <v>1.9</v>
+      </c>
+      <c r="S201">
+        <v>3.25</v>
+      </c>
+      <c r="T201">
         <v>1.85</v>
       </c>
-      <c r="R201">
+      <c r="U201">
         <v>1.95</v>
-      </c>
-      <c r="S201">
-        <v>2.75</v>
-      </c>
-      <c r="T201">
-        <v>1.8</v>
-      </c>
-      <c r="U201">
-        <v>2</v>
       </c>
       <c r="V201">
         <v>0</v>
@@ -17792,37 +17783,37 @@
         <v>29</v>
       </c>
       <c r="C202" t="s">
+        <v>31</v>
+      </c>
+      <c r="D202" s="2">
+        <v>45410.375</v>
+      </c>
+      <c r="E202" t="s">
+        <v>39</v>
+      </c>
+      <c r="F202" t="s">
         <v>34</v>
       </c>
-      <c r="D202" s="2">
-        <v>45409.41666666666</v>
-      </c>
-      <c r="E202" t="s">
-        <v>43</v>
-      </c>
-      <c r="F202" t="s">
-        <v>44</v>
-      </c>
       <c r="J202">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="K202">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L202">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="M202">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N202">
         <v>3.6</v>
       </c>
       <c r="O202">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="P202">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q202">
         <v>1.975</v>
@@ -17831,13 +17822,13 @@
         <v>1.825</v>
       </c>
       <c r="S202">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T202">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U202">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
         <v>0</v>
@@ -17857,52 +17848,52 @@
         <v>30</v>
       </c>
       <c r="C203" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D203" s="2">
-        <v>45410.3125</v>
+        <v>45411.35416666666</v>
       </c>
       <c r="E203" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F203" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J203">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="K203">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L203">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="M203">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="N203">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O203">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="P203">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q203">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R203">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S203">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T203">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
         <v>0</v>
@@ -17911,201 +17902,6 @@
         <v>0</v>
       </c>
       <c r="X203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:28">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204" t="s">
-        <v>31</v>
-      </c>
-      <c r="C204" t="s">
-        <v>34</v>
-      </c>
-      <c r="D204" s="2">
-        <v>45410.33333333334</v>
-      </c>
-      <c r="E204" t="s">
-        <v>41</v>
-      </c>
-      <c r="F204" t="s">
-        <v>36</v>
-      </c>
-      <c r="J204">
-        <v>1.75</v>
-      </c>
-      <c r="K204">
-        <v>3.6</v>
-      </c>
-      <c r="L204">
-        <v>4</v>
-      </c>
-      <c r="M204">
-        <v>2.1</v>
-      </c>
-      <c r="N204">
-        <v>3.6</v>
-      </c>
-      <c r="O204">
-        <v>2.9</v>
-      </c>
-      <c r="P204">
-        <v>-0.25</v>
-      </c>
-      <c r="Q204">
-        <v>1.9</v>
-      </c>
-      <c r="R204">
-        <v>1.9</v>
-      </c>
-      <c r="S204">
-        <v>3.25</v>
-      </c>
-      <c r="T204">
-        <v>1.85</v>
-      </c>
-      <c r="U204">
-        <v>1.95</v>
-      </c>
-      <c r="V204">
-        <v>0</v>
-      </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:28">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" t="s">
-        <v>32</v>
-      </c>
-      <c r="C205" t="s">
-        <v>34</v>
-      </c>
-      <c r="D205" s="2">
-        <v>45410.375</v>
-      </c>
-      <c r="E205" t="s">
-        <v>42</v>
-      </c>
-      <c r="F205" t="s">
-        <v>37</v>
-      </c>
-      <c r="J205">
-        <v>1.571</v>
-      </c>
-      <c r="K205">
-        <v>4</v>
-      </c>
-      <c r="L205">
-        <v>4.75</v>
-      </c>
-      <c r="M205">
-        <v>1.75</v>
-      </c>
-      <c r="N205">
-        <v>3.6</v>
-      </c>
-      <c r="O205">
-        <v>4</v>
-      </c>
-      <c r="P205">
-        <v>-0.75</v>
-      </c>
-      <c r="Q205">
-        <v>2</v>
-      </c>
-      <c r="R205">
-        <v>1.8</v>
-      </c>
-      <c r="S205">
-        <v>2.75</v>
-      </c>
-      <c r="T205">
-        <v>1.875</v>
-      </c>
-      <c r="U205">
-        <v>1.925</v>
-      </c>
-      <c r="V205">
-        <v>0</v>
-      </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:28">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206" t="s">
-        <v>33</v>
-      </c>
-      <c r="C206" t="s">
-        <v>34</v>
-      </c>
-      <c r="D206" s="2">
-        <v>45411.35416666666</v>
-      </c>
-      <c r="E206" t="s">
-        <v>45</v>
-      </c>
-      <c r="F206" t="s">
-        <v>39</v>
-      </c>
-      <c r="J206">
-        <v>1.4</v>
-      </c>
-      <c r="K206">
-        <v>4.333</v>
-      </c>
-      <c r="L206">
-        <v>6</v>
-      </c>
-      <c r="M206">
-        <v>1.4</v>
-      </c>
-      <c r="N206">
-        <v>4.333</v>
-      </c>
-      <c r="O206">
-        <v>6</v>
-      </c>
-      <c r="P206">
-        <v>-1.25</v>
-      </c>
-      <c r="Q206">
-        <v>1.875</v>
-      </c>
-      <c r="R206">
-        <v>1.925</v>
-      </c>
-      <c r="S206">
-        <v>2.75</v>
-      </c>
-      <c r="T206">
-        <v>1.8</v>
-      </c>
-      <c r="U206">
-        <v>2</v>
-      </c>
-      <c r="V206">
-        <v>0</v>
-      </c>
-      <c r="W206">
-        <v>0</v>
-      </c>
-      <c r="X206">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -95,15 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6992718</t>
-  </si>
-  <si>
-    <t>6992338</t>
-  </si>
-  <si>
-    <t>6992720</t>
   </si>
   <si>
     <t>6992722</t>
@@ -528,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB203"/>
+  <dimension ref="A1:AB200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,16 +616,16 @@
         <v>6992541</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45149.375</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -643,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>4.333</v>
@@ -711,16 +702,16 @@
         <v>6992317</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45149.39583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -729,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>3.6</v>
@@ -797,16 +788,16 @@
         <v>6992544</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45150.33333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -815,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -883,16 +874,16 @@
         <v>6992543</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45150.375</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -901,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -969,16 +960,16 @@
         <v>6992542</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45151.3125</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -987,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1055,16 +1046,16 @@
         <v>6992545</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45151.33333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1073,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1141,16 +1132,16 @@
         <v>6992546</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45151.375</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1159,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -1227,16 +1218,16 @@
         <v>6992547</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45152.375</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1245,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1313,16 +1304,16 @@
         <v>6992552</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45156.375</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1331,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>1.75</v>
@@ -1399,16 +1390,16 @@
         <v>6992318</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1417,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>1.533</v>
@@ -1485,16 +1476,16 @@
         <v>6992548</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1503,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1571,16 +1562,16 @@
         <v>6992549</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45157.375</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1589,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1657,16 +1648,16 @@
         <v>6992551</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1675,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1743,16 +1734,16 @@
         <v>6992554</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1761,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J15">
         <v>1.8</v>
@@ -1829,16 +1820,16 @@
         <v>6992550</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1847,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>1.166</v>
@@ -1915,16 +1906,16 @@
         <v>6992553</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45159.35416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1933,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2001,16 +1992,16 @@
         <v>6992558</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45163.375</v>
       </c>
       <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
         <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2019,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J18">
         <v>3.75</v>
@@ -2087,16 +2078,16 @@
         <v>6992561</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2105,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J19">
         <v>5.5</v>
@@ -2173,16 +2164,16 @@
         <v>6992555</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45164.375</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2191,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>4.75</v>
@@ -2259,16 +2250,16 @@
         <v>6992319</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2277,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J21">
         <v>2.3</v>
@@ -2345,16 +2336,16 @@
         <v>6992557</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45165.33333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2363,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2431,16 +2422,16 @@
         <v>6992560</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45165.375</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2449,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2517,16 +2508,16 @@
         <v>6992559</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45166.35416666666</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2535,7 +2526,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2603,16 +2594,16 @@
         <v>6992556</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45166.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2621,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J25">
         <v>2.2</v>
@@ -2689,16 +2680,16 @@
         <v>6992568</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45184.375</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2707,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2775,16 +2766,16 @@
         <v>6992567</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
         <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2793,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2861,16 +2852,16 @@
         <v>6992565</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45185.33333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -2879,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2947,16 +2938,16 @@
         <v>6992320</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45185.375</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -2965,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3033,16 +3024,16 @@
         <v>6992564</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3051,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>1.727</v>
@@ -3119,16 +3110,16 @@
         <v>6992566</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45186.33333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3137,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>1.615</v>
@@ -3205,16 +3196,16 @@
         <v>6992563</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45186.375</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3223,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3291,16 +3282,16 @@
         <v>6992562</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45187.35416666666</v>
       </c>
       <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
         <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>35</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3309,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J33">
         <v>2.375</v>
@@ -3377,16 +3368,16 @@
         <v>6992571</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45191.375</v>
       </c>
       <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
         <v>38</v>
-      </c>
-      <c r="F34" t="s">
-        <v>41</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3395,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3463,16 +3454,16 @@
         <v>6992573</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3481,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3549,16 +3540,16 @@
         <v>6992569</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3567,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J36">
         <v>2.75</v>
@@ -3635,16 +3626,16 @@
         <v>6992570</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45193.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3653,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>3.1</v>
@@ -3721,16 +3712,16 @@
         <v>6992572</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45193.375</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3739,7 +3730,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>2.625</v>
@@ -3807,16 +3798,16 @@
         <v>6992321</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45194.35416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3825,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>5.75</v>
@@ -3893,16 +3884,16 @@
         <v>6992574</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45194.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3911,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3979,16 +3970,16 @@
         <v>6992579</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45198.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3997,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>1.533</v>
@@ -4065,16 +4056,16 @@
         <v>6992576</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -4083,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>1.533</v>
@@ -4151,16 +4142,16 @@
         <v>6992582</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45199.375</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4169,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4237,16 +4228,16 @@
         <v>6992581</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4255,7 +4246,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4323,16 +4314,16 @@
         <v>6995903</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45200.3125</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4341,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J45">
         <v>2.45</v>
@@ -4409,16 +4400,16 @@
         <v>6992577</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45200.375</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4427,7 +4418,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J46">
         <v>1.533</v>
@@ -4495,16 +4486,16 @@
         <v>6992580</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45201.35416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4513,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4581,16 +4572,16 @@
         <v>6992587</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45205.375</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4599,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4667,16 +4658,16 @@
         <v>6992583</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45205.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4685,7 +4676,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J49">
         <v>4.5</v>
@@ -4753,16 +4744,16 @@
         <v>6992586</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4771,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J50">
         <v>2.6</v>
@@ -4839,16 +4830,16 @@
         <v>6992322</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45206.375</v>
       </c>
       <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
         <v>33</v>
-      </c>
-      <c r="F51" t="s">
-        <v>36</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4857,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J51">
         <v>2.2</v>
@@ -4925,16 +4916,16 @@
         <v>6992588</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4943,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J52">
         <v>2.2</v>
@@ -5011,16 +5002,16 @@
         <v>6992585</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
         <v>34</v>
-      </c>
-      <c r="F53" t="s">
-        <v>37</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5029,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5097,16 +5088,16 @@
         <v>6992584</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5115,7 +5106,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>1.4</v>
@@ -5183,16 +5174,16 @@
         <v>6992589</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45207.375</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5201,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5269,16 +5260,16 @@
         <v>6992591</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45219.33333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5287,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J56">
         <v>4.75</v>
@@ -5355,16 +5346,16 @@
         <v>6992596</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45219.375</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5373,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J57">
         <v>1.571</v>
@@ -5441,16 +5432,16 @@
         <v>6992593</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -5459,7 +5450,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5527,16 +5518,16 @@
         <v>6992592</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45220.375</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5545,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <v>1.615</v>
@@ -5613,16 +5604,16 @@
         <v>6992595</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5631,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5699,16 +5690,16 @@
         <v>6992594</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45221.375</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5717,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J61">
         <v>1.285</v>
@@ -5785,16 +5776,16 @@
         <v>6992324</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45226.375</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5803,7 +5794,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -5871,16 +5862,16 @@
         <v>6992603</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45226.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5889,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J63">
         <v>5.5</v>
@@ -5957,16 +5948,16 @@
         <v>6992602</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s">
         <v>44</v>
-      </c>
-      <c r="F64" t="s">
-        <v>47</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5975,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6043,16 +6034,16 @@
         <v>6992599</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45227.375</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6061,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6129,16 +6120,16 @@
         <v>6992597</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6147,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J66">
         <v>3.75</v>
@@ -6215,16 +6206,16 @@
         <v>6992600</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45228.3125</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6233,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>1.95</v>
@@ -6301,16 +6292,16 @@
         <v>6992601</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6319,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J68">
         <v>1.666</v>
@@ -6387,16 +6378,16 @@
         <v>6992598</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45228.375</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6405,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>1.5</v>
@@ -6473,16 +6464,16 @@
         <v>6992606</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6491,7 +6482,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J70">
         <v>2.55</v>
@@ -6559,16 +6550,16 @@
         <v>6992604</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45234.375</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6577,7 +6568,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>2.4</v>
@@ -6645,25 +6636,25 @@
         <v>6992610</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="s">
         <v>45</v>
-      </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
-      <c r="I72" t="s">
-        <v>48</v>
       </c>
       <c r="J72">
         <v>1.727</v>
@@ -6731,16 +6722,16 @@
         <v>6992605</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45235.375</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6749,7 +6740,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J73">
         <v>1.666</v>
@@ -6817,16 +6808,16 @@
         <v>6992707</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45236.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6835,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J74">
         <v>3.1</v>
@@ -6903,16 +6894,16 @@
         <v>6992325</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45236.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6921,7 +6912,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J75">
         <v>1.833</v>
@@ -6989,16 +6980,16 @@
         <v>7295626</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45240.33333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7007,7 +6998,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>2.875</v>
@@ -7075,16 +7066,16 @@
         <v>6992611</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45254.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7093,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7161,16 +7152,16 @@
         <v>6992617</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45254.375</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7179,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J78">
         <v>1.25</v>
@@ -7247,16 +7238,16 @@
         <v>6992615</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45255.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7265,7 +7256,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -7333,16 +7324,16 @@
         <v>6992614</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45255.375</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7351,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J80">
         <v>2.25</v>
@@ -7419,16 +7410,16 @@
         <v>6992613</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7437,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7505,16 +7496,16 @@
         <v>6995902</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45256.3125</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7523,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J82">
         <v>1.909</v>
@@ -7591,16 +7582,16 @@
         <v>6992612</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45256.375</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7609,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J83">
         <v>4.2</v>
@@ -7677,16 +7668,16 @@
         <v>6992616</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45257.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7695,7 +7686,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -7763,16 +7754,16 @@
         <v>6992620</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45261.375</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7781,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J85">
         <v>1.95</v>
@@ -7849,16 +7840,16 @@
         <v>6992623</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45261.375</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7867,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J86">
         <v>1.7</v>
@@ -7935,16 +7926,16 @@
         <v>6992622</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45262.33333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7953,7 +7944,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J87">
         <v>1.75</v>
@@ -8021,16 +8012,16 @@
         <v>6992326</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45262.375</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8039,7 +8030,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J88">
         <v>1.666</v>
@@ -8107,16 +8098,16 @@
         <v>6992624</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8125,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -8193,16 +8184,16 @@
         <v>6992618</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45263.3125</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8211,7 +8202,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8279,16 +8270,16 @@
         <v>6992621</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8297,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8365,16 +8356,16 @@
         <v>6992619</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45263.375</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8383,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8451,16 +8442,16 @@
         <v>6992625</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E93" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8469,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J93">
         <v>1.25</v>
@@ -8537,16 +8528,16 @@
         <v>6992630</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45269.375</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8555,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>1.25</v>
@@ -8623,16 +8614,16 @@
         <v>6992628</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E95" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" t="s">
         <v>40</v>
-      </c>
-      <c r="F95" t="s">
-        <v>43</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8641,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J95">
         <v>1.85</v>
@@ -8709,16 +8700,16 @@
         <v>6992627</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45270.3125</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8727,7 +8718,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8795,16 +8786,16 @@
         <v>6992629</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8813,7 +8804,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J97">
         <v>3.25</v>
@@ -8881,16 +8872,16 @@
         <v>6992631</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45270.375</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8899,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8967,16 +8958,16 @@
         <v>6992327</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8985,7 +8976,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9053,16 +9044,16 @@
         <v>6992626</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45272.35416666666</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9071,7 +9062,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J100">
         <v>2.5</v>
@@ -9139,16 +9130,16 @@
         <v>6992637</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45275.375</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9157,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J101">
         <v>2.375</v>
@@ -9225,16 +9216,16 @@
         <v>6992633</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45276.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9243,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J102">
         <v>4.75</v>
@@ -9311,16 +9302,16 @@
         <v>6992634</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9329,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>2.25</v>
@@ -9397,16 +9388,16 @@
         <v>6992636</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45276.375</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9415,7 +9406,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9483,16 +9474,16 @@
         <v>6992632</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45276.41666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9501,7 +9492,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J105">
         <v>2.4</v>
@@ -9569,16 +9560,16 @@
         <v>6992328</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45277.3125</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9587,7 +9578,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J106">
         <v>2.15</v>
@@ -9655,16 +9646,16 @@
         <v>6992638</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45277.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9673,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J107">
         <v>2.7</v>
@@ -9741,16 +9732,16 @@
         <v>6992635</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45277.375</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9759,7 +9750,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>6</v>
@@ -9827,16 +9818,16 @@
         <v>6992642</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45283.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9845,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J109">
         <v>2.15</v>
@@ -9913,16 +9904,16 @@
         <v>6992641</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45283.375</v>
       </c>
       <c r="E110" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9931,7 +9922,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J110">
         <v>1.75</v>
@@ -9999,16 +9990,16 @@
         <v>6992645</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45283.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -10017,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>1.3</v>
@@ -10085,16 +10076,16 @@
         <v>6992639</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45284.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>5</v>
@@ -10103,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>1.75</v>
@@ -10171,16 +10162,16 @@
         <v>6992644</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45284.33333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10189,7 +10180,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J113">
         <v>2.05</v>
@@ -10257,16 +10248,16 @@
         <v>6992329</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45284.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10275,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10343,16 +10334,16 @@
         <v>6992640</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45284.375</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10361,7 +10352,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10429,16 +10420,16 @@
         <v>7485126</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45288.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10447,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J116">
         <v>3.6</v>
@@ -10515,16 +10506,16 @@
         <v>7329293</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45288.375</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10533,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J117">
         <v>3.6</v>
@@ -10601,16 +10592,16 @@
         <v>7485127</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45288.375</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10619,7 +10610,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J118">
         <v>1.5</v>
@@ -10687,16 +10678,16 @@
         <v>7485128</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45297.375</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10705,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10773,16 +10764,16 @@
         <v>6992652</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45331.375</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10791,7 +10782,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J120">
         <v>3.1</v>
@@ -10859,16 +10850,16 @@
         <v>6992650</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10877,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10945,16 +10936,16 @@
         <v>6992646</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45332.375</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10963,7 +10954,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J122">
         <v>3.6</v>
@@ -11031,16 +11022,16 @@
         <v>6992647</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11049,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J123">
         <v>2.2</v>
@@ -11117,16 +11108,16 @@
         <v>6992330</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45333.3125</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11135,7 +11126,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>3.1</v>
@@ -11203,16 +11194,16 @@
         <v>6992651</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11221,7 +11212,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11289,16 +11280,16 @@
         <v>6992649</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11307,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11375,16 +11366,16 @@
         <v>6992648</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45333.375</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11393,7 +11384,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11461,16 +11452,16 @@
         <v>6992653</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11479,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11547,16 +11538,16 @@
         <v>6992656</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45335.375</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11565,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J129">
         <v>1.7</v>
@@ -11633,16 +11624,16 @@
         <v>6992659</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45336.33333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11651,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J130">
         <v>1.285</v>
@@ -11719,16 +11710,16 @@
         <v>6992331</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45336.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>4</v>
@@ -11737,7 +11728,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -11805,16 +11796,16 @@
         <v>6992657</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45336.375</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11823,7 +11814,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J132">
         <v>1.444</v>
@@ -11891,16 +11882,16 @@
         <v>6992655</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45337.33333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11909,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>1.833</v>
@@ -11977,16 +11968,16 @@
         <v>6992654</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45337.375</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11995,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J134">
         <v>1.333</v>
@@ -12063,16 +12054,16 @@
         <v>6992662</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45339.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12081,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J135">
         <v>5.5</v>
@@ -12149,16 +12140,16 @@
         <v>6992332</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12167,7 +12158,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J136">
         <v>2.6</v>
@@ -12235,16 +12226,16 @@
         <v>6992666</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45339.375</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12253,7 +12244,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J137">
         <v>4</v>
@@ -12321,16 +12312,16 @@
         <v>6992665</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12339,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12407,16 +12398,16 @@
         <v>6992660</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45340.3125</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12425,7 +12416,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J139">
         <v>4.75</v>
@@ -12493,16 +12484,16 @@
         <v>6992663</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45340.33333333334</v>
       </c>
       <c r="E140" t="s">
+        <v>34</v>
+      </c>
+      <c r="F140" t="s">
         <v>37</v>
-      </c>
-      <c r="F140" t="s">
-        <v>40</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12511,7 +12502,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J140">
         <v>2.75</v>
@@ -12579,16 +12570,16 @@
         <v>6992664</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45340.375</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12597,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J141">
         <v>2</v>
@@ -12665,16 +12656,16 @@
         <v>6992661</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45341.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12683,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J142">
         <v>2.1</v>
@@ -12751,16 +12742,16 @@
         <v>6992671</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45345.375</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12769,7 +12760,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J143">
         <v>3.2</v>
@@ -12837,16 +12828,16 @@
         <v>6992333</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G144">
         <v>6</v>
@@ -12855,7 +12846,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J144">
         <v>1.166</v>
@@ -12923,16 +12914,16 @@
         <v>6992672</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12941,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -13009,16 +13000,16 @@
         <v>6992668</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45346.375</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13027,7 +13018,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J146">
         <v>1.2</v>
@@ -13095,16 +13086,16 @@
         <v>6992667</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13113,7 +13104,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13181,16 +13172,16 @@
         <v>6992669</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45347.3125</v>
       </c>
       <c r="E148" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13199,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J148">
         <v>1.75</v>
@@ -13267,16 +13258,16 @@
         <v>6992673</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45347.33333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13285,7 +13276,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13353,16 +13344,16 @@
         <v>6992670</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45347.375</v>
       </c>
       <c r="E150" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13371,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J150">
         <v>1.95</v>
@@ -13439,16 +13430,16 @@
         <v>6992676</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13457,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>4.5</v>
@@ -13525,16 +13516,16 @@
         <v>6992674</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E152" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13543,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>2.15</v>
@@ -13611,16 +13602,16 @@
         <v>6992680</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45353.375</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13629,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13697,16 +13688,16 @@
         <v>6995901</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13715,7 +13706,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J154">
         <v>2.15</v>
@@ -13783,16 +13774,16 @@
         <v>6992678</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13801,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J155">
         <v>1.95</v>
@@ -13869,16 +13860,16 @@
         <v>6992675</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13887,7 +13878,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J156">
         <v>1.833</v>
@@ -13955,16 +13946,16 @@
         <v>6992679</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45354.375</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13973,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J157">
         <v>1.95</v>
@@ -14041,16 +14032,16 @@
         <v>6992677</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45355.35416666666</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14059,7 +14050,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J158">
         <v>2.875</v>
@@ -14127,16 +14118,16 @@
         <v>6992334</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45359.375</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14145,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J159">
         <v>1.533</v>
@@ -14213,16 +14204,16 @@
         <v>6992683</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F160" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14231,7 +14222,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J160">
         <v>5.5</v>
@@ -14299,16 +14290,16 @@
         <v>6992682</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45360.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G161">
         <v>7</v>
@@ -14317,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J161">
         <v>1.3</v>
@@ -14385,16 +14376,16 @@
         <v>6992686</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45360.375</v>
       </c>
       <c r="E162" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14403,7 +14394,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14471,16 +14462,16 @@
         <v>6992684</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14489,7 +14480,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J163">
         <v>1.4</v>
@@ -14557,16 +14548,16 @@
         <v>6992685</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14575,7 +14566,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J164">
         <v>2.05</v>
@@ -14643,16 +14634,16 @@
         <v>6992681</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14661,7 +14652,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14729,16 +14720,16 @@
         <v>6992687</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45361.375</v>
       </c>
       <c r="E166" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -14747,7 +14738,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14815,16 +14806,16 @@
         <v>6992690</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45381.33333333334</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14833,7 +14824,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J167">
         <v>2.3</v>
@@ -14901,16 +14892,16 @@
         <v>6992689</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E168" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14919,7 +14910,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J168">
         <v>3.25</v>
@@ -14987,16 +14978,16 @@
         <v>6992691</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45381.375</v>
       </c>
       <c r="E169" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15005,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J169">
         <v>2.75</v>
@@ -15073,16 +15064,16 @@
         <v>6992694</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15091,7 +15082,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J170">
         <v>4</v>
@@ -15159,16 +15150,16 @@
         <v>6992693</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45382.3125</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15177,7 +15168,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>1.4</v>
@@ -15245,16 +15236,16 @@
         <v>6992335</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -15263,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J172">
         <v>1.444</v>
@@ -15331,16 +15322,16 @@
         <v>6992692</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G173">
         <v>6</v>
@@ -15349,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J173">
         <v>1.444</v>
@@ -15417,16 +15408,16 @@
         <v>6992688</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45382.375</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15435,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J174">
         <v>2.7</v>
@@ -15503,16 +15494,16 @@
         <v>6992698</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45384.33333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15521,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15589,16 +15580,16 @@
         <v>6992700</v>
       </c>
       <c r="C176" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45384.375</v>
       </c>
       <c r="E176" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15607,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J176">
         <v>1.222</v>
@@ -15675,16 +15666,16 @@
         <v>6992696</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
         <v>45385.33333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15693,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J177">
         <v>1.833</v>
@@ -15761,16 +15752,16 @@
         <v>6992336</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D178" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E178" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15779,7 +15770,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J178">
         <v>1.8</v>
@@ -15844,85 +15835,85 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>8026714</v>
+        <v>6992695</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D179" s="2">
         <v>45385.375</v>
       </c>
       <c r="E179" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J179">
+        <v>2.1</v>
+      </c>
+      <c r="K179">
+        <v>3.75</v>
+      </c>
+      <c r="L179">
+        <v>2.7</v>
+      </c>
+      <c r="M179">
+        <v>1.95</v>
+      </c>
+      <c r="N179">
+        <v>3.8</v>
+      </c>
+      <c r="O179">
+        <v>2.9</v>
+      </c>
+      <c r="P179">
+        <v>-0.25</v>
+      </c>
+      <c r="Q179">
+        <v>1.8</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
         <v>3</v>
       </c>
-      <c r="K179">
-        <v>3.6</v>
-      </c>
-      <c r="L179">
-        <v>2</v>
-      </c>
-      <c r="M179">
-        <v>3.1</v>
-      </c>
-      <c r="N179">
-        <v>3.75</v>
-      </c>
-      <c r="O179">
-        <v>1.95</v>
-      </c>
-      <c r="P179">
-        <v>0.5</v>
-      </c>
-      <c r="Q179">
+      <c r="T179">
         <v>1.825</v>
       </c>
-      <c r="R179">
+      <c r="U179">
         <v>1.975</v>
       </c>
-      <c r="S179">
-        <v>2.75</v>
-      </c>
-      <c r="T179">
-        <v>1.85</v>
-      </c>
-      <c r="U179">
-        <v>1.95</v>
-      </c>
       <c r="V179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W179">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
+        <v>0.8</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
         <v>0.825</v>
       </c>
-      <c r="Z179">
-        <v>-1</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
       <c r="AB179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15930,10 +15921,10 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6992695</v>
+        <v>8026714</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2">
         <v>45385.375</v>
@@ -15942,73 +15933,73 @@
         <v>37</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G180">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J180">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="K180">
+        <v>3.6</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>3.1</v>
+      </c>
+      <c r="N180">
         <v>3.75</v>
       </c>
-      <c r="L180">
-        <v>2.7</v>
-      </c>
-      <c r="M180">
+      <c r="O180">
         <v>1.95</v>
       </c>
-      <c r="N180">
-        <v>3.8</v>
-      </c>
-      <c r="O180">
-        <v>2.9</v>
-      </c>
       <c r="P180">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q180">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T180">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
+        <v>-1</v>
+      </c>
+      <c r="W180">
+        <v>2.75</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>0.825</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
         <v>0.95</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>0.8</v>
-      </c>
-      <c r="Z180">
-        <v>-1</v>
-      </c>
-      <c r="AA180">
-        <v>0.825</v>
-      </c>
-      <c r="AB180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16019,16 +16010,16 @@
         <v>6992701</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2">
         <v>45386.33333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16037,7 +16028,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J181">
         <v>3.3</v>
@@ -16105,16 +16096,16 @@
         <v>6992699</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D182" s="2">
         <v>45386.375</v>
       </c>
       <c r="E182" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16123,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J182">
         <v>2.7</v>
@@ -16191,16 +16182,16 @@
         <v>6992703</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D183" s="2">
         <v>45388.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16209,7 +16200,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J183">
         <v>2.8</v>
@@ -16277,16 +16268,16 @@
         <v>6992608</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D184" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16295,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J184">
         <v>1.4</v>
@@ -16363,16 +16354,16 @@
         <v>6992706</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D185" s="2">
         <v>45388.375</v>
       </c>
       <c r="E185" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16381,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J185">
         <v>1.222</v>
@@ -16449,16 +16440,16 @@
         <v>6992705</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16467,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J186">
         <v>1.909</v>
@@ -16535,16 +16526,16 @@
         <v>6992337</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D187" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16553,7 +16544,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J187">
         <v>1.444</v>
@@ -16621,16 +16612,16 @@
         <v>6992704</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D188" s="2">
         <v>45389.33333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16639,7 +16630,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J188">
         <v>1.85</v>
@@ -16707,16 +16698,16 @@
         <v>6992702</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E189" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16725,7 +16716,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J189">
         <v>2</v>
@@ -16793,16 +16784,16 @@
         <v>6992708</v>
       </c>
       <c r="C190" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D190" s="2">
         <v>45389.375</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -16811,7 +16802,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J190">
         <v>1.85</v>
@@ -16879,16 +16870,16 @@
         <v>8075058</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2">
         <v>45400.375</v>
       </c>
       <c r="E191" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16897,7 +16888,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J191">
         <v>1.363</v>
@@ -16965,16 +16956,16 @@
         <v>6992709</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D192" s="2">
         <v>45401.375</v>
       </c>
       <c r="E192" t="s">
+        <v>38</v>
+      </c>
+      <c r="F192" t="s">
         <v>41</v>
-      </c>
-      <c r="F192" t="s">
-        <v>44</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16983,7 +16974,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J192">
         <v>1.363</v>
@@ -17051,16 +17042,16 @@
         <v>6992714</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D193" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F193" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17069,7 +17060,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J193">
         <v>1.444</v>
@@ -17137,16 +17128,16 @@
         <v>6995900</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17155,7 +17146,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J194">
         <v>3.3</v>
@@ -17223,16 +17214,16 @@
         <v>6992713</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D195" s="2">
         <v>45402.375</v>
       </c>
       <c r="E195" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17241,7 +17232,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J195">
         <v>2.1</v>
@@ -17309,16 +17300,16 @@
         <v>6992710</v>
       </c>
       <c r="C196" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D196" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E196" t="s">
+        <v>40</v>
+      </c>
+      <c r="F196" t="s">
         <v>43</v>
-      </c>
-      <c r="F196" t="s">
-        <v>46</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17327,7 +17318,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J196">
         <v>5.25</v>
@@ -17395,16 +17386,16 @@
         <v>6992712</v>
       </c>
       <c r="C197" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D197" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17413,7 +17404,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J197">
         <v>2</v>
@@ -17481,16 +17472,16 @@
         <v>6992711</v>
       </c>
       <c r="C198" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2">
         <v>45403.33333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17499,7 +17490,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J198">
         <v>2.2</v>
@@ -17567,16 +17558,16 @@
         <v>6992715</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D199" s="2">
         <v>45403.375</v>
       </c>
       <c r="E199" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17585,7 +17576,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J199">
         <v>4.75</v>
@@ -17653,52 +17644,52 @@
         <v>27</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2">
-        <v>45410.3125</v>
+        <v>45411.35416666666</v>
       </c>
       <c r="E200" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J200">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="K200">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L200">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="M200">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N200">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O200">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="P200">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T200">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U200">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
         <v>0</v>
@@ -17707,201 +17698,6 @@
         <v>0</v>
       </c>
       <c r="X200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:28">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201" t="s">
-        <v>28</v>
-      </c>
-      <c r="C201" t="s">
-        <v>31</v>
-      </c>
-      <c r="D201" s="2">
-        <v>45410.33333333334</v>
-      </c>
-      <c r="E201" t="s">
-        <v>38</v>
-      </c>
-      <c r="F201" t="s">
-        <v>33</v>
-      </c>
-      <c r="J201">
-        <v>1.75</v>
-      </c>
-      <c r="K201">
-        <v>3.6</v>
-      </c>
-      <c r="L201">
-        <v>4</v>
-      </c>
-      <c r="M201">
-        <v>2.1</v>
-      </c>
-      <c r="N201">
-        <v>3.6</v>
-      </c>
-      <c r="O201">
-        <v>2.9</v>
-      </c>
-      <c r="P201">
-        <v>-0.25</v>
-      </c>
-      <c r="Q201">
-        <v>1.9</v>
-      </c>
-      <c r="R201">
-        <v>1.9</v>
-      </c>
-      <c r="S201">
-        <v>3.25</v>
-      </c>
-      <c r="T201">
-        <v>1.85</v>
-      </c>
-      <c r="U201">
-        <v>1.95</v>
-      </c>
-      <c r="V201">
-        <v>0</v>
-      </c>
-      <c r="W201">
-        <v>0</v>
-      </c>
-      <c r="X201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:28">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202" t="s">
-        <v>29</v>
-      </c>
-      <c r="C202" t="s">
-        <v>31</v>
-      </c>
-      <c r="D202" s="2">
-        <v>45410.375</v>
-      </c>
-      <c r="E202" t="s">
-        <v>39</v>
-      </c>
-      <c r="F202" t="s">
-        <v>34</v>
-      </c>
-      <c r="J202">
-        <v>1.571</v>
-      </c>
-      <c r="K202">
-        <v>4</v>
-      </c>
-      <c r="L202">
-        <v>4.75</v>
-      </c>
-      <c r="M202">
-        <v>1.75</v>
-      </c>
-      <c r="N202">
-        <v>3.6</v>
-      </c>
-      <c r="O202">
-        <v>4</v>
-      </c>
-      <c r="P202">
-        <v>-0.75</v>
-      </c>
-      <c r="Q202">
-        <v>1.975</v>
-      </c>
-      <c r="R202">
-        <v>1.825</v>
-      </c>
-      <c r="S202">
-        <v>2.75</v>
-      </c>
-      <c r="T202">
-        <v>1.85</v>
-      </c>
-      <c r="U202">
-        <v>1.95</v>
-      </c>
-      <c r="V202">
-        <v>0</v>
-      </c>
-      <c r="W202">
-        <v>0</v>
-      </c>
-      <c r="X202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:28">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203" t="s">
-        <v>30</v>
-      </c>
-      <c r="C203" t="s">
-        <v>31</v>
-      </c>
-      <c r="D203" s="2">
-        <v>45411.35416666666</v>
-      </c>
-      <c r="E203" t="s">
-        <v>42</v>
-      </c>
-      <c r="F203" t="s">
-        <v>36</v>
-      </c>
-      <c r="J203">
-        <v>1.4</v>
-      </c>
-      <c r="K203">
-        <v>4.333</v>
-      </c>
-      <c r="L203">
-        <v>6</v>
-      </c>
-      <c r="M203">
-        <v>1.4</v>
-      </c>
-      <c r="N203">
-        <v>4.333</v>
-      </c>
-      <c r="O203">
-        <v>6</v>
-      </c>
-      <c r="P203">
-        <v>-1.25</v>
-      </c>
-      <c r="Q203">
-        <v>1.875</v>
-      </c>
-      <c r="R203">
-        <v>1.925</v>
-      </c>
-      <c r="S203">
-        <v>2.75</v>
-      </c>
-      <c r="T203">
-        <v>1.825</v>
-      </c>
-      <c r="U203">
-        <v>1.975</v>
-      </c>
-      <c r="V203">
-        <v>0</v>
-      </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-      <c r="X203">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -18386,19 +18386,19 @@
         <v>-0.75</v>
       </c>
       <c r="Q208">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
         <v>3</v>
       </c>
       <c r="T208">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
         <v>0</v>
@@ -18439,31 +18439,31 @@
         <v>1.285</v>
       </c>
       <c r="M209">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N209">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O209">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="P209">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q209">
+        <v>1.9</v>
+      </c>
+      <c r="R209">
+        <v>1.9</v>
+      </c>
+      <c r="S209">
+        <v>3</v>
+      </c>
+      <c r="T209">
         <v>1.85</v>
       </c>
-      <c r="R209">
+      <c r="U209">
         <v>1.95</v>
-      </c>
-      <c r="S209">
-        <v>3.25</v>
-      </c>
-      <c r="T209">
-        <v>1.975</v>
-      </c>
-      <c r="U209">
-        <v>1.825</v>
       </c>
       <c r="V209">
         <v>0</v>
@@ -18634,31 +18634,31 @@
         <v>3.8</v>
       </c>
       <c r="M212">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="N212">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P212">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q212">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R212">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S212">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T212">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U212">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V212">
         <v>0</v>
@@ -18764,31 +18764,31 @@
         <v>5.25</v>
       </c>
       <c r="M214">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="N214">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O214">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
         <v>3.25</v>
       </c>
       <c r="T214">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
         <v>0</v>
@@ -18841,10 +18841,10 @@
         <v>-0.25</v>
       </c>
       <c r="Q215">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
         <v>2.5</v>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6992727</t>
   </si>
   <si>
     <t>6992726</t>
@@ -540,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB215"/>
+  <dimension ref="A1:AB214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +634,16 @@
         <v>6992541</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45149.375</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -655,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2">
         <v>4.333</v>
@@ -723,16 +720,16 @@
         <v>6992317</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45149.39583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -741,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3">
         <v>3.6</v>
@@ -809,16 +806,16 @@
         <v>6992544</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45150.33333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -827,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -895,16 +892,16 @@
         <v>6992543</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45150.375</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -913,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -981,16 +978,16 @@
         <v>6992542</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45151.3125</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -999,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1067,16 +1064,16 @@
         <v>6992545</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45151.33333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1085,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1153,25 +1150,25 @@
         <v>6992546</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45151.375</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
         <v>51</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -1239,16 +1236,16 @@
         <v>6992547</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45152.375</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1257,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1325,16 +1322,16 @@
         <v>6992552</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45156.375</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1343,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10">
         <v>1.75</v>
@@ -1411,16 +1408,16 @@
         <v>6992318</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1429,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>1.533</v>
@@ -1497,16 +1494,16 @@
         <v>6992548</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1515,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1583,16 +1580,16 @@
         <v>6992549</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45157.375</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1601,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1669,16 +1666,16 @@
         <v>6992551</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1687,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1755,16 +1752,16 @@
         <v>6992554</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1773,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>1.8</v>
@@ -1841,16 +1838,16 @@
         <v>6992550</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1859,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <v>1.166</v>
@@ -1927,16 +1924,16 @@
         <v>6992553</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45159.35416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1945,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2013,16 +2010,16 @@
         <v>6992558</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45163.375</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2031,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18">
         <v>3.75</v>
@@ -2099,16 +2096,16 @@
         <v>6992561</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
         <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2117,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19">
         <v>5.5</v>
@@ -2185,16 +2182,16 @@
         <v>6992555</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45164.375</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2203,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20">
         <v>4.75</v>
@@ -2271,16 +2268,16 @@
         <v>6992319</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2289,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21">
         <v>2.3</v>
@@ -2357,16 +2354,16 @@
         <v>6992557</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45165.33333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2375,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2443,16 +2440,16 @@
         <v>6992560</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45165.375</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2461,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2529,16 +2526,16 @@
         <v>6992559</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45166.35416666666</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2547,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2615,16 +2612,16 @@
         <v>6992556</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45166.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2633,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25">
         <v>2.2</v>
@@ -2701,16 +2698,16 @@
         <v>6992568</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45184.375</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2719,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2787,16 +2784,16 @@
         <v>6992567</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2805,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2873,16 +2870,16 @@
         <v>6992565</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45185.33333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -2891,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2959,16 +2956,16 @@
         <v>6992320</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45185.375</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -2977,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3045,16 +3042,16 @@
         <v>6992564</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3063,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J30">
         <v>1.727</v>
@@ -3131,16 +3128,16 @@
         <v>6992566</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45186.33333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3149,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31">
         <v>1.615</v>
@@ -3217,16 +3214,16 @@
         <v>6992563</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45186.375</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3235,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3303,16 +3300,16 @@
         <v>6992562</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45187.35416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3321,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33">
         <v>2.375</v>
@@ -3389,16 +3386,16 @@
         <v>6992571</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45191.375</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3407,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3475,16 +3472,16 @@
         <v>6992573</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3493,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3561,16 +3558,16 @@
         <v>6992569</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3579,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36">
         <v>2.75</v>
@@ -3647,16 +3644,16 @@
         <v>6992570</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45193.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3665,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37">
         <v>3.1</v>
@@ -3733,16 +3730,16 @@
         <v>6992572</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45193.375</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3751,7 +3748,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>2.625</v>
@@ -3819,16 +3816,16 @@
         <v>6992321</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45194.35416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3837,7 +3834,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>5.75</v>
@@ -3905,16 +3902,16 @@
         <v>6992574</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45194.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3923,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3991,16 +3988,16 @@
         <v>6992579</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45198.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4009,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J41">
         <v>1.533</v>
@@ -4077,16 +4074,16 @@
         <v>6992576</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -4095,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42">
         <v>1.533</v>
@@ -4163,16 +4160,16 @@
         <v>6992582</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45199.375</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4181,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4249,16 +4246,16 @@
         <v>6992581</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
         <v>40</v>
-      </c>
-      <c r="F44" t="s">
-        <v>41</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4267,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4335,16 +4332,16 @@
         <v>6995903</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45200.3125</v>
       </c>
       <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s">
         <v>36</v>
-      </c>
-      <c r="F45" t="s">
-        <v>37</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4353,7 +4350,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J45">
         <v>2.45</v>
@@ -4421,16 +4418,16 @@
         <v>6992577</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45200.375</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4439,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J46">
         <v>1.533</v>
@@ -4507,16 +4504,16 @@
         <v>6992580</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45201.35416666666</v>
       </c>
       <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
         <v>48</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4525,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4593,16 +4590,16 @@
         <v>6992587</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45205.375</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4611,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4679,16 +4676,16 @@
         <v>6992583</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45205.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4697,7 +4694,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J49">
         <v>4.5</v>
@@ -4765,16 +4762,16 @@
         <v>6992586</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4783,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <v>2.6</v>
@@ -4851,16 +4848,16 @@
         <v>6992322</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45206.375</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4869,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J51">
         <v>2.2</v>
@@ -4937,16 +4934,16 @@
         <v>6992588</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4955,7 +4952,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J52">
         <v>2.2</v>
@@ -5023,16 +5020,16 @@
         <v>6992585</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5041,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5109,25 +5106,25 @@
         <v>6992584</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
         <v>50</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
         <v>51</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>52</v>
       </c>
       <c r="J54">
         <v>1.4</v>
@@ -5195,16 +5192,16 @@
         <v>6992589</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45207.375</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5213,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5281,16 +5278,16 @@
         <v>6992591</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45219.33333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5299,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J56">
         <v>4.75</v>
@@ -5367,16 +5364,16 @@
         <v>6992596</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45219.375</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5385,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J57">
         <v>1.571</v>
@@ -5453,16 +5450,16 @@
         <v>6992593</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -5471,7 +5468,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5539,16 +5536,16 @@
         <v>6992592</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45220.375</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5557,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J59">
         <v>1.615</v>
@@ -5625,16 +5622,16 @@
         <v>6992595</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5643,7 +5640,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5711,16 +5708,16 @@
         <v>6992594</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45221.375</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5729,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J61">
         <v>1.285</v>
@@ -5797,16 +5794,16 @@
         <v>6992324</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45226.375</v>
       </c>
       <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" t="s">
         <v>37</v>
-      </c>
-      <c r="F62" t="s">
-        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5815,7 +5812,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -5883,16 +5880,16 @@
         <v>6992603</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45226.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5901,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J63">
         <v>5.5</v>
@@ -5969,16 +5966,16 @@
         <v>6992602</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5987,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6055,16 +6052,16 @@
         <v>6992599</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45227.375</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6073,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6141,16 +6138,16 @@
         <v>6992597</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6159,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J66">
         <v>3.75</v>
@@ -6227,16 +6224,16 @@
         <v>6992600</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45228.3125</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6245,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>1.95</v>
@@ -6313,16 +6310,16 @@
         <v>6992601</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6331,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J68">
         <v>1.666</v>
@@ -6399,16 +6396,16 @@
         <v>6992598</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45228.375</v>
       </c>
       <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
         <v>46</v>
-      </c>
-      <c r="F69" t="s">
-        <v>47</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6417,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J69">
         <v>1.5</v>
@@ -6485,16 +6482,16 @@
         <v>6992606</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
         <v>45</v>
-      </c>
-      <c r="F70" t="s">
-        <v>46</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6503,7 +6500,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J70">
         <v>2.55</v>
@@ -6571,17 +6568,17 @@
         <v>6992604</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45234.375</v>
       </c>
       <c r="E71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s">
         <v>38</v>
       </c>
-      <c r="F71" t="s">
-        <v>39</v>
-      </c>
       <c r="G71">
         <v>2</v>
       </c>
@@ -6589,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J71">
         <v>2.4</v>
@@ -6657,16 +6654,16 @@
         <v>6992610</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6675,7 +6672,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J72">
         <v>1.727</v>
@@ -6743,16 +6740,16 @@
         <v>6992605</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45235.375</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6761,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J73">
         <v>1.666</v>
@@ -6829,16 +6826,16 @@
         <v>6992707</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45236.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6847,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J74">
         <v>3.1</v>
@@ -6915,16 +6912,16 @@
         <v>6992325</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45236.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6933,7 +6930,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J75">
         <v>1.833</v>
@@ -7001,16 +6998,16 @@
         <v>7295626</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45240.33333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7019,7 +7016,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>2.875</v>
@@ -7087,16 +7084,16 @@
         <v>6992611</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45254.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7105,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7173,16 +7170,16 @@
         <v>6992617</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45254.375</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7191,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J78">
         <v>1.25</v>
@@ -7259,16 +7256,16 @@
         <v>6992615</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45255.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7277,7 +7274,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -7345,16 +7342,16 @@
         <v>6992614</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45255.375</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7363,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J80">
         <v>2.25</v>
@@ -7431,16 +7428,16 @@
         <v>6992613</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7449,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7517,16 +7514,16 @@
         <v>6995902</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45256.3125</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7535,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J82">
         <v>1.909</v>
@@ -7603,16 +7600,16 @@
         <v>6992612</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45256.375</v>
       </c>
       <c r="E83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7621,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J83">
         <v>4.2</v>
@@ -7689,16 +7686,16 @@
         <v>6992616</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45257.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7707,7 +7704,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -7775,16 +7772,16 @@
         <v>6992623</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45261.375</v>
       </c>
       <c r="E85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" t="s">
         <v>47</v>
-      </c>
-      <c r="F85" t="s">
-        <v>48</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7793,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J85">
         <v>1.7</v>
@@ -7861,16 +7858,16 @@
         <v>6992620</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45261.375</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7879,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J86">
         <v>1.95</v>
@@ -7947,16 +7944,16 @@
         <v>6992622</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45262.33333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7965,7 +7962,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>1.75</v>
@@ -8033,16 +8030,16 @@
         <v>6992326</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45262.375</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8051,7 +8048,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J88">
         <v>1.666</v>
@@ -8119,16 +8116,16 @@
         <v>6992624</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8137,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -8205,16 +8202,16 @@
         <v>6992618</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45263.3125</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8223,7 +8220,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8291,16 +8288,16 @@
         <v>6992621</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8309,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8377,16 +8374,16 @@
         <v>6992619</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45263.375</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8395,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8463,16 +8460,16 @@
         <v>6992625</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8481,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>1.25</v>
@@ -8549,16 +8546,16 @@
         <v>6992630</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45269.375</v>
       </c>
       <c r="E94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8567,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <v>1.25</v>
@@ -8635,16 +8632,16 @@
         <v>6992628</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8653,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J95">
         <v>1.85</v>
@@ -8721,16 +8718,16 @@
         <v>6992627</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45270.3125</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8739,7 +8736,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8807,16 +8804,16 @@
         <v>6992629</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8825,7 +8822,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J97">
         <v>3.25</v>
@@ -8893,16 +8890,16 @@
         <v>6992631</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45270.375</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8911,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8979,16 +8976,16 @@
         <v>6992327</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8997,7 +8994,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9065,16 +9062,16 @@
         <v>6992626</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45272.35416666666</v>
       </c>
       <c r="E100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9083,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J100">
         <v>2.5</v>
@@ -9151,16 +9148,16 @@
         <v>6992637</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45275.375</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9169,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J101">
         <v>2.375</v>
@@ -9237,16 +9234,16 @@
         <v>6992633</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45276.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9255,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J102">
         <v>4.75</v>
@@ -9323,16 +9320,16 @@
         <v>6992634</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9341,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J103">
         <v>2.25</v>
@@ -9409,16 +9406,16 @@
         <v>6992636</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45276.375</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9427,7 +9424,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9495,16 +9492,16 @@
         <v>6992632</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45276.41666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9513,7 +9510,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J105">
         <v>2.4</v>
@@ -9581,16 +9578,16 @@
         <v>6992328</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45277.3125</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9599,7 +9596,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J106">
         <v>2.15</v>
@@ -9667,16 +9664,16 @@
         <v>6992638</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45277.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9685,7 +9682,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>2.7</v>
@@ -9753,16 +9750,16 @@
         <v>6992635</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45277.375</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9771,7 +9768,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J108">
         <v>6</v>
@@ -9839,16 +9836,16 @@
         <v>6992642</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45283.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9857,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>2.15</v>
@@ -9925,16 +9922,16 @@
         <v>6992641</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45283.375</v>
       </c>
       <c r="E110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9943,7 +9940,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J110">
         <v>1.75</v>
@@ -10011,16 +10008,16 @@
         <v>6992645</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45283.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -10029,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J111">
         <v>1.3</v>
@@ -10097,16 +10094,16 @@
         <v>6992639</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45284.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>5</v>
@@ -10115,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J112">
         <v>1.75</v>
@@ -10183,16 +10180,16 @@
         <v>6992644</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45284.33333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10201,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J113">
         <v>2.05</v>
@@ -10269,16 +10266,16 @@
         <v>6992329</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45284.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10287,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10355,16 +10352,16 @@
         <v>6992640</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45284.375</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10373,7 +10370,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10441,16 +10438,16 @@
         <v>7485126</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45288.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10459,7 +10456,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J116">
         <v>3.6</v>
@@ -10527,16 +10524,16 @@
         <v>7485127</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45288.375</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10545,7 +10542,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J117">
         <v>1.5</v>
@@ -10613,16 +10610,16 @@
         <v>7329293</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45288.375</v>
       </c>
       <c r="E118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10631,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J118">
         <v>3.6</v>
@@ -10699,16 +10696,16 @@
         <v>7485128</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45297.375</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10717,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10785,16 +10782,16 @@
         <v>6992652</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45331.375</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10803,7 +10800,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J120">
         <v>3.1</v>
@@ -10871,16 +10868,16 @@
         <v>6992650</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10889,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10957,16 +10954,16 @@
         <v>6992646</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45332.375</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10975,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J122">
         <v>3.6</v>
@@ -11043,16 +11040,16 @@
         <v>6992647</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11061,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J123">
         <v>2.2</v>
@@ -11129,16 +11126,16 @@
         <v>6992330</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45333.3125</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11147,7 +11144,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J124">
         <v>3.1</v>
@@ -11215,16 +11212,16 @@
         <v>6992651</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11233,7 +11230,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11301,16 +11298,16 @@
         <v>6992649</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11319,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11387,16 +11384,16 @@
         <v>6992648</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45333.375</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11405,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11473,16 +11470,16 @@
         <v>6992653</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11491,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11559,16 +11556,16 @@
         <v>6992656</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45335.375</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11577,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J129">
         <v>1.7</v>
@@ -11645,16 +11642,16 @@
         <v>6992659</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45336.33333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11663,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J130">
         <v>1.285</v>
@@ -11731,16 +11728,16 @@
         <v>6992331</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45336.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131">
         <v>4</v>
@@ -11749,7 +11746,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -11817,16 +11814,16 @@
         <v>6992657</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45336.375</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11835,7 +11832,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J132">
         <v>1.444</v>
@@ -11903,16 +11900,16 @@
         <v>6992655</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45337.33333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11921,7 +11918,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J133">
         <v>1.833</v>
@@ -11989,16 +11986,16 @@
         <v>6992654</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45337.375</v>
       </c>
       <c r="E134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12007,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J134">
         <v>1.333</v>
@@ -12075,16 +12072,16 @@
         <v>6992662</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45339.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12093,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J135">
         <v>5.5</v>
@@ -12161,16 +12158,16 @@
         <v>6992332</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12179,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J136">
         <v>2.6</v>
@@ -12247,16 +12244,16 @@
         <v>6992666</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45339.375</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12265,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J137">
         <v>4</v>
@@ -12333,16 +12330,16 @@
         <v>6992665</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12351,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12419,16 +12416,16 @@
         <v>6992660</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45340.3125</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12437,7 +12434,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J139">
         <v>4.75</v>
@@ -12505,16 +12502,16 @@
         <v>6992663</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45340.33333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12523,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J140">
         <v>2.75</v>
@@ -12591,16 +12588,16 @@
         <v>6992664</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45340.375</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12609,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J141">
         <v>2</v>
@@ -12677,16 +12674,16 @@
         <v>6992661</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45341.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12695,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J142">
         <v>2.1</v>
@@ -12763,16 +12760,16 @@
         <v>6992671</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45345.375</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12781,7 +12778,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J143">
         <v>3.2</v>
@@ -12849,16 +12846,16 @@
         <v>6992333</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144">
         <v>6</v>
@@ -12867,7 +12864,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J144">
         <v>1.166</v>
@@ -12935,16 +12932,16 @@
         <v>6992672</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12953,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -13021,16 +13018,16 @@
         <v>6992668</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45346.375</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13039,7 +13036,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J146">
         <v>1.2</v>
@@ -13107,16 +13104,16 @@
         <v>6992667</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13125,7 +13122,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13193,16 +13190,16 @@
         <v>6992669</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45347.3125</v>
       </c>
       <c r="E148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13211,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J148">
         <v>1.75</v>
@@ -13279,16 +13276,16 @@
         <v>6992673</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45347.33333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13297,7 +13294,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13365,16 +13362,16 @@
         <v>6992670</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45347.375</v>
       </c>
       <c r="E150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13383,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J150">
         <v>1.95</v>
@@ -13451,16 +13448,16 @@
         <v>6992676</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13469,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J151">
         <v>4.5</v>
@@ -13537,16 +13534,16 @@
         <v>6992674</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13555,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J152">
         <v>2.15</v>
@@ -13623,16 +13620,16 @@
         <v>6992680</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45353.375</v>
       </c>
       <c r="E153" t="s">
+        <v>42</v>
+      </c>
+      <c r="F153" t="s">
         <v>43</v>
-      </c>
-      <c r="F153" t="s">
-        <v>44</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13641,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13709,16 +13706,16 @@
         <v>6995901</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13727,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J154">
         <v>2.15</v>
@@ -13795,16 +13792,16 @@
         <v>6992678</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13813,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J155">
         <v>1.95</v>
@@ -13881,16 +13878,16 @@
         <v>6992675</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13899,7 +13896,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J156">
         <v>1.833</v>
@@ -13967,16 +13964,16 @@
         <v>6992679</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45354.375</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13985,7 +13982,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J157">
         <v>1.95</v>
@@ -14053,16 +14050,16 @@
         <v>6992677</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45355.35416666666</v>
       </c>
       <c r="E158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14071,7 +14068,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J158">
         <v>2.875</v>
@@ -14139,16 +14136,16 @@
         <v>6992334</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45359.375</v>
       </c>
       <c r="E159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14157,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J159">
         <v>1.533</v>
@@ -14225,16 +14222,16 @@
         <v>6992683</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14243,7 +14240,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J160">
         <v>5.5</v>
@@ -14311,16 +14308,16 @@
         <v>6992682</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45360.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G161">
         <v>7</v>
@@ -14329,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J161">
         <v>1.3</v>
@@ -14397,16 +14394,16 @@
         <v>6992686</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45360.375</v>
       </c>
       <c r="E162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14415,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14483,16 +14480,16 @@
         <v>6992684</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14501,7 +14498,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J163">
         <v>1.4</v>
@@ -14569,16 +14566,16 @@
         <v>6992685</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14587,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J164">
         <v>2.05</v>
@@ -14655,16 +14652,16 @@
         <v>6992681</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14673,7 +14670,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14741,16 +14738,16 @@
         <v>6992687</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45361.375</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -14759,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14827,17 +14824,17 @@
         <v>6992690</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45381.33333333334</v>
       </c>
       <c r="E167" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" t="s">
         <v>39</v>
       </c>
-      <c r="F167" t="s">
-        <v>40</v>
-      </c>
       <c r="G167">
         <v>2</v>
       </c>
@@ -14845,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J167">
         <v>2.3</v>
@@ -14913,16 +14910,16 @@
         <v>6992689</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14931,7 +14928,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J168">
         <v>3.25</v>
@@ -14999,16 +14996,16 @@
         <v>6992691</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45381.375</v>
       </c>
       <c r="E169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15017,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J169">
         <v>2.75</v>
@@ -15085,16 +15082,16 @@
         <v>6992694</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15103,7 +15100,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J170">
         <v>4</v>
@@ -15171,16 +15168,16 @@
         <v>6992693</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45382.3125</v>
       </c>
       <c r="E171" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15189,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J171">
         <v>1.4</v>
@@ -15257,16 +15254,16 @@
         <v>6992335</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -15275,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J172">
         <v>1.444</v>
@@ -15343,16 +15340,16 @@
         <v>6992692</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G173">
         <v>6</v>
@@ -15361,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J173">
         <v>1.444</v>
@@ -15429,16 +15426,16 @@
         <v>6992688</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45382.375</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15447,7 +15444,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J174">
         <v>2.7</v>
@@ -15515,16 +15512,16 @@
         <v>6992698</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45384.33333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15533,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15601,16 +15598,16 @@
         <v>6992700</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45384.375</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15619,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J176">
         <v>1.222</v>
@@ -15687,16 +15684,16 @@
         <v>6992696</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45385.33333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15705,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J177">
         <v>1.833</v>
@@ -15773,16 +15770,16 @@
         <v>6992336</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15791,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J178">
         <v>1.8</v>
@@ -15859,16 +15856,16 @@
         <v>8026714</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45385.375</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15877,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J179">
         <v>3</v>
@@ -15945,16 +15942,16 @@
         <v>6992695</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45385.375</v>
       </c>
       <c r="E180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G180">
         <v>5</v>
@@ -15963,7 +15960,7 @@
         <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J180">
         <v>2.1</v>
@@ -16031,16 +16028,16 @@
         <v>6992701</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45386.33333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16049,7 +16046,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J181">
         <v>3.3</v>
@@ -16117,16 +16114,16 @@
         <v>6992699</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45386.375</v>
       </c>
       <c r="E182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16135,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J182">
         <v>2.7</v>
@@ -16203,16 +16200,16 @@
         <v>6992703</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45388.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16221,7 +16218,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J183">
         <v>2.8</v>
@@ -16289,16 +16286,16 @@
         <v>6992608</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E184" t="s">
+        <v>40</v>
+      </c>
+      <c r="F184" t="s">
         <v>41</v>
-      </c>
-      <c r="F184" t="s">
-        <v>42</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16307,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J184">
         <v>1.4</v>
@@ -16375,16 +16372,16 @@
         <v>6992706</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45388.375</v>
       </c>
       <c r="E185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16393,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J185">
         <v>1.222</v>
@@ -16461,16 +16458,16 @@
         <v>6992705</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16479,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J186">
         <v>1.909</v>
@@ -16547,16 +16544,16 @@
         <v>6992337</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16565,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J187">
         <v>1.444</v>
@@ -16633,16 +16630,16 @@
         <v>6992704</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45389.33333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16651,7 +16648,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J188">
         <v>1.85</v>
@@ -16719,16 +16716,16 @@
         <v>6992702</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16737,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J189">
         <v>2</v>
@@ -16805,16 +16802,16 @@
         <v>6992708</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45389.375</v>
       </c>
       <c r="E190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -16823,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J190">
         <v>1.85</v>
@@ -16891,16 +16888,16 @@
         <v>8075058</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45400.375</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16909,7 +16906,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J191">
         <v>1.363</v>
@@ -16977,16 +16974,16 @@
         <v>6992709</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45401.375</v>
       </c>
       <c r="E192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16995,7 +16992,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J192">
         <v>1.363</v>
@@ -17063,16 +17060,16 @@
         <v>6992714</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17081,7 +17078,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J193">
         <v>1.444</v>
@@ -17149,16 +17146,16 @@
         <v>6995900</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17167,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J194">
         <v>3.3</v>
@@ -17235,16 +17232,16 @@
         <v>6992713</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45402.375</v>
       </c>
       <c r="E195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17253,7 +17250,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J195">
         <v>2.1</v>
@@ -17321,16 +17318,16 @@
         <v>6992710</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17339,7 +17336,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J196">
         <v>5.25</v>
@@ -17407,16 +17404,16 @@
         <v>6992712</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E197" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17425,7 +17422,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J197">
         <v>2</v>
@@ -17493,16 +17490,16 @@
         <v>6992711</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45403.33333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17511,7 +17508,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J198">
         <v>2.2</v>
@@ -17579,16 +17576,16 @@
         <v>6992715</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45403.375</v>
       </c>
       <c r="E199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17597,7 +17594,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J199">
         <v>4.75</v>
@@ -17665,16 +17662,16 @@
         <v>6992716</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2">
         <v>45409.33333333334</v>
       </c>
       <c r="E200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -17683,7 +17680,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J200">
         <v>1.285</v>
@@ -17751,16 +17748,16 @@
         <v>6992721</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
         <v>45409.35416666666</v>
       </c>
       <c r="E201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -17769,7 +17766,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J201">
         <v>1.65</v>
@@ -17837,16 +17834,16 @@
         <v>6992717</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
         <v>45409.375</v>
       </c>
       <c r="E202" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17855,7 +17852,7 @@
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J202">
         <v>2.3</v>
@@ -17923,16 +17920,16 @@
         <v>6992719</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>45409.41666666666</v>
       </c>
       <c r="E203" t="s">
+        <v>43</v>
+      </c>
+      <c r="F203" t="s">
         <v>44</v>
-      </c>
-      <c r="F203" t="s">
-        <v>45</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -17941,7 +17938,7 @@
         <v>3</v>
       </c>
       <c r="I203" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -18009,16 +18006,16 @@
         <v>6992718</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
         <v>45410.3125</v>
       </c>
       <c r="E204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18027,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J204">
         <v>2.875</v>
@@ -18095,16 +18092,16 @@
         <v>6992338</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
         <v>45410.33333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G205">
         <v>4</v>
@@ -18113,7 +18110,7 @@
         <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J205">
         <v>1.75</v>
@@ -18181,16 +18178,16 @@
         <v>6992720</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>45410.375</v>
       </c>
       <c r="E206" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18199,7 +18196,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J206">
         <v>1.571</v>
@@ -18267,16 +18264,16 @@
         <v>6992722</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2">
         <v>45411.35416666666</v>
       </c>
       <c r="E207" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18285,7 +18282,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J207">
         <v>1.4</v>
@@ -18353,52 +18350,52 @@
         <v>27</v>
       </c>
       <c r="C208" t="s">
+        <v>34</v>
+      </c>
+      <c r="D208" s="2">
+        <v>45416.33333333334</v>
+      </c>
+      <c r="E208" t="s">
         <v>35</v>
       </c>
-      <c r="D208" s="2">
-        <v>45415.375</v>
-      </c>
-      <c r="E208" t="s">
-        <v>39</v>
-      </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J208">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="K208">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="M208">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N208">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O208">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="P208">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q208">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S208">
         <v>3</v>
       </c>
       <c r="T208">
+        <v>1.95</v>
+      </c>
+      <c r="U208">
         <v>1.85</v>
-      </c>
-      <c r="U208">
-        <v>1.95</v>
       </c>
       <c r="V208">
         <v>0</v>
@@ -18418,52 +18415,52 @@
         <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D209" s="2">
-        <v>45416.33333333334</v>
+        <v>45416.35416666666</v>
       </c>
       <c r="E209" t="s">
         <v>36</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J209">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="K209">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L209">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="M209">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N209">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="O209">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="P209">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q209">
+        <v>2</v>
+      </c>
+      <c r="R209">
+        <v>1.8</v>
+      </c>
+      <c r="S209">
+        <v>2.75</v>
+      </c>
+      <c r="T209">
         <v>1.9</v>
       </c>
-      <c r="R209">
+      <c r="U209">
         <v>1.9</v>
-      </c>
-      <c r="S209">
-        <v>3</v>
-      </c>
-      <c r="T209">
-        <v>1.85</v>
-      </c>
-      <c r="U209">
-        <v>1.95</v>
       </c>
       <c r="V209">
         <v>0</v>
@@ -18483,52 +18480,52 @@
         <v>29</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D210" s="2">
-        <v>45416.35416666666</v>
+        <v>45416.375</v>
       </c>
       <c r="E210" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F210" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J210">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="K210">
         <v>3.3</v>
       </c>
       <c r="L210">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="M210">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N210">
         <v>3.3</v>
       </c>
       <c r="O210">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P210">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S210">
         <v>2.75</v>
       </c>
       <c r="T210">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U210">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
         <v>0</v>
@@ -18548,52 +18545,52 @@
         <v>30</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D211" s="2">
-        <v>45416.375</v>
+        <v>45416.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J211">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="K211">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L211">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="M211">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="N211">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O211">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="P211">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q211">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T211">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V211">
         <v>0</v>
@@ -18613,52 +18610,52 @@
         <v>31</v>
       </c>
       <c r="C212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2">
-        <v>45416.41666666666</v>
+        <v>45417.3125</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F212" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J212">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="K212">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L212">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="M212">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="P212">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q212">
+        <v>1.775</v>
+      </c>
+      <c r="R212">
+        <v>2.025</v>
+      </c>
+      <c r="S212">
+        <v>3</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
         <v>1.8</v>
-      </c>
-      <c r="R212">
-        <v>2</v>
-      </c>
-      <c r="S212">
-        <v>3.25</v>
-      </c>
-      <c r="T212">
-        <v>2.025</v>
-      </c>
-      <c r="U212">
-        <v>1.775</v>
       </c>
       <c r="V212">
         <v>0</v>
@@ -18678,37 +18675,37 @@
         <v>32</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D213" s="2">
-        <v>45417.3125</v>
+        <v>45417.33333333334</v>
       </c>
       <c r="E213" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F213" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J213">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="K213">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L213">
-        <v>1.45</v>
+        <v>5.25</v>
       </c>
       <c r="M213">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="N213">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O213">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="P213">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q213">
         <v>1.8</v>
@@ -18717,13 +18714,13 @@
         <v>2</v>
       </c>
       <c r="S213">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U213">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
         <v>0</v>
@@ -18743,52 +18740,52 @@
         <v>33</v>
       </c>
       <c r="C214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D214" s="2">
-        <v>45417.33333333334</v>
+        <v>45417.375</v>
       </c>
       <c r="E214" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F214" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J214">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="K214">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="M214">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N214">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O214">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q214">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T214">
+        <v>1.85</v>
+      </c>
+      <c r="U214">
         <v>1.95</v>
-      </c>
-      <c r="U214">
-        <v>1.85</v>
       </c>
       <c r="V214">
         <v>0</v>
@@ -18797,71 +18794,6 @@
         <v>0</v>
       </c>
       <c r="X214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:24">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" t="s">
-        <v>34</v>
-      </c>
-      <c r="C215" t="s">
-        <v>35</v>
-      </c>
-      <c r="D215" s="2">
-        <v>45417.375</v>
-      </c>
-      <c r="E215" t="s">
-        <v>40</v>
-      </c>
-      <c r="F215" t="s">
-        <v>43</v>
-      </c>
-      <c r="J215">
-        <v>2.05</v>
-      </c>
-      <c r="K215">
-        <v>3.25</v>
-      </c>
-      <c r="L215">
-        <v>3.1</v>
-      </c>
-      <c r="M215">
-        <v>2.05</v>
-      </c>
-      <c r="N215">
-        <v>3.25</v>
-      </c>
-      <c r="O215">
-        <v>3.1</v>
-      </c>
-      <c r="P215">
-        <v>-0.25</v>
-      </c>
-      <c r="Q215">
-        <v>1.825</v>
-      </c>
-      <c r="R215">
-        <v>1.975</v>
-      </c>
-      <c r="S215">
-        <v>2.5</v>
-      </c>
-      <c r="T215">
-        <v>1.85</v>
-      </c>
-      <c r="U215">
-        <v>1.95</v>
-      </c>
-      <c r="V215">
-        <v>0</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
         <v>0</v>
       </c>
     </row>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -95,27 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6992726</t>
-  </si>
-  <si>
-    <t>6992339</t>
-  </si>
-  <si>
-    <t>6992729</t>
-  </si>
-  <si>
-    <t>6992723</t>
-  </si>
-  <si>
-    <t>6992725</t>
-  </si>
-  <si>
-    <t>6992724</t>
-  </si>
-  <si>
-    <t>6992728</t>
   </si>
   <si>
     <t>Thailand Premier League</t>
@@ -537,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB214"/>
+  <dimension ref="A1:AB215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,25 +613,25 @@
         <v>6992541</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45149.375</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
         <v>44</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
       </c>
       <c r="J2">
         <v>4.333</v>
@@ -720,17 +699,17 @@
         <v>6992317</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45149.39583333334</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
       <c r="G3">
         <v>2</v>
       </c>
@@ -738,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>3.6</v>
@@ -806,16 +785,16 @@
         <v>6992544</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45150.33333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -824,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -892,16 +871,16 @@
         <v>6992543</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45150.375</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -910,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -978,16 +957,16 @@
         <v>6992542</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45151.3125</v>
       </c>
       <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -996,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1064,16 +1043,16 @@
         <v>6992545</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45151.33333333334</v>
       </c>
       <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1082,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1150,16 +1129,16 @@
         <v>6992546</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45151.375</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1168,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -1236,16 +1215,16 @@
         <v>6992547</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45152.375</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1254,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1322,16 +1301,16 @@
         <v>6992552</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45156.375</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1340,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>1.75</v>
@@ -1408,16 +1387,16 @@
         <v>6992318</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1426,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>1.533</v>
@@ -1494,16 +1473,16 @@
         <v>6992548</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1512,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1580,16 +1559,16 @@
         <v>6992549</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45157.375</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1598,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1666,16 +1645,16 @@
         <v>6992551</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1684,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1752,16 +1731,16 @@
         <v>6992554</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1770,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1.8</v>
@@ -1838,16 +1817,16 @@
         <v>6992550</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1856,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J16">
         <v>1.166</v>
@@ -1924,16 +1903,16 @@
         <v>6992553</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45159.35416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1942,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2010,16 +1989,16 @@
         <v>6992558</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45163.375</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2028,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>3.75</v>
@@ -2096,16 +2075,16 @@
         <v>6992561</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2114,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J19">
         <v>5.5</v>
@@ -2182,16 +2161,16 @@
         <v>6992555</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45164.375</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2200,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>4.75</v>
@@ -2268,16 +2247,16 @@
         <v>6992319</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2286,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J21">
         <v>2.3</v>
@@ -2354,16 +2333,16 @@
         <v>6992557</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45165.33333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2372,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2440,16 +2419,16 @@
         <v>6992560</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45165.375</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2458,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2526,16 +2505,16 @@
         <v>6992559</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45166.35416666666</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2544,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2612,16 +2591,16 @@
         <v>6992556</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45166.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2630,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J25">
         <v>2.2</v>
@@ -2698,16 +2677,16 @@
         <v>6992568</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45184.375</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2716,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2784,16 +2763,16 @@
         <v>6992567</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2802,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2870,16 +2849,16 @@
         <v>6992565</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45185.33333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -2888,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2956,16 +2935,16 @@
         <v>6992320</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45185.375</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -2974,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3042,16 +3021,16 @@
         <v>6992564</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3060,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J30">
         <v>1.727</v>
@@ -3128,16 +3107,16 @@
         <v>6992566</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45186.33333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3146,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J31">
         <v>1.615</v>
@@ -3214,16 +3193,16 @@
         <v>6992563</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45186.375</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3232,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3300,16 +3279,16 @@
         <v>6992562</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45187.35416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3318,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J33">
         <v>2.375</v>
@@ -3386,16 +3365,16 @@
         <v>6992571</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45191.375</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3404,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3472,16 +3451,16 @@
         <v>6992573</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3490,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3558,16 +3537,16 @@
         <v>6992569</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3576,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J36">
         <v>2.75</v>
@@ -3644,16 +3623,16 @@
         <v>6992570</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45193.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3662,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J37">
         <v>3.1</v>
@@ -3730,16 +3709,16 @@
         <v>6992572</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45193.375</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3748,7 +3727,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J38">
         <v>2.625</v>
@@ -3816,16 +3795,16 @@
         <v>6992321</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45194.35416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3834,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J39">
         <v>5.75</v>
@@ -3902,16 +3881,16 @@
         <v>6992574</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45194.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3920,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3988,16 +3967,16 @@
         <v>6992579</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45198.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4006,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J41">
         <v>1.533</v>
@@ -4074,16 +4053,16 @@
         <v>6992576</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -4092,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J42">
         <v>1.533</v>
@@ -4160,16 +4139,16 @@
         <v>6992582</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45199.375</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4178,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4246,16 +4225,16 @@
         <v>6992581</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4264,7 +4243,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4332,16 +4311,16 @@
         <v>6995903</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45200.3125</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4350,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>2.45</v>
@@ -4418,16 +4397,16 @@
         <v>6992577</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45200.375</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4436,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>1.533</v>
@@ -4504,16 +4483,16 @@
         <v>6992580</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45201.35416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4522,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4590,16 +4569,16 @@
         <v>6992587</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45205.375</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4608,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4676,16 +4655,16 @@
         <v>6992583</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45205.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4694,7 +4673,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>4.5</v>
@@ -4762,16 +4741,16 @@
         <v>6992586</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4780,7 +4759,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>2.6</v>
@@ -4848,16 +4827,16 @@
         <v>6992322</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45206.375</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4866,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>2.2</v>
@@ -4934,16 +4913,16 @@
         <v>6992588</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4952,7 +4931,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J52">
         <v>2.2</v>
@@ -5020,16 +4999,16 @@
         <v>6992585</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5038,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5106,16 +5085,16 @@
         <v>6992584</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5124,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>1.4</v>
@@ -5192,16 +5171,16 @@
         <v>6992589</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45207.375</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5210,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5278,16 +5257,16 @@
         <v>6992591</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45219.33333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5296,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>4.75</v>
@@ -5364,16 +5343,16 @@
         <v>6992596</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45219.375</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5382,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J57">
         <v>1.571</v>
@@ -5450,16 +5429,16 @@
         <v>6992593</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -5468,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5536,16 +5515,16 @@
         <v>6992592</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45220.375</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5554,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J59">
         <v>1.615</v>
@@ -5622,16 +5601,16 @@
         <v>6992595</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5640,7 +5619,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5708,16 +5687,16 @@
         <v>6992594</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45221.375</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5726,7 +5705,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J61">
         <v>1.285</v>
@@ -5794,16 +5773,16 @@
         <v>6992324</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45226.375</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5812,7 +5791,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -5880,16 +5859,16 @@
         <v>6992603</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45226.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5898,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J63">
         <v>5.5</v>
@@ -5966,16 +5945,16 @@
         <v>6992602</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5984,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6052,16 +6031,16 @@
         <v>6992599</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45227.375</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6070,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6138,16 +6117,16 @@
         <v>6992597</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6156,7 +6135,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J66">
         <v>3.75</v>
@@ -6224,16 +6203,16 @@
         <v>6992600</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45228.3125</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6242,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J67">
         <v>1.95</v>
@@ -6310,16 +6289,16 @@
         <v>6992601</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6328,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>1.666</v>
@@ -6396,16 +6375,16 @@
         <v>6992598</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45228.375</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6414,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J69">
         <v>1.5</v>
@@ -6482,16 +6461,16 @@
         <v>6992606</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6500,7 +6479,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J70">
         <v>2.55</v>
@@ -6568,16 +6547,16 @@
         <v>6992604</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45234.375</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6586,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J71">
         <v>2.4</v>
@@ -6654,16 +6633,16 @@
         <v>6992610</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6672,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>1.727</v>
@@ -6740,16 +6719,16 @@
         <v>6992605</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45235.375</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6758,7 +6737,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J73">
         <v>1.666</v>
@@ -6826,16 +6805,16 @@
         <v>6992707</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45236.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6844,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J74">
         <v>3.1</v>
@@ -6912,16 +6891,16 @@
         <v>6992325</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45236.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6930,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>1.833</v>
@@ -6998,16 +6977,16 @@
         <v>7295626</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45240.33333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7016,7 +6995,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J76">
         <v>2.875</v>
@@ -7084,16 +7063,16 @@
         <v>6992611</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45254.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7102,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7170,16 +7149,16 @@
         <v>6992617</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45254.375</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7188,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>1.25</v>
@@ -7256,16 +7235,16 @@
         <v>6992615</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45255.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7274,7 +7253,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -7342,16 +7321,16 @@
         <v>6992614</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45255.375</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7360,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J80">
         <v>2.25</v>
@@ -7428,16 +7407,16 @@
         <v>6992613</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7446,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7514,16 +7493,16 @@
         <v>6995902</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45256.3125</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7532,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J82">
         <v>1.909</v>
@@ -7600,16 +7579,16 @@
         <v>6992612</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45256.375</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7618,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>4.2</v>
@@ -7686,16 +7665,16 @@
         <v>6992616</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45257.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7704,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -7769,85 +7748,85 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6992623</v>
+        <v>6992620</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45261.375</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J85">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="K85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="N85">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O85">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q85">
+        <v>1.875</v>
+      </c>
+      <c r="R85">
         <v>1.925</v>
       </c>
-      <c r="R85">
-        <v>1.875</v>
-      </c>
       <c r="S85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7855,85 +7834,85 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6992620</v>
+        <v>6992623</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45261.375</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J86">
+        <v>1.7</v>
+      </c>
+      <c r="K86">
+        <v>3.75</v>
+      </c>
+      <c r="L86">
+        <v>4.2</v>
+      </c>
+      <c r="M86">
+        <v>1.7</v>
+      </c>
+      <c r="N86">
+        <v>3.75</v>
+      </c>
+      <c r="O86">
+        <v>4.333</v>
+      </c>
+      <c r="P86">
+        <v>-0.75</v>
+      </c>
+      <c r="Q86">
+        <v>1.925</v>
+      </c>
+      <c r="R86">
+        <v>1.875</v>
+      </c>
+      <c r="S86">
+        <v>2.5</v>
+      </c>
+      <c r="T86">
+        <v>1.85</v>
+      </c>
+      <c r="U86">
         <v>1.95</v>
       </c>
-      <c r="K86">
-        <v>3.5</v>
-      </c>
-      <c r="L86">
-        <v>3.4</v>
-      </c>
-      <c r="M86">
-        <v>2.1</v>
-      </c>
-      <c r="N86">
-        <v>3.4</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>-0.25</v>
-      </c>
-      <c r="Q86">
-        <v>1.875</v>
-      </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
-      <c r="S86">
-        <v>2.75</v>
-      </c>
-      <c r="T86">
-        <v>1.8</v>
-      </c>
-      <c r="U86">
-        <v>2</v>
-      </c>
       <c r="V86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z86">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7944,16 +7923,16 @@
         <v>6992622</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45262.33333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7962,7 +7941,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J87">
         <v>1.75</v>
@@ -8030,16 +8009,16 @@
         <v>6992326</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45262.375</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8048,7 +8027,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>1.666</v>
@@ -8116,16 +8095,16 @@
         <v>6992624</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F89" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8134,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -8202,16 +8181,16 @@
         <v>6992618</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45263.3125</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8220,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8288,16 +8267,16 @@
         <v>6992621</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8306,7 +8285,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8374,16 +8353,16 @@
         <v>6992619</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45263.375</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8392,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8460,16 +8439,16 @@
         <v>6992625</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8478,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J93">
         <v>1.25</v>
@@ -8546,16 +8525,16 @@
         <v>6992630</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45269.375</v>
       </c>
       <c r="E94" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8564,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J94">
         <v>1.25</v>
@@ -8632,16 +8611,16 @@
         <v>6992628</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8650,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J95">
         <v>1.85</v>
@@ -8718,16 +8697,16 @@
         <v>6992627</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45270.3125</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8736,7 +8715,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8804,16 +8783,16 @@
         <v>6992629</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8822,7 +8801,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J97">
         <v>3.25</v>
@@ -8890,16 +8869,16 @@
         <v>6992631</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45270.375</v>
       </c>
       <c r="E98" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8908,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8976,16 +8955,16 @@
         <v>6992327</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8994,7 +8973,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9062,16 +9041,16 @@
         <v>6992626</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45272.35416666666</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9080,7 +9059,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J100">
         <v>2.5</v>
@@ -9148,16 +9127,16 @@
         <v>6992637</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45275.375</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9166,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J101">
         <v>2.375</v>
@@ -9234,16 +9213,16 @@
         <v>6992633</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45276.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9252,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>4.75</v>
@@ -9320,16 +9299,16 @@
         <v>6992634</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9338,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J103">
         <v>2.25</v>
@@ -9406,16 +9385,16 @@
         <v>6992636</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45276.375</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9424,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9492,16 +9471,16 @@
         <v>6992632</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45276.41666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9510,7 +9489,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J105">
         <v>2.4</v>
@@ -9578,16 +9557,16 @@
         <v>6992328</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45277.3125</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9596,7 +9575,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J106">
         <v>2.15</v>
@@ -9664,16 +9643,16 @@
         <v>6992638</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45277.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9682,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J107">
         <v>2.7</v>
@@ -9750,16 +9729,16 @@
         <v>6992635</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45277.375</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9768,7 +9747,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J108">
         <v>6</v>
@@ -9836,16 +9815,16 @@
         <v>6992642</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45283.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9854,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J109">
         <v>2.15</v>
@@ -9922,16 +9901,16 @@
         <v>6992641</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45283.375</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9940,7 +9919,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J110">
         <v>1.75</v>
@@ -10008,16 +9987,16 @@
         <v>6992645</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45283.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -10026,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J111">
         <v>1.3</v>
@@ -10094,16 +10073,16 @@
         <v>6992639</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45284.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G112">
         <v>5</v>
@@ -10112,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J112">
         <v>1.75</v>
@@ -10180,16 +10159,16 @@
         <v>6992644</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45284.33333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10198,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>2.05</v>
@@ -10266,16 +10245,16 @@
         <v>6992329</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45284.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10284,7 +10263,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10352,16 +10331,16 @@
         <v>6992640</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45284.375</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10370,7 +10349,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10438,16 +10417,16 @@
         <v>7485126</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45288.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10456,7 +10435,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J116">
         <v>3.6</v>
@@ -10521,10 +10500,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7485127</v>
+        <v>7329293</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45288.375</v>
@@ -10533,73 +10512,73 @@
         <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J117">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="K117">
+        <v>3.5</v>
+      </c>
+      <c r="L117">
+        <v>1.85</v>
+      </c>
+      <c r="M117">
+        <v>4.5</v>
+      </c>
+      <c r="N117">
         <v>4</v>
       </c>
-      <c r="L117">
-        <v>5.75</v>
-      </c>
-      <c r="M117">
-        <v>1.363</v>
-      </c>
-      <c r="N117">
-        <v>4.5</v>
-      </c>
       <c r="O117">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="P117">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
         <v>3</v>
       </c>
       <c r="T117">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
         <v>0.95</v>
-      </c>
-      <c r="AA117">
-        <v>0.825</v>
-      </c>
-      <c r="AB117">
-        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10607,85 +10586,85 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7329293</v>
+        <v>7485127</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45288.375</v>
       </c>
       <c r="E118" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J118">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="K118">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L118">
+        <v>5.75</v>
+      </c>
+      <c r="M118">
+        <v>1.363</v>
+      </c>
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
+        <v>6.5</v>
+      </c>
+      <c r="P118">
+        <v>-1.25</v>
+      </c>
+      <c r="Q118">
         <v>1.85</v>
       </c>
-      <c r="M118">
-        <v>4.5</v>
-      </c>
-      <c r="N118">
-        <v>4</v>
-      </c>
-      <c r="O118">
-        <v>1.615</v>
-      </c>
-      <c r="P118">
-        <v>0.75</v>
-      </c>
-      <c r="Q118">
-        <v>1.975</v>
-      </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
         <v>3</v>
       </c>
       <c r="T118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10696,16 +10675,16 @@
         <v>7485128</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45297.375</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10714,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10782,16 +10761,16 @@
         <v>6992652</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45331.375</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10800,7 +10779,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J120">
         <v>3.1</v>
@@ -10868,16 +10847,16 @@
         <v>6992650</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10886,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10954,16 +10933,16 @@
         <v>6992646</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45332.375</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10972,7 +10951,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>3.6</v>
@@ -11040,16 +11019,16 @@
         <v>6992647</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11058,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J123">
         <v>2.2</v>
@@ -11126,16 +11105,16 @@
         <v>6992330</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45333.3125</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11144,7 +11123,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J124">
         <v>3.1</v>
@@ -11212,16 +11191,16 @@
         <v>6992651</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E125" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" t="s">
         <v>42</v>
-      </c>
-      <c r="F125" t="s">
-        <v>49</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11230,7 +11209,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11298,16 +11277,16 @@
         <v>6992649</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E126" t="s">
+        <v>34</v>
+      </c>
+      <c r="F126" t="s">
         <v>41</v>
-      </c>
-      <c r="F126" t="s">
-        <v>48</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11316,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11384,16 +11363,16 @@
         <v>6992648</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45333.375</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11402,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11470,16 +11449,16 @@
         <v>6992653</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11488,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11556,16 +11535,16 @@
         <v>6992656</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45335.375</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11574,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J129">
         <v>1.7</v>
@@ -11642,16 +11621,16 @@
         <v>6992659</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45336.33333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11660,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J130">
         <v>1.285</v>
@@ -11728,16 +11707,16 @@
         <v>6992331</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45336.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>4</v>
@@ -11746,7 +11725,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -11814,16 +11793,16 @@
         <v>6992657</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45336.375</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11832,7 +11811,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J132">
         <v>1.444</v>
@@ -11900,16 +11879,16 @@
         <v>6992655</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45337.33333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11918,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J133">
         <v>1.833</v>
@@ -11986,16 +11965,16 @@
         <v>6992654</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45337.375</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12004,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J134">
         <v>1.333</v>
@@ -12072,16 +12051,16 @@
         <v>6992662</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45339.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12090,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>5.5</v>
@@ -12158,16 +12137,16 @@
         <v>6992332</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12176,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J136">
         <v>2.6</v>
@@ -12244,16 +12223,16 @@
         <v>6992666</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45339.375</v>
       </c>
       <c r="E137" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12262,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>4</v>
@@ -12330,16 +12309,16 @@
         <v>6992665</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F138" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12348,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12416,16 +12395,16 @@
         <v>6992660</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45340.3125</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12434,7 +12413,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>4.75</v>
@@ -12502,16 +12481,16 @@
         <v>6992663</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45340.33333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12520,7 +12499,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J140">
         <v>2.75</v>
@@ -12588,16 +12567,16 @@
         <v>6992664</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45340.375</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12606,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>2</v>
@@ -12674,16 +12653,16 @@
         <v>6992661</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45341.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12692,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>2.1</v>
@@ -12760,16 +12739,16 @@
         <v>6992671</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45345.375</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12778,7 +12757,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>3.2</v>
@@ -12846,16 +12825,16 @@
         <v>6992333</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G144">
         <v>6</v>
@@ -12864,7 +12843,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J144">
         <v>1.166</v>
@@ -12932,16 +12911,16 @@
         <v>6992672</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12950,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -13018,16 +12997,16 @@
         <v>6992668</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45346.375</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13036,7 +13015,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J146">
         <v>1.2</v>
@@ -13104,16 +13083,16 @@
         <v>6992667</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13122,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13190,16 +13169,16 @@
         <v>6992669</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45347.3125</v>
       </c>
       <c r="E148" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13208,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J148">
         <v>1.75</v>
@@ -13276,16 +13255,16 @@
         <v>6992673</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45347.33333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13294,7 +13273,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13362,16 +13341,16 @@
         <v>6992670</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45347.375</v>
       </c>
       <c r="E150" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F150" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13380,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J150">
         <v>1.95</v>
@@ -13448,16 +13427,16 @@
         <v>6992676</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E151" t="s">
+        <v>30</v>
+      </c>
+      <c r="F151" t="s">
         <v>37</v>
-      </c>
-      <c r="F151" t="s">
-        <v>44</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13466,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J151">
         <v>4.5</v>
@@ -13534,16 +13513,16 @@
         <v>6992674</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E152" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13552,7 +13531,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J152">
         <v>2.15</v>
@@ -13620,16 +13599,16 @@
         <v>6992680</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45353.375</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13638,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13706,16 +13685,16 @@
         <v>6995901</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13724,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J154">
         <v>2.15</v>
@@ -13792,16 +13771,16 @@
         <v>6992678</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13810,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J155">
         <v>1.95</v>
@@ -13878,16 +13857,16 @@
         <v>6992675</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13896,7 +13875,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J156">
         <v>1.833</v>
@@ -13964,16 +13943,16 @@
         <v>6992679</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45354.375</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F157" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13982,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J157">
         <v>1.95</v>
@@ -14050,16 +14029,16 @@
         <v>6992677</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45355.35416666666</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14068,7 +14047,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J158">
         <v>2.875</v>
@@ -14136,16 +14115,16 @@
         <v>6992334</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45359.375</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14154,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J159">
         <v>1.533</v>
@@ -14222,16 +14201,16 @@
         <v>6992683</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14240,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J160">
         <v>5.5</v>
@@ -14308,16 +14287,16 @@
         <v>6992682</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45360.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G161">
         <v>7</v>
@@ -14326,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J161">
         <v>1.3</v>
@@ -14394,16 +14373,16 @@
         <v>6992686</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45360.375</v>
       </c>
       <c r="E162" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14412,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14480,16 +14459,16 @@
         <v>6992684</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14498,7 +14477,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J163">
         <v>1.4</v>
@@ -14566,16 +14545,16 @@
         <v>6992685</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14584,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J164">
         <v>2.05</v>
@@ -14652,16 +14631,16 @@
         <v>6992681</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F165" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14670,7 +14649,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14738,16 +14717,16 @@
         <v>6992687</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45361.375</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -14756,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14824,16 +14803,16 @@
         <v>6992690</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45381.33333333334</v>
       </c>
       <c r="E167" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14842,7 +14821,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J167">
         <v>2.3</v>
@@ -14910,25 +14889,25 @@
         <v>6992689</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E168" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
+        <v>37</v>
+      </c>
+      <c r="G168">
+        <v>2</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168" t="s">
         <v>44</v>
-      </c>
-      <c r="G168">
-        <v>2</v>
-      </c>
-      <c r="H168">
-        <v>2</v>
-      </c>
-      <c r="I168" t="s">
-        <v>51</v>
       </c>
       <c r="J168">
         <v>3.25</v>
@@ -14996,16 +14975,16 @@
         <v>6992691</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45381.375</v>
       </c>
       <c r="E169" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15014,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J169">
         <v>2.75</v>
@@ -15082,16 +15061,16 @@
         <v>6992694</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15100,7 +15079,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J170">
         <v>4</v>
@@ -15168,16 +15147,16 @@
         <v>6992693</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45382.3125</v>
       </c>
       <c r="E171" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15186,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J171">
         <v>1.4</v>
@@ -15254,16 +15233,16 @@
         <v>6992335</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -15272,7 +15251,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J172">
         <v>1.444</v>
@@ -15340,16 +15319,16 @@
         <v>6992692</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E173" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G173">
         <v>6</v>
@@ -15358,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J173">
         <v>1.444</v>
@@ -15426,16 +15405,16 @@
         <v>6992688</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45382.375</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15444,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J174">
         <v>2.7</v>
@@ -15512,16 +15491,16 @@
         <v>6992698</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45384.33333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15530,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15598,16 +15577,16 @@
         <v>6992700</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45384.375</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15616,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J176">
         <v>1.222</v>
@@ -15684,16 +15663,16 @@
         <v>6992696</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45385.33333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15702,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J177">
         <v>1.833</v>
@@ -15770,16 +15749,16 @@
         <v>6992336</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15788,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J178">
         <v>1.8</v>
@@ -15856,16 +15835,16 @@
         <v>8026714</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45385.375</v>
       </c>
       <c r="E179" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15874,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J179">
         <v>3</v>
@@ -15942,16 +15921,16 @@
         <v>6992695</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45385.375</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G180">
         <v>5</v>
@@ -15960,7 +15939,7 @@
         <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J180">
         <v>2.1</v>
@@ -16028,16 +16007,16 @@
         <v>6992701</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45386.33333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16046,7 +16025,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J181">
         <v>3.3</v>
@@ -16114,16 +16093,16 @@
         <v>6992699</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45386.375</v>
       </c>
       <c r="E182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F182" t="s">
         <v>35</v>
-      </c>
-      <c r="F182" t="s">
-        <v>42</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16132,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J182">
         <v>2.7</v>
@@ -16200,16 +16179,16 @@
         <v>6992703</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45388.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16218,7 +16197,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J183">
         <v>2.8</v>
@@ -16286,16 +16265,16 @@
         <v>6992608</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16304,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J184">
         <v>1.4</v>
@@ -16372,16 +16351,16 @@
         <v>6992706</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45388.375</v>
       </c>
       <c r="E185" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16390,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J185">
         <v>1.222</v>
@@ -16458,16 +16437,16 @@
         <v>6992705</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16476,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J186">
         <v>1.909</v>
@@ -16544,16 +16523,16 @@
         <v>6992337</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16562,7 +16541,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J187">
         <v>1.444</v>
@@ -16630,25 +16609,25 @@
         <v>6992704</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45389.33333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F188" t="s">
+        <v>37</v>
+      </c>
+      <c r="G188">
+        <v>2</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188" t="s">
         <v>44</v>
-      </c>
-      <c r="G188">
-        <v>2</v>
-      </c>
-      <c r="H188">
-        <v>2</v>
-      </c>
-      <c r="I188" t="s">
-        <v>51</v>
       </c>
       <c r="J188">
         <v>1.85</v>
@@ -16716,16 +16695,16 @@
         <v>6992702</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E189" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16734,7 +16713,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J189">
         <v>2</v>
@@ -16802,16 +16781,16 @@
         <v>6992708</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45389.375</v>
       </c>
       <c r="E190" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -16820,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J190">
         <v>1.85</v>
@@ -16888,16 +16867,16 @@
         <v>8075058</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45400.375</v>
       </c>
       <c r="E191" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16906,7 +16885,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J191">
         <v>1.363</v>
@@ -16974,16 +16953,16 @@
         <v>6992709</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45401.375</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F192" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16992,7 +16971,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J192">
         <v>1.363</v>
@@ -17060,16 +17039,16 @@
         <v>6992714</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E193" t="s">
+        <v>36</v>
+      </c>
+      <c r="F193" t="s">
         <v>43</v>
-      </c>
-      <c r="F193" t="s">
-        <v>50</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17078,7 +17057,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J193">
         <v>1.444</v>
@@ -17146,16 +17125,16 @@
         <v>6995900</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E194" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17164,7 +17143,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J194">
         <v>3.3</v>
@@ -17232,16 +17211,16 @@
         <v>6992713</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45402.375</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17250,7 +17229,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J195">
         <v>2.1</v>
@@ -17318,16 +17297,16 @@
         <v>6992710</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17336,7 +17315,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J196">
         <v>5.25</v>
@@ -17404,16 +17383,16 @@
         <v>6992712</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17422,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J197">
         <v>2</v>
@@ -17490,16 +17469,16 @@
         <v>6992711</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45403.33333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F198" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17508,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J198">
         <v>2.2</v>
@@ -17576,16 +17555,16 @@
         <v>6992715</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45403.375</v>
       </c>
       <c r="E199" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F199" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17594,7 +17573,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J199">
         <v>4.75</v>
@@ -17662,16 +17641,16 @@
         <v>6992716</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45409.33333333334</v>
       </c>
       <c r="E200" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -17680,7 +17659,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J200">
         <v>1.285</v>
@@ -17748,16 +17727,16 @@
         <v>6992721</v>
       </c>
       <c r="C201" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
         <v>45409.35416666666</v>
       </c>
       <c r="E201" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -17766,7 +17745,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J201">
         <v>1.65</v>
@@ -17834,16 +17813,16 @@
         <v>6992717</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
         <v>45409.375</v>
       </c>
       <c r="E202" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17852,7 +17831,7 @@
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J202">
         <v>2.3</v>
@@ -17920,16 +17899,16 @@
         <v>6992719</v>
       </c>
       <c r="C203" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
         <v>45409.41666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -17938,7 +17917,7 @@
         <v>3</v>
       </c>
       <c r="I203" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -18006,16 +17985,16 @@
         <v>6992718</v>
       </c>
       <c r="C204" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
         <v>45410.3125</v>
       </c>
       <c r="E204" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F204" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18024,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J204">
         <v>2.875</v>
@@ -18092,16 +18071,16 @@
         <v>6992338</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D205" s="2">
         <v>45410.33333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G205">
         <v>4</v>
@@ -18110,7 +18089,7 @@
         <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J205">
         <v>1.75</v>
@@ -18178,16 +18157,16 @@
         <v>6992720</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
         <v>45410.375</v>
       </c>
       <c r="E206" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18196,7 +18175,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J206">
         <v>1.571</v>
@@ -18264,16 +18243,16 @@
         <v>6992722</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D207" s="2">
         <v>45411.35416666666</v>
       </c>
       <c r="E207" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18282,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J207">
         <v>1.4</v>
@@ -18346,455 +18325,688 @@
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="s">
-        <v>27</v>
+      <c r="B208">
+        <v>6992727</v>
       </c>
       <c r="C208" t="s">
+        <v>27</v>
+      </c>
+      <c r="D208" s="2">
+        <v>45415.375</v>
+      </c>
+      <c r="E208" t="s">
+        <v>31</v>
+      </c>
+      <c r="F208" t="s">
         <v>34</v>
       </c>
-      <c r="D208" s="2">
-        <v>45416.33333333334</v>
-      </c>
-      <c r="E208" t="s">
-        <v>35</v>
-      </c>
-      <c r="F208" t="s">
-        <v>49</v>
+      <c r="G208">
+        <v>3</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208" t="s">
+        <v>46</v>
       </c>
       <c r="J208">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="K208">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="L208">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="N208">
+        <v>4.2</v>
+      </c>
+      <c r="O208">
         <v>4.5</v>
       </c>
-      <c r="O208">
-        <v>1.363</v>
-      </c>
       <c r="P208">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R208">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
         <v>3</v>
       </c>
       <c r="T208">
+        <v>1.75</v>
+      </c>
+      <c r="U208">
         <v>1.95</v>
       </c>
-      <c r="U208">
-        <v>1.85</v>
-      </c>
       <c r="V208">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>0.75</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28">
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209">
+        <v>6992726</v>
+      </c>
+      <c r="C209" t="s">
+        <v>27</v>
+      </c>
+      <c r="D209" s="2">
+        <v>45416.33333333334</v>
+      </c>
+      <c r="E209" t="s">
         <v>28</v>
       </c>
-      <c r="C209" t="s">
-        <v>34</v>
-      </c>
-      <c r="D209" s="2">
-        <v>45416.35416666666</v>
-      </c>
-      <c r="E209" t="s">
-        <v>36</v>
-      </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209" t="s">
+        <v>45</v>
       </c>
       <c r="J209">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="K209">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L209">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="M209">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N209">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="O209">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="P209">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q209">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R209">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S209">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T209">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:24">
+        <v>0.333</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA209">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="210" spans="1:28">
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210">
+        <v>6992339</v>
+      </c>
+      <c r="C210" t="s">
+        <v>27</v>
+      </c>
+      <c r="D210" s="2">
+        <v>45416.35416666666</v>
+      </c>
+      <c r="E210" t="s">
         <v>29</v>
       </c>
-      <c r="C210" t="s">
-        <v>34</v>
-      </c>
-      <c r="D210" s="2">
-        <v>45416.375</v>
-      </c>
-      <c r="E210" t="s">
-        <v>46</v>
-      </c>
       <c r="F210" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210" t="s">
+        <v>44</v>
       </c>
       <c r="J210">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="K210">
         <v>3.3</v>
       </c>
       <c r="L210">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="M210">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N210">
         <v>3.3</v>
       </c>
       <c r="O210">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P210">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q210">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R210">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S210">
         <v>2.75</v>
       </c>
       <c r="T210">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
+        <v>-1</v>
+      </c>
+      <c r="W210">
+        <v>2.3</v>
+      </c>
+      <c r="X210">
+        <v>-1</v>
+      </c>
+      <c r="Y210">
         <v>0</v>
       </c>
-      <c r="W210">
+      <c r="Z210">
         <v>0</v>
       </c>
-      <c r="X210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:24">
+      <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28">
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="s">
-        <v>30</v>
+      <c r="B211">
+        <v>6992729</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
-        <v>45416.41666666666</v>
+        <v>45416.375</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211" t="s">
+        <v>45</v>
       </c>
       <c r="J211">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="K211">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L211">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="M211">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="N211">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O211">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P211">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q211">
+        <v>1.825</v>
+      </c>
+      <c r="R211">
+        <v>1.975</v>
+      </c>
+      <c r="S211">
+        <v>2.75</v>
+      </c>
+      <c r="T211">
         <v>1.8</v>
       </c>
-      <c r="R211">
-        <v>2</v>
-      </c>
-      <c r="S211">
-        <v>3.25</v>
-      </c>
-      <c r="T211">
-        <v>2.025</v>
-      </c>
       <c r="U211">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28">
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="s">
-        <v>31</v>
+      <c r="B212">
+        <v>6992723</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D212" s="2">
-        <v>45417.3125</v>
+        <v>45416.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F212" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="G212">
+        <v>5</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212" t="s">
+        <v>46</v>
       </c>
       <c r="J212">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="K212">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L212">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N212">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O212">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="P212">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q212">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R212">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
         <v>3</v>
       </c>
       <c r="T212">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z212">
+        <v>-1</v>
+      </c>
+      <c r="AA212">
+        <v>0.925</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:28">
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="s">
-        <v>32</v>
+      <c r="B213">
+        <v>6992725</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D213" s="2">
-        <v>45417.33333333334</v>
+        <v>45417.3125</v>
       </c>
       <c r="E213" t="s">
+        <v>30</v>
+      </c>
+      <c r="F213" t="s">
+        <v>38</v>
+      </c>
+      <c r="G213">
+        <v>2</v>
+      </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+      <c r="I213" t="s">
         <v>44</v>
       </c>
-      <c r="F213" t="s">
-        <v>50</v>
-      </c>
       <c r="J213">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="K213">
+        <v>4.5</v>
+      </c>
+      <c r="L213">
+        <v>1.45</v>
+      </c>
+      <c r="M213">
+        <v>4.75</v>
+      </c>
+      <c r="N213">
         <v>4.333</v>
       </c>
-      <c r="L213">
-        <v>5.25</v>
-      </c>
-      <c r="M213">
+      <c r="O213">
         <v>1.5</v>
       </c>
-      <c r="N213">
-        <v>4.2</v>
-      </c>
-      <c r="O213">
-        <v>4.75</v>
-      </c>
       <c r="P213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q213">
+        <v>2</v>
+      </c>
+      <c r="R213">
         <v>1.8</v>
       </c>
-      <c r="R213">
-        <v>2</v>
-      </c>
       <c r="S213">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T213">
         <v>1.95</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W213">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="X213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>1</v>
+      </c>
+      <c r="Z213">
+        <v>-1</v>
+      </c>
+      <c r="AA213">
+        <v>0.95</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28">
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
-        <v>33</v>
+      <c r="B214">
+        <v>6992724</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D214" s="2">
+        <v>45417.33333333334</v>
+      </c>
+      <c r="E214" t="s">
+        <v>37</v>
+      </c>
+      <c r="F214" t="s">
+        <v>43</v>
+      </c>
+      <c r="G214">
+        <v>2</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214" t="s">
+        <v>46</v>
+      </c>
+      <c r="J214">
+        <v>1.444</v>
+      </c>
+      <c r="K214">
+        <v>4.333</v>
+      </c>
+      <c r="L214">
+        <v>5.25</v>
+      </c>
+      <c r="M214">
+        <v>1.45</v>
+      </c>
+      <c r="N214">
+        <v>4.333</v>
+      </c>
+      <c r="O214">
+        <v>5</v>
+      </c>
+      <c r="P214">
+        <v>-1.25</v>
+      </c>
+      <c r="Q214">
+        <v>1.975</v>
+      </c>
+      <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
+        <v>3.25</v>
+      </c>
+      <c r="T214">
+        <v>1.825</v>
+      </c>
+      <c r="U214">
+        <v>1.975</v>
+      </c>
+      <c r="V214">
+        <v>0.45</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:28">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6992728</v>
+      </c>
+      <c r="C215" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215" s="2">
         <v>45417.375</v>
       </c>
-      <c r="E214" t="s">
-        <v>39</v>
-      </c>
-      <c r="F214" t="s">
-        <v>42</v>
-      </c>
-      <c r="J214">
+      <c r="E215" t="s">
+        <v>32</v>
+      </c>
+      <c r="F215" t="s">
+        <v>35</v>
+      </c>
+      <c r="G215">
+        <v>2</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215" t="s">
+        <v>46</v>
+      </c>
+      <c r="J215">
         <v>2.05</v>
       </c>
-      <c r="K214">
+      <c r="K215">
         <v>3.25</v>
       </c>
-      <c r="L214">
+      <c r="L215">
         <v>3.1</v>
       </c>
-      <c r="M214">
-        <v>2.05</v>
-      </c>
-      <c r="N214">
-        <v>3.25</v>
-      </c>
-      <c r="O214">
-        <v>3.1</v>
-      </c>
-      <c r="P214">
-        <v>-0.25</v>
-      </c>
-      <c r="Q214">
+      <c r="M215">
+        <v>1.95</v>
+      </c>
+      <c r="N215">
+        <v>3.2</v>
+      </c>
+      <c r="O215">
+        <v>3.4</v>
+      </c>
+      <c r="P215">
+        <v>-0.5</v>
+      </c>
+      <c r="Q215">
+        <v>2</v>
+      </c>
+      <c r="R215">
         <v>1.8</v>
       </c>
-      <c r="R214">
-        <v>2</v>
-      </c>
-      <c r="S214">
+      <c r="S215">
         <v>2.5</v>
       </c>
-      <c r="T214">
-        <v>1.85</v>
-      </c>
-      <c r="U214">
-        <v>1.95</v>
-      </c>
-      <c r="V214">
-        <v>0</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
+      <c r="T215">
+        <v>1.9</v>
+      </c>
+      <c r="U215">
+        <v>1.9</v>
+      </c>
+      <c r="V215">
+        <v>0.95</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>1</v>
+      </c>
+      <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Thailand Premier League/Thailand Premier League.xlsx
+++ b/Thailand Premier League/Thailand Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>6992735</t>
+  </si>
+  <si>
+    <t>6992732</t>
+  </si>
+  <si>
+    <t>6992736</t>
+  </si>
+  <si>
+    <t>6992340</t>
+  </si>
+  <si>
+    <t>6992731</t>
+  </si>
+  <si>
+    <t>6992730</t>
+  </si>
+  <si>
+    <t>6992734</t>
+  </si>
+  <si>
+    <t>6992733</t>
   </si>
   <si>
     <t>Thailand Premier League</t>
@@ -516,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB215"/>
+  <dimension ref="A1:AB223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +637,16 @@
         <v>6992541</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>45149.375</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -631,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>4.333</v>
@@ -699,16 +723,16 @@
         <v>6992317</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45149.39583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -717,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>3.6</v>
@@ -785,16 +809,16 @@
         <v>6992544</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>45150.33333333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -803,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -871,16 +895,16 @@
         <v>6992543</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>45150.375</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -889,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -957,16 +981,16 @@
         <v>6992542</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>45151.3125</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -975,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1043,16 +1067,16 @@
         <v>6992545</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>45151.33333333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1061,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1129,16 +1153,16 @@
         <v>6992546</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>45151.375</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1147,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -1215,16 +1239,16 @@
         <v>6992547</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>45152.375</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1233,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1301,16 +1325,16 @@
         <v>6992552</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>45156.375</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1319,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <v>1.75</v>
@@ -1387,16 +1411,16 @@
         <v>6992318</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>45156.41666666666</v>
       </c>
       <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1405,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J11">
         <v>1.533</v>
@@ -1473,16 +1497,16 @@
         <v>6992548</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1491,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1559,16 +1583,16 @@
         <v>6992549</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>45157.375</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1577,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>1.833</v>
@@ -1645,16 +1669,16 @@
         <v>6992551</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1663,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1731,16 +1755,16 @@
         <v>6992554</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1749,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J15">
         <v>1.8</v>
@@ -1817,16 +1841,16 @@
         <v>6992550</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1835,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>1.166</v>
@@ -1903,16 +1927,16 @@
         <v>6992553</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>45159.35416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1921,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -1989,16 +2013,16 @@
         <v>6992558</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>45163.375</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2007,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>3.75</v>
@@ -2075,16 +2099,16 @@
         <v>6992561</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2093,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>5.5</v>
@@ -2161,16 +2185,16 @@
         <v>6992555</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>45164.375</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2179,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>4.75</v>
@@ -2247,16 +2271,16 @@
         <v>6992319</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2265,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <v>2.3</v>
@@ -2333,16 +2357,16 @@
         <v>6992557</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>45165.33333333334</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2351,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2419,16 +2443,16 @@
         <v>6992560</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>45165.375</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2437,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J23">
         <v>1.8</v>
@@ -2505,16 +2529,16 @@
         <v>6992559</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>45166.35416666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2523,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2591,16 +2615,16 @@
         <v>6992556</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>45166.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2609,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>2.2</v>
@@ -2677,16 +2701,16 @@
         <v>6992568</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>45184.375</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>42</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2695,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>1.25</v>
@@ -2763,16 +2787,16 @@
         <v>6992567</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>45184.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2781,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J27">
         <v>1.4</v>
@@ -2849,16 +2873,16 @@
         <v>6992565</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>45185.33333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -2867,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2935,16 +2959,16 @@
         <v>6992320</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>45185.375</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -2953,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>1.8</v>
@@ -3021,16 +3045,16 @@
         <v>6992564</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3039,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J30">
         <v>1.727</v>
@@ -3107,16 +3131,16 @@
         <v>6992566</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>45186.33333333334</v>
       </c>
       <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
         <v>43</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3125,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J31">
         <v>1.615</v>
@@ -3193,16 +3217,16 @@
         <v>6992563</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>45186.375</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3211,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3279,16 +3303,16 @@
         <v>6992562</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
         <v>45187.35416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3297,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J33">
         <v>2.375</v>
@@ -3365,16 +3389,16 @@
         <v>6992571</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>45191.375</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3383,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3451,16 +3475,16 @@
         <v>6992573</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3469,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3537,16 +3561,16 @@
         <v>6992569</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3555,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J36">
         <v>2.75</v>
@@ -3623,16 +3647,16 @@
         <v>6992570</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>45193.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3641,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J37">
         <v>3.1</v>
@@ -3709,16 +3733,16 @@
         <v>6992572</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>45193.375</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3727,7 +3751,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J38">
         <v>2.625</v>
@@ -3795,16 +3819,16 @@
         <v>6992321</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2">
         <v>45194.35416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3813,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J39">
         <v>5.75</v>
@@ -3881,16 +3905,16 @@
         <v>6992574</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
         <v>45194.41666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3899,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3967,16 +3991,16 @@
         <v>6992579</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>45198.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3985,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J41">
         <v>1.533</v>
@@ -4053,16 +4077,16 @@
         <v>6992576</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -4071,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J42">
         <v>1.533</v>
@@ -4139,16 +4163,16 @@
         <v>6992582</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>45199.375</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4157,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4225,16 +4249,16 @@
         <v>6992581</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4243,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4311,16 +4335,16 @@
         <v>6995903</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
         <v>45200.3125</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4329,7 +4353,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J45">
         <v>2.45</v>
@@ -4397,16 +4421,16 @@
         <v>6992577</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>45200.375</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4415,7 +4439,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J46">
         <v>1.533</v>
@@ -4483,16 +4507,16 @@
         <v>6992580</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2">
         <v>45201.35416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4501,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4569,16 +4593,16 @@
         <v>6992587</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>45205.375</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4587,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4655,16 +4679,16 @@
         <v>6992583</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>45205.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4673,7 +4697,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>4.5</v>
@@ -4741,16 +4765,16 @@
         <v>6992586</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4759,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J50">
         <v>2.6</v>
@@ -4827,16 +4851,16 @@
         <v>6992322</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>45206.375</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4845,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J51">
         <v>2.2</v>
@@ -4913,16 +4937,16 @@
         <v>6992588</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -4931,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J52">
         <v>2.2</v>
@@ -4999,16 +5023,16 @@
         <v>6992585</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5017,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J53">
         <v>2.75</v>
@@ -5085,16 +5109,16 @@
         <v>6992584</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2">
         <v>45207.33333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5103,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J54">
         <v>1.4</v>
@@ -5171,16 +5195,16 @@
         <v>6992589</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2">
         <v>45207.375</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5189,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5257,16 +5281,16 @@
         <v>6992591</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2">
         <v>45219.33333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5275,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J56">
         <v>4.75</v>
@@ -5343,16 +5367,16 @@
         <v>6992596</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2">
         <v>45219.375</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5361,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J57">
         <v>1.571</v>
@@ -5429,16 +5453,16 @@
         <v>6992593</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -5447,7 +5471,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5515,16 +5539,16 @@
         <v>6992592</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2">
         <v>45220.375</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5533,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <v>1.615</v>
@@ -5601,16 +5625,16 @@
         <v>6992595</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5619,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -5687,16 +5711,16 @@
         <v>6992594</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>45221.375</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5705,7 +5729,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <v>1.285</v>
@@ -5773,16 +5797,16 @@
         <v>6992324</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
         <v>45226.375</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5791,7 +5815,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -5859,16 +5883,16 @@
         <v>6992603</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2">
         <v>45226.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5877,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J63">
         <v>5.5</v>
@@ -5945,16 +5969,16 @@
         <v>6992602</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5963,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6031,16 +6055,16 @@
         <v>6992599</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2">
         <v>45227.375</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6049,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6117,16 +6141,16 @@
         <v>6992597</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6135,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J66">
         <v>3.75</v>
@@ -6203,16 +6227,16 @@
         <v>6992600</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <v>45228.3125</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6221,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J67">
         <v>1.95</v>
@@ -6289,16 +6313,16 @@
         <v>6992601</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6307,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J68">
         <v>1.666</v>
@@ -6375,16 +6399,16 @@
         <v>6992598</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2">
         <v>45228.375</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6393,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J69">
         <v>1.5</v>
@@ -6461,16 +6485,16 @@
         <v>6992606</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2">
         <v>45234.33333333334</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6479,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J70">
         <v>2.55</v>
@@ -6547,16 +6571,16 @@
         <v>6992604</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2">
         <v>45234.375</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6565,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J71">
         <v>2.4</v>
@@ -6633,16 +6657,16 @@
         <v>6992610</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <v>45235.3125</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6651,7 +6675,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J72">
         <v>1.727</v>
@@ -6719,16 +6743,16 @@
         <v>6992605</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2">
         <v>45235.375</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6737,7 +6761,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>1.666</v>
@@ -6805,16 +6829,16 @@
         <v>6992707</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>45236.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6823,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J74">
         <v>3.1</v>
@@ -6891,16 +6915,16 @@
         <v>6992325</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2">
         <v>45236.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6909,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>1.833</v>
@@ -6977,16 +7001,16 @@
         <v>7295626</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2">
         <v>45240.33333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -6995,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J76">
         <v>2.875</v>
@@ -7063,16 +7087,16 @@
         <v>6992611</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>45254.33333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7081,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7149,16 +7173,16 @@
         <v>6992617</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
         <v>45254.375</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7167,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J78">
         <v>1.25</v>
@@ -7235,16 +7259,16 @@
         <v>6992615</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>45255.33333333334</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7253,7 +7277,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -7321,16 +7345,16 @@
         <v>6992614</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2">
         <v>45255.375</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7339,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>2.25</v>
@@ -7407,16 +7431,16 @@
         <v>6992613</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7425,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J81">
         <v>2.75</v>
@@ -7493,16 +7517,16 @@
         <v>6995902</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2">
         <v>45256.3125</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7511,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J82">
         <v>1.909</v>
@@ -7579,16 +7603,16 @@
         <v>6992612</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2">
         <v>45256.375</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7597,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J83">
         <v>4.2</v>
@@ -7665,16 +7689,16 @@
         <v>6992616</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2">
         <v>45257.35416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7683,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -7751,16 +7775,16 @@
         <v>6992620</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2">
         <v>45261.375</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7769,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J85">
         <v>1.95</v>
@@ -7837,16 +7861,16 @@
         <v>6992623</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2">
         <v>45261.375</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7855,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J86">
         <v>1.7</v>
@@ -7923,16 +7947,16 @@
         <v>6992622</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2">
         <v>45262.33333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7941,7 +7965,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>1.75</v>
@@ -8009,16 +8033,16 @@
         <v>6992326</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2">
         <v>45262.375</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8027,7 +8051,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J88">
         <v>1.666</v>
@@ -8095,16 +8119,16 @@
         <v>6992624</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8113,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -8181,16 +8205,16 @@
         <v>6992618</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2">
         <v>45263.3125</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8199,7 +8223,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J90">
         <v>2.4</v>
@@ -8267,16 +8291,16 @@
         <v>6992621</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8285,7 +8309,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8353,16 +8377,16 @@
         <v>6992619</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2">
         <v>45263.375</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8371,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J92">
         <v>3.6</v>
@@ -8439,16 +8463,16 @@
         <v>6992625</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2">
         <v>45269.33333333334</v>
       </c>
       <c r="E93" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" t="s">
         <v>38</v>
-      </c>
-      <c r="F93" t="s">
-        <v>30</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -8457,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J93">
         <v>1.25</v>
@@ -8525,16 +8549,16 @@
         <v>6992630</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2">
         <v>45269.375</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -8543,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>1.25</v>
@@ -8611,16 +8635,16 @@
         <v>6992628</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8629,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J95">
         <v>1.85</v>
@@ -8697,16 +8721,16 @@
         <v>6992627</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2">
         <v>45270.3125</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8715,7 +8739,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8783,16 +8807,16 @@
         <v>6992629</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2">
         <v>45270.33333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8801,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J97">
         <v>3.25</v>
@@ -8869,16 +8893,16 @@
         <v>6992631</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2">
         <v>45270.375</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8887,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8955,16 +8979,16 @@
         <v>6992327</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8973,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9041,16 +9065,16 @@
         <v>6992626</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2">
         <v>45272.35416666666</v>
       </c>
       <c r="E100" t="s">
+        <v>49</v>
+      </c>
+      <c r="F100" t="s">
         <v>41</v>
-      </c>
-      <c r="F100" t="s">
-        <v>33</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9059,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <v>2.5</v>
@@ -9127,16 +9151,16 @@
         <v>6992637</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2">
         <v>45275.375</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9145,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J101">
         <v>2.375</v>
@@ -9213,16 +9237,16 @@
         <v>6992633</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2">
         <v>45276.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9231,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J102">
         <v>4.75</v>
@@ -9299,16 +9323,16 @@
         <v>6992634</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2">
         <v>45276.35416666666</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9317,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J103">
         <v>2.25</v>
@@ -9385,16 +9409,16 @@
         <v>6992636</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2">
         <v>45276.375</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9403,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>2.15</v>
@@ -9471,16 +9495,16 @@
         <v>6992632</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D105" s="2">
         <v>45276.41666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9489,7 +9513,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>2.4</v>
@@ -9557,16 +9581,16 @@
         <v>6992328</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2">
         <v>45277.3125</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9575,7 +9599,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>2.15</v>
@@ -9643,16 +9667,16 @@
         <v>6992638</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2">
         <v>45277.33333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G107">
         <v>4</v>
@@ -9661,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J107">
         <v>2.7</v>
@@ -9729,16 +9753,16 @@
         <v>6992635</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2">
         <v>45277.375</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9747,7 +9771,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>6</v>
@@ -9815,16 +9839,16 @@
         <v>6992642</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D109" s="2">
         <v>45283.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9833,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J109">
         <v>2.15</v>
@@ -9901,16 +9925,16 @@
         <v>6992641</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D110" s="2">
         <v>45283.375</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9919,7 +9943,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>1.75</v>
@@ -9987,16 +10011,16 @@
         <v>6992645</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2">
         <v>45283.41666666666</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -10005,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J111">
         <v>1.3</v>
@@ -10073,16 +10097,16 @@
         <v>6992639</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2">
         <v>45284.3125</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G112">
         <v>5</v>
@@ -10091,7 +10115,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J112">
         <v>1.75</v>
@@ -10159,16 +10183,16 @@
         <v>6992644</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2">
         <v>45284.33333333334</v>
       </c>
       <c r="E113" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" t="s">
         <v>40</v>
-      </c>
-      <c r="F113" t="s">
-        <v>32</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10177,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J113">
         <v>2.05</v>
@@ -10245,16 +10269,16 @@
         <v>6992329</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D114" s="2">
         <v>45284.35416666666</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10263,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J114">
         <v>1.3</v>
@@ -10331,16 +10355,16 @@
         <v>6992640</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D115" s="2">
         <v>45284.375</v>
       </c>
       <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
         <v>36</v>
-      </c>
-      <c r="F115" t="s">
-        <v>28</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10349,7 +10373,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10417,16 +10441,16 @@
         <v>7485126</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D116" s="2">
         <v>45288.33333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10435,7 +10459,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>3.6</v>
@@ -10503,16 +10527,16 @@
         <v>7329293</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2">
         <v>45288.375</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10521,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J117">
         <v>3.6</v>
@@ -10589,16 +10613,16 @@
         <v>7485127</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D118" s="2">
         <v>45288.375</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10607,7 +10631,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J118">
         <v>1.5</v>
@@ -10675,16 +10699,16 @@
         <v>7485128</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>45297.375</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10693,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>2.15</v>
@@ -10761,16 +10785,16 @@
         <v>6992652</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2">
         <v>45331.375</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10779,7 +10803,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J120">
         <v>3.1</v>
@@ -10847,16 +10871,16 @@
         <v>6992650</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2">
         <v>45332.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10865,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10933,16 +10957,16 @@
         <v>6992646</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>45332.375</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10951,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J122">
         <v>3.6</v>
@@ -11019,16 +11043,16 @@
         <v>6992647</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>45332.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11037,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>2.2</v>
@@ -11105,16 +11129,16 @@
         <v>6992330</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>45333.3125</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11123,7 +11147,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J124">
         <v>3.1</v>
@@ -11191,16 +11215,16 @@
         <v>6992651</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>45333.33333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11209,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11277,16 +11301,16 @@
         <v>6992649</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D126" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11295,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J126">
         <v>2.2</v>
@@ -11363,16 +11387,16 @@
         <v>6992648</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D127" s="2">
         <v>45333.375</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11381,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11449,16 +11473,16 @@
         <v>6992653</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D128" s="2">
         <v>45335.33333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11467,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J128">
         <v>2.625</v>
@@ -11535,16 +11559,16 @@
         <v>6992656</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2">
         <v>45335.375</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11553,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J129">
         <v>1.7</v>
@@ -11621,16 +11645,16 @@
         <v>6992659</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
         <v>45336.33333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11639,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J130">
         <v>1.285</v>
@@ -11707,16 +11731,16 @@
         <v>6992331</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
         <v>45336.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G131">
         <v>4</v>
@@ -11725,7 +11749,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -11793,16 +11817,16 @@
         <v>6992657</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
         <v>45336.375</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11811,7 +11835,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J132">
         <v>1.444</v>
@@ -11879,16 +11903,16 @@
         <v>6992655</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
         <v>45337.33333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -11897,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J133">
         <v>1.833</v>
@@ -11965,16 +11989,16 @@
         <v>6992654</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>45337.375</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11983,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J134">
         <v>1.333</v>
@@ -12051,16 +12075,16 @@
         <v>6992662</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>45339.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12069,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J135">
         <v>5.5</v>
@@ -12137,16 +12161,16 @@
         <v>6992332</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
         <v>45339.35416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12155,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J136">
         <v>2.6</v>
@@ -12223,16 +12247,16 @@
         <v>6992666</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
         <v>45339.375</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12241,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J137">
         <v>4</v>
@@ -12309,16 +12333,16 @@
         <v>6992665</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12327,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12395,16 +12419,16 @@
         <v>6992660</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>45340.3125</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12413,7 +12437,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J139">
         <v>4.75</v>
@@ -12481,16 +12505,16 @@
         <v>6992663</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>45340.33333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12499,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>2.75</v>
@@ -12567,16 +12591,16 @@
         <v>6992664</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2">
         <v>45340.375</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12585,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J141">
         <v>2</v>
@@ -12653,16 +12677,16 @@
         <v>6992661</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2">
         <v>45341.35416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12671,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J142">
         <v>2.1</v>
@@ -12739,16 +12763,16 @@
         <v>6992671</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2">
         <v>45345.375</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12757,7 +12781,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J143">
         <v>3.2</v>
@@ -12825,16 +12849,16 @@
         <v>6992333</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2">
         <v>45346.33333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>6</v>
@@ -12843,7 +12867,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J144">
         <v>1.166</v>
@@ -12911,16 +12935,16 @@
         <v>6992672</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D145" s="2">
         <v>45346.35416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12929,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -12997,16 +13021,16 @@
         <v>6992668</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2">
         <v>45346.375</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13015,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>1.2</v>
@@ -13083,16 +13107,16 @@
         <v>6992667</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D147" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13101,7 +13125,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13169,16 +13193,16 @@
         <v>6992669</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D148" s="2">
         <v>45347.3125</v>
       </c>
       <c r="E148" t="s">
+        <v>47</v>
+      </c>
+      <c r="F148" t="s">
         <v>39</v>
-      </c>
-      <c r="F148" t="s">
-        <v>31</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13187,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>1.75</v>
@@ -13255,16 +13279,16 @@
         <v>6992673</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D149" s="2">
         <v>45347.33333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13273,7 +13297,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13341,16 +13365,16 @@
         <v>6992670</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D150" s="2">
         <v>45347.375</v>
       </c>
       <c r="E150" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13359,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J150">
         <v>1.95</v>
@@ -13427,16 +13451,16 @@
         <v>6992676</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D151" s="2">
         <v>45353.33333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13445,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J151">
         <v>4.5</v>
@@ -13513,16 +13537,16 @@
         <v>6992674</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D152" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13531,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J152">
         <v>2.15</v>
@@ -13599,16 +13623,16 @@
         <v>6992680</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D153" s="2">
         <v>45353.375</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13617,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13685,16 +13709,16 @@
         <v>6995901</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D154" s="2">
         <v>45353.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13703,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J154">
         <v>2.15</v>
@@ -13771,16 +13795,16 @@
         <v>6992678</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D155" s="2">
         <v>45354.3125</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13789,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J155">
         <v>1.95</v>
@@ -13857,16 +13881,16 @@
         <v>6992675</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2">
         <v>45354.33333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13875,7 +13899,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J156">
         <v>1.833</v>
@@ -13943,16 +13967,16 @@
         <v>6992679</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D157" s="2">
         <v>45354.375</v>
       </c>
       <c r="E157" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13961,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J157">
         <v>1.95</v>
@@ -14029,16 +14053,16 @@
         <v>6992677</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2">
         <v>45355.35416666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14047,7 +14071,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J158">
         <v>2.875</v>
@@ -14115,16 +14139,16 @@
         <v>6992334</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D159" s="2">
         <v>45359.375</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14133,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J159">
         <v>1.533</v>
@@ -14201,16 +14225,16 @@
         <v>6992683</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D160" s="2">
         <v>45360.33333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14219,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J160">
         <v>5.5</v>
@@ -14287,16 +14311,16 @@
         <v>6992682</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D161" s="2">
         <v>45360.35416666666</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G161">
         <v>7</v>
@@ -14305,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J161">
         <v>1.3</v>
@@ -14373,16 +14397,16 @@
         <v>6992686</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
         <v>45360.375</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14391,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14459,16 +14483,16 @@
         <v>6992684</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D163" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14477,7 +14501,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J163">
         <v>1.4</v>
@@ -14545,16 +14569,16 @@
         <v>6992685</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D164" s="2">
         <v>45361.3125</v>
       </c>
       <c r="E164" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14563,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J164">
         <v>2.05</v>
@@ -14631,16 +14655,16 @@
         <v>6992681</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D165" s="2">
         <v>45361.33333333334</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14649,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14717,16 +14741,16 @@
         <v>6992687</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D166" s="2">
         <v>45361.375</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -14735,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14803,16 +14827,16 @@
         <v>6992690</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2">
         <v>45381.33333333334</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14821,7 +14845,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J167">
         <v>2.3</v>
@@ -14889,16 +14913,16 @@
         <v>6992689</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D168" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14907,7 +14931,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J168">
         <v>3.25</v>
@@ -14975,16 +14999,16 @@
         <v>6992691</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D169" s="2">
         <v>45381.375</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -14993,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J169">
         <v>2.75</v>
@@ -15061,16 +15085,16 @@
         <v>6992694</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D170" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15079,7 +15103,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J170">
         <v>4</v>
@@ -15147,16 +15171,16 @@
         <v>6992693</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D171" s="2">
         <v>45382.3125</v>
       </c>
       <c r="E171" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15165,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>1.4</v>
@@ -15233,16 +15257,16 @@
         <v>6992335</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D172" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -15251,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J172">
         <v>1.444</v>
@@ -15319,16 +15343,16 @@
         <v>6992692</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D173" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E173" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G173">
         <v>6</v>
@@ -15337,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J173">
         <v>1.444</v>
@@ -15405,16 +15429,16 @@
         <v>6992688</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D174" s="2">
         <v>45382.375</v>
       </c>
       <c r="E174" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15423,7 +15447,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J174">
         <v>2.7</v>
@@ -15491,16 +15515,16 @@
         <v>6992698</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D175" s="2">
         <v>45384.33333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15509,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15577,16 +15601,16 @@
         <v>6992700</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D176" s="2">
         <v>45384.375</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15595,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>1.222</v>
@@ -15663,16 +15687,16 @@
         <v>6992696</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D177" s="2">
         <v>45385.33333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15681,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J177">
         <v>1.833</v>
@@ -15749,16 +15773,16 @@
         <v>6992336</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D178" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E178" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15767,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J178">
         <v>1.8</v>
@@ -15835,16 +15859,16 @@
         <v>8026714</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D179" s="2">
         <v>45385.375</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15853,7 +15877,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J179">
         <v>3</v>
@@ -15921,16 +15945,16 @@
         <v>6992695</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2">
         <v>45385.375</v>
       </c>
       <c r="E180" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G180">
         <v>5</v>
@@ -15939,7 +15963,7 @@
         <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J180">
         <v>2.1</v>
@@ -16007,16 +16031,16 @@
         <v>6992701</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D181" s="2">
         <v>45386.33333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16025,7 +16049,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J181">
         <v>3.3</v>
@@ -16093,16 +16117,16 @@
         <v>6992699</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D182" s="2">
         <v>45386.375</v>
       </c>
       <c r="E182" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16111,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J182">
         <v>2.7</v>
@@ -16179,16 +16203,16 @@
         <v>6992703</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D183" s="2">
         <v>45388.33333333334</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16197,7 +16221,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J183">
         <v>2.8</v>
@@ -16265,16 +16289,16 @@
         <v>6992608</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D184" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16283,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J184">
         <v>1.4</v>
@@ -16351,16 +16375,16 @@
         <v>6992706</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D185" s="2">
         <v>45388.375</v>
       </c>
       <c r="E185" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16369,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J185">
         <v>1.222</v>
@@ -16437,16 +16461,16 @@
         <v>6992705</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D186" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -16455,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J186">
         <v>1.909</v>
@@ -16523,16 +16547,16 @@
         <v>6992337</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D187" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E187" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16541,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J187">
         <v>1.444</v>
@@ -16609,16 +16633,16 @@
         <v>6992704</v>
       </c>
       <c r="C188" t="s">
-